--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -8272,9 +8272,6 @@
     <t>[In Client Versions] [Client version "12.00.0000.000"] The client supports topologies that do not have public folders available.</t>
   </si>
   <si>
-    <t>[In Client Versions] [Client version "12.00.0000.000"] For client versions earlier than 12.00.0000.000, the server MUST fail the EcDoConnectEx method call with ecClientVerDisallowed if the EcDoConnectEx method parameter flag 0x00008000 is not passed in the ulFlags parameter.</t>
-  </si>
-  <si>
     <t>[In Client Versions] [Client version "12.00.0000.000"] For client versions earlier than 12.00.0000.000, the server MUST not fail the EcDoConnectEx method call with ecClientVerDisallowed if the EcDoConnectEx method parameter flag 0x00008000 is passed in the ulFlags parameter.</t>
   </si>
   <si>
@@ -8752,9 +8749,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return the AUX_EXORGINFO block in the rgbAuxOut buffer on the EcDoConnectEx call. (Microsoft Exchange Server 2007 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does fail with error code ecRpcFailed (0x80040115) if the value in pcbOut on input is less than 0x00000008. (Microsoft Exchange Server 2010 and above follow this behavior).</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does fail with ecRpcFormat (0x000004B6) if the output buffer is less than 0x00008007. (Microsoft Exchange Server 2007 follows this behavior).</t>
   </si>
   <si>
@@ -9313,9 +9307,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does fail with error code ecRpcFormat if the request buffer is larger than 0x00008007 bytes in size. &lt;19&gt; Section 3.1.4.2: Exchange 2007 and 2010 will fail with error code ecRpcFormat (0x000004B6) if the request buffer is larger than 0x00008007 bytes in size.</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does fail with the RPC status code of RPC_X_BAD_STUB_DATA (0x000006F7) if the request buffer is larger than 0x00040000 bytes in size. (Microsoft Exchange Server 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>MS-OXCRPC_R2001</t>
   </si>
   <si>
@@ -9533,6 +9524,15 @@
   </si>
   <si>
     <t>[In EcDoConnectEx Method (Opnum 10)] [ulConMod] The server determines which public folder replica to use when accessing public folder information when more than one replica of a folder exists.</t>
+  </si>
+  <si>
+    <t>[In Client Versions] [Client version "12.00.0000.000"] For client versions earlier than 12.00.0000.000, the server MUST fail the EcDoConnectEx method call with ecClientVerDisallowed when no public folders are configured within the messaging system if the EcDoConnectEx method parameter flag 0x00008000 is not passed in the ulFlags parameter.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does fail with error code ecRpcFailed (0x80040115) if the value in pcbOut on input is less than 0x00000008. (Microsoft Exchange Server 2010 follows this behavior).</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does fail with the RPC status code of RPC_X_BAD_STUB_DATA (0x000006F7) if the request buffer is larger than 0x00040000 bytes in size. (Microsoft Exchange Server 2010 Service Pack 2 (SP2) and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -10717,7 +10717,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10741,7 +10741,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -11050,7 +11050,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
@@ -11352,7 +11352,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
@@ -11504,7 +11504,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11781,7 +11781,7 @@
         <v>17</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30">
@@ -11808,7 +11808,7 @@
         <v>17</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
@@ -11835,7 +11835,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -11862,7 +11862,7 @@
         <v>17</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30">
@@ -11964,7 +11964,7 @@
         <v>17</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="60">
@@ -11991,7 +11991,7 @@
         <v>17</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30">
@@ -12018,7 +12018,7 @@
         <v>17</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="60">
@@ -12045,7 +12045,7 @@
         <v>17</v>
       </c>
       <c r="I59" s="31" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="60">
@@ -12072,7 +12072,7 @@
         <v>17</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="60">
@@ -12099,7 +12099,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="60">
@@ -12126,7 +12126,7 @@
         <v>17</v>
       </c>
       <c r="I62" s="31" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45">
@@ -12803,7 +12803,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="45">
@@ -12830,7 +12830,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="31" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="45">
@@ -12882,7 +12882,7 @@
         <v>17</v>
       </c>
       <c r="I92" s="31" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="45">
@@ -12934,7 +12934,7 @@
         <v>17</v>
       </c>
       <c r="I94" s="31" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45">
@@ -17545,7 +17545,7 @@
         <v>1493</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -17645,7 +17645,7 @@
         <v>1493</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -17736,7 +17736,7 @@
         <v>17</v>
       </c>
       <c r="I286" s="31" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="30">
@@ -17788,7 +17788,7 @@
         <v>17</v>
       </c>
       <c r="I288" s="31" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="45">
@@ -17949,7 +17949,7 @@
         <v>1496</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -17974,7 +17974,7 @@
         <v>1496</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -17990,7 +17990,7 @@
         <v>17</v>
       </c>
       <c r="I296" s="31" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="45">
@@ -18092,7 +18092,7 @@
         <v>17</v>
       </c>
       <c r="I300" s="31" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="45">
@@ -19144,7 +19144,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="31" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="30">
@@ -20005,7 +20005,7 @@
         <v>1504</v>
       </c>
       <c r="C377" s="31" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="D377" s="29"/>
       <c r="E377" s="29" t="s">
@@ -20071,7 +20071,7 @@
         <v>17</v>
       </c>
       <c r="I379" s="31" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="45">
@@ -20223,7 +20223,7 @@
         <v>17</v>
       </c>
       <c r="I385" s="31" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="30">
@@ -20234,7 +20234,7 @@
         <v>1505</v>
       </c>
       <c r="C386" s="31" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
@@ -20259,7 +20259,7 @@
         <v>1505</v>
       </c>
       <c r="C387" s="31" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
@@ -20284,7 +20284,7 @@
         <v>1505</v>
       </c>
       <c r="C388" s="31" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -20350,7 +20350,7 @@
         <v>17</v>
       </c>
       <c r="I390" s="31" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="30">
@@ -20436,7 +20436,7 @@
         <v>1505</v>
       </c>
       <c r="C394" s="31" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="D394" s="29"/>
       <c r="E394" s="29" t="s">
@@ -20486,7 +20486,7 @@
         <v>1505</v>
       </c>
       <c r="C396" s="31" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="D396" s="29"/>
       <c r="E396" s="29" t="s">
@@ -20552,7 +20552,7 @@
         <v>17</v>
       </c>
       <c r="I398" s="31" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="30">
@@ -20579,7 +20579,7 @@
         <v>17</v>
       </c>
       <c r="I399" s="31" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="45">
@@ -20615,7 +20615,7 @@
         <v>1505</v>
       </c>
       <c r="C401" s="31" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="D401" s="29"/>
       <c r="E401" s="29" t="s">
@@ -20681,7 +20681,7 @@
         <v>17</v>
       </c>
       <c r="I403" s="31" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="30">
@@ -20717,7 +20717,7 @@
         <v>1505</v>
       </c>
       <c r="C405" s="31" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="29" t="s">
@@ -20767,7 +20767,7 @@
         <v>1505</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D407" s="29"/>
       <c r="E407" s="29" t="s">
@@ -20817,7 +20817,7 @@
         <v>1505</v>
       </c>
       <c r="C409" s="31" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -20883,7 +20883,7 @@
         <v>17</v>
       </c>
       <c r="I411" s="31" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="30">
@@ -20910,7 +20910,7 @@
         <v>17</v>
       </c>
       <c r="I412" s="31" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="30">
@@ -20946,7 +20946,7 @@
         <v>1505</v>
       </c>
       <c r="C414" s="31" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -20996,7 +20996,7 @@
         <v>1505</v>
       </c>
       <c r="C416" s="31" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -21062,7 +21062,7 @@
         <v>17</v>
       </c>
       <c r="I418" s="31" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="30">
@@ -21239,7 +21239,7 @@
         <v>17</v>
       </c>
       <c r="I425" s="31" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="45">
@@ -21253,7 +21253,7 @@
         <v>1970</v>
       </c>
       <c r="D426" s="29" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="E426" s="29" t="s">
         <v>19</v>
@@ -21627,7 +21627,7 @@
         <v>32</v>
       </c>
       <c r="C441" s="31" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -21652,7 +21652,7 @@
         <v>32</v>
       </c>
       <c r="C442" s="31" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29" t="s">
@@ -21927,7 +21927,7 @@
         <v>32</v>
       </c>
       <c r="C453" s="31" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -21943,7 +21943,7 @@
         <v>17</v>
       </c>
       <c r="I453" s="31" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="45">
@@ -21979,7 +21979,7 @@
         <v>32</v>
       </c>
       <c r="C455" s="31" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -22529,7 +22529,7 @@
         <v>32</v>
       </c>
       <c r="C477" s="31" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="D477" s="29"/>
       <c r="E477" s="29" t="s">
@@ -22545,7 +22545,7 @@
         <v>17</v>
       </c>
       <c r="I477" s="31" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="478" spans="1:9" ht="30">
@@ -22622,7 +22622,7 @@
         <v>17</v>
       </c>
       <c r="I480" s="31" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="30">
@@ -22636,7 +22636,7 @@
         <v>2020</v>
       </c>
       <c r="D481" s="29" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="E481" s="29" t="s">
         <v>19</v>
@@ -22660,7 +22660,7 @@
         <v>32</v>
       </c>
       <c r="C482" s="31" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="D482" s="29"/>
       <c r="E482" s="29" t="s">
@@ -22685,7 +22685,7 @@
         <v>32</v>
       </c>
       <c r="C483" s="31" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="D483" s="29"/>
       <c r="E483" s="29" t="s">
@@ -22876,7 +22876,7 @@
         <v>17</v>
       </c>
       <c r="I490" s="31" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="30">
@@ -23187,7 +23187,7 @@
         <v>32</v>
       </c>
       <c r="C503" s="31" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="29" t="s">
@@ -23203,7 +23203,7 @@
         <v>17</v>
       </c>
       <c r="I503" s="31" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="30">
@@ -23414,7 +23414,7 @@
         <v>32</v>
       </c>
       <c r="C512" s="31" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -23430,7 +23430,7 @@
         <v>17</v>
       </c>
       <c r="I512" s="31" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="513" spans="1:9" ht="60">
@@ -23441,7 +23441,7 @@
         <v>32</v>
       </c>
       <c r="C513" s="31" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -23457,7 +23457,7 @@
         <v>17</v>
       </c>
       <c r="I513" s="31" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="30">
@@ -23509,7 +23509,7 @@
         <v>17</v>
       </c>
       <c r="I515" s="31" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="30">
@@ -23770,7 +23770,7 @@
         <v>32</v>
       </c>
       <c r="C526" s="31" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="D526" s="29"/>
       <c r="E526" s="29" t="s">
@@ -23786,7 +23786,7 @@
         <v>17</v>
       </c>
       <c r="I526" s="31" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="45">
@@ -24338,7 +24338,7 @@
         <v>17</v>
       </c>
       <c r="I548" s="31" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="549" spans="1:9" ht="60">
@@ -24415,7 +24415,7 @@
         <v>17</v>
       </c>
       <c r="I551" s="31" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="552" spans="1:9" ht="30">
@@ -28367,7 +28367,7 @@
         <v>17</v>
       </c>
       <c r="I709" s="31" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="710" spans="1:9" ht="30">
@@ -28669,7 +28669,7 @@
         <v>17</v>
       </c>
       <c r="I721" s="31" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="722" spans="1:9" ht="60">
@@ -28846,7 +28846,7 @@
         <v>17</v>
       </c>
       <c r="I728" s="31" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="729" spans="1:9" ht="60">
@@ -28857,7 +28857,7 @@
         <v>1523</v>
       </c>
       <c r="C729" s="31" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -28873,7 +28873,7 @@
         <v>17</v>
       </c>
       <c r="I729" s="31" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="730" spans="1:9" ht="45">
@@ -28900,7 +28900,7 @@
         <v>17</v>
       </c>
       <c r="I730" s="31" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="731" spans="1:9" ht="30">
@@ -28927,7 +28927,7 @@
         <v>17</v>
       </c>
       <c r="I731" s="31" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="732" spans="1:9" ht="30">
@@ -28988,7 +28988,7 @@
         <v>1523</v>
       </c>
       <c r="C734" s="31" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="D734" s="29"/>
       <c r="E734" s="29" t="s">
@@ -29004,7 +29004,7 @@
         <v>17</v>
       </c>
       <c r="I734" s="31" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="735" spans="1:9" ht="45">
@@ -29081,7 +29081,7 @@
         <v>17</v>
       </c>
       <c r="I737" s="31" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="738" spans="1:9" ht="30">
@@ -29095,7 +29095,7 @@
         <v>2269</v>
       </c>
       <c r="D738" s="29" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="E738" s="29" t="s">
         <v>19</v>
@@ -29122,7 +29122,7 @@
         <v>2270</v>
       </c>
       <c r="D739" s="29" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="E739" s="29" t="s">
         <v>19</v>
@@ -29149,7 +29149,7 @@
         <v>2271</v>
       </c>
       <c r="D740" s="29" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="E740" s="29" t="s">
         <v>19</v>
@@ -29176,7 +29176,7 @@
         <v>2272</v>
       </c>
       <c r="D741" s="29" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="E741" s="29" t="s">
         <v>19</v>
@@ -29203,7 +29203,7 @@
         <v>2273</v>
       </c>
       <c r="D742" s="29" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="E742" s="29" t="s">
         <v>19</v>
@@ -29230,7 +29230,7 @@
         <v>2274</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="E743" s="29" t="s">
         <v>19</v>
@@ -29370,7 +29370,7 @@
         <v>17</v>
       </c>
       <c r="I748" s="31" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="749" spans="1:9" ht="45">
@@ -30447,7 +30447,7 @@
         <v>17</v>
       </c>
       <c r="I791" s="31" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="792" spans="1:9" ht="45">
@@ -30683,7 +30683,7 @@
         <v>33</v>
       </c>
       <c r="C801" s="31" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="D801" s="29"/>
       <c r="E801" s="29" t="s">
@@ -30699,7 +30699,7 @@
         <v>17</v>
       </c>
       <c r="I801" s="31" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="802" spans="1:9" ht="30">
@@ -30960,7 +30960,7 @@
         <v>33</v>
       </c>
       <c r="C812" s="31" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="D812" s="29"/>
       <c r="E812" s="29" t="s">
@@ -30976,7 +30976,7 @@
         <v>17</v>
       </c>
       <c r="I812" s="31" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="813" spans="1:9" ht="30">
@@ -31012,7 +31012,7 @@
         <v>33</v>
       </c>
       <c r="C814" s="31" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="D814" s="29"/>
       <c r="E814" s="29" t="s">
@@ -31028,7 +31028,7 @@
         <v>17</v>
       </c>
       <c r="I814" s="31" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="815" spans="1:9">
@@ -31180,7 +31180,7 @@
         <v>17</v>
       </c>
       <c r="I820" s="31" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="30">
@@ -31194,7 +31194,7 @@
         <v>2349</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="E821" s="29" t="s">
         <v>19</v>
@@ -31243,7 +31243,7 @@
         <v>33</v>
       </c>
       <c r="C823" s="31" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="D823" s="29"/>
       <c r="E823" s="29" t="s">
@@ -31259,7 +31259,7 @@
         <v>17</v>
       </c>
       <c r="I823" s="31" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="824" spans="1:9" ht="45">
@@ -31570,7 +31570,7 @@
         <v>33</v>
       </c>
       <c r="C836" s="31" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="D836" s="29"/>
       <c r="E836" s="29" t="s">
@@ -31586,7 +31586,7 @@
         <v>17</v>
       </c>
       <c r="I836" s="31" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="837" spans="1:9">
@@ -31622,7 +31622,7 @@
         <v>33</v>
       </c>
       <c r="C838" s="31" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="D838" s="29"/>
       <c r="E838" s="29" t="s">
@@ -31638,7 +31638,7 @@
         <v>17</v>
       </c>
       <c r="I838" s="31" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="839" spans="1:9" ht="30">
@@ -31690,7 +31690,7 @@
         <v>17</v>
       </c>
       <c r="I840" s="31" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="841" spans="1:9" ht="30">
@@ -31704,7 +31704,7 @@
         <v>2366</v>
       </c>
       <c r="D841" s="29" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="E841" s="29" t="s">
         <v>19</v>
@@ -32094,7 +32094,7 @@
         <v>17</v>
       </c>
       <c r="I856" s="31" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="857" spans="1:9" ht="60">
@@ -32171,7 +32171,7 @@
         <v>17</v>
       </c>
       <c r="I859" s="31" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="860" spans="1:9" ht="30">
@@ -32423,7 +32423,7 @@
         <v>17</v>
       </c>
       <c r="I869" s="31" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="870" spans="1:9" ht="45">
@@ -32450,7 +32450,7 @@
         <v>17</v>
       </c>
       <c r="I870" s="31" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="45">
@@ -33102,7 +33102,7 @@
         <v>17</v>
       </c>
       <c r="I896" s="31" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="897" spans="1:9" ht="45">
@@ -33154,7 +33154,7 @@
         <v>17</v>
       </c>
       <c r="I898" s="31" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="899" spans="1:9" ht="30">
@@ -33215,7 +33215,7 @@
         <v>1533</v>
       </c>
       <c r="C901" s="31" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="D901" s="29"/>
       <c r="E901" s="29" t="s">
@@ -33306,7 +33306,7 @@
         <v>17</v>
       </c>
       <c r="I904" s="31" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="905" spans="1:9" ht="60">
@@ -33333,7 +33333,7 @@
         <v>17</v>
       </c>
       <c r="I905" s="31" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="906" spans="1:9" ht="30">
@@ -33785,7 +33785,7 @@
         <v>17</v>
       </c>
       <c r="I923" s="31" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="924" spans="1:9" ht="45">
@@ -33796,7 +33796,7 @@
         <v>1536</v>
       </c>
       <c r="C924" s="31" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="D924" s="29"/>
       <c r="E924" s="29" t="s">
@@ -33812,7 +33812,7 @@
         <v>17</v>
       </c>
       <c r="I924" s="31" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="925" spans="1:9" ht="45">
@@ -33989,7 +33989,7 @@
         <v>17</v>
       </c>
       <c r="I931" s="31" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="932" spans="1:9" ht="30">
@@ -34003,7 +34003,7 @@
         <v>2269</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E932" s="29" t="s">
         <v>19</v>
@@ -34030,7 +34030,7 @@
         <v>2270</v>
       </c>
       <c r="D933" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E933" s="29" t="s">
         <v>19</v>
@@ -34057,7 +34057,7 @@
         <v>2447</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E934" s="29" t="s">
         <v>19</v>
@@ -34084,7 +34084,7 @@
         <v>2448</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E935" s="29" t="s">
         <v>19</v>
@@ -34111,7 +34111,7 @@
         <v>2449</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E936" s="29" t="s">
         <v>19</v>
@@ -34138,7 +34138,7 @@
         <v>2450</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E937" s="29" t="s">
         <v>19</v>
@@ -34165,7 +34165,7 @@
         <v>2451</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E938" s="29" t="s">
         <v>19</v>
@@ -34192,7 +34192,7 @@
         <v>2452</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E939" s="29" t="s">
         <v>19</v>
@@ -34219,7 +34219,7 @@
         <v>2453</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E940" s="29" t="s">
         <v>19</v>
@@ -34246,7 +34246,7 @@
         <v>2454</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E941" s="29" t="s">
         <v>19</v>
@@ -34273,7 +34273,7 @@
         <v>2455</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="E942" s="29" t="s">
         <v>19</v>
@@ -34538,7 +34538,7 @@
         <v>17</v>
       </c>
       <c r="I952" s="31" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="953" spans="1:9" ht="30">
@@ -34974,7 +34974,7 @@
         <v>1539</v>
       </c>
       <c r="C970" s="31" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="D970" s="29"/>
       <c r="E970" s="29" t="s">
@@ -34990,7 +34990,7 @@
         <v>17</v>
       </c>
       <c r="I970" s="31" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="971" spans="1:9" ht="60">
@@ -35017,7 +35017,7 @@
         <v>17</v>
       </c>
       <c r="I971" s="31" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="972" spans="1:9" ht="30">
@@ -35078,7 +35078,7 @@
         <v>1540</v>
       </c>
       <c r="C974" s="31" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="D974" s="29"/>
       <c r="E974" s="29" t="s">
@@ -35094,7 +35094,7 @@
         <v>17</v>
       </c>
       <c r="I974" s="31" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="975" spans="1:9" ht="30">
@@ -35121,7 +35121,7 @@
         <v>17</v>
       </c>
       <c r="I975" s="31" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="976" spans="1:9" ht="45">
@@ -35223,7 +35223,7 @@
         <v>17</v>
       </c>
       <c r="I979" s="31" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="980" spans="1:9" ht="30">
@@ -35325,7 +35325,7 @@
         <v>17</v>
       </c>
       <c r="I983" s="31" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="984" spans="1:9" ht="30">
@@ -36986,7 +36986,7 @@
         <v>1553</v>
       </c>
       <c r="C1050" s="31" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
@@ -37061,7 +37061,7 @@
         <v>1554</v>
       </c>
       <c r="C1053" s="31" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="D1053" s="29"/>
       <c r="E1053" s="29" t="s">
@@ -37336,7 +37336,7 @@
         <v>1554</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="D1064" s="29"/>
       <c r="E1064" s="29" t="s">
@@ -37386,7 +37386,7 @@
         <v>1554</v>
       </c>
       <c r="C1066" s="31" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="D1066" s="29"/>
       <c r="E1066" s="29" t="s">
@@ -38011,7 +38011,7 @@
         <v>1554</v>
       </c>
       <c r="C1091" s="31" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="D1091" s="29"/>
       <c r="E1091" s="29" t="s">
@@ -38102,7 +38102,7 @@
         <v>17</v>
       </c>
       <c r="I1094" s="31" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="30">
@@ -38363,7 +38363,7 @@
         <v>1554</v>
       </c>
       <c r="C1105" s="31" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="D1105" s="29"/>
       <c r="E1105" s="29" t="s">
@@ -38504,7 +38504,7 @@
         <v>17</v>
       </c>
       <c r="I1110" s="31" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1111" spans="1:9" ht="30">
@@ -38556,7 +38556,7 @@
         <v>17</v>
       </c>
       <c r="I1112" s="31" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1113" spans="1:9" ht="45">
@@ -38608,7 +38608,7 @@
         <v>17</v>
       </c>
       <c r="I1114" s="31" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1115" spans="1:9" ht="195">
@@ -38635,7 +38635,7 @@
         <v>17</v>
       </c>
       <c r="I1115" s="31" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1116" spans="1:9" ht="30">
@@ -38862,7 +38862,7 @@
         <v>17</v>
       </c>
       <c r="I1124" s="31" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
@@ -39048,7 +39048,7 @@
         <v>1557</v>
       </c>
       <c r="C1132" s="31" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="D1132" s="29"/>
       <c r="E1132" s="29" t="s">
@@ -39448,7 +39448,7 @@
         <v>1557</v>
       </c>
       <c r="C1148" s="31" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="D1148" s="29"/>
       <c r="E1148" s="29" t="s">
@@ -39773,7 +39773,7 @@
         <v>1561</v>
       </c>
       <c r="C1161" s="31" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="D1161" s="29"/>
       <c r="E1161" s="29" t="s">
@@ -39998,7 +39998,7 @@
         <v>1561</v>
       </c>
       <c r="C1170" s="31" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="D1170" s="29"/>
       <c r="E1170" s="29" t="s">
@@ -40015,7 +40015,7 @@
       </c>
       <c r="I1170" s="31"/>
     </row>
-    <row r="1171" spans="1:9" ht="60">
+    <row r="1171" spans="1:9" ht="75">
       <c r="A1171" s="29" t="s">
         <v>1194</v>
       </c>
@@ -40023,10 +40023,10 @@
         <v>1561</v>
       </c>
       <c r="C1171" s="31" t="s">
-        <v>2669</v>
+        <v>3087</v>
       </c>
       <c r="D1171" s="29" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="E1171" s="29" t="s">
         <v>19</v>
@@ -40050,10 +40050,10 @@
         <v>1561</v>
       </c>
       <c r="C1172" s="31" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D1172" s="29" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="E1172" s="29" t="s">
         <v>19</v>
@@ -40077,7 +40077,7 @@
         <v>1561</v>
       </c>
       <c r="C1173" s="31" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D1173" s="29"/>
       <c r="E1173" s="29" t="s">
@@ -40102,7 +40102,7 @@
         <v>1561</v>
       </c>
       <c r="C1174" s="31" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D1174" s="29"/>
       <c r="E1174" s="29" t="s">
@@ -40118,7 +40118,7 @@
         <v>17</v>
       </c>
       <c r="I1174" s="31" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1175" spans="1:9" ht="30">
@@ -40129,7 +40129,7 @@
         <v>1561</v>
       </c>
       <c r="C1175" s="31" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="D1175" s="29"/>
       <c r="E1175" s="29" t="s">
@@ -40154,7 +40154,7 @@
         <v>1561</v>
       </c>
       <c r="C1176" s="31" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D1176" s="29"/>
       <c r="E1176" s="29" t="s">
@@ -40179,7 +40179,7 @@
         <v>1561</v>
       </c>
       <c r="C1177" s="31" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D1177" s="29"/>
       <c r="E1177" s="29" t="s">
@@ -40204,7 +40204,7 @@
         <v>1561</v>
       </c>
       <c r="C1178" s="31" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D1178" s="29"/>
       <c r="E1178" s="29" t="s">
@@ -40229,7 +40229,7 @@
         <v>1561</v>
       </c>
       <c r="C1179" s="31" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="D1179" s="29"/>
       <c r="E1179" s="29" t="s">
@@ -40254,7 +40254,7 @@
         <v>1561</v>
       </c>
       <c r="C1180" s="31" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D1180" s="29"/>
       <c r="E1180" s="29" t="s">
@@ -40279,7 +40279,7 @@
         <v>1561</v>
       </c>
       <c r="C1181" s="31" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D1181" s="29"/>
       <c r="E1181" s="29" t="s">
@@ -40304,7 +40304,7 @@
         <v>1561</v>
       </c>
       <c r="C1182" s="31" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D1182" s="29"/>
       <c r="E1182" s="29" t="s">
@@ -40329,7 +40329,7 @@
         <v>1561</v>
       </c>
       <c r="C1183" s="31" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D1183" s="29"/>
       <c r="E1183" s="29" t="s">
@@ -40354,7 +40354,7 @@
         <v>1561</v>
       </c>
       <c r="C1184" s="31" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D1184" s="29"/>
       <c r="E1184" s="29" t="s">
@@ -40379,7 +40379,7 @@
         <v>1562</v>
       </c>
       <c r="C1185" s="31" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D1185" s="29"/>
       <c r="E1185" s="29" t="s">
@@ -40404,7 +40404,7 @@
         <v>1563</v>
       </c>
       <c r="C1186" s="31" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D1186" s="29"/>
       <c r="E1186" s="29" t="s">
@@ -40429,7 +40429,7 @@
         <v>1563</v>
       </c>
       <c r="C1187" s="31" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="D1187" s="29"/>
       <c r="E1187" s="29" t="s">
@@ -40454,7 +40454,7 @@
         <v>1563</v>
       </c>
       <c r="C1188" s="31" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D1188" s="29"/>
       <c r="E1188" s="29" t="s">
@@ -40479,7 +40479,7 @@
         <v>1563</v>
       </c>
       <c r="C1189" s="31" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="D1189" s="29"/>
       <c r="E1189" s="29" t="s">
@@ -40504,7 +40504,7 @@
         <v>1564</v>
       </c>
       <c r="C1190" s="31" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D1190" s="29"/>
       <c r="E1190" s="29" t="s">
@@ -40520,7 +40520,7 @@
         <v>17</v>
       </c>
       <c r="I1190" s="31" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1191" spans="1:9" ht="45">
@@ -40531,7 +40531,7 @@
         <v>1564</v>
       </c>
       <c r="C1191" s="31" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D1191" s="29"/>
       <c r="E1191" s="29" t="s">
@@ -40547,7 +40547,7 @@
         <v>17</v>
       </c>
       <c r="I1191" s="31" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1192" spans="1:9" ht="45">
@@ -40558,7 +40558,7 @@
         <v>1564</v>
       </c>
       <c r="C1192" s="31" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D1192" s="29"/>
       <c r="E1192" s="29" t="s">
@@ -40583,7 +40583,7 @@
         <v>1565</v>
       </c>
       <c r="C1193" s="31" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D1193" s="29"/>
       <c r="E1193" s="29" t="s">
@@ -40599,7 +40599,7 @@
         <v>17</v>
       </c>
       <c r="I1193" s="31" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1194" spans="1:9" ht="60">
@@ -40610,7 +40610,7 @@
         <v>1565</v>
       </c>
       <c r="C1194" s="31" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D1194" s="29"/>
       <c r="E1194" s="29" t="s">
@@ -40626,7 +40626,7 @@
         <v>17</v>
       </c>
       <c r="I1194" s="31" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1195" spans="1:9" ht="30">
@@ -40637,7 +40637,7 @@
         <v>1565</v>
       </c>
       <c r="C1195" s="31" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D1195" s="29"/>
       <c r="E1195" s="29" t="s">
@@ -40662,7 +40662,7 @@
         <v>1565</v>
       </c>
       <c r="C1196" s="31" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D1196" s="29"/>
       <c r="E1196" s="29" t="s">
@@ -40712,7 +40712,7 @@
         <v>1565</v>
       </c>
       <c r="C1198" s="31" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D1198" s="29"/>
       <c r="E1198" s="29" t="s">
@@ -40737,7 +40737,7 @@
         <v>1565</v>
       </c>
       <c r="C1199" s="31" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D1199" s="29"/>
       <c r="E1199" s="29" t="s">
@@ -40762,7 +40762,7 @@
         <v>1565</v>
       </c>
       <c r="C1200" s="31" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D1200" s="29"/>
       <c r="E1200" s="29" t="s">
@@ -40787,7 +40787,7 @@
         <v>1565</v>
       </c>
       <c r="C1201" s="31" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D1201" s="29"/>
       <c r="E1201" s="29" t="s">
@@ -40812,7 +40812,7 @@
         <v>1565</v>
       </c>
       <c r="C1202" s="31" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D1202" s="29"/>
       <c r="E1202" s="29" t="s">
@@ -40837,7 +40837,7 @@
         <v>1565</v>
       </c>
       <c r="C1203" s="31" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D1203" s="29"/>
       <c r="E1203" s="29" t="s">
@@ -40862,7 +40862,7 @@
         <v>1565</v>
       </c>
       <c r="C1204" s="31" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D1204" s="29"/>
       <c r="E1204" s="29" t="s">
@@ -40887,7 +40887,7 @@
         <v>1565</v>
       </c>
       <c r="C1205" s="31" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D1205" s="29"/>
       <c r="E1205" s="29" t="s">
@@ -40912,7 +40912,7 @@
         <v>1565</v>
       </c>
       <c r="C1206" s="31" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D1206" s="29"/>
       <c r="E1206" s="29" t="s">
@@ -40937,7 +40937,7 @@
         <v>1565</v>
       </c>
       <c r="C1207" s="31" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D1207" s="29"/>
       <c r="E1207" s="29" t="s">
@@ -40962,7 +40962,7 @@
         <v>1566</v>
       </c>
       <c r="C1208" s="31" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D1208" s="29"/>
       <c r="E1208" s="29" t="s">
@@ -40987,7 +40987,7 @@
         <v>1566</v>
       </c>
       <c r="C1209" s="31" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D1209" s="29"/>
       <c r="E1209" s="29" t="s">
@@ -41012,7 +41012,7 @@
         <v>1566</v>
       </c>
       <c r="C1210" s="31" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D1210" s="29"/>
       <c r="E1210" s="29" t="s">
@@ -41112,7 +41112,7 @@
         <v>1566</v>
       </c>
       <c r="C1214" s="31" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D1214" s="29"/>
       <c r="E1214" s="29" t="s">
@@ -41137,7 +41137,7 @@
         <v>1566</v>
       </c>
       <c r="C1215" s="31" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D1215" s="29"/>
       <c r="E1215" s="29" t="s">
@@ -41162,7 +41162,7 @@
         <v>1566</v>
       </c>
       <c r="C1216" s="31" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D1216" s="29"/>
       <c r="E1216" s="29" t="s">
@@ -41262,7 +41262,7 @@
         <v>1566</v>
       </c>
       <c r="C1220" s="31" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D1220" s="29"/>
       <c r="E1220" s="29" t="s">
@@ -41287,7 +41287,7 @@
         <v>1566</v>
       </c>
       <c r="C1221" s="31" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D1221" s="29"/>
       <c r="E1221" s="29" t="s">
@@ -41312,7 +41312,7 @@
         <v>1566</v>
       </c>
       <c r="C1222" s="31" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D1222" s="29"/>
       <c r="E1222" s="29" t="s">
@@ -41337,7 +41337,7 @@
         <v>1566</v>
       </c>
       <c r="C1223" s="31" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D1223" s="29"/>
       <c r="E1223" s="29" t="s">
@@ -41362,7 +41362,7 @@
         <v>1566</v>
       </c>
       <c r="C1224" s="31" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D1224" s="29"/>
       <c r="E1224" s="29" t="s">
@@ -41387,7 +41387,7 @@
         <v>1566</v>
       </c>
       <c r="C1225" s="31" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D1225" s="29"/>
       <c r="E1225" s="29" t="s">
@@ -41412,7 +41412,7 @@
         <v>1566</v>
       </c>
       <c r="C1226" s="31" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D1226" s="29"/>
       <c r="E1226" s="29" t="s">
@@ -41437,7 +41437,7 @@
         <v>1566</v>
       </c>
       <c r="C1227" s="31" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D1227" s="29"/>
       <c r="E1227" s="29" t="s">
@@ -41462,7 +41462,7 @@
         <v>1566</v>
       </c>
       <c r="C1228" s="31" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D1228" s="29"/>
       <c r="E1228" s="29" t="s">
@@ -41487,7 +41487,7 @@
         <v>1566</v>
       </c>
       <c r="C1229" s="31" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D1229" s="29"/>
       <c r="E1229" s="29" t="s">
@@ -41512,7 +41512,7 @@
         <v>1566</v>
       </c>
       <c r="C1230" s="31" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D1230" s="29"/>
       <c r="E1230" s="29" t="s">
@@ -41537,7 +41537,7 @@
         <v>1566</v>
       </c>
       <c r="C1231" s="31" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D1231" s="29"/>
       <c r="E1231" s="29" t="s">
@@ -41562,7 +41562,7 @@
         <v>1566</v>
       </c>
       <c r="C1232" s="31" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D1232" s="29"/>
       <c r="E1232" s="29" t="s">
@@ -41587,7 +41587,7 @@
         <v>1566</v>
       </c>
       <c r="C1233" s="31" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D1233" s="29"/>
       <c r="E1233" s="29" t="s">
@@ -41612,7 +41612,7 @@
         <v>1566</v>
       </c>
       <c r="C1234" s="31" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D1234" s="29"/>
       <c r="E1234" s="29" t="s">
@@ -41637,7 +41637,7 @@
         <v>1566</v>
       </c>
       <c r="C1235" s="31" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D1235" s="29"/>
       <c r="E1235" s="29" t="s">
@@ -41662,7 +41662,7 @@
         <v>1566</v>
       </c>
       <c r="C1236" s="31" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D1236" s="29"/>
       <c r="E1236" s="29" t="s">
@@ -41687,7 +41687,7 @@
         <v>1566</v>
       </c>
       <c r="C1237" s="31" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D1237" s="29"/>
       <c r="E1237" s="29" t="s">
@@ -41712,7 +41712,7 @@
         <v>1566</v>
       </c>
       <c r="C1238" s="31" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D1238" s="29"/>
       <c r="E1238" s="29" t="s">
@@ -41737,7 +41737,7 @@
         <v>1566</v>
       </c>
       <c r="C1239" s="31" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D1239" s="29"/>
       <c r="E1239" s="29" t="s">
@@ -41762,7 +41762,7 @@
         <v>1566</v>
       </c>
       <c r="C1240" s="31" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="D1240" s="29"/>
       <c r="E1240" s="29" t="s">
@@ -41787,7 +41787,7 @@
         <v>1566</v>
       </c>
       <c r="C1241" s="31" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D1241" s="29"/>
       <c r="E1241" s="29" t="s">
@@ -41812,7 +41812,7 @@
         <v>1566</v>
       </c>
       <c r="C1242" s="31" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D1242" s="29"/>
       <c r="E1242" s="29" t="s">
@@ -41837,7 +41837,7 @@
         <v>1566</v>
       </c>
       <c r="C1243" s="31" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D1243" s="29"/>
       <c r="E1243" s="29" t="s">
@@ -41862,7 +41862,7 @@
         <v>1566</v>
       </c>
       <c r="C1244" s="31" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D1244" s="29"/>
       <c r="E1244" s="29" t="s">
@@ -41887,7 +41887,7 @@
         <v>1566</v>
       </c>
       <c r="C1245" s="31" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D1245" s="29"/>
       <c r="E1245" s="29" t="s">
@@ -41912,7 +41912,7 @@
         <v>1566</v>
       </c>
       <c r="C1246" s="31" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D1246" s="29"/>
       <c r="E1246" s="29" t="s">
@@ -41937,7 +41937,7 @@
         <v>1566</v>
       </c>
       <c r="C1247" s="31" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D1247" s="29"/>
       <c r="E1247" s="29" t="s">
@@ -41962,7 +41962,7 @@
         <v>1566</v>
       </c>
       <c r="C1248" s="31" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D1248" s="29"/>
       <c r="E1248" s="29" t="s">
@@ -41987,7 +41987,7 @@
         <v>1566</v>
       </c>
       <c r="C1249" s="31" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D1249" s="29"/>
       <c r="E1249" s="29" t="s">
@@ -42012,7 +42012,7 @@
         <v>1566</v>
       </c>
       <c r="C1250" s="31" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D1250" s="29"/>
       <c r="E1250" s="29" t="s">
@@ -42037,7 +42037,7 @@
         <v>1567</v>
       </c>
       <c r="C1251" s="31" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D1251" s="29"/>
       <c r="E1251" s="29" t="s">
@@ -42062,7 +42062,7 @@
         <v>1567</v>
       </c>
       <c r="C1252" s="31" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D1252" s="29"/>
       <c r="E1252" s="29" t="s">
@@ -42087,7 +42087,7 @@
         <v>1567</v>
       </c>
       <c r="C1253" s="31" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D1253" s="29"/>
       <c r="E1253" s="29" t="s">
@@ -42112,7 +42112,7 @@
         <v>1568</v>
       </c>
       <c r="C1254" s="31" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D1254" s="29"/>
       <c r="E1254" s="29" t="s">
@@ -42137,7 +42137,7 @@
         <v>1568</v>
       </c>
       <c r="C1255" s="31" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D1255" s="29"/>
       <c r="E1255" s="29" t="s">
@@ -42162,7 +42162,7 @@
         <v>1568</v>
       </c>
       <c r="C1256" s="31" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D1256" s="29"/>
       <c r="E1256" s="29" t="s">
@@ -42187,7 +42187,7 @@
         <v>1568</v>
       </c>
       <c r="C1257" s="31" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D1257" s="29"/>
       <c r="E1257" s="29" t="s">
@@ -42212,7 +42212,7 @@
         <v>1569</v>
       </c>
       <c r="C1258" s="31" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D1258" s="29"/>
       <c r="E1258" s="29" t="s">
@@ -42237,7 +42237,7 @@
         <v>1569</v>
       </c>
       <c r="C1259" s="31" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D1259" s="29"/>
       <c r="E1259" s="29" t="s">
@@ -42262,7 +42262,7 @@
         <v>1569</v>
       </c>
       <c r="C1260" s="31" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D1260" s="29"/>
       <c r="E1260" s="29" t="s">
@@ -42287,7 +42287,7 @@
         <v>1569</v>
       </c>
       <c r="C1261" s="31" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D1261" s="29"/>
       <c r="E1261" s="29" t="s">
@@ -42312,7 +42312,7 @@
         <v>1569</v>
       </c>
       <c r="C1262" s="31" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D1262" s="29"/>
       <c r="E1262" s="29" t="s">
@@ -42337,7 +42337,7 @@
         <v>1569</v>
       </c>
       <c r="C1263" s="31" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D1263" s="29"/>
       <c r="E1263" s="29" t="s">
@@ -42362,7 +42362,7 @@
         <v>1569</v>
       </c>
       <c r="C1264" s="31" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D1264" s="29"/>
       <c r="E1264" s="29" t="s">
@@ -42387,7 +42387,7 @@
         <v>1570</v>
       </c>
       <c r="C1265" s="31" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D1265" s="29"/>
       <c r="E1265" s="29" t="s">
@@ -42412,7 +42412,7 @@
         <v>1570</v>
       </c>
       <c r="C1266" s="31" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="D1266" s="29"/>
       <c r="E1266" s="29" t="s">
@@ -42437,7 +42437,7 @@
         <v>1570</v>
       </c>
       <c r="C1267" s="31" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D1267" s="29"/>
       <c r="E1267" s="29" t="s">
@@ -42462,7 +42462,7 @@
         <v>1570</v>
       </c>
       <c r="C1268" s="31" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D1268" s="29"/>
       <c r="E1268" s="29" t="s">
@@ -42487,7 +42487,7 @@
         <v>1571</v>
       </c>
       <c r="C1269" s="31" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D1269" s="29"/>
       <c r="E1269" s="29" t="s">
@@ -42512,7 +42512,7 @@
         <v>1572</v>
       </c>
       <c r="C1270" s="31" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D1270" s="29"/>
       <c r="E1270" s="29" t="s">
@@ -42587,7 +42587,7 @@
         <v>1572</v>
       </c>
       <c r="C1273" s="31" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D1273" s="29"/>
       <c r="E1273" s="29" t="s">
@@ -42612,7 +42612,7 @@
         <v>1572</v>
       </c>
       <c r="C1274" s="31" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D1274" s="29"/>
       <c r="E1274" s="29" t="s">
@@ -42637,7 +42637,7 @@
         <v>1572</v>
       </c>
       <c r="C1275" s="31" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D1275" s="29"/>
       <c r="E1275" s="29" t="s">
@@ -42662,7 +42662,7 @@
         <v>1572</v>
       </c>
       <c r="C1276" s="31" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D1276" s="29"/>
       <c r="E1276" s="29" t="s">
@@ -42687,7 +42687,7 @@
         <v>1572</v>
       </c>
       <c r="C1277" s="31" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D1277" s="29"/>
       <c r="E1277" s="29" t="s">
@@ -42703,7 +42703,7 @@
         <v>17</v>
       </c>
       <c r="I1277" s="31" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1278" spans="1:9" ht="30">
@@ -42714,7 +42714,7 @@
         <v>1572</v>
       </c>
       <c r="C1278" s="31" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D1278" s="29"/>
       <c r="E1278" s="29" t="s">
@@ -42739,7 +42739,7 @@
         <v>1572</v>
       </c>
       <c r="C1279" s="31" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D1279" s="29"/>
       <c r="E1279" s="29" t="s">
@@ -42764,7 +42764,7 @@
         <v>1572</v>
       </c>
       <c r="C1280" s="31" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D1280" s="29"/>
       <c r="E1280" s="29" t="s">
@@ -42789,7 +42789,7 @@
         <v>1572</v>
       </c>
       <c r="C1281" s="31" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D1281" s="29"/>
       <c r="E1281" s="29" t="s">
@@ -42814,7 +42814,7 @@
         <v>1572</v>
       </c>
       <c r="C1282" s="31" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="D1282" s="29"/>
       <c r="E1282" s="29" t="s">
@@ -42839,7 +42839,7 @@
         <v>1573</v>
       </c>
       <c r="C1283" s="31" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="D1283" s="29"/>
       <c r="E1283" s="29" t="s">
@@ -42864,7 +42864,7 @@
         <v>1573</v>
       </c>
       <c r="C1284" s="31" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D1284" s="29"/>
       <c r="E1284" s="29" t="s">
@@ -42889,7 +42889,7 @@
         <v>1573</v>
       </c>
       <c r="C1285" s="31" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="D1285" s="29"/>
       <c r="E1285" s="29" t="s">
@@ -42914,7 +42914,7 @@
         <v>1573</v>
       </c>
       <c r="C1286" s="31" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D1286" s="29"/>
       <c r="E1286" s="29" t="s">
@@ -42939,7 +42939,7 @@
         <v>1573</v>
       </c>
       <c r="C1287" s="31" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D1287" s="29"/>
       <c r="E1287" s="29" t="s">
@@ -42989,7 +42989,7 @@
         <v>1573</v>
       </c>
       <c r="C1289" s="31" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D1289" s="29"/>
       <c r="E1289" s="29" t="s">
@@ -43014,7 +43014,7 @@
         <v>1573</v>
       </c>
       <c r="C1290" s="31" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D1290" s="29"/>
       <c r="E1290" s="29" t="s">
@@ -43039,7 +43039,7 @@
         <v>1574</v>
       </c>
       <c r="C1291" s="31" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D1291" s="29"/>
       <c r="E1291" s="29" t="s">
@@ -43064,7 +43064,7 @@
         <v>1574</v>
       </c>
       <c r="C1292" s="31" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="D1292" s="29"/>
       <c r="E1292" s="29" t="s">
@@ -43080,7 +43080,7 @@
         <v>17</v>
       </c>
       <c r="I1292" s="31" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1293" spans="1:9" ht="45">
@@ -43091,7 +43091,7 @@
         <v>1574</v>
       </c>
       <c r="C1293" s="31" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="D1293" s="29"/>
       <c r="E1293" s="29" t="s">
@@ -43107,7 +43107,7 @@
         <v>17</v>
       </c>
       <c r="I1293" s="31" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1294" spans="1:9" ht="45">
@@ -43118,7 +43118,7 @@
         <v>1574</v>
       </c>
       <c r="C1294" s="31" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="D1294" s="29"/>
       <c r="E1294" s="29" t="s">
@@ -43143,7 +43143,7 @@
         <v>1574</v>
       </c>
       <c r="C1295" s="31" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="D1295" s="29"/>
       <c r="E1295" s="29" t="s">
@@ -43168,7 +43168,7 @@
         <v>1575</v>
       </c>
       <c r="C1296" s="31" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="D1296" s="29"/>
       <c r="E1296" s="29" t="s">
@@ -43193,7 +43193,7 @@
         <v>1575</v>
       </c>
       <c r="C1297" s="31" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="D1297" s="29"/>
       <c r="E1297" s="29" t="s">
@@ -43209,7 +43209,7 @@
         <v>17</v>
       </c>
       <c r="I1297" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1298" spans="1:9" ht="30">
@@ -43220,7 +43220,7 @@
         <v>1575</v>
       </c>
       <c r="C1298" s="31" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D1298" s="29"/>
       <c r="E1298" s="29" t="s">
@@ -43245,7 +43245,7 @@
         <v>1575</v>
       </c>
       <c r="C1299" s="31" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D1299" s="29"/>
       <c r="E1299" s="29" t="s">
@@ -43270,7 +43270,7 @@
         <v>1575</v>
       </c>
       <c r="C1300" s="31" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D1300" s="29"/>
       <c r="E1300" s="29" t="s">
@@ -43286,7 +43286,7 @@
         <v>17</v>
       </c>
       <c r="I1300" s="31" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="1301" spans="1:9" ht="30">
@@ -43297,7 +43297,7 @@
         <v>1575</v>
       </c>
       <c r="C1301" s="31" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="D1301" s="29"/>
       <c r="E1301" s="29" t="s">
@@ -43322,7 +43322,7 @@
         <v>1575</v>
       </c>
       <c r="C1302" s="31" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D1302" s="29"/>
       <c r="E1302" s="29" t="s">
@@ -43347,7 +43347,7 @@
         <v>1575</v>
       </c>
       <c r="C1303" s="31" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D1303" s="29"/>
       <c r="E1303" s="29" t="s">
@@ -43372,7 +43372,7 @@
         <v>1575</v>
       </c>
       <c r="C1304" s="31" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D1304" s="29"/>
       <c r="E1304" s="29" t="s">
@@ -43397,7 +43397,7 @@
         <v>1575</v>
       </c>
       <c r="C1305" s="31" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D1305" s="29"/>
       <c r="E1305" s="29" t="s">
@@ -43422,7 +43422,7 @@
         <v>1575</v>
       </c>
       <c r="C1306" s="31" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="D1306" s="29"/>
       <c r="E1306" s="29" t="s">
@@ -43447,7 +43447,7 @@
         <v>1575</v>
       </c>
       <c r="C1307" s="31" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D1307" s="29"/>
       <c r="E1307" s="29" t="s">
@@ -43472,7 +43472,7 @@
         <v>1575</v>
       </c>
       <c r="C1308" s="31" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D1308" s="29"/>
       <c r="E1308" s="29" t="s">
@@ -43497,7 +43497,7 @@
         <v>1575</v>
       </c>
       <c r="C1309" s="31" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D1309" s="29"/>
       <c r="E1309" s="29" t="s">
@@ -43522,7 +43522,7 @@
         <v>1575</v>
       </c>
       <c r="C1310" s="31" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="D1310" s="29"/>
       <c r="E1310" s="29" t="s">
@@ -43547,7 +43547,7 @@
         <v>1575</v>
       </c>
       <c r="C1311" s="31" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D1311" s="29"/>
       <c r="E1311" s="29" t="s">
@@ -43572,7 +43572,7 @@
         <v>1575</v>
       </c>
       <c r="C1312" s="31" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D1312" s="29"/>
       <c r="E1312" s="29" t="s">
@@ -43597,7 +43597,7 @@
         <v>1575</v>
       </c>
       <c r="C1313" s="31" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D1313" s="29"/>
       <c r="E1313" s="29" t="s">
@@ -43613,7 +43613,7 @@
         <v>17</v>
       </c>
       <c r="I1313" s="31" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1314" spans="1:9" ht="60">
@@ -43624,7 +43624,7 @@
         <v>1575</v>
       </c>
       <c r="C1314" s="31" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="D1314" s="29"/>
       <c r="E1314" s="29" t="s">
@@ -43649,7 +43649,7 @@
         <v>1575</v>
       </c>
       <c r="C1315" s="31" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D1315" s="29"/>
       <c r="E1315" s="29" t="s">
@@ -43674,7 +43674,7 @@
         <v>1575</v>
       </c>
       <c r="C1316" s="31" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D1316" s="29"/>
       <c r="E1316" s="29" t="s">
@@ -43699,7 +43699,7 @@
         <v>1575</v>
       </c>
       <c r="C1317" s="31" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D1317" s="29"/>
       <c r="E1317" s="29" t="s">
@@ -43724,7 +43724,7 @@
         <v>1575</v>
       </c>
       <c r="C1318" s="31" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D1318" s="29"/>
       <c r="E1318" s="29" t="s">
@@ -43749,7 +43749,7 @@
         <v>1575</v>
       </c>
       <c r="C1319" s="31" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="D1319" s="29"/>
       <c r="E1319" s="29" t="s">
@@ -43774,7 +43774,7 @@
         <v>1575</v>
       </c>
       <c r="C1320" s="31" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D1320" s="29"/>
       <c r="E1320" s="29" t="s">
@@ -43799,7 +43799,7 @@
         <v>1575</v>
       </c>
       <c r="C1321" s="31" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D1321" s="29"/>
       <c r="E1321" s="29" t="s">
@@ -43824,7 +43824,7 @@
         <v>1576</v>
       </c>
       <c r="C1322" s="31" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D1322" s="29"/>
       <c r="E1322" s="29" t="s">
@@ -43899,7 +43899,7 @@
         <v>1576</v>
       </c>
       <c r="C1325" s="31" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D1325" s="29"/>
       <c r="E1325" s="29" t="s">
@@ -43924,7 +43924,7 @@
         <v>1576</v>
       </c>
       <c r="C1326" s="31" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D1326" s="29"/>
       <c r="E1326" s="29" t="s">
@@ -43949,7 +43949,7 @@
         <v>1577</v>
       </c>
       <c r="C1327" s="31" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D1327" s="29"/>
       <c r="E1327" s="29" t="s">
@@ -43974,7 +43974,7 @@
         <v>1578</v>
       </c>
       <c r="C1328" s="31" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D1328" s="29"/>
       <c r="E1328" s="29" t="s">
@@ -43999,7 +43999,7 @@
         <v>1578</v>
       </c>
       <c r="C1329" s="31" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="D1329" s="29"/>
       <c r="E1329" s="29" t="s">
@@ -44074,7 +44074,7 @@
         <v>1579</v>
       </c>
       <c r="C1332" s="31" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D1332" s="29"/>
       <c r="E1332" s="29" t="s">
@@ -44099,7 +44099,7 @@
         <v>1579</v>
       </c>
       <c r="C1333" s="31" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D1333" s="29"/>
       <c r="E1333" s="29" t="s">
@@ -44124,10 +44124,10 @@
         <v>1579</v>
       </c>
       <c r="C1334" s="31" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="D1334" s="29" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="E1334" s="29" t="s">
         <v>22</v>
@@ -44142,7 +44142,7 @@
         <v>21</v>
       </c>
       <c r="I1334" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1335" spans="1:9" ht="30">
@@ -44153,10 +44153,10 @@
         <v>1579</v>
       </c>
       <c r="C1335" s="31" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="D1335" s="29" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="E1335" s="29" t="s">
         <v>22</v>
@@ -44180,10 +44180,10 @@
         <v>1579</v>
       </c>
       <c r="C1336" s="31" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D1336" s="29" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="E1336" s="29" t="s">
         <v>22</v>
@@ -44198,7 +44198,7 @@
         <v>21</v>
       </c>
       <c r="I1336" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1337" spans="1:9" ht="45">
@@ -44209,10 +44209,10 @@
         <v>1579</v>
       </c>
       <c r="C1337" s="31" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="D1337" s="29" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="E1337" s="29" t="s">
         <v>22</v>
@@ -44227,7 +44227,7 @@
         <v>21</v>
       </c>
       <c r="I1337" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1338" spans="1:9" ht="45">
@@ -44238,10 +44238,10 @@
         <v>1579</v>
       </c>
       <c r="C1338" s="31" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="D1338" s="29" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="E1338" s="29" t="s">
         <v>22</v>
@@ -44256,7 +44256,7 @@
         <v>21</v>
       </c>
       <c r="I1338" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1339" spans="1:9" ht="60">
@@ -44267,7 +44267,7 @@
         <v>1579</v>
       </c>
       <c r="C1339" s="31" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="D1339" s="29"/>
       <c r="E1339" s="29" t="s">
@@ -44292,7 +44292,7 @@
         <v>1579</v>
       </c>
       <c r="C1340" s="31" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="D1340" s="29"/>
       <c r="E1340" s="29" t="s">
@@ -44317,7 +44317,7 @@
         <v>1579</v>
       </c>
       <c r="C1341" s="31" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="D1341" s="29"/>
       <c r="E1341" s="29" t="s">
@@ -44342,7 +44342,7 @@
         <v>1579</v>
       </c>
       <c r="C1342" s="31" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="D1342" s="29"/>
       <c r="E1342" s="29" t="s">
@@ -44367,7 +44367,7 @@
         <v>1579</v>
       </c>
       <c r="C1343" s="31" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="D1343" s="29"/>
       <c r="E1343" s="29" t="s">
@@ -44392,10 +44392,10 @@
         <v>1579</v>
       </c>
       <c r="C1344" s="31" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="D1344" s="29" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="E1344" s="29" t="s">
         <v>22</v>
@@ -44419,10 +44419,10 @@
         <v>7</v>
       </c>
       <c r="C1345" s="31" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="D1345" s="29" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="E1345" s="29" t="s">
         <v>22</v>
@@ -44446,10 +44446,10 @@
         <v>1579</v>
       </c>
       <c r="C1346" s="31" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="D1346" s="29" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="E1346" s="29" t="s">
         <v>22</v>
@@ -44464,7 +44464,7 @@
         <v>20</v>
       </c>
       <c r="I1346" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1347" spans="1:9" ht="30">
@@ -44475,7 +44475,7 @@
         <v>1579</v>
       </c>
       <c r="C1347" s="31" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="D1347" s="29"/>
       <c r="E1347" s="29" t="s">
@@ -44500,7 +44500,7 @@
         <v>1579</v>
       </c>
       <c r="C1348" s="31" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="D1348" s="29"/>
       <c r="E1348" s="29" t="s">
@@ -44525,10 +44525,10 @@
         <v>1579</v>
       </c>
       <c r="C1349" s="31" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="D1349" s="29" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="E1349" s="29" t="s">
         <v>22</v>
@@ -44543,7 +44543,7 @@
         <v>20</v>
       </c>
       <c r="I1349" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1350" spans="1:9" ht="45">
@@ -44554,10 +44554,10 @@
         <v>1579</v>
       </c>
       <c r="C1350" s="31" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="D1350" s="29" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="E1350" s="29" t="s">
         <v>22</v>
@@ -44572,7 +44572,7 @@
         <v>20</v>
       </c>
       <c r="I1350" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1351" spans="1:9" ht="45">
@@ -44583,10 +44583,10 @@
         <v>1579</v>
       </c>
       <c r="C1351" s="31" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="D1351" s="29" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="E1351" s="29" t="s">
         <v>22</v>
@@ -44601,7 +44601,7 @@
         <v>20</v>
       </c>
       <c r="I1351" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1352" spans="1:9" ht="45">
@@ -44612,10 +44612,10 @@
         <v>1579</v>
       </c>
       <c r="C1352" s="31" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="D1352" s="29" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="E1352" s="29" t="s">
         <v>22</v>
@@ -44639,7 +44639,7 @@
         <v>1579</v>
       </c>
       <c r="C1353" s="31" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="D1353" s="29"/>
       <c r="E1353" s="29" t="s">
@@ -44664,10 +44664,10 @@
         <v>1579</v>
       </c>
       <c r="C1354" s="31" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D1354" s="29" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="E1354" s="29" t="s">
         <v>22</v>
@@ -44682,7 +44682,7 @@
         <v>20</v>
       </c>
       <c r="I1354" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1355" spans="1:9" ht="45">
@@ -44693,7 +44693,7 @@
         <v>1579</v>
       </c>
       <c r="C1355" s="31" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="D1355" s="29"/>
       <c r="E1355" s="29" t="s">
@@ -44718,10 +44718,10 @@
         <v>1579</v>
       </c>
       <c r="C1356" s="31" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D1356" s="29" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="E1356" s="29" t="s">
         <v>22</v>
@@ -44736,7 +44736,7 @@
         <v>20</v>
       </c>
       <c r="I1356" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1357" spans="1:9" ht="45">
@@ -44747,10 +44747,10 @@
         <v>1579</v>
       </c>
       <c r="C1357" s="31" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="D1357" s="29" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="E1357" s="29" t="s">
         <v>22</v>
@@ -44774,10 +44774,10 @@
         <v>1579</v>
       </c>
       <c r="C1358" s="31" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="D1358" s="29" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="E1358" s="29" t="s">
         <v>22</v>
@@ -44801,10 +44801,10 @@
         <v>1579</v>
       </c>
       <c r="C1359" s="31" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D1359" s="29" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="E1359" s="29" t="s">
         <v>22</v>
@@ -44819,7 +44819,7 @@
         <v>20</v>
       </c>
       <c r="I1359" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1360" spans="1:9" ht="60">
@@ -44830,10 +44830,10 @@
         <v>1579</v>
       </c>
       <c r="C1360" s="31" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="D1360" s="29" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="E1360" s="29" t="s">
         <v>22</v>
@@ -44857,10 +44857,10 @@
         <v>1579</v>
       </c>
       <c r="C1361" s="31" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="D1361" s="29" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="E1361" s="29" t="s">
         <v>22</v>
@@ -44875,7 +44875,7 @@
         <v>20</v>
       </c>
       <c r="I1361" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1362" spans="1:9" ht="60">
@@ -44886,7 +44886,7 @@
         <v>1579</v>
       </c>
       <c r="C1362" s="31" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="D1362" s="29"/>
       <c r="E1362" s="29" t="s">
@@ -44911,10 +44911,10 @@
         <v>1579</v>
       </c>
       <c r="C1363" s="31" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="D1363" s="29" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="E1363" s="29" t="s">
         <v>22</v>
@@ -44938,10 +44938,10 @@
         <v>1579</v>
       </c>
       <c r="C1364" s="31" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D1364" s="29" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="E1364" s="29" t="s">
         <v>22</v>
@@ -44956,7 +44956,7 @@
         <v>20</v>
       </c>
       <c r="I1364" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1365" spans="1:9" ht="45">
@@ -44967,10 +44967,10 @@
         <v>1579</v>
       </c>
       <c r="C1365" s="31" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="D1365" s="29" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="E1365" s="29" t="s">
         <v>22</v>
@@ -44994,10 +44994,10 @@
         <v>1579</v>
       </c>
       <c r="C1366" s="31" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D1366" s="29" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="E1366" s="29" t="s">
         <v>22</v>
@@ -45012,7 +45012,7 @@
         <v>20</v>
       </c>
       <c r="I1366" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1367" spans="1:9" ht="90">
@@ -45023,10 +45023,10 @@
         <v>1579</v>
       </c>
       <c r="C1367" s="31" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D1367" s="29" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="E1367" s="29" t="s">
         <v>22</v>
@@ -45041,7 +45041,7 @@
         <v>20</v>
       </c>
       <c r="I1367" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1368" spans="1:9" ht="60">
@@ -45052,10 +45052,10 @@
         <v>1579</v>
       </c>
       <c r="C1368" s="31" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="D1368" s="29" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="E1368" s="29" t="s">
         <v>22</v>
@@ -45079,10 +45079,10 @@
         <v>1579</v>
       </c>
       <c r="C1369" s="31" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D1369" s="29" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="E1369" s="29" t="s">
         <v>22</v>
@@ -45097,7 +45097,7 @@
         <v>20</v>
       </c>
       <c r="I1369" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1370" spans="1:9" ht="45">
@@ -45108,10 +45108,10 @@
         <v>1579</v>
       </c>
       <c r="C1370" s="31" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D1370" s="29" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="E1370" s="29" t="s">
         <v>22</v>
@@ -45126,7 +45126,7 @@
         <v>20</v>
       </c>
       <c r="I1370" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1371" spans="1:9" ht="60">
@@ -45137,7 +45137,7 @@
         <v>1579</v>
       </c>
       <c r="C1371" s="31" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D1371" s="29"/>
       <c r="E1371" s="29" t="s">
@@ -45162,10 +45162,10 @@
         <v>1579</v>
       </c>
       <c r="C1372" s="31" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D1372" s="29" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="E1372" s="29" t="s">
         <v>22</v>
@@ -45180,7 +45180,7 @@
         <v>20</v>
       </c>
       <c r="I1372" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1373" spans="1:9" ht="45">
@@ -45191,10 +45191,10 @@
         <v>1579</v>
       </c>
       <c r="C1373" s="31" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D1373" s="29" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="E1373" s="29" t="s">
         <v>22</v>
@@ -45209,7 +45209,7 @@
         <v>20</v>
       </c>
       <c r="I1373" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1374" spans="1:9" ht="45">
@@ -45220,10 +45220,10 @@
         <v>1579</v>
       </c>
       <c r="C1374" s="31" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="D1374" s="29" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="E1374" s="29" t="s">
         <v>22</v>
@@ -45238,7 +45238,7 @@
         <v>20</v>
       </c>
       <c r="I1374" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1375" spans="1:9" ht="45">
@@ -45249,7 +45249,7 @@
         <v>1579</v>
       </c>
       <c r="C1375" s="31" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="D1375" s="29"/>
       <c r="E1375" s="29" t="s">
@@ -45274,10 +45274,10 @@
         <v>1579</v>
       </c>
       <c r="C1376" s="31" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="D1376" s="29" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="E1376" s="29" t="s">
         <v>22</v>
@@ -45292,7 +45292,7 @@
         <v>20</v>
       </c>
       <c r="I1376" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1377" spans="1:9" ht="45">
@@ -45303,10 +45303,10 @@
         <v>1579</v>
       </c>
       <c r="C1377" s="31" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="D1377" s="29" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="E1377" s="29" t="s">
         <v>22</v>
@@ -45321,7 +45321,7 @@
         <v>21</v>
       </c>
       <c r="I1377" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1378" spans="1:9" ht="45">
@@ -45332,10 +45332,10 @@
         <v>1579</v>
       </c>
       <c r="C1378" s="31" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D1378" s="29" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="E1378" s="29" t="s">
         <v>22</v>
@@ -45350,7 +45350,7 @@
         <v>21</v>
       </c>
       <c r="I1378" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1379" spans="1:9" ht="45">
@@ -45361,10 +45361,10 @@
         <v>1579</v>
       </c>
       <c r="C1379" s="31" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D1379" s="29" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="E1379" s="29" t="s">
         <v>22</v>
@@ -45379,7 +45379,7 @@
         <v>21</v>
       </c>
       <c r="I1379" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1380" spans="1:9" ht="30">
@@ -45390,7 +45390,7 @@
         <v>1579</v>
       </c>
       <c r="C1380" s="31" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D1380" s="29"/>
       <c r="E1380" s="29" t="s">
@@ -45415,7 +45415,7 @@
         <v>1579</v>
       </c>
       <c r="C1381" s="31" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="D1381" s="29"/>
       <c r="E1381" s="29" t="s">
@@ -45440,10 +45440,10 @@
         <v>1579</v>
       </c>
       <c r="C1382" s="31" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="D1382" s="29" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="E1382" s="29" t="s">
         <v>22</v>
@@ -45458,7 +45458,7 @@
         <v>21</v>
       </c>
       <c r="I1382" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1383" spans="1:9" ht="45">
@@ -45469,10 +45469,10 @@
         <v>1579</v>
       </c>
       <c r="C1383" s="31" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="D1383" s="29" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="E1383" s="29" t="s">
         <v>22</v>
@@ -45487,7 +45487,7 @@
         <v>21</v>
       </c>
       <c r="I1383" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1384" spans="1:9" ht="60">
@@ -45498,10 +45498,10 @@
         <v>1579</v>
       </c>
       <c r="C1384" s="31" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="D1384" s="29" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="E1384" s="29" t="s">
         <v>22</v>
@@ -45516,21 +45516,21 @@
         <v>20</v>
       </c>
       <c r="I1384" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1385" spans="1:9" ht="75">
       <c r="A1385" s="29" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="B1385" s="33">
         <v>7</v>
       </c>
       <c r="C1385" s="31" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="D1385" s="29" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="E1385" s="29" t="s">
         <v>22</v>
@@ -45545,10 +45545,10 @@
         <v>20</v>
       </c>
       <c r="I1385" s="31" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:9" ht="45">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:9" ht="60">
       <c r="A1386" s="29" t="s">
         <v>1408</v>
       </c>
@@ -45556,10 +45556,10 @@
         <v>1579</v>
       </c>
       <c r="C1386" s="31" t="s">
-        <v>3016</v>
+        <v>3089</v>
       </c>
       <c r="D1386" s="29" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="E1386" s="29" t="s">
         <v>22</v>
@@ -45574,7 +45574,7 @@
         <v>20</v>
       </c>
       <c r="I1386" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1387" spans="1:9" ht="60">
@@ -45585,10 +45585,10 @@
         <v>1579</v>
       </c>
       <c r="C1387" s="31" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="D1387" s="29" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="E1387" s="29" t="s">
         <v>22</v>
@@ -45603,7 +45603,7 @@
         <v>20</v>
       </c>
       <c r="I1387" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1388" spans="1:9" ht="45">
@@ -45614,10 +45614,10 @@
         <v>1579</v>
       </c>
       <c r="C1388" s="31" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="D1388" s="29" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="E1388" s="29" t="s">
         <v>22</v>
@@ -45632,7 +45632,7 @@
         <v>20</v>
       </c>
       <c r="I1388" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1389" spans="1:9" ht="45">
@@ -45643,10 +45643,10 @@
         <v>1579</v>
       </c>
       <c r="C1389" s="31" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="D1389" s="29" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="E1389" s="29" t="s">
         <v>22</v>
@@ -45670,10 +45670,10 @@
         <v>1579</v>
       </c>
       <c r="C1390" s="31" t="s">
-        <v>2829</v>
+        <v>3088</v>
       </c>
       <c r="D1390" s="29" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="E1390" s="29" t="s">
         <v>22</v>
@@ -45688,7 +45688,7 @@
         <v>20</v>
       </c>
       <c r="I1390" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1391" spans="1:9" ht="45">
@@ -45699,10 +45699,10 @@
         <v>1579</v>
       </c>
       <c r="C1391" s="31" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="D1391" s="29" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="E1391" s="29" t="s">
         <v>22</v>
@@ -45717,21 +45717,21 @@
         <v>20</v>
       </c>
       <c r="I1391" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1392" spans="1:9" ht="45">
       <c r="A1392" s="29" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="B1392" s="33">
         <v>7</v>
       </c>
       <c r="C1392" s="31" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="D1392" s="29" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="E1392" s="29" t="s">
         <v>22</v>
@@ -45746,7 +45746,7 @@
         <v>20</v>
       </c>
       <c r="I1392" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1393" spans="1:9" ht="45">
@@ -45757,10 +45757,10 @@
         <v>1579</v>
       </c>
       <c r="C1393" s="31" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="D1393" s="29" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="E1393" s="29" t="s">
         <v>22</v>
@@ -45775,7 +45775,7 @@
         <v>20</v>
       </c>
       <c r="I1393" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1394" spans="1:9" ht="45">
@@ -45786,10 +45786,10 @@
         <v>1579</v>
       </c>
       <c r="C1394" s="31" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="D1394" s="29" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="E1394" s="29" t="s">
         <v>22</v>
@@ -45804,7 +45804,7 @@
         <v>20</v>
       </c>
       <c r="I1394" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1395" spans="1:9" ht="45">
@@ -45815,10 +45815,10 @@
         <v>1579</v>
       </c>
       <c r="C1395" s="31" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="D1395" s="29" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="E1395" s="29" t="s">
         <v>22</v>
@@ -45833,7 +45833,7 @@
         <v>20</v>
       </c>
       <c r="I1395" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1396" spans="1:9" ht="45">
@@ -45844,10 +45844,10 @@
         <v>1579</v>
       </c>
       <c r="C1396" s="31" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="D1396" s="29" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="E1396" s="29" t="s">
         <v>22</v>
@@ -45862,7 +45862,7 @@
         <v>21</v>
       </c>
       <c r="I1396" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1397" spans="1:9" ht="45">
@@ -45873,10 +45873,10 @@
         <v>1579</v>
       </c>
       <c r="C1397" s="31" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="D1397" s="29" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="E1397" s="29" t="s">
         <v>22</v>
@@ -45891,7 +45891,7 @@
         <v>21</v>
       </c>
       <c r="I1397" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1398" spans="1:9" ht="45">
@@ -45902,10 +45902,10 @@
         <v>1579</v>
       </c>
       <c r="C1398" s="31" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="D1398" s="29" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="E1398" s="29" t="s">
         <v>22</v>
@@ -45920,7 +45920,7 @@
         <v>20</v>
       </c>
       <c r="I1398" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1399" spans="1:9" ht="45">
@@ -45931,10 +45931,10 @@
         <v>1579</v>
       </c>
       <c r="C1399" s="31" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="D1399" s="29" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="E1399" s="29" t="s">
         <v>22</v>
@@ -45949,7 +45949,7 @@
         <v>20</v>
       </c>
       <c r="I1399" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1400" spans="1:9" ht="60">
@@ -45960,10 +45960,10 @@
         <v>1579</v>
       </c>
       <c r="C1400" s="31" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="D1400" s="29" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="E1400" s="29" t="s">
         <v>22</v>
@@ -45978,7 +45978,7 @@
         <v>20</v>
       </c>
       <c r="I1400" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1401" spans="1:9" ht="45">
@@ -45989,10 +45989,10 @@
         <v>1579</v>
       </c>
       <c r="C1401" s="31" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="D1401" s="29" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="E1401" s="29" t="s">
         <v>22</v>
@@ -46007,7 +46007,7 @@
         <v>20</v>
       </c>
       <c r="I1401" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1402" spans="1:9" ht="45">
@@ -46018,10 +46018,10 @@
         <v>1579</v>
       </c>
       <c r="C1402" s="31" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D1402" s="29" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="E1402" s="29" t="s">
         <v>22</v>
@@ -46036,7 +46036,7 @@
         <v>17</v>
       </c>
       <c r="I1402" s="31" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1403" spans="1:9" ht="45">
@@ -46047,10 +46047,10 @@
         <v>1579</v>
       </c>
       <c r="C1403" s="31" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="D1403" s="29" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="E1403" s="29" t="s">
         <v>22</v>
@@ -46074,10 +46074,10 @@
         <v>1579</v>
       </c>
       <c r="C1404" s="31" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="D1404" s="29" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="E1404" s="29" t="s">
         <v>22</v>
@@ -46092,7 +46092,7 @@
         <v>20</v>
       </c>
       <c r="I1404" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1405" spans="1:9" ht="60">
@@ -46103,10 +46103,10 @@
         <v>1579</v>
       </c>
       <c r="C1405" s="31" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="D1405" s="29" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="E1405" s="29" t="s">
         <v>22</v>
@@ -46121,7 +46121,7 @@
         <v>20</v>
       </c>
       <c r="I1405" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1406" spans="1:9" ht="45">
@@ -46132,7 +46132,7 @@
         <v>1579</v>
       </c>
       <c r="C1406" s="31" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="D1406" s="29"/>
       <c r="E1406" s="29" t="s">
@@ -46157,7 +46157,7 @@
         <v>1579</v>
       </c>
       <c r="C1407" s="31" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="D1407" s="29"/>
       <c r="E1407" s="29" t="s">
@@ -46182,7 +46182,7 @@
         <v>1579</v>
       </c>
       <c r="C1408" s="31" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="D1408" s="29"/>
       <c r="E1408" s="29" t="s">
@@ -46207,7 +46207,7 @@
         <v>1579</v>
       </c>
       <c r="C1409" s="31" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="D1409" s="29"/>
       <c r="E1409" s="29" t="s">
@@ -46232,7 +46232,7 @@
         <v>1579</v>
       </c>
       <c r="C1410" s="31" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="D1410" s="29"/>
       <c r="E1410" s="29" t="s">
@@ -46257,7 +46257,7 @@
         <v>1579</v>
       </c>
       <c r="C1411" s="31" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="D1411" s="29"/>
       <c r="E1411" s="29" t="s">
@@ -46282,7 +46282,7 @@
         <v>1579</v>
       </c>
       <c r="C1412" s="31" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="D1412" s="29"/>
       <c r="E1412" s="29" t="s">
@@ -46307,7 +46307,7 @@
         <v>1579</v>
       </c>
       <c r="C1413" s="31" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="D1413" s="29"/>
       <c r="E1413" s="29" t="s">
@@ -46332,7 +46332,7 @@
         <v>1579</v>
       </c>
       <c r="C1414" s="31" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="D1414" s="29"/>
       <c r="E1414" s="29" t="s">
@@ -46357,7 +46357,7 @@
         <v>1579</v>
       </c>
       <c r="C1415" s="31" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="D1415" s="29"/>
       <c r="E1415" s="29" t="s">
@@ -46382,7 +46382,7 @@
         <v>1579</v>
       </c>
       <c r="C1416" s="31" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="D1416" s="29"/>
       <c r="E1416" s="29" t="s">
@@ -46407,7 +46407,7 @@
         <v>1579</v>
       </c>
       <c r="C1417" s="31" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="D1417" s="29"/>
       <c r="E1417" s="29" t="s">
@@ -46432,7 +46432,7 @@
         <v>1579</v>
       </c>
       <c r="C1418" s="31" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="D1418" s="29"/>
       <c r="E1418" s="29" t="s">
@@ -46457,7 +46457,7 @@
         <v>1579</v>
       </c>
       <c r="C1419" s="31" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="D1419" s="29"/>
       <c r="E1419" s="29" t="s">
@@ -46482,7 +46482,7 @@
         <v>1579</v>
       </c>
       <c r="C1420" s="31" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="D1420" s="29"/>
       <c r="E1420" s="29" t="s">
@@ -46507,7 +46507,7 @@
         <v>1579</v>
       </c>
       <c r="C1421" s="31" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="D1421" s="29"/>
       <c r="E1421" s="29" t="s">
@@ -46532,7 +46532,7 @@
         <v>1579</v>
       </c>
       <c r="C1422" s="31" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="D1422" s="29"/>
       <c r="E1422" s="29" t="s">
@@ -46557,7 +46557,7 @@
         <v>1579</v>
       </c>
       <c r="C1423" s="31" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="D1423" s="29"/>
       <c r="E1423" s="29" t="s">
@@ -46582,7 +46582,7 @@
         <v>1579</v>
       </c>
       <c r="C1424" s="31" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="D1424" s="29"/>
       <c r="E1424" s="29" t="s">
@@ -46607,7 +46607,7 @@
         <v>1579</v>
       </c>
       <c r="C1425" s="31" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="D1425" s="29"/>
       <c r="E1425" s="29" t="s">
@@ -46632,7 +46632,7 @@
         <v>1579</v>
       </c>
       <c r="C1426" s="31" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="D1426" s="29"/>
       <c r="E1426" s="29" t="s">
@@ -46657,7 +46657,7 @@
         <v>1579</v>
       </c>
       <c r="C1427" s="31" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="D1427" s="29"/>
       <c r="E1427" s="29" t="s">
@@ -46682,7 +46682,7 @@
         <v>1579</v>
       </c>
       <c r="C1428" s="31" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="D1428" s="29"/>
       <c r="E1428" s="29" t="s">
@@ -46707,7 +46707,7 @@
         <v>1579</v>
       </c>
       <c r="C1429" s="31" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="D1429" s="29"/>
       <c r="E1429" s="29" t="s">
@@ -46732,7 +46732,7 @@
         <v>1579</v>
       </c>
       <c r="C1430" s="31" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="D1430" s="29"/>
       <c r="E1430" s="29" t="s">
@@ -46757,7 +46757,7 @@
         <v>1579</v>
       </c>
       <c r="C1431" s="31" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="D1431" s="29"/>
       <c r="E1431" s="29" t="s">
@@ -46782,7 +46782,7 @@
         <v>1579</v>
       </c>
       <c r="C1432" s="31" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="D1432" s="29"/>
       <c r="E1432" s="29" t="s">
@@ -46807,7 +46807,7 @@
         <v>1579</v>
       </c>
       <c r="C1433" s="31" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D1433" s="29"/>
       <c r="E1433" s="29" t="s">
@@ -46832,7 +46832,7 @@
         <v>1579</v>
       </c>
       <c r="C1434" s="31" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="D1434" s="29"/>
       <c r="E1434" s="29" t="s">
@@ -46857,7 +46857,7 @@
         <v>1579</v>
       </c>
       <c r="C1435" s="31" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="D1435" s="29"/>
       <c r="E1435" s="29" t="s">
@@ -46882,7 +46882,7 @@
         <v>1579</v>
       </c>
       <c r="C1436" s="31" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="D1436" s="29"/>
       <c r="E1436" s="29" t="s">
@@ -46907,7 +46907,7 @@
         <v>1579</v>
       </c>
       <c r="C1437" s="31" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="D1437" s="29"/>
       <c r="E1437" s="29" t="s">
@@ -46932,7 +46932,7 @@
         <v>1579</v>
       </c>
       <c r="C1438" s="31" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="D1438" s="29"/>
       <c r="E1438" s="29" t="s">
@@ -46957,7 +46957,7 @@
         <v>1579</v>
       </c>
       <c r="C1439" s="31" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="D1439" s="29"/>
       <c r="E1439" s="29" t="s">
@@ -46982,7 +46982,7 @@
         <v>1579</v>
       </c>
       <c r="C1440" s="31" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="D1440" s="29"/>
       <c r="E1440" s="29" t="s">
@@ -47007,10 +47007,10 @@
         <v>1579</v>
       </c>
       <c r="C1441" s="31" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="D1441" s="29" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="E1441" s="29" t="s">
         <v>22</v>
@@ -47025,7 +47025,7 @@
         <v>20</v>
       </c>
       <c r="I1441" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1442" spans="1:9" ht="60">
@@ -47036,10 +47036,10 @@
         <v>1579</v>
       </c>
       <c r="C1442" s="31" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="D1442" s="29" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="E1442" s="29" t="s">
         <v>22</v>
@@ -47054,7 +47054,7 @@
         <v>20</v>
       </c>
       <c r="I1442" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1443" spans="1:9" ht="60">
@@ -47065,10 +47065,10 @@
         <v>1579</v>
       </c>
       <c r="C1443" s="31" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="D1443" s="29" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="E1443" s="29" t="s">
         <v>22</v>
@@ -47083,7 +47083,7 @@
         <v>20</v>
       </c>
       <c r="I1443" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1444" spans="1:9" ht="45">
@@ -47094,7 +47094,7 @@
         <v>1579</v>
       </c>
       <c r="C1444" s="31" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="D1444" s="29"/>
       <c r="E1444" s="29" t="s">
@@ -47110,7 +47110,7 @@
         <v>20</v>
       </c>
       <c r="I1444" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1445" spans="1:9" ht="30">
@@ -47121,7 +47121,7 @@
         <v>1579</v>
       </c>
       <c r="C1445" s="31" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="D1445" s="29"/>
       <c r="E1445" s="29" t="s">
@@ -47146,7 +47146,7 @@
         <v>1579</v>
       </c>
       <c r="C1446" s="31" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="D1446" s="29"/>
       <c r="E1446" s="29" t="s">
@@ -47251,6 +47251,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -47299,37 +47314,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -47343,10 +47328,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -9539,16 +9539,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -9744,13 +9744,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9783,7 +9783,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9851,367 +9851,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -10723,34 +10363,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1446" tableType="xml" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1446" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1446"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="88">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="87">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="86">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="85">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="84">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="83">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="82">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="81">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="80">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -10759,12 +10399,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="74"/>
-    <tableColumn id="2" name="Test" dataDxfId="73"/>
-    <tableColumn id="3" name="Description" dataDxfId="72"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11064,15 +10704,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -11387,7 +11027,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="60">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -11439,7 +11079,7 @@
       </c>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
@@ -11564,7 +11204,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="150">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="165">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -11589,7 +11229,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="135">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="165">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -11614,7 +11254,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
@@ -11689,7 +11329,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="75">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -12118,7 +11758,7 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="45">
+    <row r="49" spans="1:9" ht="60">
       <c r="A49" s="29" t="s">
         <v>72</v>
       </c>
@@ -12328,7 +11968,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="45">
+    <row r="57" spans="1:9" ht="60">
       <c r="A57" s="29" t="s">
         <v>80</v>
       </c>
@@ -12382,7 +12022,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="45">
+    <row r="59" spans="1:9" ht="60">
       <c r="A59" s="29" t="s">
         <v>82</v>
       </c>
@@ -12409,7 +12049,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="60">
       <c r="A60" s="29" t="s">
         <v>83</v>
       </c>
@@ -12436,7 +12076,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="45">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="29" t="s">
         <v>84</v>
       </c>
@@ -12463,7 +12103,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="45">
+    <row r="62" spans="1:9" ht="60">
       <c r="A62" s="29" t="s">
         <v>85</v>
       </c>
@@ -12490,7 +12130,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="45">
       <c r="A63" s="29" t="s">
         <v>86</v>
       </c>
@@ -12565,7 +12205,7 @@
       </c>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="29" t="s">
         <v>89</v>
       </c>
@@ -12590,7 +12230,7 @@
       </c>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="1:9" ht="225">
+    <row r="67" spans="1:9" ht="255">
       <c r="A67" s="29" t="s">
         <v>90</v>
       </c>
@@ -12615,7 +12255,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="45">
       <c r="A68" s="29" t="s">
         <v>91</v>
       </c>
@@ -12815,7 +12455,7 @@
       </c>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="45">
       <c r="A76" s="29" t="s">
         <v>99</v>
       </c>
@@ -12840,7 +12480,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="45">
       <c r="A77" s="29" t="s">
         <v>100</v>
       </c>
@@ -12990,7 +12630,7 @@
       </c>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="45">
       <c r="A83" s="29" t="s">
         <v>106</v>
       </c>
@@ -13115,7 +12755,7 @@
       </c>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:9" ht="30">
+    <row r="88" spans="1:9" ht="45">
       <c r="A88" s="29" t="s">
         <v>111</v>
       </c>
@@ -13140,7 +12780,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" ht="75">
+    <row r="89" spans="1:9" ht="105">
       <c r="A89" s="29" t="s">
         <v>112</v>
       </c>
@@ -13167,7 +12807,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" ht="45">
       <c r="A90" s="29" t="s">
         <v>113</v>
       </c>
@@ -13219,7 +12859,7 @@
       </c>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:9" ht="45">
+    <row r="92" spans="1:9" ht="60">
       <c r="A92" s="29" t="s">
         <v>115</v>
       </c>
@@ -13271,7 +12911,7 @@
       </c>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:9" ht="45">
+    <row r="94" spans="1:9" ht="60">
       <c r="A94" s="29" t="s">
         <v>117</v>
       </c>
@@ -13323,7 +12963,7 @@
       </c>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:9" ht="120">
+    <row r="96" spans="1:9" ht="135">
       <c r="A96" s="29" t="s">
         <v>119</v>
       </c>
@@ -13423,7 +13063,7 @@
       </c>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="29" t="s">
         <v>123</v>
       </c>
@@ -13523,7 +13163,7 @@
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="45">
       <c r="A104" s="29" t="s">
         <v>127</v>
       </c>
@@ -13598,7 +13238,7 @@
       </c>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="45">
       <c r="A107" s="29" t="s">
         <v>130</v>
       </c>
@@ -13673,7 +13313,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="29" t="s">
         <v>133</v>
       </c>
@@ -13698,7 +13338,7 @@
       </c>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="29" t="s">
         <v>134</v>
       </c>
@@ -13748,7 +13388,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="29" t="s">
         <v>136</v>
       </c>
@@ -13798,7 +13438,7 @@
       </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="45">
       <c r="A115" s="29" t="s">
         <v>138</v>
       </c>
@@ -13898,7 +13538,7 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="45">
       <c r="A119" s="29" t="s">
         <v>142</v>
       </c>
@@ -14398,7 +14038,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="45">
       <c r="A139" s="29" t="s">
         <v>162</v>
       </c>
@@ -14523,7 +14163,7 @@
       </c>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="45">
       <c r="A144" s="29" t="s">
         <v>167</v>
       </c>
@@ -14673,7 +14313,7 @@
       </c>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="29" t="s">
         <v>173</v>
       </c>
@@ -14723,7 +14363,7 @@
       </c>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9" ht="45">
       <c r="A152" s="29" t="s">
         <v>175</v>
       </c>
@@ -14748,7 +14388,7 @@
       </c>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" ht="30">
       <c r="A153" s="29" t="s">
         <v>176</v>
       </c>
@@ -14823,7 +14463,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="29" t="s">
         <v>179</v>
       </c>
@@ -14848,7 +14488,7 @@
       </c>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="45">
       <c r="A157" s="29" t="s">
         <v>180</v>
       </c>
@@ -14923,7 +14563,7 @@
       </c>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="45">
       <c r="A160" s="29" t="s">
         <v>183</v>
       </c>
@@ -14973,7 +14613,7 @@
       </c>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="45">
       <c r="A162" s="29" t="s">
         <v>185</v>
       </c>
@@ -15023,7 +14663,7 @@
       </c>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" ht="45">
       <c r="A164" s="29" t="s">
         <v>187</v>
       </c>
@@ -15423,7 +15063,7 @@
       </c>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" ht="45">
       <c r="A180" s="29" t="s">
         <v>203</v>
       </c>
@@ -15523,7 +15163,7 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="45">
       <c r="A184" s="29" t="s">
         <v>207</v>
       </c>
@@ -15648,7 +15288,7 @@
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9" ht="45">
       <c r="A189" s="29" t="s">
         <v>212</v>
       </c>
@@ -15673,7 +15313,7 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" s="29" t="s">
         <v>213</v>
       </c>
@@ -15998,7 +15638,7 @@
       </c>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="29" t="s">
         <v>226</v>
       </c>
@@ -16023,7 +15663,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="29" t="s">
         <v>227</v>
       </c>
@@ -16148,7 +15788,7 @@
       </c>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="45">
       <c r="A209" s="29" t="s">
         <v>232</v>
       </c>
@@ -16398,7 +16038,7 @@
       </c>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="29" t="s">
         <v>242</v>
       </c>
@@ -16423,7 +16063,7 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="29" t="s">
         <v>243</v>
       </c>
@@ -16448,7 +16088,7 @@
       </c>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="29" t="s">
         <v>244</v>
       </c>
@@ -16648,7 +16288,7 @@
       </c>
       <c r="I228" s="31"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="29" t="s">
         <v>252</v>
       </c>
@@ -16848,7 +16488,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="29" t="s">
         <v>260</v>
       </c>
@@ -16873,7 +16513,7 @@
       </c>
       <c r="I237" s="31"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="29" t="s">
         <v>261</v>
       </c>
@@ -16898,7 +16538,7 @@
       </c>
       <c r="I238" s="31"/>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="29" t="s">
         <v>262</v>
       </c>
@@ -16923,7 +16563,7 @@
       </c>
       <c r="I239" s="31"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="29" t="s">
         <v>263</v>
       </c>
@@ -17098,7 +16738,7 @@
       </c>
       <c r="I246" s="31"/>
     </row>
-    <row r="247" spans="1:9" ht="30">
+    <row r="247" spans="1:9" ht="45">
       <c r="A247" s="29" t="s">
         <v>270</v>
       </c>
@@ -17123,7 +16763,7 @@
       </c>
       <c r="I247" s="31"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="29" t="s">
         <v>271</v>
       </c>
@@ -17148,7 +16788,7 @@
       </c>
       <c r="I248" s="31"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="29" t="s">
         <v>272</v>
       </c>
@@ -17173,7 +16813,7 @@
       </c>
       <c r="I249" s="31"/>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="29" t="s">
         <v>273</v>
       </c>
@@ -17198,7 +16838,7 @@
       </c>
       <c r="I250" s="31"/>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="29" t="s">
         <v>274</v>
       </c>
@@ -17223,7 +16863,7 @@
       </c>
       <c r="I251" s="31"/>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" ht="30">
       <c r="A252" s="29" t="s">
         <v>275</v>
       </c>
@@ -17448,7 +17088,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="29" t="s">
         <v>284</v>
       </c>
@@ -17498,7 +17138,7 @@
       </c>
       <c r="I262" s="31"/>
     </row>
-    <row r="263" spans="1:9" ht="60">
+    <row r="263" spans="1:9" ht="75">
       <c r="A263" s="29" t="s">
         <v>286</v>
       </c>
@@ -17523,7 +17163,7 @@
       </c>
       <c r="I263" s="31"/>
     </row>
-    <row r="264" spans="1:9" ht="30">
+    <row r="264" spans="1:9" ht="45">
       <c r="A264" s="29" t="s">
         <v>287</v>
       </c>
@@ -17573,7 +17213,7 @@
       </c>
       <c r="I265" s="31"/>
     </row>
-    <row r="266" spans="1:9" ht="30">
+    <row r="266" spans="1:9" ht="45">
       <c r="A266" s="29" t="s">
         <v>289</v>
       </c>
@@ -17673,7 +17313,7 @@
       </c>
       <c r="I269" s="31"/>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="29" t="s">
         <v>293</v>
       </c>
@@ -17748,7 +17388,7 @@
       </c>
       <c r="I272" s="31"/>
     </row>
-    <row r="273" spans="1:9" ht="30">
+    <row r="273" spans="1:9" ht="45">
       <c r="A273" s="29" t="s">
         <v>296</v>
       </c>
@@ -17923,7 +17563,7 @@
       </c>
       <c r="I279" s="31"/>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" ht="30">
       <c r="A280" s="29" t="s">
         <v>303</v>
       </c>
@@ -18023,7 +17663,7 @@
       </c>
       <c r="I283" s="31"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" ht="30">
       <c r="A284" s="29" t="s">
         <v>307</v>
       </c>
@@ -18152,7 +17792,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="45">
       <c r="A289" s="29" t="s">
         <v>312</v>
       </c>
@@ -18277,7 +17917,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="29" t="s">
         <v>317</v>
       </c>
@@ -18302,7 +17942,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="45">
       <c r="A295" s="29" t="s">
         <v>318</v>
       </c>
@@ -18354,7 +17994,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="45">
       <c r="A297" s="29" t="s">
         <v>320</v>
       </c>
@@ -18404,7 +18044,7 @@
       </c>
       <c r="I298" s="31"/>
     </row>
-    <row r="299" spans="1:9" ht="30">
+    <row r="299" spans="1:9" ht="45">
       <c r="A299" s="29" t="s">
         <v>322</v>
       </c>
@@ -18456,7 +18096,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="30">
+    <row r="301" spans="1:9" ht="45">
       <c r="A301" s="29" t="s">
         <v>324</v>
       </c>
@@ -18481,7 +18121,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="45">
       <c r="A302" s="29" t="s">
         <v>325</v>
       </c>
@@ -18531,7 +18171,7 @@
       </c>
       <c r="I303" s="31"/>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="45">
       <c r="A304" s="29" t="s">
         <v>327</v>
       </c>
@@ -18556,7 +18196,7 @@
       </c>
       <c r="I304" s="31"/>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" ht="45">
       <c r="A305" s="29" t="s">
         <v>328</v>
       </c>
@@ -18706,7 +18346,7 @@
       </c>
       <c r="I310" s="31"/>
     </row>
-    <row r="311" spans="1:9" ht="30">
+    <row r="311" spans="1:9" ht="45">
       <c r="A311" s="29" t="s">
         <v>334</v>
       </c>
@@ -18731,7 +18371,7 @@
       </c>
       <c r="I311" s="31"/>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9" ht="45">
       <c r="A312" s="29" t="s">
         <v>335</v>
       </c>
@@ -18781,7 +18421,7 @@
       </c>
       <c r="I313" s="31"/>
     </row>
-    <row r="314" spans="1:9" ht="30">
+    <row r="314" spans="1:9" ht="45">
       <c r="A314" s="29" t="s">
         <v>337</v>
       </c>
@@ -18856,7 +18496,7 @@
       </c>
       <c r="I316" s="31"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9" ht="45">
       <c r="A317" s="29" t="s">
         <v>340</v>
       </c>
@@ -18956,7 +18596,7 @@
       </c>
       <c r="I320" s="31"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="45">
       <c r="A321" s="29" t="s">
         <v>344</v>
       </c>
@@ -19006,7 +18646,7 @@
       </c>
       <c r="I322" s="31"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="45">
       <c r="A323" s="29" t="s">
         <v>346</v>
       </c>
@@ -19056,7 +18696,7 @@
       </c>
       <c r="I324" s="31"/>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9" ht="45">
       <c r="A325" s="29" t="s">
         <v>348</v>
       </c>
@@ -19106,7 +18746,7 @@
       </c>
       <c r="I326" s="31"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="45">
       <c r="A327" s="29" t="s">
         <v>350</v>
       </c>
@@ -19156,7 +18796,7 @@
       </c>
       <c r="I328" s="31"/>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9" ht="45">
       <c r="A329" s="29" t="s">
         <v>352</v>
       </c>
@@ -19181,7 +18821,7 @@
       </c>
       <c r="I329" s="31"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9" ht="45">
       <c r="A330" s="29" t="s">
         <v>353</v>
       </c>
@@ -19231,7 +18871,7 @@
       </c>
       <c r="I331" s="31"/>
     </row>
-    <row r="332" spans="1:9" ht="30">
+    <row r="332" spans="1:9" ht="45">
       <c r="A332" s="29" t="s">
         <v>355</v>
       </c>
@@ -19281,7 +18921,7 @@
       </c>
       <c r="I333" s="31"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9" ht="45">
       <c r="A334" s="29" t="s">
         <v>357</v>
       </c>
@@ -19331,7 +18971,7 @@
       </c>
       <c r="I335" s="31"/>
     </row>
-    <row r="336" spans="1:9" ht="30">
+    <row r="336" spans="1:9" ht="45">
       <c r="A336" s="29" t="s">
         <v>359</v>
       </c>
@@ -19356,7 +18996,7 @@
       </c>
       <c r="I336" s="31"/>
     </row>
-    <row r="337" spans="1:9" ht="30">
+    <row r="337" spans="1:9" ht="45">
       <c r="A337" s="29" t="s">
         <v>360</v>
       </c>
@@ -19381,7 +19021,7 @@
       </c>
       <c r="I337" s="31"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="45">
       <c r="A338" s="29" t="s">
         <v>361</v>
       </c>
@@ -19406,7 +19046,7 @@
       </c>
       <c r="I338" s="31"/>
     </row>
-    <row r="339" spans="1:9" ht="30">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="29" t="s">
         <v>362</v>
       </c>
@@ -19481,7 +19121,7 @@
       </c>
       <c r="I341" s="31"/>
     </row>
-    <row r="342" spans="1:9" ht="30">
+    <row r="342" spans="1:9" ht="45">
       <c r="A342" s="29" t="s">
         <v>365</v>
       </c>
@@ -19508,7 +19148,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="29" t="s">
         <v>366</v>
       </c>
@@ -19558,7 +19198,7 @@
       </c>
       <c r="I344" s="31"/>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="29" t="s">
         <v>368</v>
       </c>
@@ -19583,7 +19223,7 @@
       </c>
       <c r="I345" s="31"/>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="29" t="s">
         <v>369</v>
       </c>
@@ -19608,7 +19248,7 @@
       </c>
       <c r="I346" s="31"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="45">
       <c r="A347" s="29" t="s">
         <v>370</v>
       </c>
@@ -19733,7 +19373,7 @@
       </c>
       <c r="I351" s="31"/>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="29" t="s">
         <v>375</v>
       </c>
@@ -19808,7 +19448,7 @@
       </c>
       <c r="I354" s="31"/>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9" ht="45">
       <c r="A355" s="29" t="s">
         <v>378</v>
       </c>
@@ -19858,7 +19498,7 @@
       </c>
       <c r="I356" s="31"/>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="29" t="s">
         <v>380</v>
       </c>
@@ -19983,7 +19623,7 @@
       </c>
       <c r="I361" s="31"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="45">
       <c r="A362" s="29" t="s">
         <v>385</v>
       </c>
@@ -20108,7 +19748,7 @@
       </c>
       <c r="I366" s="31"/>
     </row>
-    <row r="367" spans="1:9" ht="45">
+    <row r="367" spans="1:9" ht="60">
       <c r="A367" s="29" t="s">
         <v>390</v>
       </c>
@@ -20258,7 +19898,7 @@
       </c>
       <c r="I372" s="31"/>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" ht="30">
       <c r="A373" s="29" t="s">
         <v>396</v>
       </c>
@@ -20333,7 +19973,7 @@
       </c>
       <c r="I375" s="31"/>
     </row>
-    <row r="376" spans="1:9" ht="30">
+    <row r="376" spans="1:9" ht="45">
       <c r="A376" s="29" t="s">
         <v>399</v>
       </c>
@@ -20358,7 +19998,7 @@
       </c>
       <c r="I376" s="31"/>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" ht="30">
       <c r="A377" s="29" t="s">
         <v>400</v>
       </c>
@@ -20408,7 +20048,7 @@
       </c>
       <c r="I378" s="31"/>
     </row>
-    <row r="379" spans="1:9" ht="75">
+    <row r="379" spans="1:9" ht="105">
       <c r="A379" s="29" t="s">
         <v>402</v>
       </c>
@@ -20510,7 +20150,7 @@
       </c>
       <c r="I382" s="31"/>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" ht="30">
       <c r="A383" s="29" t="s">
         <v>406</v>
       </c>
@@ -20560,7 +20200,7 @@
       </c>
       <c r="I384" s="31"/>
     </row>
-    <row r="385" spans="1:9" ht="90">
+    <row r="385" spans="1:9" ht="105">
       <c r="A385" s="29" t="s">
         <v>408</v>
       </c>
@@ -20637,7 +20277,7 @@
       </c>
       <c r="I387" s="31"/>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="29" t="s">
         <v>411</v>
       </c>
@@ -20662,7 +20302,7 @@
       </c>
       <c r="I388" s="31"/>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" ht="30">
       <c r="A389" s="29" t="s">
         <v>412</v>
       </c>
@@ -20739,7 +20379,7 @@
       </c>
       <c r="I391" s="31"/>
     </row>
-    <row r="392" spans="1:9" ht="30">
+    <row r="392" spans="1:9" ht="45">
       <c r="A392" s="29" t="s">
         <v>415</v>
       </c>
@@ -20764,7 +20404,7 @@
       </c>
       <c r="I392" s="31"/>
     </row>
-    <row r="393" spans="1:9" ht="30">
+    <row r="393" spans="1:9" ht="45">
       <c r="A393" s="29" t="s">
         <v>416</v>
       </c>
@@ -20789,7 +20429,7 @@
       </c>
       <c r="I393" s="31"/>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="29" t="s">
         <v>417</v>
       </c>
@@ -20814,7 +20454,7 @@
       </c>
       <c r="I394" s="31"/>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="29" t="s">
         <v>418</v>
       </c>
@@ -20839,7 +20479,7 @@
       </c>
       <c r="I395" s="31"/>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" ht="30">
       <c r="A396" s="29" t="s">
         <v>419</v>
       </c>
@@ -20864,7 +20504,7 @@
       </c>
       <c r="I396" s="31"/>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="29" t="s">
         <v>420</v>
       </c>
@@ -20943,7 +20583,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="30">
+    <row r="400" spans="1:9" ht="45">
       <c r="A400" s="29" t="s">
         <v>423</v>
       </c>
@@ -20968,7 +20608,7 @@
       </c>
       <c r="I400" s="31"/>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" ht="30">
       <c r="A401" s="29" t="s">
         <v>424</v>
       </c>
@@ -20993,7 +20633,7 @@
       </c>
       <c r="I401" s="31"/>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" ht="30">
       <c r="A402" s="29" t="s">
         <v>425</v>
       </c>
@@ -21070,7 +20710,7 @@
       </c>
       <c r="I404" s="31"/>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="29" t="s">
         <v>428</v>
       </c>
@@ -21095,7 +20735,7 @@
       </c>
       <c r="I405" s="31"/>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" ht="30">
       <c r="A406" s="29" t="s">
         <v>429</v>
       </c>
@@ -21120,7 +20760,7 @@
       </c>
       <c r="I406" s="31"/>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="29" t="s">
         <v>430</v>
       </c>
@@ -21145,7 +20785,7 @@
       </c>
       <c r="I407" s="31"/>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="29" t="s">
         <v>431</v>
       </c>
@@ -21170,7 +20810,7 @@
       </c>
       <c r="I408" s="31"/>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="29" t="s">
         <v>432</v>
       </c>
@@ -21195,7 +20835,7 @@
       </c>
       <c r="I409" s="31"/>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="29" t="s">
         <v>433</v>
       </c>
@@ -21299,7 +20939,7 @@
       </c>
       <c r="I413" s="31"/>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" ht="30">
       <c r="A414" s="29" t="s">
         <v>437</v>
       </c>
@@ -21324,7 +20964,7 @@
       </c>
       <c r="I414" s="31"/>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" ht="30">
       <c r="A415" s="29" t="s">
         <v>438</v>
       </c>
@@ -21349,7 +20989,7 @@
       </c>
       <c r="I415" s="31"/>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="29" t="s">
         <v>439</v>
       </c>
@@ -21374,7 +21014,7 @@
       </c>
       <c r="I416" s="31"/>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" ht="30">
       <c r="A417" s="29" t="s">
         <v>440</v>
       </c>
@@ -21399,7 +21039,7 @@
       </c>
       <c r="I417" s="31"/>
     </row>
-    <row r="418" spans="1:9" ht="45">
+    <row r="418" spans="1:9" ht="60">
       <c r="A418" s="29" t="s">
         <v>441</v>
       </c>
@@ -21576,7 +21216,7 @@
       </c>
       <c r="I424" s="31"/>
     </row>
-    <row r="425" spans="1:9" ht="30">
+    <row r="425" spans="1:9" ht="45">
       <c r="A425" s="29" t="s">
         <v>448</v>
       </c>
@@ -21603,7 +21243,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="30">
+    <row r="426" spans="1:9" ht="45">
       <c r="A426" s="29" t="s">
         <v>449</v>
       </c>
@@ -21680,7 +21320,7 @@
       </c>
       <c r="I428" s="31"/>
     </row>
-    <row r="429" spans="1:9" ht="30">
+    <row r="429" spans="1:9" ht="45">
       <c r="A429" s="29" t="s">
         <v>452</v>
       </c>
@@ -21805,7 +21445,7 @@
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9" ht="30">
+    <row r="434" spans="1:9" ht="45">
       <c r="A434" s="29" t="s">
         <v>457</v>
       </c>
@@ -21855,7 +21495,7 @@
       </c>
       <c r="I435" s="31"/>
     </row>
-    <row r="436" spans="1:9" ht="30">
+    <row r="436" spans="1:9" ht="45">
       <c r="A436" s="29" t="s">
         <v>459</v>
       </c>
@@ -21905,7 +21545,7 @@
       </c>
       <c r="I437" s="31"/>
     </row>
-    <row r="438" spans="1:9" ht="45">
+    <row r="438" spans="1:9" ht="60">
       <c r="A438" s="29" t="s">
         <v>461</v>
       </c>
@@ -21930,7 +21570,7 @@
       </c>
       <c r="I438" s="31"/>
     </row>
-    <row r="439" spans="1:9" ht="60">
+    <row r="439" spans="1:9" ht="75">
       <c r="A439" s="29" t="s">
         <v>462</v>
       </c>
@@ -21980,7 +21620,7 @@
       </c>
       <c r="I440" s="31"/>
     </row>
-    <row r="441" spans="1:9" ht="30">
+    <row r="441" spans="1:9" ht="45">
       <c r="A441" s="29" t="s">
         <v>464</v>
       </c>
@@ -22105,7 +21745,7 @@
       </c>
       <c r="I445" s="31"/>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" ht="30">
       <c r="A446" s="29" t="s">
         <v>469</v>
       </c>
@@ -22230,7 +21870,7 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="45">
+    <row r="451" spans="1:9" ht="60">
       <c r="A451" s="29" t="s">
         <v>474</v>
       </c>
@@ -22280,7 +21920,7 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9" ht="45">
+    <row r="453" spans="1:9" ht="60">
       <c r="A453" s="29" t="s">
         <v>476</v>
       </c>
@@ -22457,7 +22097,7 @@
       </c>
       <c r="I459" s="31"/>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" ht="30">
       <c r="A460" s="29" t="s">
         <v>483</v>
       </c>
@@ -22482,7 +22122,7 @@
       </c>
       <c r="I460" s="31"/>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" ht="30">
       <c r="A461" s="29" t="s">
         <v>484</v>
       </c>
@@ -22507,7 +22147,7 @@
       </c>
       <c r="I461" s="31"/>
     </row>
-    <row r="462" spans="1:9" ht="30">
+    <row r="462" spans="1:9" ht="45">
       <c r="A462" s="29" t="s">
         <v>485</v>
       </c>
@@ -22582,7 +22222,7 @@
       </c>
       <c r="I464" s="31"/>
     </row>
-    <row r="465" spans="1:9" ht="45">
+    <row r="465" spans="1:9" ht="60">
       <c r="A465" s="29" t="s">
         <v>488</v>
       </c>
@@ -22607,7 +22247,7 @@
       </c>
       <c r="I465" s="31"/>
     </row>
-    <row r="466" spans="1:9" ht="30">
+    <row r="466" spans="1:9" ht="45">
       <c r="A466" s="29" t="s">
         <v>489</v>
       </c>
@@ -22682,7 +22322,7 @@
       </c>
       <c r="I468" s="31"/>
     </row>
-    <row r="469" spans="1:9" ht="30">
+    <row r="469" spans="1:9" ht="45">
       <c r="A469" s="29" t="s">
         <v>492</v>
       </c>
@@ -22857,7 +22497,7 @@
       </c>
       <c r="I475" s="31"/>
     </row>
-    <row r="476" spans="1:9" ht="45">
+    <row r="476" spans="1:9" ht="60">
       <c r="A476" s="29" t="s">
         <v>499</v>
       </c>
@@ -22882,7 +22522,7 @@
       </c>
       <c r="I476" s="31"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9" ht="45">
       <c r="A477" s="29" t="s">
         <v>500</v>
       </c>
@@ -22934,7 +22574,7 @@
       </c>
       <c r="I478" s="31"/>
     </row>
-    <row r="479" spans="1:9" ht="45">
+    <row r="479" spans="1:9" ht="60">
       <c r="A479" s="29" t="s">
         <v>502</v>
       </c>
@@ -22959,7 +22599,7 @@
       </c>
       <c r="I479" s="31"/>
     </row>
-    <row r="480" spans="1:9" ht="30">
+    <row r="480" spans="1:9" ht="45">
       <c r="A480" s="29" t="s">
         <v>503</v>
       </c>
@@ -23290,7 +22930,7 @@
       </c>
       <c r="I492" s="31"/>
     </row>
-    <row r="493" spans="1:9" ht="45">
+    <row r="493" spans="1:9" ht="60">
       <c r="A493" s="29" t="s">
         <v>516</v>
       </c>
@@ -23415,7 +23055,7 @@
       </c>
       <c r="I497" s="31"/>
     </row>
-    <row r="498" spans="1:9" ht="30">
+    <row r="498" spans="1:9" ht="45">
       <c r="A498" s="29" t="s">
         <v>521</v>
       </c>
@@ -23490,7 +23130,7 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="45">
+    <row r="501" spans="1:9" ht="60">
       <c r="A501" s="29" t="s">
         <v>524</v>
       </c>
@@ -23515,7 +23155,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="60">
+    <row r="502" spans="1:9" ht="75">
       <c r="A502" s="29" t="s">
         <v>525</v>
       </c>
@@ -23540,7 +23180,7 @@
       </c>
       <c r="I502" s="31"/>
     </row>
-    <row r="503" spans="1:9" ht="45">
+    <row r="503" spans="1:9" ht="60">
       <c r="A503" s="29" t="s">
         <v>526</v>
       </c>
@@ -23592,7 +23232,7 @@
       </c>
       <c r="I504" s="31"/>
     </row>
-    <row r="505" spans="1:9" ht="30">
+    <row r="505" spans="1:9" ht="45">
       <c r="A505" s="29" t="s">
         <v>528</v>
       </c>
@@ -23767,7 +23407,7 @@
       </c>
       <c r="I511" s="31"/>
     </row>
-    <row r="512" spans="1:9" ht="30">
+    <row r="512" spans="1:9" ht="45">
       <c r="A512" s="29" t="s">
         <v>535</v>
       </c>
@@ -23794,7 +23434,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="45">
+    <row r="513" spans="1:9" ht="60">
       <c r="A513" s="29" t="s">
         <v>536</v>
       </c>
@@ -23973,7 +23613,7 @@
       </c>
       <c r="I519" s="31"/>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" ht="30">
       <c r="A520" s="29" t="s">
         <v>543</v>
       </c>
@@ -23998,7 +23638,7 @@
       </c>
       <c r="I520" s="31"/>
     </row>
-    <row r="521" spans="1:9" ht="30">
+    <row r="521" spans="1:9" ht="45">
       <c r="A521" s="29" t="s">
         <v>544</v>
       </c>
@@ -24048,7 +23688,7 @@
       </c>
       <c r="I522" s="31"/>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" ht="30">
       <c r="A523" s="29" t="s">
         <v>546</v>
       </c>
@@ -24098,7 +23738,7 @@
       </c>
       <c r="I524" s="31"/>
     </row>
-    <row r="525" spans="1:9" ht="90">
+    <row r="525" spans="1:9" ht="105">
       <c r="A525" s="29" t="s">
         <v>548</v>
       </c>
@@ -24123,7 +23763,7 @@
       </c>
       <c r="I525" s="31"/>
     </row>
-    <row r="526" spans="1:9" ht="45">
+    <row r="526" spans="1:9" ht="60">
       <c r="A526" s="29" t="s">
         <v>549</v>
       </c>
@@ -24150,7 +23790,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="30">
+    <row r="527" spans="1:9" ht="45">
       <c r="A527" s="29" t="s">
         <v>550</v>
       </c>
@@ -24200,7 +23840,7 @@
       </c>
       <c r="I528" s="31"/>
     </row>
-    <row r="529" spans="1:9" ht="30">
+    <row r="529" spans="1:9" ht="45">
       <c r="A529" s="29" t="s">
         <v>552</v>
       </c>
@@ -24500,7 +24140,7 @@
       </c>
       <c r="I540" s="31"/>
     </row>
-    <row r="541" spans="1:9" ht="30">
+    <row r="541" spans="1:9" ht="45">
       <c r="A541" s="29" t="s">
         <v>564</v>
       </c>
@@ -24550,7 +24190,7 @@
       </c>
       <c r="I542" s="31"/>
     </row>
-    <row r="543" spans="1:9" ht="30">
+    <row r="543" spans="1:9" ht="45">
       <c r="A543" s="29" t="s">
         <v>566</v>
       </c>
@@ -24702,7 +24342,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="45">
+    <row r="549" spans="1:9" ht="60">
       <c r="A549" s="29" t="s">
         <v>572</v>
       </c>
@@ -24752,7 +24392,7 @@
       </c>
       <c r="I550" s="31"/>
     </row>
-    <row r="551" spans="1:9" ht="30">
+    <row r="551" spans="1:9" ht="45">
       <c r="A551" s="29" t="s">
         <v>574</v>
       </c>
@@ -25054,7 +24694,7 @@
       </c>
       <c r="I562" s="31"/>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" ht="30">
       <c r="A563" s="29" t="s">
         <v>586</v>
       </c>
@@ -25129,7 +24769,7 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" ht="30">
       <c r="A566" s="29" t="s">
         <v>589</v>
       </c>
@@ -25204,7 +24844,7 @@
       </c>
       <c r="I568" s="31"/>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" ht="30">
       <c r="A569" s="29" t="s">
         <v>592</v>
       </c>
@@ -25254,7 +24894,7 @@
       </c>
       <c r="I570" s="31"/>
     </row>
-    <row r="571" spans="1:9" ht="45">
+    <row r="571" spans="1:9" ht="60">
       <c r="A571" s="29" t="s">
         <v>594</v>
       </c>
@@ -25304,7 +24944,7 @@
       </c>
       <c r="I572" s="31"/>
     </row>
-    <row r="573" spans="1:9" ht="30">
+    <row r="573" spans="1:9" ht="45">
       <c r="A573" s="29" t="s">
         <v>596</v>
       </c>
@@ -25379,7 +25019,7 @@
       </c>
       <c r="I575" s="31"/>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" ht="30">
       <c r="A576" s="29" t="s">
         <v>599</v>
       </c>
@@ -25454,7 +25094,7 @@
       </c>
       <c r="I578" s="31"/>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" ht="30">
       <c r="A579" s="29" t="s">
         <v>602</v>
       </c>
@@ -25529,7 +25169,7 @@
       </c>
       <c r="I581" s="31"/>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" ht="30">
       <c r="A582" s="29" t="s">
         <v>605</v>
       </c>
@@ -25579,7 +25219,7 @@
       </c>
       <c r="I583" s="31"/>
     </row>
-    <row r="584" spans="1:9" ht="45">
+    <row r="584" spans="1:9" ht="60">
       <c r="A584" s="29" t="s">
         <v>607</v>
       </c>
@@ -25629,7 +25269,7 @@
       </c>
       <c r="I585" s="31"/>
     </row>
-    <row r="586" spans="1:9" ht="30">
+    <row r="586" spans="1:9" ht="45">
       <c r="A586" s="29" t="s">
         <v>609</v>
       </c>
@@ -25754,7 +25394,7 @@
       </c>
       <c r="I590" s="31"/>
     </row>
-    <row r="591" spans="1:9" ht="30">
+    <row r="591" spans="1:9" ht="45">
       <c r="A591" s="29" t="s">
         <v>614</v>
       </c>
@@ -25779,7 +25419,7 @@
       </c>
       <c r="I591" s="31"/>
     </row>
-    <row r="592" spans="1:9" ht="30">
+    <row r="592" spans="1:9" ht="45">
       <c r="A592" s="29" t="s">
         <v>615</v>
       </c>
@@ -25804,7 +25444,7 @@
       </c>
       <c r="I592" s="31"/>
     </row>
-    <row r="593" spans="1:9" ht="30">
+    <row r="593" spans="1:9" ht="45">
       <c r="A593" s="29" t="s">
         <v>616</v>
       </c>
@@ -25829,7 +25469,7 @@
       </c>
       <c r="I593" s="31"/>
     </row>
-    <row r="594" spans="1:9" ht="30">
+    <row r="594" spans="1:9" ht="45">
       <c r="A594" s="29" t="s">
         <v>617</v>
       </c>
@@ -25929,7 +25569,7 @@
       </c>
       <c r="I597" s="31"/>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" ht="30">
       <c r="A598" s="29" t="s">
         <v>621</v>
       </c>
@@ -25979,7 +25619,7 @@
       </c>
       <c r="I599" s="31"/>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" ht="30">
       <c r="A600" s="29" t="s">
         <v>623</v>
       </c>
@@ -26179,7 +25819,7 @@
       </c>
       <c r="I607" s="31"/>
     </row>
-    <row r="608" spans="1:9" ht="30">
+    <row r="608" spans="1:9" ht="45">
       <c r="A608" s="29" t="s">
         <v>631</v>
       </c>
@@ -26404,7 +26044,7 @@
       </c>
       <c r="I616" s="31"/>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" ht="30">
       <c r="A617" s="29" t="s">
         <v>640</v>
       </c>
@@ -26454,7 +26094,7 @@
       </c>
       <c r="I618" s="31"/>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" ht="30">
       <c r="A619" s="29" t="s">
         <v>642</v>
       </c>
@@ -26504,7 +26144,7 @@
       </c>
       <c r="I620" s="31"/>
     </row>
-    <row r="621" spans="1:9" ht="30">
+    <row r="621" spans="1:9" ht="45">
       <c r="A621" s="29" t="s">
         <v>644</v>
       </c>
@@ -26729,7 +26369,7 @@
       </c>
       <c r="I629" s="31"/>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" ht="30">
       <c r="A630" s="29" t="s">
         <v>653</v>
       </c>
@@ -26804,7 +26444,7 @@
       </c>
       <c r="I632" s="31"/>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" ht="30">
       <c r="A633" s="29" t="s">
         <v>656</v>
       </c>
@@ -26829,7 +26469,7 @@
       </c>
       <c r="I633" s="31"/>
     </row>
-    <row r="634" spans="1:9" ht="30">
+    <row r="634" spans="1:9" ht="45">
       <c r="A634" s="29" t="s">
         <v>657</v>
       </c>
@@ -27104,7 +26744,7 @@
       </c>
       <c r="I644" s="31"/>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" ht="30">
       <c r="A645" s="29" t="s">
         <v>668</v>
       </c>
@@ -27354,7 +26994,7 @@
       </c>
       <c r="I654" s="31"/>
     </row>
-    <row r="655" spans="1:9" ht="30">
+    <row r="655" spans="1:9" ht="45">
       <c r="A655" s="29" t="s">
         <v>678</v>
       </c>
@@ -27379,7 +27019,7 @@
       </c>
       <c r="I655" s="31"/>
     </row>
-    <row r="656" spans="1:9" ht="30">
+    <row r="656" spans="1:9" ht="45">
       <c r="A656" s="29" t="s">
         <v>679</v>
       </c>
@@ -27804,7 +27444,7 @@
       </c>
       <c r="I672" s="31"/>
     </row>
-    <row r="673" spans="1:9" ht="30">
+    <row r="673" spans="1:9" ht="45">
       <c r="A673" s="29" t="s">
         <v>696</v>
       </c>
@@ -27829,7 +27469,7 @@
       </c>
       <c r="I673" s="31"/>
     </row>
-    <row r="674" spans="1:9" ht="30">
+    <row r="674" spans="1:9" ht="45">
       <c r="A674" s="29" t="s">
         <v>697</v>
       </c>
@@ -27929,7 +27569,7 @@
       </c>
       <c r="I677" s="31"/>
     </row>
-    <row r="678" spans="1:9" ht="30">
+    <row r="678" spans="1:9" ht="45">
       <c r="A678" s="29" t="s">
         <v>701</v>
       </c>
@@ -27979,7 +27619,7 @@
       </c>
       <c r="I679" s="31"/>
     </row>
-    <row r="680" spans="1:9">
+    <row r="680" spans="1:9" ht="30">
       <c r="A680" s="29" t="s">
         <v>703</v>
       </c>
@@ -28129,7 +27769,7 @@
       </c>
       <c r="I685" s="31"/>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" ht="30">
       <c r="A686" s="29" t="s">
         <v>709</v>
       </c>
@@ -28254,7 +27894,7 @@
       </c>
       <c r="I690" s="31"/>
     </row>
-    <row r="691" spans="1:9" ht="45">
+    <row r="691" spans="1:9" ht="60">
       <c r="A691" s="29" t="s">
         <v>714</v>
       </c>
@@ -28279,7 +27919,7 @@
       </c>
       <c r="I691" s="31"/>
     </row>
-    <row r="692" spans="1:9" ht="45">
+    <row r="692" spans="1:9" ht="60">
       <c r="A692" s="29" t="s">
         <v>715</v>
       </c>
@@ -28304,7 +27944,7 @@
       </c>
       <c r="I692" s="31"/>
     </row>
-    <row r="693" spans="1:9" ht="45">
+    <row r="693" spans="1:9" ht="60">
       <c r="A693" s="29" t="s">
         <v>716</v>
       </c>
@@ -28329,7 +27969,7 @@
       </c>
       <c r="I693" s="31"/>
     </row>
-    <row r="694" spans="1:9" ht="45">
+    <row r="694" spans="1:9" ht="60">
       <c r="A694" s="29" t="s">
         <v>717</v>
       </c>
@@ -28354,7 +27994,7 @@
       </c>
       <c r="I694" s="31"/>
     </row>
-    <row r="695" spans="1:9" ht="30">
+    <row r="695" spans="1:9" ht="45">
       <c r="A695" s="29" t="s">
         <v>718</v>
       </c>
@@ -28404,7 +28044,7 @@
       </c>
       <c r="I696" s="31"/>
     </row>
-    <row r="697" spans="1:9" ht="45">
+    <row r="697" spans="1:9" ht="60">
       <c r="A697" s="29" t="s">
         <v>720</v>
       </c>
@@ -28429,7 +28069,7 @@
       </c>
       <c r="I697" s="31"/>
     </row>
-    <row r="698" spans="1:9" ht="30">
+    <row r="698" spans="1:9" ht="45">
       <c r="A698" s="29" t="s">
         <v>721</v>
       </c>
@@ -28504,7 +28144,7 @@
       </c>
       <c r="I700" s="31"/>
     </row>
-    <row r="701" spans="1:9" ht="30">
+    <row r="701" spans="1:9" ht="45">
       <c r="A701" s="29" t="s">
         <v>724</v>
       </c>
@@ -28554,7 +28194,7 @@
       </c>
       <c r="I702" s="31"/>
     </row>
-    <row r="703" spans="1:9" ht="30">
+    <row r="703" spans="1:9" ht="45">
       <c r="A703" s="29" t="s">
         <v>726</v>
       </c>
@@ -28579,7 +28219,7 @@
       </c>
       <c r="I703" s="31"/>
     </row>
-    <row r="704" spans="1:9" ht="60">
+    <row r="704" spans="1:9" ht="75">
       <c r="A704" s="29" t="s">
         <v>727</v>
       </c>
@@ -28654,7 +28294,7 @@
       </c>
       <c r="I706" s="31"/>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" ht="30">
       <c r="A707" s="29" t="s">
         <v>730</v>
       </c>
@@ -28704,7 +28344,7 @@
       </c>
       <c r="I708" s="31"/>
     </row>
-    <row r="709" spans="1:9" ht="165">
+    <row r="709" spans="1:9" ht="240">
       <c r="A709" s="29" t="s">
         <v>732</v>
       </c>
@@ -28906,7 +28546,7 @@
       </c>
       <c r="I716" s="31"/>
     </row>
-    <row r="717" spans="1:9">
+    <row r="717" spans="1:9" ht="30">
       <c r="A717" s="29" t="s">
         <v>740</v>
       </c>
@@ -28981,7 +28621,7 @@
       </c>
       <c r="I719" s="31"/>
     </row>
-    <row r="720" spans="1:9" ht="30">
+    <row r="720" spans="1:9" ht="45">
       <c r="A720" s="29" t="s">
         <v>743</v>
       </c>
@@ -29183,7 +28823,7 @@
       </c>
       <c r="I727" s="31"/>
     </row>
-    <row r="728" spans="1:9" ht="75">
+    <row r="728" spans="1:9" ht="105">
       <c r="A728" s="29" t="s">
         <v>751</v>
       </c>
@@ -29210,7 +28850,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="45">
+    <row r="729" spans="1:9" ht="60">
       <c r="A729" s="29" t="s">
         <v>752</v>
       </c>
@@ -29237,7 +28877,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="30">
+    <row r="730" spans="1:9" ht="45">
       <c r="A730" s="29" t="s">
         <v>753</v>
       </c>
@@ -29316,7 +28956,7 @@
       </c>
       <c r="I732" s="31"/>
     </row>
-    <row r="733" spans="1:9" ht="30">
+    <row r="733" spans="1:9" ht="45">
       <c r="A733" s="29" t="s">
         <v>756</v>
       </c>
@@ -29341,7 +28981,7 @@
       </c>
       <c r="I733" s="31"/>
     </row>
-    <row r="734" spans="1:9" ht="45">
+    <row r="734" spans="1:9" ht="60">
       <c r="A734" s="29" t="s">
         <v>757</v>
       </c>
@@ -29368,7 +29008,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="30">
+    <row r="735" spans="1:9" ht="45">
       <c r="A735" s="29" t="s">
         <v>758</v>
       </c>
@@ -29418,7 +29058,7 @@
       </c>
       <c r="I736" s="31"/>
     </row>
-    <row r="737" spans="1:9" ht="90">
+    <row r="737" spans="1:9" ht="120">
       <c r="A737" s="29" t="s">
         <v>760</v>
       </c>
@@ -29682,7 +29322,7 @@
       </c>
       <c r="I746" s="31"/>
     </row>
-    <row r="747" spans="1:9">
+    <row r="747" spans="1:9" ht="30">
       <c r="A747" s="29" t="s">
         <v>770</v>
       </c>
@@ -29734,7 +29374,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="749" spans="1:9" ht="30">
+    <row r="749" spans="1:9" ht="45">
       <c r="A749" s="29" t="s">
         <v>772</v>
       </c>
@@ -29759,7 +29399,7 @@
       </c>
       <c r="I749" s="31"/>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" ht="30">
       <c r="A750" s="29" t="s">
         <v>773</v>
       </c>
@@ -29784,7 +29424,7 @@
       </c>
       <c r="I750" s="31"/>
     </row>
-    <row r="751" spans="1:9">
+    <row r="751" spans="1:9" ht="30">
       <c r="A751" s="29" t="s">
         <v>774</v>
       </c>
@@ -29909,7 +29549,7 @@
       </c>
       <c r="I755" s="31"/>
     </row>
-    <row r="756" spans="1:9" ht="30">
+    <row r="756" spans="1:9" ht="45">
       <c r="A756" s="29" t="s">
         <v>779</v>
       </c>
@@ -29934,7 +29574,7 @@
       </c>
       <c r="I756" s="31"/>
     </row>
-    <row r="757" spans="1:9" ht="30">
+    <row r="757" spans="1:9" ht="45">
       <c r="A757" s="29" t="s">
         <v>780</v>
       </c>
@@ -30259,7 +29899,7 @@
       </c>
       <c r="I769" s="31"/>
     </row>
-    <row r="770" spans="1:9" ht="30">
+    <row r="770" spans="1:9" ht="45">
       <c r="A770" s="29" t="s">
         <v>793</v>
       </c>
@@ -30309,7 +29949,7 @@
       </c>
       <c r="I771" s="31"/>
     </row>
-    <row r="772" spans="1:9" ht="30">
+    <row r="772" spans="1:9" ht="45">
       <c r="A772" s="29" t="s">
         <v>795</v>
       </c>
@@ -30334,7 +29974,7 @@
       </c>
       <c r="I772" s="31"/>
     </row>
-    <row r="773" spans="1:9" ht="30">
+    <row r="773" spans="1:9" ht="45">
       <c r="A773" s="29" t="s">
         <v>796</v>
       </c>
@@ -30384,7 +30024,7 @@
       </c>
       <c r="I774" s="31"/>
     </row>
-    <row r="775" spans="1:9" ht="30">
+    <row r="775" spans="1:9" ht="45">
       <c r="A775" s="29" t="s">
         <v>798</v>
       </c>
@@ -30509,7 +30149,7 @@
       </c>
       <c r="I779" s="31"/>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" ht="30">
       <c r="A780" s="29" t="s">
         <v>803</v>
       </c>
@@ -30709,7 +30349,7 @@
       </c>
       <c r="I787" s="31"/>
     </row>
-    <row r="788" spans="1:9" ht="30">
+    <row r="788" spans="1:9" ht="45">
       <c r="A788" s="29" t="s">
         <v>811</v>
       </c>
@@ -30734,7 +30374,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9" ht="30">
+    <row r="789" spans="1:9" ht="45">
       <c r="A789" s="29" t="s">
         <v>812</v>
       </c>
@@ -30784,7 +30424,7 @@
       </c>
       <c r="I790" s="31"/>
     </row>
-    <row r="791" spans="1:9" ht="45">
+    <row r="791" spans="1:9" ht="60">
       <c r="A791" s="29" t="s">
         <v>814</v>
       </c>
@@ -31036,7 +30676,7 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="45">
+    <row r="801" spans="1:9" ht="60">
       <c r="A801" s="29" t="s">
         <v>824</v>
       </c>
@@ -31063,7 +30703,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="802" spans="1:9">
+    <row r="802" spans="1:9" ht="30">
       <c r="A802" s="29" t="s">
         <v>825</v>
       </c>
@@ -31213,7 +30853,7 @@
       </c>
       <c r="I807" s="31"/>
     </row>
-    <row r="808" spans="1:9">
+    <row r="808" spans="1:9" ht="30">
       <c r="A808" s="29" t="s">
         <v>831</v>
       </c>
@@ -31313,7 +30953,7 @@
       </c>
       <c r="I811" s="31"/>
     </row>
-    <row r="812" spans="1:9" ht="45">
+    <row r="812" spans="1:9" ht="60">
       <c r="A812" s="29" t="s">
         <v>835</v>
       </c>
@@ -31340,7 +30980,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="813" spans="1:9">
+    <row r="813" spans="1:9" ht="30">
       <c r="A813" s="29" t="s">
         <v>836</v>
       </c>
@@ -31365,7 +31005,7 @@
       </c>
       <c r="I813" s="31"/>
     </row>
-    <row r="814" spans="1:9" ht="45">
+    <row r="814" spans="1:9" ht="60">
       <c r="A814" s="29" t="s">
         <v>837</v>
       </c>
@@ -31417,7 +31057,7 @@
       </c>
       <c r="I815" s="31"/>
     </row>
-    <row r="816" spans="1:9">
+    <row r="816" spans="1:9" ht="30">
       <c r="A816" s="29" t="s">
         <v>839</v>
       </c>
@@ -31517,7 +31157,7 @@
       </c>
       <c r="I819" s="31"/>
     </row>
-    <row r="820" spans="1:9" ht="30">
+    <row r="820" spans="1:9" ht="45">
       <c r="A820" s="29" t="s">
         <v>843</v>
       </c>
@@ -31544,7 +31184,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="821" spans="1:9">
+    <row r="821" spans="1:9" ht="30">
       <c r="A821" s="29" t="s">
         <v>844</v>
       </c>
@@ -31596,7 +31236,7 @@
       </c>
       <c r="I822" s="31"/>
     </row>
-    <row r="823" spans="1:9" ht="45">
+    <row r="823" spans="1:9" ht="60">
       <c r="A823" s="29" t="s">
         <v>846</v>
       </c>
@@ -31623,7 +31263,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="824" spans="1:9" ht="30">
+    <row r="824" spans="1:9" ht="45">
       <c r="A824" s="29" t="s">
         <v>847</v>
       </c>
@@ -31648,7 +31288,7 @@
       </c>
       <c r="I824" s="31"/>
     </row>
-    <row r="825" spans="1:9" ht="30">
+    <row r="825" spans="1:9" ht="45">
       <c r="A825" s="29" t="s">
         <v>848</v>
       </c>
@@ -31698,7 +31338,7 @@
       </c>
       <c r="I826" s="31"/>
     </row>
-    <row r="827" spans="1:9">
+    <row r="827" spans="1:9" ht="30">
       <c r="A827" s="29" t="s">
         <v>850</v>
       </c>
@@ -31923,7 +31563,7 @@
       </c>
       <c r="I835" s="31"/>
     </row>
-    <row r="836" spans="1:9" ht="45">
+    <row r="836" spans="1:9" ht="60">
       <c r="A836" s="29" t="s">
         <v>859</v>
       </c>
@@ -31975,7 +31615,7 @@
       </c>
       <c r="I837" s="31"/>
     </row>
-    <row r="838" spans="1:9" ht="45">
+    <row r="838" spans="1:9" ht="60">
       <c r="A838" s="29" t="s">
         <v>861</v>
       </c>
@@ -32027,7 +31667,7 @@
       </c>
       <c r="I839" s="31"/>
     </row>
-    <row r="840" spans="1:9" ht="30">
+    <row r="840" spans="1:9" ht="45">
       <c r="A840" s="29" t="s">
         <v>863</v>
       </c>
@@ -32106,7 +31746,7 @@
       </c>
       <c r="I842" s="31"/>
     </row>
-    <row r="843" spans="1:9" ht="30">
+    <row r="843" spans="1:9" ht="45">
       <c r="A843" s="29" t="s">
         <v>866</v>
       </c>
@@ -32156,7 +31796,7 @@
       </c>
       <c r="I844" s="31"/>
     </row>
-    <row r="845" spans="1:9">
+    <row r="845" spans="1:9" ht="30">
       <c r="A845" s="29" t="s">
         <v>868</v>
       </c>
@@ -32206,7 +31846,7 @@
       </c>
       <c r="I846" s="31"/>
     </row>
-    <row r="847" spans="1:9" ht="30">
+    <row r="847" spans="1:9" ht="45">
       <c r="A847" s="29" t="s">
         <v>870</v>
       </c>
@@ -32231,7 +31871,7 @@
       </c>
       <c r="I847" s="31"/>
     </row>
-    <row r="848" spans="1:9" ht="30">
+    <row r="848" spans="1:9" ht="45">
       <c r="A848" s="29" t="s">
         <v>871</v>
       </c>
@@ -32256,7 +31896,7 @@
       </c>
       <c r="I848" s="31"/>
     </row>
-    <row r="849" spans="1:9" ht="45">
+    <row r="849" spans="1:9" ht="60">
       <c r="A849" s="29" t="s">
         <v>872</v>
       </c>
@@ -32281,7 +31921,7 @@
       </c>
       <c r="I849" s="31"/>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" ht="30">
       <c r="A850" s="29" t="s">
         <v>873</v>
       </c>
@@ -32381,7 +32021,7 @@
       </c>
       <c r="I853" s="31"/>
     </row>
-    <row r="854" spans="1:9" ht="30">
+    <row r="854" spans="1:9" ht="45">
       <c r="A854" s="29" t="s">
         <v>877</v>
       </c>
@@ -32431,7 +32071,7 @@
       </c>
       <c r="I855" s="31"/>
     </row>
-    <row r="856" spans="1:9" ht="30">
+    <row r="856" spans="1:9" ht="45">
       <c r="A856" s="29" t="s">
         <v>879</v>
       </c>
@@ -32458,7 +32098,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="857" spans="1:9" ht="45">
+    <row r="857" spans="1:9" ht="60">
       <c r="A857" s="29" t="s">
         <v>880</v>
       </c>
@@ -32508,7 +32148,7 @@
       </c>
       <c r="I858" s="31"/>
     </row>
-    <row r="859" spans="1:9" ht="30">
+    <row r="859" spans="1:9" ht="45">
       <c r="A859" s="29" t="s">
         <v>882</v>
       </c>
@@ -32760,7 +32400,7 @@
       </c>
       <c r="I868" s="31"/>
     </row>
-    <row r="869" spans="1:9" ht="45">
+    <row r="869" spans="1:9" ht="60">
       <c r="A869" s="29" t="s">
         <v>892</v>
       </c>
@@ -32787,7 +32427,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="870" spans="1:9" ht="30">
+    <row r="870" spans="1:9" ht="45">
       <c r="A870" s="29" t="s">
         <v>893</v>
       </c>
@@ -32814,7 +32454,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="871" spans="1:9" ht="30">
+    <row r="871" spans="1:9" ht="45">
       <c r="A871" s="29" t="s">
         <v>894</v>
       </c>
@@ -32864,7 +32504,7 @@
       </c>
       <c r="I872" s="31"/>
     </row>
-    <row r="873" spans="1:9">
+    <row r="873" spans="1:9" ht="30">
       <c r="A873" s="29" t="s">
         <v>896</v>
       </c>
@@ -32914,7 +32554,7 @@
       </c>
       <c r="I874" s="31"/>
     </row>
-    <row r="875" spans="1:9" ht="30">
+    <row r="875" spans="1:9" ht="45">
       <c r="A875" s="29" t="s">
         <v>898</v>
       </c>
@@ -32989,7 +32629,7 @@
       </c>
       <c r="I877" s="31"/>
     </row>
-    <row r="878" spans="1:9" ht="30">
+    <row r="878" spans="1:9" ht="45">
       <c r="A878" s="29" t="s">
         <v>901</v>
       </c>
@@ -33039,7 +32679,7 @@
       </c>
       <c r="I879" s="31"/>
     </row>
-    <row r="880" spans="1:9" ht="30">
+    <row r="880" spans="1:9" ht="45">
       <c r="A880" s="29" t="s">
         <v>903</v>
       </c>
@@ -33064,7 +32704,7 @@
       </c>
       <c r="I880" s="31"/>
     </row>
-    <row r="881" spans="1:9" ht="45">
+    <row r="881" spans="1:9" ht="60">
       <c r="A881" s="29" t="s">
         <v>904</v>
       </c>
@@ -33114,7 +32754,7 @@
       </c>
       <c r="I882" s="31"/>
     </row>
-    <row r="883" spans="1:9">
+    <row r="883" spans="1:9" ht="30">
       <c r="A883" s="29" t="s">
         <v>906</v>
       </c>
@@ -33264,7 +32904,7 @@
       </c>
       <c r="I888" s="31"/>
     </row>
-    <row r="889" spans="1:9" ht="30">
+    <row r="889" spans="1:9" ht="45">
       <c r="A889" s="29" t="s">
         <v>912</v>
       </c>
@@ -33289,7 +32929,7 @@
       </c>
       <c r="I889" s="31"/>
     </row>
-    <row r="890" spans="1:9">
+    <row r="890" spans="1:9" ht="30">
       <c r="A890" s="29" t="s">
         <v>913</v>
       </c>
@@ -33314,7 +32954,7 @@
       </c>
       <c r="I890" s="31"/>
     </row>
-    <row r="891" spans="1:9" ht="30">
+    <row r="891" spans="1:9" ht="45">
       <c r="A891" s="29" t="s">
         <v>914</v>
       </c>
@@ -33339,7 +32979,7 @@
       </c>
       <c r="I891" s="31"/>
     </row>
-    <row r="892" spans="1:9" ht="30">
+    <row r="892" spans="1:9" ht="45">
       <c r="A892" s="29" t="s">
         <v>915</v>
       </c>
@@ -33364,7 +33004,7 @@
       </c>
       <c r="I892" s="31"/>
     </row>
-    <row r="893" spans="1:9">
+    <row r="893" spans="1:9" ht="30">
       <c r="A893" s="29" t="s">
         <v>916</v>
       </c>
@@ -33414,7 +33054,7 @@
       </c>
       <c r="I894" s="31"/>
     </row>
-    <row r="895" spans="1:9" ht="60">
+    <row r="895" spans="1:9" ht="75">
       <c r="A895" s="29" t="s">
         <v>918</v>
       </c>
@@ -33439,7 +33079,7 @@
       </c>
       <c r="I895" s="31"/>
     </row>
-    <row r="896" spans="1:9" ht="30">
+    <row r="896" spans="1:9" ht="45">
       <c r="A896" s="29" t="s">
         <v>919</v>
       </c>
@@ -33491,7 +33131,7 @@
       </c>
       <c r="I897" s="31"/>
     </row>
-    <row r="898" spans="1:9" ht="30">
+    <row r="898" spans="1:9" ht="45">
       <c r="A898" s="29" t="s">
         <v>921</v>
       </c>
@@ -33593,7 +33233,7 @@
       </c>
       <c r="I901" s="31"/>
     </row>
-    <row r="902" spans="1:9" ht="45">
+    <row r="902" spans="1:9" ht="60">
       <c r="A902" s="29" t="s">
         <v>925</v>
       </c>
@@ -33643,7 +33283,7 @@
       </c>
       <c r="I903" s="31"/>
     </row>
-    <row r="904" spans="1:9" ht="45">
+    <row r="904" spans="1:9" ht="60">
       <c r="A904" s="29" t="s">
         <v>927</v>
       </c>
@@ -33670,7 +33310,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="905" spans="1:9" ht="45">
+    <row r="905" spans="1:9" ht="60">
       <c r="A905" s="29" t="s">
         <v>928</v>
       </c>
@@ -33722,7 +33362,7 @@
       </c>
       <c r="I906" s="31"/>
     </row>
-    <row r="907" spans="1:9" ht="90">
+    <row r="907" spans="1:9" ht="105">
       <c r="A907" s="29" t="s">
         <v>930</v>
       </c>
@@ -33797,7 +33437,7 @@
       </c>
       <c r="I909" s="31"/>
     </row>
-    <row r="910" spans="1:9" ht="30">
+    <row r="910" spans="1:9" ht="45">
       <c r="A910" s="29" t="s">
         <v>933</v>
       </c>
@@ -33872,7 +33512,7 @@
       </c>
       <c r="I912" s="31"/>
     </row>
-    <row r="913" spans="1:9" ht="45">
+    <row r="913" spans="1:9" ht="60">
       <c r="A913" s="29" t="s">
         <v>936</v>
       </c>
@@ -34047,7 +33687,7 @@
       </c>
       <c r="I919" s="31"/>
     </row>
-    <row r="920" spans="1:9" ht="45">
+    <row r="920" spans="1:9" ht="60">
       <c r="A920" s="29" t="s">
         <v>943</v>
       </c>
@@ -34122,7 +33762,7 @@
       </c>
       <c r="I922" s="31"/>
     </row>
-    <row r="923" spans="1:9" ht="45">
+    <row r="923" spans="1:9" ht="60">
       <c r="A923" s="29" t="s">
         <v>946</v>
       </c>
@@ -34176,7 +33816,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="925" spans="1:9" ht="30">
+    <row r="925" spans="1:9" ht="45">
       <c r="A925" s="29" t="s">
         <v>948</v>
       </c>
@@ -34201,7 +33841,7 @@
       </c>
       <c r="I925" s="31"/>
     </row>
-    <row r="926" spans="1:9">
+    <row r="926" spans="1:9" ht="30">
       <c r="A926" s="29" t="s">
         <v>949</v>
       </c>
@@ -34326,7 +33966,7 @@
       </c>
       <c r="I930" s="31"/>
     </row>
-    <row r="931" spans="1:9" ht="135">
+    <row r="931" spans="1:9" ht="195">
       <c r="A931" s="29" t="s">
         <v>954</v>
       </c>
@@ -34700,7 +34340,7 @@
       </c>
       <c r="I944" s="31"/>
     </row>
-    <row r="945" spans="1:9">
+    <row r="945" spans="1:9" ht="30">
       <c r="A945" s="29" t="s">
         <v>968</v>
       </c>
@@ -34775,7 +34415,7 @@
       </c>
       <c r="I947" s="31"/>
     </row>
-    <row r="948" spans="1:9" ht="30">
+    <row r="948" spans="1:9" ht="45">
       <c r="A948" s="29" t="s">
         <v>971</v>
       </c>
@@ -34902,7 +34542,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="953" spans="1:9">
+    <row r="953" spans="1:9" ht="30">
       <c r="A953" s="29" t="s">
         <v>976</v>
       </c>
@@ -35002,7 +34642,7 @@
       </c>
       <c r="I956" s="31"/>
     </row>
-    <row r="957" spans="1:9" ht="30">
+    <row r="957" spans="1:9" ht="45">
       <c r="A957" s="29" t="s">
         <v>980</v>
       </c>
@@ -35052,7 +34692,7 @@
       </c>
       <c r="I958" s="31"/>
     </row>
-    <row r="959" spans="1:9">
+    <row r="959" spans="1:9" ht="30">
       <c r="A959" s="29" t="s">
         <v>982</v>
       </c>
@@ -35177,7 +34817,7 @@
       </c>
       <c r="I963" s="31"/>
     </row>
-    <row r="964" spans="1:9" ht="30">
+    <row r="964" spans="1:9" ht="45">
       <c r="A964" s="29" t="s">
         <v>987</v>
       </c>
@@ -35252,7 +34892,7 @@
       </c>
       <c r="I966" s="31"/>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" ht="30">
       <c r="A967" s="29" t="s">
         <v>990</v>
       </c>
@@ -35327,7 +34967,7 @@
       </c>
       <c r="I969" s="31"/>
     </row>
-    <row r="970" spans="1:9" ht="45">
+    <row r="970" spans="1:9" ht="60">
       <c r="A970" s="29" t="s">
         <v>993</v>
       </c>
@@ -35354,7 +34994,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="971" spans="1:9" ht="45">
+    <row r="971" spans="1:9" ht="60">
       <c r="A971" s="29" t="s">
         <v>994</v>
       </c>
@@ -35431,7 +35071,7 @@
       </c>
       <c r="I973" s="31"/>
     </row>
-    <row r="974" spans="1:9" ht="30">
+    <row r="974" spans="1:9" ht="45">
       <c r="A974" s="29" t="s">
         <v>997</v>
       </c>
@@ -35485,7 +35125,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="976" spans="1:9" ht="30">
+    <row r="976" spans="1:9" ht="45">
       <c r="A976" s="29" t="s">
         <v>999</v>
       </c>
@@ -35560,7 +35200,7 @@
       </c>
       <c r="I978" s="31"/>
     </row>
-    <row r="979" spans="1:9" ht="30">
+    <row r="979" spans="1:9" ht="45">
       <c r="A979" s="29" t="s">
         <v>1002</v>
       </c>
@@ -35764,7 +35404,7 @@
       </c>
       <c r="I986" s="31"/>
     </row>
-    <row r="987" spans="1:9" ht="30">
+    <row r="987" spans="1:9" ht="45">
       <c r="A987" s="29" t="s">
         <v>1010</v>
       </c>
@@ -35839,7 +35479,7 @@
       </c>
       <c r="I989" s="31"/>
     </row>
-    <row r="990" spans="1:9">
+    <row r="990" spans="1:9" ht="30">
       <c r="A990" s="29" t="s">
         <v>1013</v>
       </c>
@@ -35864,7 +35504,7 @@
       </c>
       <c r="I990" s="31"/>
     </row>
-    <row r="991" spans="1:9" ht="45">
+    <row r="991" spans="1:9" ht="60">
       <c r="A991" s="29" t="s">
         <v>1014</v>
       </c>
@@ -36264,7 +35904,7 @@
       </c>
       <c r="I1006" s="31"/>
     </row>
-    <row r="1007" spans="1:9">
+    <row r="1007" spans="1:9" ht="30">
       <c r="A1007" s="29" t="s">
         <v>1030</v>
       </c>
@@ -36289,7 +35929,7 @@
       </c>
       <c r="I1007" s="31"/>
     </row>
-    <row r="1008" spans="1:9" ht="30">
+    <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="29" t="s">
         <v>1031</v>
       </c>
@@ -36564,7 +36204,7 @@
       </c>
       <c r="I1018" s="31"/>
     </row>
-    <row r="1019" spans="1:9">
+    <row r="1019" spans="1:9" ht="30">
       <c r="A1019" s="29" t="s">
         <v>1042</v>
       </c>
@@ -37064,7 +36704,7 @@
       </c>
       <c r="I1038" s="31"/>
     </row>
-    <row r="1039" spans="1:9" ht="30">
+    <row r="1039" spans="1:9" ht="45">
       <c r="A1039" s="29" t="s">
         <v>1062</v>
       </c>
@@ -37114,7 +36754,7 @@
       </c>
       <c r="I1040" s="31"/>
     </row>
-    <row r="1041" spans="1:9" ht="30">
+    <row r="1041" spans="1:9" ht="45">
       <c r="A1041" s="29" t="s">
         <v>1064</v>
       </c>
@@ -37264,7 +36904,7 @@
       </c>
       <c r="I1046" s="31"/>
     </row>
-    <row r="1047" spans="1:9" ht="30">
+    <row r="1047" spans="1:9" ht="45">
       <c r="A1047" s="29" t="s">
         <v>1070</v>
       </c>
@@ -37314,7 +36954,7 @@
       </c>
       <c r="I1048" s="31"/>
     </row>
-    <row r="1049" spans="1:9" ht="30">
+    <row r="1049" spans="1:9" ht="45">
       <c r="A1049" s="29" t="s">
         <v>1072</v>
       </c>
@@ -37339,7 +36979,7 @@
       </c>
       <c r="I1049" s="31"/>
     </row>
-    <row r="1050" spans="1:9" ht="30">
+    <row r="1050" spans="1:9" ht="45">
       <c r="A1050" s="29" t="s">
         <v>1073</v>
       </c>
@@ -37364,7 +37004,7 @@
       </c>
       <c r="I1050" s="31"/>
     </row>
-    <row r="1051" spans="1:9" ht="30">
+    <row r="1051" spans="1:9" ht="45">
       <c r="A1051" s="29" t="s">
         <v>1074</v>
       </c>
@@ -37414,7 +37054,7 @@
       </c>
       <c r="I1052" s="31"/>
     </row>
-    <row r="1053" spans="1:9" ht="30">
+    <row r="1053" spans="1:9" ht="45">
       <c r="A1053" s="29" t="s">
         <v>1076</v>
       </c>
@@ -37514,7 +37154,7 @@
       </c>
       <c r="I1056" s="31"/>
     </row>
-    <row r="1057" spans="1:9" ht="30">
+    <row r="1057" spans="1:9" ht="45">
       <c r="A1057" s="29" t="s">
         <v>1080</v>
       </c>
@@ -37639,7 +37279,7 @@
       </c>
       <c r="I1061" s="31"/>
     </row>
-    <row r="1062" spans="1:9">
+    <row r="1062" spans="1:9" ht="30">
       <c r="A1062" s="29" t="s">
         <v>1085</v>
       </c>
@@ -37714,7 +37354,7 @@
       </c>
       <c r="I1064" s="31"/>
     </row>
-    <row r="1065" spans="1:9" ht="30">
+    <row r="1065" spans="1:9" ht="45">
       <c r="A1065" s="29" t="s">
         <v>1088</v>
       </c>
@@ -37739,7 +37379,7 @@
       </c>
       <c r="I1065" s="31"/>
     </row>
-    <row r="1066" spans="1:9" ht="45">
+    <row r="1066" spans="1:9" ht="60">
       <c r="A1066" s="29" t="s">
         <v>1089</v>
       </c>
@@ -37914,7 +37554,7 @@
       </c>
       <c r="I1072" s="31"/>
     </row>
-    <row r="1073" spans="1:9">
+    <row r="1073" spans="1:9" ht="30">
       <c r="A1073" s="29" t="s">
         <v>1096</v>
       </c>
@@ -37964,7 +37604,7 @@
       </c>
       <c r="I1074" s="31"/>
     </row>
-    <row r="1075" spans="1:9">
+    <row r="1075" spans="1:9" ht="30">
       <c r="A1075" s="29" t="s">
         <v>1098</v>
       </c>
@@ -38089,7 +37729,7 @@
       </c>
       <c r="I1079" s="31"/>
     </row>
-    <row r="1080" spans="1:9">
+    <row r="1080" spans="1:9" ht="30">
       <c r="A1080" s="29" t="s">
         <v>1103</v>
       </c>
@@ -38114,7 +37754,7 @@
       </c>
       <c r="I1080" s="31"/>
     </row>
-    <row r="1081" spans="1:9">
+    <row r="1081" spans="1:9" ht="30">
       <c r="A1081" s="29" t="s">
         <v>1104</v>
       </c>
@@ -38139,7 +37779,7 @@
       </c>
       <c r="I1081" s="31"/>
     </row>
-    <row r="1082" spans="1:9">
+    <row r="1082" spans="1:9" ht="30">
       <c r="A1082" s="29" t="s">
         <v>1105</v>
       </c>
@@ -38214,7 +37854,7 @@
       </c>
       <c r="I1084" s="31"/>
     </row>
-    <row r="1085" spans="1:9">
+    <row r="1085" spans="1:9" ht="30">
       <c r="A1085" s="29" t="s">
         <v>1108</v>
       </c>
@@ -38314,7 +37954,7 @@
       </c>
       <c r="I1088" s="31"/>
     </row>
-    <row r="1089" spans="1:9">
+    <row r="1089" spans="1:9" ht="30">
       <c r="A1089" s="29" t="s">
         <v>1112</v>
       </c>
@@ -38339,7 +37979,7 @@
       </c>
       <c r="I1089" s="31"/>
     </row>
-    <row r="1090" spans="1:9">
+    <row r="1090" spans="1:9" ht="30">
       <c r="A1090" s="29" t="s">
         <v>1113</v>
       </c>
@@ -38414,7 +38054,7 @@
       </c>
       <c r="I1092" s="31"/>
     </row>
-    <row r="1093" spans="1:9" ht="30">
+    <row r="1093" spans="1:9" ht="45">
       <c r="A1093" s="29" t="s">
         <v>1116</v>
       </c>
@@ -38439,7 +38079,7 @@
       </c>
       <c r="I1093" s="31"/>
     </row>
-    <row r="1094" spans="1:9" ht="30">
+    <row r="1094" spans="1:9" ht="45">
       <c r="A1094" s="29" t="s">
         <v>1117</v>
       </c>
@@ -38541,7 +38181,7 @@
       </c>
       <c r="I1097" s="31"/>
     </row>
-    <row r="1098" spans="1:9" ht="30">
+    <row r="1098" spans="1:9" ht="45">
       <c r="A1098" s="29" t="s">
         <v>1121</v>
       </c>
@@ -38566,7 +38206,7 @@
       </c>
       <c r="I1098" s="31"/>
     </row>
-    <row r="1099" spans="1:9" ht="30">
+    <row r="1099" spans="1:9" ht="45">
       <c r="A1099" s="29" t="s">
         <v>1122</v>
       </c>
@@ -38591,7 +38231,7 @@
       </c>
       <c r="I1099" s="31"/>
     </row>
-    <row r="1100" spans="1:9">
+    <row r="1100" spans="1:9" ht="30">
       <c r="A1100" s="29" t="s">
         <v>1123</v>
       </c>
@@ -38641,7 +38281,7 @@
       </c>
       <c r="I1101" s="31"/>
     </row>
-    <row r="1102" spans="1:9" ht="30">
+    <row r="1102" spans="1:9" ht="45">
       <c r="A1102" s="29" t="s">
         <v>1125</v>
       </c>
@@ -38691,7 +38331,7 @@
       </c>
       <c r="I1103" s="31"/>
     </row>
-    <row r="1104" spans="1:9" ht="45">
+    <row r="1104" spans="1:9" ht="60">
       <c r="A1104" s="29" t="s">
         <v>1127</v>
       </c>
@@ -38766,7 +38406,7 @@
       </c>
       <c r="I1106" s="31"/>
     </row>
-    <row r="1107" spans="1:9">
+    <row r="1107" spans="1:9" ht="30">
       <c r="A1107" s="29" t="s">
         <v>1130</v>
       </c>
@@ -38841,7 +38481,7 @@
       </c>
       <c r="I1109" s="31"/>
     </row>
-    <row r="1110" spans="1:9" ht="30">
+    <row r="1110" spans="1:9" ht="45">
       <c r="A1110" s="29" t="s">
         <v>1133</v>
       </c>
@@ -38868,7 +38508,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="1111" spans="1:9">
+    <row r="1111" spans="1:9" ht="30">
       <c r="A1111" s="29" t="s">
         <v>1134</v>
       </c>
@@ -38893,7 +38533,7 @@
       </c>
       <c r="I1111" s="31"/>
     </row>
-    <row r="1112" spans="1:9" ht="30">
+    <row r="1112" spans="1:9" ht="45">
       <c r="A1112" s="29" t="s">
         <v>1135</v>
       </c>
@@ -38920,7 +38560,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="1113" spans="1:9" ht="30">
+    <row r="1113" spans="1:9" ht="45">
       <c r="A1113" s="29" t="s">
         <v>1136</v>
       </c>
@@ -38945,7 +38585,7 @@
       </c>
       <c r="I1113" s="31"/>
     </row>
-    <row r="1114" spans="1:9" ht="165">
+    <row r="1114" spans="1:9" ht="240">
       <c r="A1114" s="29" t="s">
         <v>1137</v>
       </c>
@@ -38972,7 +38612,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="1115" spans="1:9" ht="135">
+    <row r="1115" spans="1:9" ht="195">
       <c r="A1115" s="29" t="s">
         <v>1138</v>
       </c>
@@ -38999,7 +38639,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="1116" spans="1:9">
+    <row r="1116" spans="1:9" ht="30">
       <c r="A1116" s="29" t="s">
         <v>1139</v>
       </c>
@@ -39074,7 +38714,7 @@
       </c>
       <c r="I1118" s="31"/>
     </row>
-    <row r="1119" spans="1:9" ht="30">
+    <row r="1119" spans="1:9" ht="45">
       <c r="A1119" s="29" t="s">
         <v>1142</v>
       </c>
@@ -39149,7 +38789,7 @@
       </c>
       <c r="I1121" s="31"/>
     </row>
-    <row r="1122" spans="1:9">
+    <row r="1122" spans="1:9" ht="30">
       <c r="A1122" s="29" t="s">
         <v>1145</v>
       </c>
@@ -39326,7 +38966,7 @@
       </c>
       <c r="I1128" s="31"/>
     </row>
-    <row r="1129" spans="1:9" ht="60">
+    <row r="1129" spans="1:9" ht="75">
       <c r="A1129" s="29" t="s">
         <v>1152</v>
       </c>
@@ -39351,7 +38991,7 @@
       </c>
       <c r="I1129" s="31"/>
     </row>
-    <row r="1130" spans="1:9" ht="45">
+    <row r="1130" spans="1:9" ht="60">
       <c r="A1130" s="29" t="s">
         <v>1153</v>
       </c>
@@ -39376,7 +39016,7 @@
       </c>
       <c r="I1130" s="31"/>
     </row>
-    <row r="1131" spans="1:9" ht="45">
+    <row r="1131" spans="1:9" ht="60">
       <c r="A1131" s="29" t="s">
         <v>1154</v>
       </c>
@@ -39451,7 +39091,7 @@
       </c>
       <c r="I1133" s="31"/>
     </row>
-    <row r="1134" spans="1:9" ht="30">
+    <row r="1134" spans="1:9" ht="45">
       <c r="A1134" s="29" t="s">
         <v>1157</v>
       </c>
@@ -39476,7 +39116,7 @@
       </c>
       <c r="I1134" s="31"/>
     </row>
-    <row r="1135" spans="1:9" ht="30">
+    <row r="1135" spans="1:9" ht="45">
       <c r="A1135" s="29" t="s">
         <v>1158</v>
       </c>
@@ -39501,7 +39141,7 @@
       </c>
       <c r="I1135" s="31"/>
     </row>
-    <row r="1136" spans="1:9" ht="30">
+    <row r="1136" spans="1:9" ht="45">
       <c r="A1136" s="29" t="s">
         <v>1159</v>
       </c>
@@ -39526,7 +39166,7 @@
       </c>
       <c r="I1136" s="31"/>
     </row>
-    <row r="1137" spans="1:9" ht="30">
+    <row r="1137" spans="1:9" ht="45">
       <c r="A1137" s="29" t="s">
         <v>1160</v>
       </c>
@@ -39551,7 +39191,7 @@
       </c>
       <c r="I1137" s="31"/>
     </row>
-    <row r="1138" spans="1:9" ht="30">
+    <row r="1138" spans="1:9" ht="45">
       <c r="A1138" s="29" t="s">
         <v>1161</v>
       </c>
@@ -39601,7 +39241,7 @@
       </c>
       <c r="I1139" s="31"/>
     </row>
-    <row r="1140" spans="1:9" ht="30">
+    <row r="1140" spans="1:9" ht="45">
       <c r="A1140" s="29" t="s">
         <v>1163</v>
       </c>
@@ -39701,7 +39341,7 @@
       </c>
       <c r="I1143" s="31"/>
     </row>
-    <row r="1144" spans="1:9" ht="30">
+    <row r="1144" spans="1:9" ht="45">
       <c r="A1144" s="29" t="s">
         <v>1167</v>
       </c>
@@ -39751,7 +39391,7 @@
       </c>
       <c r="I1145" s="31"/>
     </row>
-    <row r="1146" spans="1:9" ht="30">
+    <row r="1146" spans="1:9" ht="45">
       <c r="A1146" s="29" t="s">
         <v>1169</v>
       </c>
@@ -39826,7 +39466,7 @@
       </c>
       <c r="I1148" s="31"/>
     </row>
-    <row r="1149" spans="1:9" ht="30">
+    <row r="1149" spans="1:9" ht="45">
       <c r="A1149" s="29" t="s">
         <v>1172</v>
       </c>
@@ -39976,7 +39616,7 @@
       </c>
       <c r="I1154" s="31"/>
     </row>
-    <row r="1155" spans="1:9">
+    <row r="1155" spans="1:9" ht="30">
       <c r="A1155" s="29" t="s">
         <v>1178</v>
       </c>
@@ -40101,7 +39741,7 @@
       </c>
       <c r="I1159" s="31"/>
     </row>
-    <row r="1160" spans="1:9" ht="75">
+    <row r="1160" spans="1:9" ht="90">
       <c r="A1160" s="29" t="s">
         <v>1183</v>
       </c>
@@ -40126,7 +39766,7 @@
       </c>
       <c r="I1160" s="31"/>
     </row>
-    <row r="1161" spans="1:9" ht="60">
+    <row r="1161" spans="1:9" ht="75">
       <c r="A1161" s="29" t="s">
         <v>1184</v>
       </c>
@@ -40251,7 +39891,7 @@
       </c>
       <c r="I1165" s="31"/>
     </row>
-    <row r="1166" spans="1:9" ht="30">
+    <row r="1166" spans="1:9" ht="45">
       <c r="A1166" s="29" t="s">
         <v>1189</v>
       </c>
@@ -40276,7 +39916,7 @@
       </c>
       <c r="I1166" s="31"/>
     </row>
-    <row r="1167" spans="1:9" ht="30">
+    <row r="1167" spans="1:9" ht="45">
       <c r="A1167" s="29" t="s">
         <v>1190</v>
       </c>
@@ -40351,7 +39991,7 @@
       </c>
       <c r="I1169" s="31"/>
     </row>
-    <row r="1170" spans="1:9" ht="45">
+    <row r="1170" spans="1:9" ht="60">
       <c r="A1170" s="29" t="s">
         <v>1193</v>
       </c>
@@ -40376,7 +40016,7 @@
       </c>
       <c r="I1170" s="31"/>
     </row>
-    <row r="1171" spans="1:9" ht="60">
+    <row r="1171" spans="1:9" ht="75">
       <c r="A1171" s="29" t="s">
         <v>1194</v>
       </c>
@@ -40403,7 +40043,7 @@
       </c>
       <c r="I1171" s="31"/>
     </row>
-    <row r="1172" spans="1:9" ht="45">
+    <row r="1172" spans="1:9" ht="60">
       <c r="A1172" s="29" t="s">
         <v>1195</v>
       </c>
@@ -40430,7 +40070,7 @@
       </c>
       <c r="I1172" s="31"/>
     </row>
-    <row r="1173" spans="1:9" ht="30">
+    <row r="1173" spans="1:9" ht="45">
       <c r="A1173" s="29" t="s">
         <v>1196</v>
       </c>
@@ -40455,7 +40095,7 @@
       </c>
       <c r="I1173" s="31"/>
     </row>
-    <row r="1174" spans="1:9" ht="30">
+    <row r="1174" spans="1:9" ht="45">
       <c r="A1174" s="29" t="s">
         <v>1197</v>
       </c>
@@ -40507,7 +40147,7 @@
       </c>
       <c r="I1175" s="31"/>
     </row>
-    <row r="1176" spans="1:9" ht="30">
+    <row r="1176" spans="1:9" ht="45">
       <c r="A1176" s="29" t="s">
         <v>1199</v>
       </c>
@@ -40557,7 +40197,7 @@
       </c>
       <c r="I1177" s="31"/>
     </row>
-    <row r="1178" spans="1:9" ht="30">
+    <row r="1178" spans="1:9" ht="45">
       <c r="A1178" s="29" t="s">
         <v>1201</v>
       </c>
@@ -40607,7 +40247,7 @@
       </c>
       <c r="I1179" s="31"/>
     </row>
-    <row r="1180" spans="1:9" ht="30">
+    <row r="1180" spans="1:9" ht="45">
       <c r="A1180" s="29" t="s">
         <v>1203</v>
       </c>
@@ -40682,7 +40322,7 @@
       </c>
       <c r="I1182" s="31"/>
     </row>
-    <row r="1183" spans="1:9" ht="30">
+    <row r="1183" spans="1:9" ht="45">
       <c r="A1183" s="29" t="s">
         <v>1206</v>
       </c>
@@ -40732,7 +40372,7 @@
       </c>
       <c r="I1184" s="31"/>
     </row>
-    <row r="1185" spans="1:9" ht="45">
+    <row r="1185" spans="1:9" ht="60">
       <c r="A1185" s="29" t="s">
         <v>1208</v>
       </c>
@@ -40757,7 +40397,7 @@
       </c>
       <c r="I1185" s="31"/>
     </row>
-    <row r="1186" spans="1:9" ht="30">
+    <row r="1186" spans="1:9" ht="45">
       <c r="A1186" s="29" t="s">
         <v>1209</v>
       </c>
@@ -40782,7 +40422,7 @@
       </c>
       <c r="I1186" s="31"/>
     </row>
-    <row r="1187" spans="1:9">
+    <row r="1187" spans="1:9" ht="30">
       <c r="A1187" s="29" t="s">
         <v>1210</v>
       </c>
@@ -40884,7 +40524,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="1191" spans="1:9" ht="30">
+    <row r="1191" spans="1:9" ht="45">
       <c r="A1191" s="29" t="s">
         <v>1214</v>
       </c>
@@ -40911,7 +40551,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="1192" spans="1:9" ht="30">
+    <row r="1192" spans="1:9" ht="45">
       <c r="A1192" s="29" t="s">
         <v>1215</v>
       </c>
@@ -40936,7 +40576,7 @@
       </c>
       <c r="I1192" s="31"/>
     </row>
-    <row r="1193" spans="1:9" ht="45">
+    <row r="1193" spans="1:9" ht="60">
       <c r="A1193" s="29" t="s">
         <v>1216</v>
       </c>
@@ -40963,7 +40603,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="1194" spans="1:9" ht="45">
+    <row r="1194" spans="1:9" ht="60">
       <c r="A1194" s="29" t="s">
         <v>1217</v>
       </c>
@@ -41090,7 +40730,7 @@
       </c>
       <c r="I1198" s="31"/>
     </row>
-    <row r="1199" spans="1:9" ht="45">
+    <row r="1199" spans="1:9" ht="60">
       <c r="A1199" s="29" t="s">
         <v>1222</v>
       </c>
@@ -41140,7 +40780,7 @@
       </c>
       <c r="I1200" s="31"/>
     </row>
-    <row r="1201" spans="1:9" ht="30">
+    <row r="1201" spans="1:9" ht="45">
       <c r="A1201" s="29" t="s">
         <v>1224</v>
       </c>
@@ -41190,7 +40830,7 @@
       </c>
       <c r="I1202" s="31"/>
     </row>
-    <row r="1203" spans="1:9">
+    <row r="1203" spans="1:9" ht="30">
       <c r="A1203" s="29" t="s">
         <v>1226</v>
       </c>
@@ -41290,7 +40930,7 @@
       </c>
       <c r="I1206" s="31"/>
     </row>
-    <row r="1207" spans="1:9" ht="30">
+    <row r="1207" spans="1:9" ht="45">
       <c r="A1207" s="29" t="s">
         <v>1230</v>
       </c>
@@ -41315,7 +40955,7 @@
       </c>
       <c r="I1207" s="31"/>
     </row>
-    <row r="1208" spans="1:9" ht="90">
+    <row r="1208" spans="1:9" ht="105">
       <c r="A1208" s="29" t="s">
         <v>1231</v>
       </c>
@@ -41340,7 +40980,7 @@
       </c>
       <c r="I1208" s="31"/>
     </row>
-    <row r="1209" spans="1:9" ht="75">
+    <row r="1209" spans="1:9" ht="90">
       <c r="A1209" s="29" t="s">
         <v>1232</v>
       </c>
@@ -41365,7 +41005,7 @@
       </c>
       <c r="I1209" s="31"/>
     </row>
-    <row r="1210" spans="1:9" ht="75">
+    <row r="1210" spans="1:9" ht="90">
       <c r="A1210" s="29" t="s">
         <v>1233</v>
       </c>
@@ -41390,7 +41030,7 @@
       </c>
       <c r="I1210" s="31"/>
     </row>
-    <row r="1211" spans="1:9" ht="30">
+    <row r="1211" spans="1:9" ht="45">
       <c r="A1211" s="29" t="s">
         <v>1234</v>
       </c>
@@ -41440,7 +41080,7 @@
       </c>
       <c r="I1212" s="31"/>
     </row>
-    <row r="1213" spans="1:9" ht="30">
+    <row r="1213" spans="1:9" ht="45">
       <c r="A1213" s="29" t="s">
         <v>1236</v>
       </c>
@@ -41465,7 +41105,7 @@
       </c>
       <c r="I1213" s="31"/>
     </row>
-    <row r="1214" spans="1:9" ht="30">
+    <row r="1214" spans="1:9" ht="45">
       <c r="A1214" s="29" t="s">
         <v>1237</v>
       </c>
@@ -41540,7 +41180,7 @@
       </c>
       <c r="I1216" s="31"/>
     </row>
-    <row r="1217" spans="1:9" ht="30">
+    <row r="1217" spans="1:9" ht="45">
       <c r="A1217" s="29" t="s">
         <v>1240</v>
       </c>
@@ -41590,7 +41230,7 @@
       </c>
       <c r="I1218" s="31"/>
     </row>
-    <row r="1219" spans="1:9" ht="30">
+    <row r="1219" spans="1:9" ht="45">
       <c r="A1219" s="29" t="s">
         <v>1242</v>
       </c>
@@ -41640,7 +41280,7 @@
       </c>
       <c r="I1220" s="31"/>
     </row>
-    <row r="1221" spans="1:9" ht="30">
+    <row r="1221" spans="1:9" ht="45">
       <c r="A1221" s="29" t="s">
         <v>1244</v>
       </c>
@@ -41665,7 +41305,7 @@
       </c>
       <c r="I1221" s="31"/>
     </row>
-    <row r="1222" spans="1:9" ht="30">
+    <row r="1222" spans="1:9" ht="45">
       <c r="A1222" s="29" t="s">
         <v>1245</v>
       </c>
@@ -41740,7 +41380,7 @@
       </c>
       <c r="I1224" s="31"/>
     </row>
-    <row r="1225" spans="1:9" ht="30">
+    <row r="1225" spans="1:9" ht="45">
       <c r="A1225" s="29" t="s">
         <v>1248</v>
       </c>
@@ -41765,7 +41405,7 @@
       </c>
       <c r="I1225" s="31"/>
     </row>
-    <row r="1226" spans="1:9" ht="30">
+    <row r="1226" spans="1:9" ht="45">
       <c r="A1226" s="29" t="s">
         <v>1249</v>
       </c>
@@ -41790,7 +41430,7 @@
       </c>
       <c r="I1226" s="31"/>
     </row>
-    <row r="1227" spans="1:9" ht="45">
+    <row r="1227" spans="1:9" ht="60">
       <c r="A1227" s="29" t="s">
         <v>1250</v>
       </c>
@@ -41915,7 +41555,7 @@
       </c>
       <c r="I1231" s="31"/>
     </row>
-    <row r="1232" spans="1:9" ht="60">
+    <row r="1232" spans="1:9" ht="75">
       <c r="A1232" s="29" t="s">
         <v>1255</v>
       </c>
@@ -41965,7 +41605,7 @@
       </c>
       <c r="I1233" s="31"/>
     </row>
-    <row r="1234" spans="1:9" ht="75">
+    <row r="1234" spans="1:9" ht="90">
       <c r="A1234" s="29" t="s">
         <v>1257</v>
       </c>
@@ -41990,7 +41630,7 @@
       </c>
       <c r="I1234" s="31"/>
     </row>
-    <row r="1235" spans="1:9" ht="30">
+    <row r="1235" spans="1:9" ht="45">
       <c r="A1235" s="29" t="s">
         <v>1258</v>
       </c>
@@ -42065,7 +41705,7 @@
       </c>
       <c r="I1237" s="31"/>
     </row>
-    <row r="1238" spans="1:9" ht="90">
+    <row r="1238" spans="1:9" ht="105">
       <c r="A1238" s="29" t="s">
         <v>1261</v>
       </c>
@@ -42140,7 +41780,7 @@
       </c>
       <c r="I1240" s="31"/>
     </row>
-    <row r="1241" spans="1:9" ht="30">
+    <row r="1241" spans="1:9" ht="45">
       <c r="A1241" s="29" t="s">
         <v>1264</v>
       </c>
@@ -42215,7 +41855,7 @@
       </c>
       <c r="I1243" s="31"/>
     </row>
-    <row r="1244" spans="1:9" ht="75">
+    <row r="1244" spans="1:9" ht="90">
       <c r="A1244" s="29" t="s">
         <v>1267</v>
       </c>
@@ -42240,7 +41880,7 @@
       </c>
       <c r="I1244" s="31"/>
     </row>
-    <row r="1245" spans="1:9" ht="30">
+    <row r="1245" spans="1:9" ht="45">
       <c r="A1245" s="29" t="s">
         <v>1268</v>
       </c>
@@ -42265,7 +41905,7 @@
       </c>
       <c r="I1245" s="31"/>
     </row>
-    <row r="1246" spans="1:9" ht="75">
+    <row r="1246" spans="1:9" ht="90">
       <c r="A1246" s="29" t="s">
         <v>1269</v>
       </c>
@@ -42290,7 +41930,7 @@
       </c>
       <c r="I1246" s="31"/>
     </row>
-    <row r="1247" spans="1:9" ht="30">
+    <row r="1247" spans="1:9" ht="45">
       <c r="A1247" s="29" t="s">
         <v>1270</v>
       </c>
@@ -42340,7 +41980,7 @@
       </c>
       <c r="I1248" s="31"/>
     </row>
-    <row r="1249" spans="1:9" ht="30">
+    <row r="1249" spans="1:9" ht="45">
       <c r="A1249" s="29" t="s">
         <v>1272</v>
       </c>
@@ -42365,7 +42005,7 @@
       </c>
       <c r="I1249" s="31"/>
     </row>
-    <row r="1250" spans="1:9" ht="90">
+    <row r="1250" spans="1:9" ht="105">
       <c r="A1250" s="29" t="s">
         <v>1273</v>
       </c>
@@ -42590,7 +42230,7 @@
       </c>
       <c r="I1258" s="31"/>
     </row>
-    <row r="1259" spans="1:9" ht="45">
+    <row r="1259" spans="1:9" ht="60">
       <c r="A1259" s="29" t="s">
         <v>1282</v>
       </c>
@@ -42640,7 +42280,7 @@
       </c>
       <c r="I1260" s="31"/>
     </row>
-    <row r="1261" spans="1:9" ht="30">
+    <row r="1261" spans="1:9" ht="45">
       <c r="A1261" s="29" t="s">
         <v>1284</v>
       </c>
@@ -42765,7 +42405,7 @@
       </c>
       <c r="I1265" s="31"/>
     </row>
-    <row r="1266" spans="1:9" ht="75">
+    <row r="1266" spans="1:9" ht="90">
       <c r="A1266" s="29" t="s">
         <v>1289</v>
       </c>
@@ -42840,7 +42480,7 @@
       </c>
       <c r="I1268" s="31"/>
     </row>
-    <row r="1269" spans="1:9">
+    <row r="1269" spans="1:9" ht="30">
       <c r="A1269" s="29" t="s">
         <v>1292</v>
       </c>
@@ -42865,7 +42505,7 @@
       </c>
       <c r="I1269" s="31"/>
     </row>
-    <row r="1270" spans="1:9" ht="30">
+    <row r="1270" spans="1:9" ht="45">
       <c r="A1270" s="29" t="s">
         <v>1293</v>
       </c>
@@ -42915,7 +42555,7 @@
       </c>
       <c r="I1271" s="31"/>
     </row>
-    <row r="1272" spans="1:9" ht="30">
+    <row r="1272" spans="1:9" ht="45">
       <c r="A1272" s="29" t="s">
         <v>1295</v>
       </c>
@@ -43015,7 +42655,7 @@
       </c>
       <c r="I1275" s="31"/>
     </row>
-    <row r="1276" spans="1:9">
+    <row r="1276" spans="1:9" ht="30">
       <c r="A1276" s="29" t="s">
         <v>1299</v>
       </c>
@@ -43092,7 +42732,7 @@
       </c>
       <c r="I1278" s="31"/>
     </row>
-    <row r="1279" spans="1:9">
+    <row r="1279" spans="1:9" ht="30">
       <c r="A1279" s="29" t="s">
         <v>1302</v>
       </c>
@@ -43192,7 +42832,7 @@
       </c>
       <c r="I1282" s="31"/>
     </row>
-    <row r="1283" spans="1:9" ht="30">
+    <row r="1283" spans="1:9" ht="45">
       <c r="A1283" s="29" t="s">
         <v>1306</v>
       </c>
@@ -43267,7 +42907,7 @@
       </c>
       <c r="I1285" s="31"/>
     </row>
-    <row r="1286" spans="1:9" ht="30">
+    <row r="1286" spans="1:9" ht="45">
       <c r="A1286" s="29" t="s">
         <v>1309</v>
       </c>
@@ -43417,7 +43057,7 @@
       </c>
       <c r="I1291" s="31"/>
     </row>
-    <row r="1292" spans="1:9" ht="30">
+    <row r="1292" spans="1:9" ht="45">
       <c r="A1292" s="29" t="s">
         <v>1315</v>
       </c>
@@ -43444,7 +43084,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="1293" spans="1:9" ht="30">
+    <row r="1293" spans="1:9" ht="45">
       <c r="A1293" s="29" t="s">
         <v>1316</v>
       </c>
@@ -43496,7 +43136,7 @@
       </c>
       <c r="I1294" s="31"/>
     </row>
-    <row r="1295" spans="1:9">
+    <row r="1295" spans="1:9" ht="30">
       <c r="A1295" s="29" t="s">
         <v>1318</v>
       </c>
@@ -43546,7 +43186,7 @@
       </c>
       <c r="I1296" s="31"/>
     </row>
-    <row r="1297" spans="1:9" ht="45">
+    <row r="1297" spans="1:9" ht="60">
       <c r="A1297" s="29" t="s">
         <v>1320</v>
       </c>
@@ -43650,7 +43290,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="1301" spans="1:9">
+    <row r="1301" spans="1:9" ht="30">
       <c r="A1301" s="29" t="s">
         <v>1324</v>
       </c>
@@ -43675,7 +43315,7 @@
       </c>
       <c r="I1301" s="31"/>
     </row>
-    <row r="1302" spans="1:9">
+    <row r="1302" spans="1:9" ht="30">
       <c r="A1302" s="29" t="s">
         <v>1325</v>
       </c>
@@ -43725,7 +43365,7 @@
       </c>
       <c r="I1303" s="31"/>
     </row>
-    <row r="1304" spans="1:9" ht="30">
+    <row r="1304" spans="1:9" ht="45">
       <c r="A1304" s="29" t="s">
         <v>1327</v>
       </c>
@@ -43775,7 +43415,7 @@
       </c>
       <c r="I1305" s="31"/>
     </row>
-    <row r="1306" spans="1:9" ht="30">
+    <row r="1306" spans="1:9" ht="45">
       <c r="A1306" s="29" t="s">
         <v>1329</v>
       </c>
@@ -43977,7 +43617,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="1314" spans="1:9" ht="45">
+    <row r="1314" spans="1:9" ht="60">
       <c r="A1314" s="29" t="s">
         <v>1337</v>
       </c>
@@ -44027,7 +43667,7 @@
       </c>
       <c r="I1315" s="31"/>
     </row>
-    <row r="1316" spans="1:9">
+    <row r="1316" spans="1:9" ht="30">
       <c r="A1316" s="29" t="s">
         <v>1339</v>
       </c>
@@ -44102,7 +43742,7 @@
       </c>
       <c r="I1318" s="31"/>
     </row>
-    <row r="1319" spans="1:9" ht="30">
+    <row r="1319" spans="1:9" ht="45">
       <c r="A1319" s="29" t="s">
         <v>1342</v>
       </c>
@@ -44127,7 +43767,7 @@
       </c>
       <c r="I1319" s="31"/>
     </row>
-    <row r="1320" spans="1:9">
+    <row r="1320" spans="1:9" ht="30">
       <c r="A1320" s="29" t="s">
         <v>1343</v>
       </c>
@@ -44177,7 +43817,7 @@
       </c>
       <c r="I1321" s="31"/>
     </row>
-    <row r="1322" spans="1:9" ht="30">
+    <row r="1322" spans="1:9" ht="45">
       <c r="A1322" s="29" t="s">
         <v>1345</v>
       </c>
@@ -44227,7 +43867,7 @@
       </c>
       <c r="I1323" s="31"/>
     </row>
-    <row r="1324" spans="1:9" ht="30">
+    <row r="1324" spans="1:9" ht="45">
       <c r="A1324" s="29" t="s">
         <v>1347</v>
       </c>
@@ -44277,7 +43917,7 @@
       </c>
       <c r="I1325" s="31"/>
     </row>
-    <row r="1326" spans="1:9" ht="45">
+    <row r="1326" spans="1:9" ht="60">
       <c r="A1326" s="29" t="s">
         <v>1349</v>
       </c>
@@ -44402,7 +44042,7 @@
       </c>
       <c r="I1330" s="31"/>
     </row>
-    <row r="1331" spans="1:9" ht="30">
+    <row r="1331" spans="1:9" ht="45">
       <c r="A1331" s="29" t="s">
         <v>1354</v>
       </c>
@@ -44645,7 +44285,7 @@
       </c>
       <c r="I1339" s="31"/>
     </row>
-    <row r="1340" spans="1:9" ht="30">
+    <row r="1340" spans="1:9" ht="45">
       <c r="A1340" s="29" t="s">
         <v>1363</v>
       </c>
@@ -44745,7 +44385,7 @@
       </c>
       <c r="I1343" s="31"/>
     </row>
-    <row r="1344" spans="1:9" ht="45">
+    <row r="1344" spans="1:9" ht="60">
       <c r="A1344" s="29" t="s">
         <v>1368</v>
       </c>
@@ -44853,7 +44493,7 @@
       </c>
       <c r="I1347" s="31"/>
     </row>
-    <row r="1348" spans="1:9" ht="45">
+    <row r="1348" spans="1:9" ht="60">
       <c r="A1348" s="29" t="s">
         <v>3089</v>
       </c>
@@ -45100,7 +44740,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1357" spans="1:9" ht="30">
+    <row r="1357" spans="1:9" ht="45">
       <c r="A1357" s="29" t="s">
         <v>1379</v>
       </c>
@@ -45127,7 +44767,7 @@
       </c>
       <c r="I1357" s="31"/>
     </row>
-    <row r="1358" spans="1:9" ht="30">
+    <row r="1358" spans="1:9" ht="45">
       <c r="A1358" s="29" t="s">
         <v>1380</v>
       </c>
@@ -45210,7 +44850,7 @@
       </c>
       <c r="I1360" s="31"/>
     </row>
-    <row r="1361" spans="1:9" ht="75">
+    <row r="1361" spans="1:9" ht="90">
       <c r="A1361" s="29" t="s">
         <v>1383</v>
       </c>
@@ -45239,7 +44879,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1362" spans="1:9" ht="45">
+    <row r="1362" spans="1:9" ht="60">
       <c r="A1362" s="29" t="s">
         <v>1384</v>
       </c>
@@ -45264,7 +44904,7 @@
       </c>
       <c r="I1362" s="31"/>
     </row>
-    <row r="1363" spans="1:9" ht="30">
+    <row r="1363" spans="1:9" ht="45">
       <c r="A1363" s="29" t="s">
         <v>1385</v>
       </c>
@@ -45320,7 +44960,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1365" spans="1:9" ht="30">
+    <row r="1365" spans="1:9" ht="45">
       <c r="A1365" s="29" t="s">
         <v>1387</v>
       </c>
@@ -45376,7 +45016,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1367" spans="1:9" ht="75">
+    <row r="1367" spans="1:9" ht="90">
       <c r="A1367" s="29" t="s">
         <v>1389</v>
       </c>
@@ -45851,7 +45491,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1384" spans="1:9" ht="45">
+    <row r="1384" spans="1:9" ht="60">
       <c r="A1384" s="29" t="s">
         <v>1406</v>
       </c>
@@ -45880,7 +45520,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1385" spans="1:9" ht="60">
+    <row r="1385" spans="1:9" ht="75">
       <c r="A1385" s="29" t="s">
         <v>3013</v>
       </c>
@@ -45909,7 +45549,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1386" spans="1:9" ht="45">
+    <row r="1386" spans="1:9" ht="60">
       <c r="A1386" s="29" t="s">
         <v>1407</v>
       </c>
@@ -45996,7 +45636,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1389" spans="1:9" ht="30">
+    <row r="1389" spans="1:9" ht="45">
       <c r="A1389" s="29" t="s">
         <v>1411</v>
       </c>
@@ -46313,7 +45953,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1400" spans="1:9" ht="45">
+    <row r="1400" spans="1:9" ht="60">
       <c r="A1400" s="29" t="s">
         <v>1420</v>
       </c>
@@ -46371,7 +46011,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1402" spans="1:9" ht="30">
+    <row r="1402" spans="1:9" ht="45">
       <c r="A1402" s="29" t="s">
         <v>1422</v>
       </c>
@@ -46427,7 +46067,7 @@
       </c>
       <c r="I1403" s="31"/>
     </row>
-    <row r="1404" spans="1:9" ht="45">
+    <row r="1404" spans="1:9" ht="60">
       <c r="A1404" s="29" t="s">
         <v>1424</v>
       </c>
@@ -46456,7 +46096,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1405" spans="1:9" ht="45">
+    <row r="1405" spans="1:9" ht="60">
       <c r="A1405" s="29" t="s">
         <v>1425</v>
       </c>
@@ -46485,7 +46125,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1406" spans="1:9" ht="30">
+    <row r="1406" spans="1:9" ht="45">
       <c r="A1406" s="29" t="s">
         <v>1426</v>
       </c>
@@ -46510,7 +46150,7 @@
       </c>
       <c r="I1406" s="31"/>
     </row>
-    <row r="1407" spans="1:9" ht="30">
+    <row r="1407" spans="1:9" ht="45">
       <c r="A1407" s="29" t="s">
         <v>1427</v>
       </c>
@@ -46535,7 +46175,7 @@
       </c>
       <c r="I1407" s="31"/>
     </row>
-    <row r="1408" spans="1:9" ht="30">
+    <row r="1408" spans="1:9" ht="45">
       <c r="A1408" s="29" t="s">
         <v>1428</v>
       </c>
@@ -46560,7 +46200,7 @@
       </c>
       <c r="I1408" s="31"/>
     </row>
-    <row r="1409" spans="1:9" ht="30">
+    <row r="1409" spans="1:9" ht="45">
       <c r="A1409" s="29" t="s">
         <v>1429</v>
       </c>
@@ -46585,7 +46225,7 @@
       </c>
       <c r="I1409" s="31"/>
     </row>
-    <row r="1410" spans="1:9" ht="30">
+    <row r="1410" spans="1:9" ht="45">
       <c r="A1410" s="29" t="s">
         <v>1430</v>
       </c>
@@ -46610,7 +46250,7 @@
       </c>
       <c r="I1410" s="31"/>
     </row>
-    <row r="1411" spans="1:9" ht="30">
+    <row r="1411" spans="1:9" ht="45">
       <c r="A1411" s="29" t="s">
         <v>1431</v>
       </c>
@@ -46635,7 +46275,7 @@
       </c>
       <c r="I1411" s="31"/>
     </row>
-    <row r="1412" spans="1:9" ht="30">
+    <row r="1412" spans="1:9" ht="45">
       <c r="A1412" s="29" t="s">
         <v>1432</v>
       </c>
@@ -46660,7 +46300,7 @@
       </c>
       <c r="I1412" s="31"/>
     </row>
-    <row r="1413" spans="1:9" ht="30">
+    <row r="1413" spans="1:9" ht="45">
       <c r="A1413" s="29" t="s">
         <v>1433</v>
       </c>
@@ -46685,7 +46325,7 @@
       </c>
       <c r="I1413" s="31"/>
     </row>
-    <row r="1414" spans="1:9" ht="30">
+    <row r="1414" spans="1:9" ht="45">
       <c r="A1414" s="29" t="s">
         <v>1434</v>
       </c>
@@ -46710,7 +46350,7 @@
       </c>
       <c r="I1414" s="31"/>
     </row>
-    <row r="1415" spans="1:9" ht="30">
+    <row r="1415" spans="1:9" ht="45">
       <c r="A1415" s="29" t="s">
         <v>1435</v>
       </c>
@@ -46735,7 +46375,7 @@
       </c>
       <c r="I1415" s="31"/>
     </row>
-    <row r="1416" spans="1:9" ht="30">
+    <row r="1416" spans="1:9" ht="45">
       <c r="A1416" s="29" t="s">
         <v>1436</v>
       </c>
@@ -46760,7 +46400,7 @@
       </c>
       <c r="I1416" s="31"/>
     </row>
-    <row r="1417" spans="1:9" ht="30">
+    <row r="1417" spans="1:9" ht="45">
       <c r="A1417" s="29" t="s">
         <v>1437</v>
       </c>
@@ -46785,7 +46425,7 @@
       </c>
       <c r="I1417" s="31"/>
     </row>
-    <row r="1418" spans="1:9" ht="30">
+    <row r="1418" spans="1:9" ht="45">
       <c r="A1418" s="29" t="s">
         <v>1438</v>
       </c>
@@ -46810,7 +46450,7 @@
       </c>
       <c r="I1418" s="31"/>
     </row>
-    <row r="1419" spans="1:9" ht="30">
+    <row r="1419" spans="1:9" ht="45">
       <c r="A1419" s="29" t="s">
         <v>1439</v>
       </c>
@@ -46835,7 +46475,7 @@
       </c>
       <c r="I1419" s="31"/>
     </row>
-    <row r="1420" spans="1:9" ht="30">
+    <row r="1420" spans="1:9" ht="45">
       <c r="A1420" s="29" t="s">
         <v>1440</v>
       </c>
@@ -46860,7 +46500,7 @@
       </c>
       <c r="I1420" s="31"/>
     </row>
-    <row r="1421" spans="1:9" ht="30">
+    <row r="1421" spans="1:9" ht="45">
       <c r="A1421" s="29" t="s">
         <v>1441</v>
       </c>
@@ -46885,7 +46525,7 @@
       </c>
       <c r="I1421" s="31"/>
     </row>
-    <row r="1422" spans="1:9" ht="30">
+    <row r="1422" spans="1:9" ht="45">
       <c r="A1422" s="29" t="s">
         <v>1442</v>
       </c>
@@ -46910,7 +46550,7 @@
       </c>
       <c r="I1422" s="31"/>
     </row>
-    <row r="1423" spans="1:9" ht="30">
+    <row r="1423" spans="1:9" ht="45">
       <c r="A1423" s="29" t="s">
         <v>1443</v>
       </c>
@@ -46935,7 +46575,7 @@
       </c>
       <c r="I1423" s="31"/>
     </row>
-    <row r="1424" spans="1:9" ht="30">
+    <row r="1424" spans="1:9" ht="45">
       <c r="A1424" s="29" t="s">
         <v>1444</v>
       </c>
@@ -46960,7 +46600,7 @@
       </c>
       <c r="I1424" s="31"/>
     </row>
-    <row r="1425" spans="1:9" ht="30">
+    <row r="1425" spans="1:9" ht="45">
       <c r="A1425" s="29" t="s">
         <v>1445</v>
       </c>
@@ -46985,7 +46625,7 @@
       </c>
       <c r="I1425" s="31"/>
     </row>
-    <row r="1426" spans="1:9" ht="30">
+    <row r="1426" spans="1:9" ht="45">
       <c r="A1426" s="29" t="s">
         <v>1446</v>
       </c>
@@ -47010,7 +46650,7 @@
       </c>
       <c r="I1426" s="31"/>
     </row>
-    <row r="1427" spans="1:9" ht="30">
+    <row r="1427" spans="1:9" ht="45">
       <c r="A1427" s="29" t="s">
         <v>1447</v>
       </c>
@@ -47035,7 +46675,7 @@
       </c>
       <c r="I1427" s="31"/>
     </row>
-    <row r="1428" spans="1:9" ht="30">
+    <row r="1428" spans="1:9" ht="45">
       <c r="A1428" s="29" t="s">
         <v>1448</v>
       </c>
@@ -47060,7 +46700,7 @@
       </c>
       <c r="I1428" s="31"/>
     </row>
-    <row r="1429" spans="1:9" ht="30">
+    <row r="1429" spans="1:9" ht="45">
       <c r="A1429" s="29" t="s">
         <v>1449</v>
       </c>
@@ -47110,7 +46750,7 @@
       </c>
       <c r="I1430" s="31"/>
     </row>
-    <row r="1431" spans="1:9" ht="45">
+    <row r="1431" spans="1:9" ht="60">
       <c r="A1431" s="29" t="s">
         <v>1451</v>
       </c>
@@ -47185,7 +46825,7 @@
       </c>
       <c r="I1433" s="31"/>
     </row>
-    <row r="1434" spans="1:9" ht="30">
+    <row r="1434" spans="1:9" ht="45">
       <c r="A1434" s="29" t="s">
         <v>1454</v>
       </c>
@@ -47310,7 +46950,7 @@
       </c>
       <c r="I1438" s="31"/>
     </row>
-    <row r="1439" spans="1:9" ht="30">
+    <row r="1439" spans="1:9" ht="45">
       <c r="A1439" s="29" t="s">
         <v>1459</v>
       </c>
@@ -47418,7 +47058,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1443" spans="1:9" ht="45">
+    <row r="1443" spans="1:9" ht="60">
       <c r="A1443" s="29" t="s">
         <v>1463</v>
       </c>
@@ -47499,7 +47139,7 @@
       </c>
       <c r="I1445" s="31"/>
     </row>
-    <row r="1446" spans="1:9" ht="45">
+    <row r="1446" spans="1:9" ht="60">
       <c r="A1446" s="29" t="s">
         <v>1466</v>
       </c>
@@ -47549,32 +47189,32 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I1446">
-    <cfRule type="expression" dxfId="98" priority="53">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:I1446">
-    <cfRule type="expression" dxfId="95" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F1446">
-    <cfRule type="expression" dxfId="92" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10265" uniqueCount="3090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10264" uniqueCount="3090">
   <si>
     <t>Req ID</t>
   </si>
@@ -8971,18 +8971,12 @@
     <t>Verified by derived requirements: MS-OXCRPC_R1899, MS-OXCRPC_R1934.</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXCRPC_R1374, MS-OXCRPC_R1939.</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-OXCRPC_R1900, MS-OXCRPC_R1508.</t>
   </si>
   <si>
     <t>Partially verified by derived requirement: MS-OXCRPC_R4852.</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXCRPC_R664, MS-OXCRPC_R1924.</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-OXCRPC_R1403, MS-OXCRPC_R1926.</t>
   </si>
   <si>
@@ -9071,9 +9065,6 @@
   </si>
   <si>
     <t>Verified by requirement: MS-OXCRPC_R1845.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXCRPC_R1558.</t>
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does fail with error code ecRpcFailed (0x80040115) if the request buffer is smaller than the size of RPC_HEADER_EXT (0x00000008 bytes). (Microsoft Exchange Server 2010 SP2 and above follow this behavior.)</t>
@@ -9534,6 +9525,15 @@
   <si>
     <t>MS-OXCRPC_R1748</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCRPC_R1374, MS-OXCRPC_R2001, MS-OXCRPC_R1939.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCRPC_R664, MS-OXCRPC_R1924, MS-OXCRPC_R2002.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCRPC_R4880, MS-OXCRPC_R1558.</t>
   </si>
 </sst>
 </file>
@@ -9808,6 +9808,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9831,21 +9846,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10718,7 +10718,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -10728,7 +10728,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10742,7 +10742,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -10753,127 +10753,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10886,12 +10886,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10904,12 +10904,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10922,12 +10922,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10940,60 +10940,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -17546,7 +17546,7 @@
         <v>1492</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -17646,7 +17646,7 @@
         <v>1492</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -17950,7 +17950,7 @@
         <v>1495</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -17975,7 +17975,7 @@
         <v>1495</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -20006,7 +20006,7 @@
         <v>1503</v>
       </c>
       <c r="C377" s="31" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="D377" s="29"/>
       <c r="E377" s="29" t="s">
@@ -20235,7 +20235,7 @@
         <v>1504</v>
       </c>
       <c r="C386" s="31" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
@@ -20260,7 +20260,7 @@
         <v>1504</v>
       </c>
       <c r="C387" s="31" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
@@ -20285,7 +20285,7 @@
         <v>1504</v>
       </c>
       <c r="C388" s="31" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -20437,7 +20437,7 @@
         <v>1504</v>
       </c>
       <c r="C394" s="31" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="D394" s="29"/>
       <c r="E394" s="29" t="s">
@@ -20487,7 +20487,7 @@
         <v>1504</v>
       </c>
       <c r="C396" s="31" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="D396" s="29"/>
       <c r="E396" s="29" t="s">
@@ -20616,7 +20616,7 @@
         <v>1504</v>
       </c>
       <c r="C401" s="31" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="D401" s="29"/>
       <c r="E401" s="29" t="s">
@@ -20718,7 +20718,7 @@
         <v>1504</v>
       </c>
       <c r="C405" s="31" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="29" t="s">
@@ -20768,7 +20768,7 @@
         <v>1504</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="D407" s="29"/>
       <c r="E407" s="29" t="s">
@@ -20818,7 +20818,7 @@
         <v>1504</v>
       </c>
       <c r="C409" s="31" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -20947,7 +20947,7 @@
         <v>1504</v>
       </c>
       <c r="C414" s="31" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -20997,7 +20997,7 @@
         <v>1504</v>
       </c>
       <c r="C416" s="31" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -21628,7 +21628,7 @@
         <v>32</v>
       </c>
       <c r="C441" s="31" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -21653,7 +21653,7 @@
         <v>32</v>
       </c>
       <c r="C442" s="31" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29" t="s">
@@ -21928,7 +21928,7 @@
         <v>32</v>
       </c>
       <c r="C453" s="31" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -21980,7 +21980,7 @@
         <v>32</v>
       </c>
       <c r="C455" s="31" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -22530,7 +22530,7 @@
         <v>32</v>
       </c>
       <c r="C477" s="31" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="D477" s="29"/>
       <c r="E477" s="29" t="s">
@@ -22661,7 +22661,7 @@
         <v>32</v>
       </c>
       <c r="C482" s="31" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="D482" s="29"/>
       <c r="E482" s="29" t="s">
@@ -22686,7 +22686,7 @@
         <v>32</v>
       </c>
       <c r="C483" s="31" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="D483" s="29"/>
       <c r="E483" s="29" t="s">
@@ -23188,7 +23188,7 @@
         <v>32</v>
       </c>
       <c r="C503" s="31" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="29" t="s">
@@ -23415,7 +23415,7 @@
         <v>32</v>
       </c>
       <c r="C512" s="31" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -23442,7 +23442,7 @@
         <v>32</v>
       </c>
       <c r="C513" s="31" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -23771,7 +23771,7 @@
         <v>32</v>
       </c>
       <c r="C526" s="31" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="D526" s="29"/>
       <c r="E526" s="29" t="s">
@@ -28858,7 +28858,7 @@
         <v>1522</v>
       </c>
       <c r="C729" s="31" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -28989,7 +28989,7 @@
         <v>1522</v>
       </c>
       <c r="C734" s="31" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="D734" s="29"/>
       <c r="E734" s="29" t="s">
@@ -30684,7 +30684,7 @@
         <v>33</v>
       </c>
       <c r="C801" s="31" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="D801" s="29"/>
       <c r="E801" s="29" t="s">
@@ -30953,7 +30953,7 @@
       </c>
       <c r="I811" s="31"/>
     </row>
-    <row r="812" spans="1:9" ht="60">
+    <row r="812" spans="1:9" ht="75">
       <c r="A812" s="29" t="s">
         <v>835</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>33</v>
       </c>
       <c r="C812" s="31" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="D812" s="29"/>
       <c r="E812" s="29" t="s">
@@ -30977,7 +30977,7 @@
         <v>17</v>
       </c>
       <c r="I812" s="31" t="s">
-        <v>2902</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="813" spans="1:9" ht="30">
@@ -31013,7 +31013,7 @@
         <v>33</v>
       </c>
       <c r="C814" s="31" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="D814" s="29"/>
       <c r="E814" s="29" t="s">
@@ -31029,7 +31029,7 @@
         <v>17</v>
       </c>
       <c r="I814" s="31" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="815" spans="1:9">
@@ -31181,7 +31181,7 @@
         <v>17</v>
       </c>
       <c r="I820" s="31" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="30">
@@ -31236,7 +31236,7 @@
       </c>
       <c r="I822" s="31"/>
     </row>
-    <row r="823" spans="1:9" ht="60">
+    <row r="823" spans="1:9" ht="75">
       <c r="A823" s="29" t="s">
         <v>846</v>
       </c>
@@ -31244,7 +31244,7 @@
         <v>33</v>
       </c>
       <c r="C823" s="31" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="D823" s="29"/>
       <c r="E823" s="29" t="s">
@@ -31260,7 +31260,7 @@
         <v>17</v>
       </c>
       <c r="I823" s="31" t="s">
-        <v>2905</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="824" spans="1:9" ht="45">
@@ -31571,7 +31571,7 @@
         <v>33</v>
       </c>
       <c r="C836" s="31" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="D836" s="29"/>
       <c r="E836" s="29" t="s">
@@ -31587,7 +31587,7 @@
         <v>17</v>
       </c>
       <c r="I836" s="31" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="837" spans="1:9">
@@ -31623,7 +31623,7 @@
         <v>33</v>
       </c>
       <c r="C838" s="31" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="D838" s="29"/>
       <c r="E838" s="29" t="s">
@@ -31639,7 +31639,7 @@
         <v>17</v>
       </c>
       <c r="I838" s="31" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="839" spans="1:9" ht="30">
@@ -31691,7 +31691,7 @@
         <v>17</v>
       </c>
       <c r="I840" s="31" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="841" spans="1:9" ht="30">
@@ -32095,7 +32095,7 @@
         <v>17</v>
       </c>
       <c r="I856" s="31" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="857" spans="1:9" ht="60">
@@ -32172,7 +32172,7 @@
         <v>17</v>
       </c>
       <c r="I859" s="31" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="860" spans="1:9" ht="30">
@@ -32424,7 +32424,7 @@
         <v>17</v>
       </c>
       <c r="I869" s="31" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="870" spans="1:9" ht="45">
@@ -32451,7 +32451,7 @@
         <v>17</v>
       </c>
       <c r="I870" s="31" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="45">
@@ -33103,7 +33103,7 @@
         <v>17</v>
       </c>
       <c r="I896" s="31" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="897" spans="1:9" ht="45">
@@ -33155,7 +33155,7 @@
         <v>17</v>
       </c>
       <c r="I898" s="31" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="899" spans="1:9" ht="30">
@@ -33216,7 +33216,7 @@
         <v>1532</v>
       </c>
       <c r="C901" s="31" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="D901" s="29"/>
       <c r="E901" s="29" t="s">
@@ -33307,7 +33307,7 @@
         <v>17</v>
       </c>
       <c r="I904" s="31" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="905" spans="1:9" ht="60">
@@ -33334,7 +33334,7 @@
         <v>17</v>
       </c>
       <c r="I905" s="31" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="906" spans="1:9" ht="30">
@@ -33786,7 +33786,7 @@
         <v>17</v>
       </c>
       <c r="I923" s="31" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="924" spans="1:9" ht="45">
@@ -33797,7 +33797,7 @@
         <v>1535</v>
       </c>
       <c r="C924" s="31" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="D924" s="29"/>
       <c r="E924" s="29" t="s">
@@ -33813,7 +33813,7 @@
         <v>17</v>
       </c>
       <c r="I924" s="31" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="925" spans="1:9" ht="45">
@@ -33990,7 +33990,7 @@
         <v>17</v>
       </c>
       <c r="I931" s="31" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="932" spans="1:9" ht="30">
@@ -34539,7 +34539,7 @@
         <v>17</v>
       </c>
       <c r="I952" s="31" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="953" spans="1:9" ht="30">
@@ -34975,7 +34975,7 @@
         <v>1538</v>
       </c>
       <c r="C970" s="31" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="D970" s="29"/>
       <c r="E970" s="29" t="s">
@@ -34991,7 +34991,7 @@
         <v>17</v>
       </c>
       <c r="I970" s="31" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="971" spans="1:9" ht="60">
@@ -35018,7 +35018,7 @@
         <v>17</v>
       </c>
       <c r="I971" s="31" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="972" spans="1:9" ht="30">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="I973" s="31"/>
     </row>
-    <row r="974" spans="1:9" ht="45">
+    <row r="974" spans="1:9" ht="60">
       <c r="A974" s="29" t="s">
         <v>997</v>
       </c>
@@ -35079,7 +35079,7 @@
         <v>1539</v>
       </c>
       <c r="C974" s="31" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D974" s="29"/>
       <c r="E974" s="29" t="s">
@@ -35095,7 +35095,7 @@
         <v>17</v>
       </c>
       <c r="I974" s="31" t="s">
-        <v>2936</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="975" spans="1:9" ht="30">
@@ -35224,7 +35224,7 @@
         <v>17</v>
       </c>
       <c r="I979" s="31" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="980" spans="1:9" ht="30">
@@ -35326,7 +35326,7 @@
         <v>17</v>
       </c>
       <c r="I983" s="31" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="984" spans="1:9" ht="30">
@@ -36987,7 +36987,7 @@
         <v>1552</v>
       </c>
       <c r="C1050" s="31" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
@@ -37062,7 +37062,7 @@
         <v>1553</v>
       </c>
       <c r="C1053" s="31" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="D1053" s="29"/>
       <c r="E1053" s="29" t="s">
@@ -37337,7 +37337,7 @@
         <v>1553</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="D1064" s="29"/>
       <c r="E1064" s="29" t="s">
@@ -37387,7 +37387,7 @@
         <v>1553</v>
       </c>
       <c r="C1066" s="31" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="D1066" s="29"/>
       <c r="E1066" s="29" t="s">
@@ -38012,7 +38012,7 @@
         <v>1553</v>
       </c>
       <c r="C1091" s="31" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="D1091" s="29"/>
       <c r="E1091" s="29" t="s">
@@ -38103,7 +38103,7 @@
         <v>17</v>
       </c>
       <c r="I1094" s="31" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="30">
@@ -38364,7 +38364,7 @@
         <v>1553</v>
       </c>
       <c r="C1105" s="31" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="D1105" s="29"/>
       <c r="E1105" s="29" t="s">
@@ -38557,7 +38557,7 @@
         <v>17</v>
       </c>
       <c r="I1112" s="31" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1113" spans="1:9" ht="45">
@@ -38609,7 +38609,7 @@
         <v>17</v>
       </c>
       <c r="I1114" s="31" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="1115" spans="1:9" ht="195">
@@ -38636,7 +38636,7 @@
         <v>17</v>
       </c>
       <c r="I1115" s="31" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1116" spans="1:9" ht="30">
@@ -39049,7 +39049,7 @@
         <v>1556</v>
       </c>
       <c r="C1132" s="31" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="D1132" s="29"/>
       <c r="E1132" s="29" t="s">
@@ -39449,7 +39449,7 @@
         <v>1556</v>
       </c>
       <c r="C1148" s="31" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="D1148" s="29"/>
       <c r="E1148" s="29" t="s">
@@ -39774,7 +39774,7 @@
         <v>1560</v>
       </c>
       <c r="C1161" s="31" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D1161" s="29"/>
       <c r="E1161" s="29" t="s">
@@ -39999,7 +39999,7 @@
         <v>1560</v>
       </c>
       <c r="C1170" s="31" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="D1170" s="29"/>
       <c r="E1170" s="29" t="s">
@@ -40012,7 +40012,7 @@
         <v>15</v>
       </c>
       <c r="H1170" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I1170" s="31"/>
     </row>
@@ -40024,7 +40024,7 @@
         <v>1560</v>
       </c>
       <c r="C1171" s="31" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="D1171" s="29" t="s">
         <v>2836</v>
@@ -40119,7 +40119,7 @@
         <v>17</v>
       </c>
       <c r="I1174" s="31" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1175" spans="1:9" ht="30">
@@ -40548,7 +40548,7 @@
         <v>17</v>
       </c>
       <c r="I1191" s="31" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1192" spans="1:9" ht="45">
@@ -40600,7 +40600,7 @@
         <v>17</v>
       </c>
       <c r="I1193" s="31" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1194" spans="1:9" ht="60">
@@ -40627,7 +40627,7 @@
         <v>17</v>
       </c>
       <c r="I1194" s="31" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1195" spans="1:9" ht="30">
@@ -42413,7 +42413,7 @@
         <v>1569</v>
       </c>
       <c r="C1266" s="31" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="D1266" s="29"/>
       <c r="E1266" s="29" t="s">
@@ -42704,7 +42704,7 @@
         <v>17</v>
       </c>
       <c r="I1277" s="31" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1278" spans="1:9" ht="30">
@@ -42890,7 +42890,7 @@
         <v>1572</v>
       </c>
       <c r="C1285" s="31" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="D1285" s="29"/>
       <c r="E1285" s="29" t="s">
@@ -43065,7 +43065,7 @@
         <v>1573</v>
       </c>
       <c r="C1292" s="31" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="D1292" s="29"/>
       <c r="E1292" s="29" t="s">
@@ -43081,7 +43081,7 @@
         <v>17</v>
       </c>
       <c r="I1292" s="31" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1293" spans="1:9" ht="45">
@@ -43108,7 +43108,7 @@
         <v>17</v>
       </c>
       <c r="I1293" s="31" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1294" spans="1:9" ht="45">
@@ -43194,7 +43194,7 @@
         <v>1574</v>
       </c>
       <c r="C1297" s="31" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="D1297" s="29"/>
       <c r="E1297" s="29" t="s">
@@ -43210,7 +43210,7 @@
         <v>17</v>
       </c>
       <c r="I1297" s="31" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1298" spans="1:9" ht="30">
@@ -43287,7 +43287,7 @@
         <v>17</v>
       </c>
       <c r="I1300" s="31" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1301" spans="1:9" ht="30">
@@ -43614,7 +43614,7 @@
         <v>17</v>
       </c>
       <c r="I1313" s="31" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1314" spans="1:9" ht="60">
@@ -43750,7 +43750,7 @@
         <v>1574</v>
       </c>
       <c r="C1319" s="31" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="D1319" s="29"/>
       <c r="E1319" s="29" t="s">
@@ -44000,7 +44000,7 @@
         <v>1577</v>
       </c>
       <c r="C1329" s="31" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="D1329" s="29"/>
       <c r="E1329" s="29" t="s">
@@ -44143,7 +44143,7 @@
         <v>21</v>
       </c>
       <c r="I1334" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1335" spans="1:9" ht="30">
@@ -44154,7 +44154,7 @@
         <v>1578</v>
       </c>
       <c r="C1335" s="31" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D1335" s="29" t="s">
         <v>2837</v>
@@ -44199,7 +44199,7 @@
         <v>21</v>
       </c>
       <c r="I1336" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1337" spans="1:9" ht="45">
@@ -44228,7 +44228,7 @@
         <v>21</v>
       </c>
       <c r="I1337" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1338" spans="1:9" ht="45">
@@ -44239,7 +44239,7 @@
         <v>1578</v>
       </c>
       <c r="C1338" s="31" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="D1338" s="29" t="s">
         <v>2838</v>
@@ -44257,7 +44257,7 @@
         <v>21</v>
       </c>
       <c r="I1338" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1339" spans="1:9" ht="60">
@@ -44268,7 +44268,7 @@
         <v>1578</v>
       </c>
       <c r="C1339" s="31" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="D1339" s="29"/>
       <c r="E1339" s="29" t="s">
@@ -44293,7 +44293,7 @@
         <v>1578</v>
       </c>
       <c r="C1340" s="31" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="D1340" s="29"/>
       <c r="E1340" s="29" t="s">
@@ -44318,7 +44318,7 @@
         <v>1578</v>
       </c>
       <c r="C1341" s="31" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="D1341" s="29"/>
       <c r="E1341" s="29" t="s">
@@ -44343,7 +44343,7 @@
         <v>1578</v>
       </c>
       <c r="C1342" s="31" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="D1342" s="29"/>
       <c r="E1342" s="29" t="s">
@@ -44368,7 +44368,7 @@
         <v>1578</v>
       </c>
       <c r="C1343" s="31" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="D1343" s="29"/>
       <c r="E1343" s="29" t="s">
@@ -44420,7 +44420,7 @@
         <v>7</v>
       </c>
       <c r="C1345" s="31" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="D1345" s="29" t="s">
         <v>2839</v>
@@ -44462,10 +44462,10 @@
         <v>15</v>
       </c>
       <c r="H1346" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1346" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1347" spans="1:9" ht="30">
@@ -44476,7 +44476,7 @@
         <v>1578</v>
       </c>
       <c r="C1347" s="31" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="D1347" s="29"/>
       <c r="E1347" s="29" t="s">
@@ -44495,13 +44495,13 @@
     </row>
     <row r="1348" spans="1:9" ht="60">
       <c r="A1348" s="29" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="B1348" s="30" t="s">
         <v>1578</v>
       </c>
       <c r="C1348" s="31" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="D1348" s="29"/>
       <c r="E1348" s="29" t="s">
@@ -44544,7 +44544,7 @@
         <v>20</v>
       </c>
       <c r="I1349" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1350" spans="1:9" ht="45">
@@ -44573,7 +44573,7 @@
         <v>20</v>
       </c>
       <c r="I1350" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1351" spans="1:9" ht="45">
@@ -44602,7 +44602,7 @@
         <v>20</v>
       </c>
       <c r="I1351" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1352" spans="1:9" ht="45">
@@ -44640,7 +44640,7 @@
         <v>1578</v>
       </c>
       <c r="C1353" s="31" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="D1353" s="29"/>
       <c r="E1353" s="29" t="s">
@@ -44683,7 +44683,7 @@
         <v>20</v>
       </c>
       <c r="I1354" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1355" spans="1:9" ht="45">
@@ -44694,7 +44694,7 @@
         <v>1578</v>
       </c>
       <c r="C1355" s="31" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="D1355" s="29"/>
       <c r="E1355" s="29" t="s">
@@ -44737,7 +44737,7 @@
         <v>20</v>
       </c>
       <c r="I1356" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1357" spans="1:9" ht="45">
@@ -44748,7 +44748,7 @@
         <v>1578</v>
       </c>
       <c r="C1357" s="31" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="D1357" s="29" t="s">
         <v>2841</v>
@@ -44775,7 +44775,7 @@
         <v>1578</v>
       </c>
       <c r="C1358" s="31" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="D1358" s="29" t="s">
         <v>2842</v>
@@ -44820,7 +44820,7 @@
         <v>20</v>
       </c>
       <c r="I1359" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1360" spans="1:9" ht="60">
@@ -44831,7 +44831,7 @@
         <v>1578</v>
       </c>
       <c r="C1360" s="31" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="D1360" s="29" t="s">
         <v>2842</v>
@@ -44858,7 +44858,7 @@
         <v>1578</v>
       </c>
       <c r="C1361" s="31" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="D1361" s="29" t="s">
         <v>2842</v>
@@ -44876,7 +44876,7 @@
         <v>20</v>
       </c>
       <c r="I1361" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1362" spans="1:9" ht="60">
@@ -44887,7 +44887,7 @@
         <v>1578</v>
       </c>
       <c r="C1362" s="31" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="D1362" s="29"/>
       <c r="E1362" s="29" t="s">
@@ -44912,7 +44912,7 @@
         <v>1578</v>
       </c>
       <c r="C1363" s="31" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="D1363" s="29" t="s">
         <v>2843</v>
@@ -44957,7 +44957,7 @@
         <v>20</v>
       </c>
       <c r="I1364" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1365" spans="1:9" ht="45">
@@ -44968,7 +44968,7 @@
         <v>1578</v>
       </c>
       <c r="C1365" s="31" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="D1365" s="29" t="s">
         <v>2844</v>
@@ -45013,7 +45013,7 @@
         <v>20</v>
       </c>
       <c r="I1366" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1367" spans="1:9" ht="90">
@@ -45024,7 +45024,7 @@
         <v>1578</v>
       </c>
       <c r="C1367" s="31" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="D1367" s="29" t="s">
         <v>2844</v>
@@ -45042,7 +45042,7 @@
         <v>20</v>
       </c>
       <c r="I1367" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1368" spans="1:9" ht="60">
@@ -45053,7 +45053,7 @@
         <v>1578</v>
       </c>
       <c r="C1368" s="31" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="D1368" s="29" t="s">
         <v>2844</v>
@@ -45080,7 +45080,7 @@
         <v>1578</v>
       </c>
       <c r="C1369" s="31" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="D1369" s="29" t="s">
         <v>2845</v>
@@ -45095,10 +45095,10 @@
         <v>15</v>
       </c>
       <c r="H1369" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1369" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1370" spans="1:9" ht="45">
@@ -45127,7 +45127,7 @@
         <v>20</v>
       </c>
       <c r="I1370" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1371" spans="1:9" ht="60">
@@ -45138,7 +45138,7 @@
         <v>1578</v>
       </c>
       <c r="C1371" s="31" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="D1371" s="29"/>
       <c r="E1371" s="29" t="s">
@@ -45163,7 +45163,7 @@
         <v>1578</v>
       </c>
       <c r="C1372" s="31" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D1372" s="29" t="s">
         <v>2846</v>
@@ -45181,7 +45181,7 @@
         <v>20</v>
       </c>
       <c r="I1372" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1373" spans="1:9" ht="45">
@@ -45210,7 +45210,7 @@
         <v>20</v>
       </c>
       <c r="I1373" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1374" spans="1:9" ht="45">
@@ -45221,7 +45221,7 @@
         <v>1578</v>
       </c>
       <c r="C1374" s="31" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="D1374" s="29" t="s">
         <v>2847</v>
@@ -45239,7 +45239,7 @@
         <v>20</v>
       </c>
       <c r="I1374" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1375" spans="1:9" ht="45">
@@ -45250,7 +45250,7 @@
         <v>1578</v>
       </c>
       <c r="C1375" s="31" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="D1375" s="29"/>
       <c r="E1375" s="29" t="s">
@@ -45275,7 +45275,7 @@
         <v>1578</v>
       </c>
       <c r="C1376" s="31" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="D1376" s="29" t="s">
         <v>2847</v>
@@ -45293,7 +45293,7 @@
         <v>20</v>
       </c>
       <c r="I1376" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1377" spans="1:9" ht="45">
@@ -45304,7 +45304,7 @@
         <v>1578</v>
       </c>
       <c r="C1377" s="31" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="D1377" s="29" t="s">
         <v>2848</v>
@@ -45322,7 +45322,7 @@
         <v>21</v>
       </c>
       <c r="I1377" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1378" spans="1:9" ht="45">
@@ -45351,7 +45351,7 @@
         <v>21</v>
       </c>
       <c r="I1378" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1379" spans="1:9" ht="45">
@@ -45380,7 +45380,7 @@
         <v>21</v>
       </c>
       <c r="I1379" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1380" spans="1:9" ht="30">
@@ -45391,7 +45391,7 @@
         <v>1578</v>
       </c>
       <c r="C1380" s="31" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="D1380" s="29"/>
       <c r="E1380" s="29" t="s">
@@ -45416,7 +45416,7 @@
         <v>1578</v>
       </c>
       <c r="C1381" s="31" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D1381" s="29"/>
       <c r="E1381" s="29" t="s">
@@ -45441,7 +45441,7 @@
         <v>1578</v>
       </c>
       <c r="C1382" s="31" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="D1382" s="29" t="s">
         <v>2850</v>
@@ -45459,7 +45459,7 @@
         <v>21</v>
       </c>
       <c r="I1382" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1383" spans="1:9" ht="45">
@@ -45470,7 +45470,7 @@
         <v>1578</v>
       </c>
       <c r="C1383" s="31" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="D1383" s="29" t="s">
         <v>2850</v>
@@ -45488,7 +45488,7 @@
         <v>21</v>
       </c>
       <c r="I1383" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1384" spans="1:9" ht="60">
@@ -45499,7 +45499,7 @@
         <v>1578</v>
       </c>
       <c r="C1384" s="31" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="D1384" s="29" t="s">
         <v>2851</v>
@@ -45517,18 +45517,18 @@
         <v>20</v>
       </c>
       <c r="I1384" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1385" spans="1:9" ht="75">
       <c r="A1385" s="29" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B1385" s="33">
         <v>7</v>
       </c>
       <c r="C1385" s="31" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="D1385" s="29" t="s">
         <v>2851</v>
@@ -45546,7 +45546,7 @@
         <v>20</v>
       </c>
       <c r="I1385" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1386" spans="1:9" ht="60">
@@ -45557,7 +45557,7 @@
         <v>1578</v>
       </c>
       <c r="C1386" s="31" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="D1386" s="29" t="s">
         <v>2851</v>
@@ -45575,7 +45575,7 @@
         <v>20</v>
       </c>
       <c r="I1386" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1387" spans="1:9" ht="60">
@@ -45586,7 +45586,7 @@
         <v>1578</v>
       </c>
       <c r="C1387" s="31" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="D1387" s="29" t="s">
         <v>2852</v>
@@ -45604,7 +45604,7 @@
         <v>20</v>
       </c>
       <c r="I1387" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1388" spans="1:9" ht="45">
@@ -45615,7 +45615,7 @@
         <v>1578</v>
       </c>
       <c r="C1388" s="31" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="D1388" s="29" t="s">
         <v>2852</v>
@@ -45633,7 +45633,7 @@
         <v>20</v>
       </c>
       <c r="I1388" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1389" spans="1:9" ht="45">
@@ -45644,7 +45644,7 @@
         <v>1578</v>
       </c>
       <c r="C1389" s="31" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="D1389" s="29" t="s">
         <v>2852</v>
@@ -45671,7 +45671,7 @@
         <v>1578</v>
       </c>
       <c r="C1390" s="31" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="D1390" s="29" t="s">
         <v>2853</v>
@@ -45689,7 +45689,7 @@
         <v>20</v>
       </c>
       <c r="I1390" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1391" spans="1:9" ht="45">
@@ -45718,18 +45718,18 @@
         <v>20</v>
       </c>
       <c r="I1391" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1392" spans="1:9" ht="45">
       <c r="A1392" s="29" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="B1392" s="33">
         <v>7</v>
       </c>
       <c r="C1392" s="31" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="D1392" s="29" t="s">
         <v>2853</v>
@@ -45747,7 +45747,7 @@
         <v>20</v>
       </c>
       <c r="I1392" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1393" spans="1:9" ht="45">
@@ -45758,7 +45758,7 @@
         <v>1578</v>
       </c>
       <c r="C1393" s="31" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="D1393" s="29" t="s">
         <v>2854</v>
@@ -45773,10 +45773,10 @@
         <v>15</v>
       </c>
       <c r="H1393" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1393" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1394" spans="1:9" ht="45">
@@ -45787,7 +45787,7 @@
         <v>1578</v>
       </c>
       <c r="C1394" s="31" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="D1394" s="29" t="s">
         <v>2854</v>
@@ -45805,7 +45805,7 @@
         <v>20</v>
       </c>
       <c r="I1394" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1395" spans="1:9" ht="45">
@@ -45816,7 +45816,7 @@
         <v>1578</v>
       </c>
       <c r="C1395" s="31" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="D1395" s="29" t="s">
         <v>2854</v>
@@ -45834,7 +45834,7 @@
         <v>20</v>
       </c>
       <c r="I1395" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1396" spans="1:9" ht="45">
@@ -45845,7 +45845,7 @@
         <v>1578</v>
       </c>
       <c r="C1396" s="31" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="D1396" s="29" t="s">
         <v>2855</v>
@@ -45863,7 +45863,7 @@
         <v>21</v>
       </c>
       <c r="I1396" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1397" spans="1:9" ht="45">
@@ -45874,7 +45874,7 @@
         <v>1578</v>
       </c>
       <c r="C1397" s="31" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="D1397" s="29" t="s">
         <v>2855</v>
@@ -45892,7 +45892,7 @@
         <v>21</v>
       </c>
       <c r="I1397" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1398" spans="1:9" ht="45">
@@ -45921,7 +45921,7 @@
         <v>20</v>
       </c>
       <c r="I1398" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1399" spans="1:9" ht="45">
@@ -45932,7 +45932,7 @@
         <v>1578</v>
       </c>
       <c r="C1399" s="31" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="D1399" s="29" t="s">
         <v>2856</v>
@@ -45950,7 +45950,7 @@
         <v>20</v>
       </c>
       <c r="I1399" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1400" spans="1:9" ht="60">
@@ -45961,7 +45961,7 @@
         <v>1578</v>
       </c>
       <c r="C1400" s="31" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="D1400" s="29" t="s">
         <v>2857</v>
@@ -45979,7 +45979,7 @@
         <v>20</v>
       </c>
       <c r="I1400" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1401" spans="1:9" ht="45">
@@ -46008,7 +46008,7 @@
         <v>20</v>
       </c>
       <c r="I1401" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1402" spans="1:9" ht="45">
@@ -46019,7 +46019,7 @@
         <v>1578</v>
       </c>
       <c r="C1402" s="31" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="D1402" s="29" t="s">
         <v>2858</v>
@@ -46037,7 +46037,7 @@
         <v>17</v>
       </c>
       <c r="I1402" s="31" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1403" spans="1:9" ht="45">
@@ -46048,7 +46048,7 @@
         <v>1578</v>
       </c>
       <c r="C1403" s="31" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="D1403" s="29" t="s">
         <v>2858</v>
@@ -46075,7 +46075,7 @@
         <v>1578</v>
       </c>
       <c r="C1404" s="31" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="D1404" s="29" t="s">
         <v>2858</v>
@@ -46092,9 +46092,7 @@
       <c r="H1404" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1404" s="31" t="s">
-        <v>2932</v>
-      </c>
+      <c r="I1404" s="31"/>
     </row>
     <row r="1405" spans="1:9" ht="60">
       <c r="A1405" s="29" t="s">
@@ -46104,7 +46102,7 @@
         <v>1578</v>
       </c>
       <c r="C1405" s="31" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="D1405" s="29" t="s">
         <v>2858</v>
@@ -46122,7 +46120,7 @@
         <v>20</v>
       </c>
       <c r="I1405" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1406" spans="1:9" ht="45">
@@ -46133,7 +46131,7 @@
         <v>1578</v>
       </c>
       <c r="C1406" s="31" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D1406" s="29"/>
       <c r="E1406" s="29" t="s">
@@ -46158,7 +46156,7 @@
         <v>1578</v>
       </c>
       <c r="C1407" s="31" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="D1407" s="29"/>
       <c r="E1407" s="29" t="s">
@@ -46183,7 +46181,7 @@
         <v>1578</v>
       </c>
       <c r="C1408" s="31" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="D1408" s="29"/>
       <c r="E1408" s="29" t="s">
@@ -46208,7 +46206,7 @@
         <v>1578</v>
       </c>
       <c r="C1409" s="31" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="D1409" s="29"/>
       <c r="E1409" s="29" t="s">
@@ -46233,7 +46231,7 @@
         <v>1578</v>
       </c>
       <c r="C1410" s="31" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="D1410" s="29"/>
       <c r="E1410" s="29" t="s">
@@ -46258,7 +46256,7 @@
         <v>1578</v>
       </c>
       <c r="C1411" s="31" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="D1411" s="29"/>
       <c r="E1411" s="29" t="s">
@@ -46283,7 +46281,7 @@
         <v>1578</v>
       </c>
       <c r="C1412" s="31" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="D1412" s="29"/>
       <c r="E1412" s="29" t="s">
@@ -46308,7 +46306,7 @@
         <v>1578</v>
       </c>
       <c r="C1413" s="31" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="D1413" s="29"/>
       <c r="E1413" s="29" t="s">
@@ -46333,7 +46331,7 @@
         <v>1578</v>
       </c>
       <c r="C1414" s="31" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="D1414" s="29"/>
       <c r="E1414" s="29" t="s">
@@ -46358,7 +46356,7 @@
         <v>1578</v>
       </c>
       <c r="C1415" s="31" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="D1415" s="29"/>
       <c r="E1415" s="29" t="s">
@@ -46383,7 +46381,7 @@
         <v>1578</v>
       </c>
       <c r="C1416" s="31" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="D1416" s="29"/>
       <c r="E1416" s="29" t="s">
@@ -46408,7 +46406,7 @@
         <v>1578</v>
       </c>
       <c r="C1417" s="31" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="D1417" s="29"/>
       <c r="E1417" s="29" t="s">
@@ -46433,7 +46431,7 @@
         <v>1578</v>
       </c>
       <c r="C1418" s="31" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="D1418" s="29"/>
       <c r="E1418" s="29" t="s">
@@ -46458,7 +46456,7 @@
         <v>1578</v>
       </c>
       <c r="C1419" s="31" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="D1419" s="29"/>
       <c r="E1419" s="29" t="s">
@@ -46483,7 +46481,7 @@
         <v>1578</v>
       </c>
       <c r="C1420" s="31" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="D1420" s="29"/>
       <c r="E1420" s="29" t="s">
@@ -46508,7 +46506,7 @@
         <v>1578</v>
       </c>
       <c r="C1421" s="31" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="D1421" s="29"/>
       <c r="E1421" s="29" t="s">
@@ -46533,7 +46531,7 @@
         <v>1578</v>
       </c>
       <c r="C1422" s="31" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="D1422" s="29"/>
       <c r="E1422" s="29" t="s">
@@ -46558,7 +46556,7 @@
         <v>1578</v>
       </c>
       <c r="C1423" s="31" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="D1423" s="29"/>
       <c r="E1423" s="29" t="s">
@@ -46583,7 +46581,7 @@
         <v>1578</v>
       </c>
       <c r="C1424" s="31" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="D1424" s="29"/>
       <c r="E1424" s="29" t="s">
@@ -46608,7 +46606,7 @@
         <v>1578</v>
       </c>
       <c r="C1425" s="31" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="D1425" s="29"/>
       <c r="E1425" s="29" t="s">
@@ -46633,7 +46631,7 @@
         <v>1578</v>
       </c>
       <c r="C1426" s="31" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="D1426" s="29"/>
       <c r="E1426" s="29" t="s">
@@ -46658,7 +46656,7 @@
         <v>1578</v>
       </c>
       <c r="C1427" s="31" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="D1427" s="29"/>
       <c r="E1427" s="29" t="s">
@@ -46683,7 +46681,7 @@
         <v>1578</v>
       </c>
       <c r="C1428" s="31" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="D1428" s="29"/>
       <c r="E1428" s="29" t="s">
@@ -46708,7 +46706,7 @@
         <v>1578</v>
       </c>
       <c r="C1429" s="31" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="D1429" s="29"/>
       <c r="E1429" s="29" t="s">
@@ -46733,7 +46731,7 @@
         <v>1578</v>
       </c>
       <c r="C1430" s="31" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="D1430" s="29"/>
       <c r="E1430" s="29" t="s">
@@ -46758,7 +46756,7 @@
         <v>1578</v>
       </c>
       <c r="C1431" s="31" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="D1431" s="29"/>
       <c r="E1431" s="29" t="s">
@@ -46783,7 +46781,7 @@
         <v>1578</v>
       </c>
       <c r="C1432" s="31" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="D1432" s="29"/>
       <c r="E1432" s="29" t="s">
@@ -46808,7 +46806,7 @@
         <v>1578</v>
       </c>
       <c r="C1433" s="31" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="D1433" s="29"/>
       <c r="E1433" s="29" t="s">
@@ -46833,7 +46831,7 @@
         <v>1578</v>
       </c>
       <c r="C1434" s="31" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="D1434" s="29"/>
       <c r="E1434" s="29" t="s">
@@ -46858,7 +46856,7 @@
         <v>1578</v>
       </c>
       <c r="C1435" s="31" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="D1435" s="29"/>
       <c r="E1435" s="29" t="s">
@@ -46883,7 +46881,7 @@
         <v>1578</v>
       </c>
       <c r="C1436" s="31" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="D1436" s="29"/>
       <c r="E1436" s="29" t="s">
@@ -46908,7 +46906,7 @@
         <v>1578</v>
       </c>
       <c r="C1437" s="31" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D1437" s="29"/>
       <c r="E1437" s="29" t="s">
@@ -46933,7 +46931,7 @@
         <v>1578</v>
       </c>
       <c r="C1438" s="31" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="D1438" s="29"/>
       <c r="E1438" s="29" t="s">
@@ -46958,7 +46956,7 @@
         <v>1578</v>
       </c>
       <c r="C1439" s="31" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="D1439" s="29"/>
       <c r="E1439" s="29" t="s">
@@ -46983,7 +46981,7 @@
         <v>1578</v>
       </c>
       <c r="C1440" s="31" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="D1440" s="29"/>
       <c r="E1440" s="29" t="s">
@@ -47008,7 +47006,7 @@
         <v>1578</v>
       </c>
       <c r="C1441" s="31" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="D1441" s="29" t="s">
         <v>2859</v>
@@ -47026,7 +47024,7 @@
         <v>20</v>
       </c>
       <c r="I1441" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1442" spans="1:9" ht="60">
@@ -47037,7 +47035,7 @@
         <v>1578</v>
       </c>
       <c r="C1442" s="31" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="D1442" s="29" t="s">
         <v>2860</v>
@@ -47055,7 +47053,7 @@
         <v>20</v>
       </c>
       <c r="I1442" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1443" spans="1:9" ht="60">
@@ -47066,7 +47064,7 @@
         <v>1578</v>
       </c>
       <c r="C1443" s="31" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="D1443" s="29" t="s">
         <v>2860</v>
@@ -47084,7 +47082,7 @@
         <v>20</v>
       </c>
       <c r="I1443" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1444" spans="1:9" ht="45">
@@ -47095,7 +47093,7 @@
         <v>1578</v>
       </c>
       <c r="C1444" s="31" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="D1444" s="29"/>
       <c r="E1444" s="29" t="s">
@@ -47111,7 +47109,7 @@
         <v>20</v>
       </c>
       <c r="I1444" s="31" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1445" spans="1:9" ht="30">
@@ -47122,7 +47120,7 @@
         <v>1578</v>
       </c>
       <c r="C1445" s="31" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="D1445" s="29"/>
       <c r="E1445" s="29" t="s">
@@ -47147,7 +47145,7 @@
         <v>1578</v>
       </c>
       <c r="C1446" s="31" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="D1446" s="29"/>
       <c r="E1446" s="29" t="s">
@@ -47174,11 +47172,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -47186,6 +47179,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I1446">
@@ -47252,21 +47250,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -47315,10 +47298,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47338,16 +47343,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10264" uniqueCount="3090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10263" uniqueCount="3091">
   <si>
     <t>Req ID</t>
   </si>
@@ -8773,9 +8773,6 @@
     <t>MS-OXCRPC_R1653:p</t>
   </si>
   <si>
-    <t>MS-OXCRPC_R1690:c</t>
-  </si>
-  <si>
     <t>MS-OXCRPC_R2:i</t>
   </si>
   <si>
@@ -9534,6 +9531,12 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-OXCRPC_R4880, MS-OXCRPC_R1558.</t>
+  </si>
+  <si>
+    <t>MS-OXCRPC_R1690:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXCRPC_R4886.</t>
   </si>
 </sst>
 </file>
@@ -9808,21 +9811,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9846,6 +9834,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10718,7 +10721,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -10728,7 +10731,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10742,7 +10745,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -10753,127 +10756,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10886,12 +10889,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10904,12 +10907,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10922,12 +10925,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10940,60 +10943,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11051,7 +11054,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
@@ -11353,7 +11356,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
@@ -11505,7 +11508,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11782,7 +11785,7 @@
         <v>17</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30">
@@ -11809,7 +11812,7 @@
         <v>17</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
@@ -11836,7 +11839,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -11863,7 +11866,7 @@
         <v>17</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30">
@@ -11965,7 +11968,7 @@
         <v>17</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="60">
@@ -11992,7 +11995,7 @@
         <v>17</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30">
@@ -12019,7 +12022,7 @@
         <v>17</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="60">
@@ -12046,7 +12049,7 @@
         <v>17</v>
       </c>
       <c r="I59" s="31" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="60">
@@ -12073,7 +12076,7 @@
         <v>17</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="60">
@@ -12100,7 +12103,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="60">
@@ -12127,7 +12130,7 @@
         <v>17</v>
       </c>
       <c r="I62" s="31" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45">
@@ -12804,7 +12807,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="45">
@@ -12831,7 +12834,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="31" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="45">
@@ -12883,7 +12886,7 @@
         <v>17</v>
       </c>
       <c r="I92" s="31" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="45">
@@ -12935,7 +12938,7 @@
         <v>17</v>
       </c>
       <c r="I94" s="31" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45">
@@ -17546,7 +17549,7 @@
         <v>1492</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -17646,7 +17649,7 @@
         <v>1492</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -17737,7 +17740,7 @@
         <v>17</v>
       </c>
       <c r="I286" s="31" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="30">
@@ -17789,7 +17792,7 @@
         <v>17</v>
       </c>
       <c r="I288" s="31" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="45">
@@ -17950,7 +17953,7 @@
         <v>1495</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -17975,7 +17978,7 @@
         <v>1495</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -17991,7 +17994,7 @@
         <v>17</v>
       </c>
       <c r="I296" s="31" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="45">
@@ -18093,7 +18096,7 @@
         <v>17</v>
       </c>
       <c r="I300" s="31" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="45">
@@ -19145,7 +19148,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="31" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="30">
@@ -20006,7 +20009,7 @@
         <v>1503</v>
       </c>
       <c r="C377" s="31" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D377" s="29"/>
       <c r="E377" s="29" t="s">
@@ -20072,7 +20075,7 @@
         <v>17</v>
       </c>
       <c r="I379" s="31" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="45">
@@ -20224,7 +20227,7 @@
         <v>17</v>
       </c>
       <c r="I385" s="31" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="30">
@@ -20235,7 +20238,7 @@
         <v>1504</v>
       </c>
       <c r="C386" s="31" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
@@ -20260,7 +20263,7 @@
         <v>1504</v>
       </c>
       <c r="C387" s="31" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
@@ -20285,7 +20288,7 @@
         <v>1504</v>
       </c>
       <c r="C388" s="31" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -20351,7 +20354,7 @@
         <v>17</v>
       </c>
       <c r="I390" s="31" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="30">
@@ -20437,7 +20440,7 @@
         <v>1504</v>
       </c>
       <c r="C394" s="31" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="D394" s="29"/>
       <c r="E394" s="29" t="s">
@@ -20487,7 +20490,7 @@
         <v>1504</v>
       </c>
       <c r="C396" s="31" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="D396" s="29"/>
       <c r="E396" s="29" t="s">
@@ -20553,7 +20556,7 @@
         <v>17</v>
       </c>
       <c r="I398" s="31" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="30">
@@ -20580,7 +20583,7 @@
         <v>17</v>
       </c>
       <c r="I399" s="31" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="45">
@@ -20616,7 +20619,7 @@
         <v>1504</v>
       </c>
       <c r="C401" s="31" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="D401" s="29"/>
       <c r="E401" s="29" t="s">
@@ -20682,7 +20685,7 @@
         <v>17</v>
       </c>
       <c r="I403" s="31" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="30">
@@ -20718,7 +20721,7 @@
         <v>1504</v>
       </c>
       <c r="C405" s="31" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="29" t="s">
@@ -20768,7 +20771,7 @@
         <v>1504</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="D407" s="29"/>
       <c r="E407" s="29" t="s">
@@ -20818,7 +20821,7 @@
         <v>1504</v>
       </c>
       <c r="C409" s="31" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -20884,7 +20887,7 @@
         <v>17</v>
       </c>
       <c r="I411" s="31" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="30">
@@ -20911,7 +20914,7 @@
         <v>17</v>
       </c>
       <c r="I412" s="31" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="30">
@@ -20947,7 +20950,7 @@
         <v>1504</v>
       </c>
       <c r="C414" s="31" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -20997,7 +21000,7 @@
         <v>1504</v>
       </c>
       <c r="C416" s="31" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -21063,7 +21066,7 @@
         <v>17</v>
       </c>
       <c r="I418" s="31" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="30">
@@ -21240,7 +21243,7 @@
         <v>17</v>
       </c>
       <c r="I425" s="31" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="45">
@@ -21628,7 +21631,7 @@
         <v>32</v>
       </c>
       <c r="C441" s="31" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -21653,7 +21656,7 @@
         <v>32</v>
       </c>
       <c r="C442" s="31" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29" t="s">
@@ -21928,7 +21931,7 @@
         <v>32</v>
       </c>
       <c r="C453" s="31" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -21944,7 +21947,7 @@
         <v>17</v>
       </c>
       <c r="I453" s="31" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="45">
@@ -21980,7 +21983,7 @@
         <v>32</v>
       </c>
       <c r="C455" s="31" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -22530,7 +22533,7 @@
         <v>32</v>
       </c>
       <c r="C477" s="31" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="D477" s="29"/>
       <c r="E477" s="29" t="s">
@@ -22546,7 +22549,7 @@
         <v>17</v>
       </c>
       <c r="I477" s="31" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="478" spans="1:9" ht="30">
@@ -22623,7 +22626,7 @@
         <v>17</v>
       </c>
       <c r="I480" s="31" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="30">
@@ -22661,7 +22664,7 @@
         <v>32</v>
       </c>
       <c r="C482" s="31" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D482" s="29"/>
       <c r="E482" s="29" t="s">
@@ -22686,7 +22689,7 @@
         <v>32</v>
       </c>
       <c r="C483" s="31" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D483" s="29"/>
       <c r="E483" s="29" t="s">
@@ -22877,7 +22880,7 @@
         <v>17</v>
       </c>
       <c r="I490" s="31" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="30">
@@ -23188,7 +23191,7 @@
         <v>32</v>
       </c>
       <c r="C503" s="31" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="29" t="s">
@@ -23204,7 +23207,7 @@
         <v>17</v>
       </c>
       <c r="I503" s="31" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="30">
@@ -23415,7 +23418,7 @@
         <v>32</v>
       </c>
       <c r="C512" s="31" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -23431,7 +23434,7 @@
         <v>17</v>
       </c>
       <c r="I512" s="31" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="513" spans="1:9" ht="60">
@@ -23442,7 +23445,7 @@
         <v>32</v>
       </c>
       <c r="C513" s="31" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -23458,7 +23461,7 @@
         <v>17</v>
       </c>
       <c r="I513" s="31" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="30">
@@ -23510,7 +23513,7 @@
         <v>17</v>
       </c>
       <c r="I515" s="31" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="30">
@@ -23771,7 +23774,7 @@
         <v>32</v>
       </c>
       <c r="C526" s="31" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="D526" s="29"/>
       <c r="E526" s="29" t="s">
@@ -23787,7 +23790,7 @@
         <v>17</v>
       </c>
       <c r="I526" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="45">
@@ -24339,7 +24342,7 @@
         <v>17</v>
       </c>
       <c r="I548" s="31" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="549" spans="1:9" ht="60">
@@ -24416,7 +24419,7 @@
         <v>17</v>
       </c>
       <c r="I551" s="31" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="552" spans="1:9" ht="30">
@@ -28368,7 +28371,7 @@
         <v>17</v>
       </c>
       <c r="I709" s="31" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="710" spans="1:9" ht="30">
@@ -28670,7 +28673,7 @@
         <v>17</v>
       </c>
       <c r="I721" s="31" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="722" spans="1:9" ht="60">
@@ -28847,7 +28850,7 @@
         <v>17</v>
       </c>
       <c r="I728" s="31" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="729" spans="1:9" ht="60">
@@ -28858,7 +28861,7 @@
         <v>1522</v>
       </c>
       <c r="C729" s="31" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -28874,7 +28877,7 @@
         <v>17</v>
       </c>
       <c r="I729" s="31" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="730" spans="1:9" ht="45">
@@ -28901,7 +28904,7 @@
         <v>17</v>
       </c>
       <c r="I730" s="31" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="731" spans="1:9" ht="30">
@@ -28928,7 +28931,7 @@
         <v>17</v>
       </c>
       <c r="I731" s="31" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="732" spans="1:9" ht="30">
@@ -28989,7 +28992,7 @@
         <v>1522</v>
       </c>
       <c r="C734" s="31" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="D734" s="29"/>
       <c r="E734" s="29" t="s">
@@ -29005,7 +29008,7 @@
         <v>17</v>
       </c>
       <c r="I734" s="31" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="735" spans="1:9" ht="45">
@@ -29082,7 +29085,7 @@
         <v>17</v>
       </c>
       <c r="I737" s="31" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="738" spans="1:9" ht="30">
@@ -29371,7 +29374,7 @@
         <v>17</v>
       </c>
       <c r="I748" s="31" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="749" spans="1:9" ht="45">
@@ -30448,7 +30451,7 @@
         <v>17</v>
       </c>
       <c r="I791" s="31" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="792" spans="1:9" ht="45">
@@ -30684,7 +30687,7 @@
         <v>33</v>
       </c>
       <c r="C801" s="31" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D801" s="29"/>
       <c r="E801" s="29" t="s">
@@ -30700,7 +30703,7 @@
         <v>17</v>
       </c>
       <c r="I801" s="31" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="802" spans="1:9" ht="30">
@@ -30961,7 +30964,7 @@
         <v>33</v>
       </c>
       <c r="C812" s="31" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="D812" s="29"/>
       <c r="E812" s="29" t="s">
@@ -30977,7 +30980,7 @@
         <v>17</v>
       </c>
       <c r="I812" s="31" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="813" spans="1:9" ht="30">
@@ -31013,7 +31016,7 @@
         <v>33</v>
       </c>
       <c r="C814" s="31" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D814" s="29"/>
       <c r="E814" s="29" t="s">
@@ -31029,7 +31032,7 @@
         <v>17</v>
       </c>
       <c r="I814" s="31" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="815" spans="1:9">
@@ -31181,7 +31184,7 @@
         <v>17</v>
       </c>
       <c r="I820" s="31" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="30">
@@ -31244,7 +31247,7 @@
         <v>33</v>
       </c>
       <c r="C823" s="31" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="D823" s="29"/>
       <c r="E823" s="29" t="s">
@@ -31260,7 +31263,7 @@
         <v>17</v>
       </c>
       <c r="I823" s="31" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="824" spans="1:9" ht="45">
@@ -31571,7 +31574,7 @@
         <v>33</v>
       </c>
       <c r="C836" s="31" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D836" s="29"/>
       <c r="E836" s="29" t="s">
@@ -31587,7 +31590,7 @@
         <v>17</v>
       </c>
       <c r="I836" s="31" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="837" spans="1:9">
@@ -31623,7 +31626,7 @@
         <v>33</v>
       </c>
       <c r="C838" s="31" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="D838" s="29"/>
       <c r="E838" s="29" t="s">
@@ -31639,7 +31642,7 @@
         <v>17</v>
       </c>
       <c r="I838" s="31" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="839" spans="1:9" ht="30">
@@ -31691,7 +31694,7 @@
         <v>17</v>
       </c>
       <c r="I840" s="31" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="841" spans="1:9" ht="30">
@@ -32095,7 +32098,7 @@
         <v>17</v>
       </c>
       <c r="I856" s="31" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="857" spans="1:9" ht="60">
@@ -32172,7 +32175,7 @@
         <v>17</v>
       </c>
       <c r="I859" s="31" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="860" spans="1:9" ht="30">
@@ -32424,7 +32427,7 @@
         <v>17</v>
       </c>
       <c r="I869" s="31" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="870" spans="1:9" ht="45">
@@ -32451,7 +32454,7 @@
         <v>17</v>
       </c>
       <c r="I870" s="31" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="45">
@@ -33103,7 +33106,7 @@
         <v>17</v>
       </c>
       <c r="I896" s="31" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="897" spans="1:9" ht="45">
@@ -33155,7 +33158,7 @@
         <v>17</v>
       </c>
       <c r="I898" s="31" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="899" spans="1:9" ht="30">
@@ -33216,7 +33219,7 @@
         <v>1532</v>
       </c>
       <c r="C901" s="31" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D901" s="29"/>
       <c r="E901" s="29" t="s">
@@ -33307,7 +33310,7 @@
         <v>17</v>
       </c>
       <c r="I904" s="31" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="905" spans="1:9" ht="60">
@@ -33334,7 +33337,7 @@
         <v>17</v>
       </c>
       <c r="I905" s="31" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="906" spans="1:9" ht="30">
@@ -33786,7 +33789,7 @@
         <v>17</v>
       </c>
       <c r="I923" s="31" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="924" spans="1:9" ht="45">
@@ -33797,7 +33800,7 @@
         <v>1535</v>
       </c>
       <c r="C924" s="31" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="D924" s="29"/>
       <c r="E924" s="29" t="s">
@@ -33813,7 +33816,7 @@
         <v>17</v>
       </c>
       <c r="I924" s="31" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="925" spans="1:9" ht="45">
@@ -33990,7 +33993,7 @@
         <v>17</v>
       </c>
       <c r="I931" s="31" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="932" spans="1:9" ht="30">
@@ -34539,7 +34542,7 @@
         <v>17</v>
       </c>
       <c r="I952" s="31" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="953" spans="1:9" ht="30">
@@ -34975,7 +34978,7 @@
         <v>1538</v>
       </c>
       <c r="C970" s="31" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="D970" s="29"/>
       <c r="E970" s="29" t="s">
@@ -34991,7 +34994,7 @@
         <v>17</v>
       </c>
       <c r="I970" s="31" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="971" spans="1:9" ht="60">
@@ -35018,7 +35021,7 @@
         <v>17</v>
       </c>
       <c r="I971" s="31" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="972" spans="1:9" ht="30">
@@ -35079,7 +35082,7 @@
         <v>1539</v>
       </c>
       <c r="C974" s="31" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D974" s="29"/>
       <c r="E974" s="29" t="s">
@@ -35095,7 +35098,7 @@
         <v>17</v>
       </c>
       <c r="I974" s="31" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="975" spans="1:9" ht="30">
@@ -35122,7 +35125,7 @@
         <v>17</v>
       </c>
       <c r="I975" s="31" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="976" spans="1:9" ht="45">
@@ -35224,7 +35227,7 @@
         <v>17</v>
       </c>
       <c r="I979" s="31" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="980" spans="1:9" ht="30">
@@ -35326,7 +35329,7 @@
         <v>17</v>
       </c>
       <c r="I983" s="31" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="984" spans="1:9" ht="30">
@@ -36987,7 +36990,7 @@
         <v>1552</v>
       </c>
       <c r="C1050" s="31" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
@@ -37062,7 +37065,7 @@
         <v>1553</v>
       </c>
       <c r="C1053" s="31" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="D1053" s="29"/>
       <c r="E1053" s="29" t="s">
@@ -37337,7 +37340,7 @@
         <v>1553</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="D1064" s="29"/>
       <c r="E1064" s="29" t="s">
@@ -37387,7 +37390,7 @@
         <v>1553</v>
       </c>
       <c r="C1066" s="31" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D1066" s="29"/>
       <c r="E1066" s="29" t="s">
@@ -38012,7 +38015,7 @@
         <v>1553</v>
       </c>
       <c r="C1091" s="31" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D1091" s="29"/>
       <c r="E1091" s="29" t="s">
@@ -38103,7 +38106,7 @@
         <v>17</v>
       </c>
       <c r="I1094" s="31" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="30">
@@ -38364,7 +38367,7 @@
         <v>1553</v>
       </c>
       <c r="C1105" s="31" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="D1105" s="29"/>
       <c r="E1105" s="29" t="s">
@@ -38505,7 +38508,7 @@
         <v>17</v>
       </c>
       <c r="I1110" s="31" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1111" spans="1:9" ht="30">
@@ -38557,7 +38560,7 @@
         <v>17</v>
       </c>
       <c r="I1112" s="31" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1113" spans="1:9" ht="45">
@@ -38609,7 +38612,7 @@
         <v>17</v>
       </c>
       <c r="I1114" s="31" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1115" spans="1:9" ht="195">
@@ -38636,7 +38639,7 @@
         <v>17</v>
       </c>
       <c r="I1115" s="31" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="1116" spans="1:9" ht="30">
@@ -38863,7 +38866,7 @@
         <v>17</v>
       </c>
       <c r="I1124" s="31" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
@@ -39049,7 +39052,7 @@
         <v>1556</v>
       </c>
       <c r="C1132" s="31" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="D1132" s="29"/>
       <c r="E1132" s="29" t="s">
@@ -39449,7 +39452,7 @@
         <v>1556</v>
       </c>
       <c r="C1148" s="31" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D1148" s="29"/>
       <c r="E1148" s="29" t="s">
@@ -39774,7 +39777,7 @@
         <v>1560</v>
       </c>
       <c r="C1161" s="31" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="D1161" s="29"/>
       <c r="E1161" s="29" t="s">
@@ -39999,7 +40002,7 @@
         <v>1560</v>
       </c>
       <c r="C1170" s="31" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="D1170" s="29"/>
       <c r="E1170" s="29" t="s">
@@ -40014,7 +40017,9 @@
       <c r="H1170" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I1170" s="31"/>
+      <c r="I1170" s="31" t="s">
+        <v>3090</v>
+      </c>
     </row>
     <row r="1171" spans="1:9" ht="75">
       <c r="A1171" s="29" t="s">
@@ -40024,10 +40029,10 @@
         <v>1560</v>
       </c>
       <c r="C1171" s="31" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D1171" s="29" t="s">
-        <v>2836</v>
+        <v>3089</v>
       </c>
       <c r="E1171" s="29" t="s">
         <v>19</v>
@@ -40054,7 +40059,7 @@
         <v>2668</v>
       </c>
       <c r="D1172" s="29" t="s">
-        <v>2836</v>
+        <v>3089</v>
       </c>
       <c r="E1172" s="29" t="s">
         <v>19</v>
@@ -40119,7 +40124,7 @@
         <v>17</v>
       </c>
       <c r="I1174" s="31" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1175" spans="1:9" ht="30">
@@ -40521,7 +40526,7 @@
         <v>17</v>
       </c>
       <c r="I1190" s="31" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1191" spans="1:9" ht="45">
@@ -40548,7 +40553,7 @@
         <v>17</v>
       </c>
       <c r="I1191" s="31" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1192" spans="1:9" ht="45">
@@ -40600,7 +40605,7 @@
         <v>17</v>
       </c>
       <c r="I1193" s="31" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1194" spans="1:9" ht="60">
@@ -40627,7 +40632,7 @@
         <v>17</v>
       </c>
       <c r="I1194" s="31" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1195" spans="1:9" ht="30">
@@ -42413,7 +42418,7 @@
         <v>1569</v>
       </c>
       <c r="C1266" s="31" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="D1266" s="29"/>
       <c r="E1266" s="29" t="s">
@@ -42704,7 +42709,7 @@
         <v>17</v>
       </c>
       <c r="I1277" s="31" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1278" spans="1:9" ht="30">
@@ -42890,7 +42895,7 @@
         <v>1572</v>
       </c>
       <c r="C1285" s="31" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="D1285" s="29"/>
       <c r="E1285" s="29" t="s">
@@ -43065,7 +43070,7 @@
         <v>1573</v>
       </c>
       <c r="C1292" s="31" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="D1292" s="29"/>
       <c r="E1292" s="29" t="s">
@@ -43081,7 +43086,7 @@
         <v>17</v>
       </c>
       <c r="I1292" s="31" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1293" spans="1:9" ht="45">
@@ -43108,7 +43113,7 @@
         <v>17</v>
       </c>
       <c r="I1293" s="31" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1294" spans="1:9" ht="45">
@@ -43194,7 +43199,7 @@
         <v>1574</v>
       </c>
       <c r="C1297" s="31" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="D1297" s="29"/>
       <c r="E1297" s="29" t="s">
@@ -43210,7 +43215,7 @@
         <v>17</v>
       </c>
       <c r="I1297" s="31" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1298" spans="1:9" ht="30">
@@ -43287,7 +43292,7 @@
         <v>17</v>
       </c>
       <c r="I1300" s="31" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1301" spans="1:9" ht="30">
@@ -43614,7 +43619,7 @@
         <v>17</v>
       </c>
       <c r="I1313" s="31" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1314" spans="1:9" ht="60">
@@ -43750,7 +43755,7 @@
         <v>1574</v>
       </c>
       <c r="C1319" s="31" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="D1319" s="29"/>
       <c r="E1319" s="29" t="s">
@@ -44000,7 +44005,7 @@
         <v>1577</v>
       </c>
       <c r="C1329" s="31" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="D1329" s="29"/>
       <c r="E1329" s="29" t="s">
@@ -44128,7 +44133,7 @@
         <v>2809</v>
       </c>
       <c r="D1334" s="29" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="E1334" s="29" t="s">
         <v>22</v>
@@ -44143,7 +44148,7 @@
         <v>21</v>
       </c>
       <c r="I1334" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1335" spans="1:9" ht="30">
@@ -44154,10 +44159,10 @@
         <v>1578</v>
       </c>
       <c r="C1335" s="31" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D1335" s="29" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="E1335" s="29" t="s">
         <v>22</v>
@@ -44184,7 +44189,7 @@
         <v>2810</v>
       </c>
       <c r="D1336" s="29" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="E1336" s="29" t="s">
         <v>22</v>
@@ -44199,7 +44204,7 @@
         <v>21</v>
       </c>
       <c r="I1336" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1337" spans="1:9" ht="45">
@@ -44213,7 +44218,7 @@
         <v>2811</v>
       </c>
       <c r="D1337" s="29" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="E1337" s="29" t="s">
         <v>22</v>
@@ -44228,7 +44233,7 @@
         <v>21</v>
       </c>
       <c r="I1337" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1338" spans="1:9" ht="45">
@@ -44239,10 +44244,10 @@
         <v>1578</v>
       </c>
       <c r="C1338" s="31" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D1338" s="29" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="E1338" s="29" t="s">
         <v>22</v>
@@ -44257,7 +44262,7 @@
         <v>21</v>
       </c>
       <c r="I1338" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1339" spans="1:9" ht="60">
@@ -44268,7 +44273,7 @@
         <v>1578</v>
       </c>
       <c r="C1339" s="31" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="D1339" s="29"/>
       <c r="E1339" s="29" t="s">
@@ -44293,7 +44298,7 @@
         <v>1578</v>
       </c>
       <c r="C1340" s="31" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="D1340" s="29"/>
       <c r="E1340" s="29" t="s">
@@ -44318,7 +44323,7 @@
         <v>1578</v>
       </c>
       <c r="C1341" s="31" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="D1341" s="29"/>
       <c r="E1341" s="29" t="s">
@@ -44343,7 +44348,7 @@
         <v>1578</v>
       </c>
       <c r="C1342" s="31" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="D1342" s="29"/>
       <c r="E1342" s="29" t="s">
@@ -44368,7 +44373,7 @@
         <v>1578</v>
       </c>
       <c r="C1343" s="31" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="D1343" s="29"/>
       <c r="E1343" s="29" t="s">
@@ -44396,7 +44401,7 @@
         <v>2812</v>
       </c>
       <c r="D1344" s="29" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="E1344" s="29" t="s">
         <v>22</v>
@@ -44420,10 +44425,10 @@
         <v>7</v>
       </c>
       <c r="C1345" s="31" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="D1345" s="29" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="E1345" s="29" t="s">
         <v>22</v>
@@ -44450,7 +44455,7 @@
         <v>2813</v>
       </c>
       <c r="D1346" s="29" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E1346" s="29" t="s">
         <v>22</v>
@@ -44465,7 +44470,7 @@
         <v>20</v>
       </c>
       <c r="I1346" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1347" spans="1:9" ht="30">
@@ -44476,7 +44481,7 @@
         <v>1578</v>
       </c>
       <c r="C1347" s="31" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="D1347" s="29"/>
       <c r="E1347" s="29" t="s">
@@ -44495,13 +44500,13 @@
     </row>
     <row r="1348" spans="1:9" ht="60">
       <c r="A1348" s="29" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="B1348" s="30" t="s">
         <v>1578</v>
       </c>
       <c r="C1348" s="31" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="D1348" s="29"/>
       <c r="E1348" s="29" t="s">
@@ -44529,7 +44534,7 @@
         <v>2814</v>
       </c>
       <c r="D1349" s="29" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E1349" s="29" t="s">
         <v>22</v>
@@ -44544,7 +44549,7 @@
         <v>20</v>
       </c>
       <c r="I1349" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1350" spans="1:9" ht="45">
@@ -44558,7 +44563,7 @@
         <v>2815</v>
       </c>
       <c r="D1350" s="29" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E1350" s="29" t="s">
         <v>22</v>
@@ -44573,7 +44578,7 @@
         <v>20</v>
       </c>
       <c r="I1350" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1351" spans="1:9" ht="45">
@@ -44587,7 +44592,7 @@
         <v>2816</v>
       </c>
       <c r="D1351" s="29" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E1351" s="29" t="s">
         <v>22</v>
@@ -44602,7 +44607,7 @@
         <v>20</v>
       </c>
       <c r="I1351" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1352" spans="1:9" ht="45">
@@ -44616,7 +44621,7 @@
         <v>2817</v>
       </c>
       <c r="D1352" s="29" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E1352" s="29" t="s">
         <v>22</v>
@@ -44640,7 +44645,7 @@
         <v>1578</v>
       </c>
       <c r="C1353" s="31" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="D1353" s="29"/>
       <c r="E1353" s="29" t="s">
@@ -44668,7 +44673,7 @@
         <v>2818</v>
       </c>
       <c r="D1354" s="29" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E1354" s="29" t="s">
         <v>22</v>
@@ -44683,7 +44688,7 @@
         <v>20</v>
       </c>
       <c r="I1354" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1355" spans="1:9" ht="45">
@@ -44694,7 +44699,7 @@
         <v>1578</v>
       </c>
       <c r="C1355" s="31" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="D1355" s="29"/>
       <c r="E1355" s="29" t="s">
@@ -44722,7 +44727,7 @@
         <v>2819</v>
       </c>
       <c r="D1356" s="29" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="E1356" s="29" t="s">
         <v>22</v>
@@ -44737,7 +44742,7 @@
         <v>20</v>
       </c>
       <c r="I1356" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1357" spans="1:9" ht="45">
@@ -44748,10 +44753,10 @@
         <v>1578</v>
       </c>
       <c r="C1357" s="31" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="D1357" s="29" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="E1357" s="29" t="s">
         <v>22</v>
@@ -44775,10 +44780,10 @@
         <v>1578</v>
       </c>
       <c r="C1358" s="31" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="D1358" s="29" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="E1358" s="29" t="s">
         <v>22</v>
@@ -44805,7 +44810,7 @@
         <v>2820</v>
       </c>
       <c r="D1359" s="29" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="E1359" s="29" t="s">
         <v>22</v>
@@ -44820,7 +44825,7 @@
         <v>20</v>
       </c>
       <c r="I1359" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1360" spans="1:9" ht="60">
@@ -44831,10 +44836,10 @@
         <v>1578</v>
       </c>
       <c r="C1360" s="31" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="D1360" s="29" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="E1360" s="29" t="s">
         <v>22</v>
@@ -44858,10 +44863,10 @@
         <v>1578</v>
       </c>
       <c r="C1361" s="31" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="D1361" s="29" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="E1361" s="29" t="s">
         <v>22</v>
@@ -44876,7 +44881,7 @@
         <v>20</v>
       </c>
       <c r="I1361" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1362" spans="1:9" ht="60">
@@ -44887,7 +44892,7 @@
         <v>1578</v>
       </c>
       <c r="C1362" s="31" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="D1362" s="29"/>
       <c r="E1362" s="29" t="s">
@@ -44912,10 +44917,10 @@
         <v>1578</v>
       </c>
       <c r="C1363" s="31" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="D1363" s="29" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="E1363" s="29" t="s">
         <v>22</v>
@@ -44942,7 +44947,7 @@
         <v>2821</v>
       </c>
       <c r="D1364" s="29" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="E1364" s="29" t="s">
         <v>22</v>
@@ -44957,7 +44962,7 @@
         <v>20</v>
       </c>
       <c r="I1364" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1365" spans="1:9" ht="45">
@@ -44968,10 +44973,10 @@
         <v>1578</v>
       </c>
       <c r="C1365" s="31" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="D1365" s="29" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="E1365" s="29" t="s">
         <v>22</v>
@@ -44998,7 +45003,7 @@
         <v>2822</v>
       </c>
       <c r="D1366" s="29" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="E1366" s="29" t="s">
         <v>22</v>
@@ -45013,7 +45018,7 @@
         <v>20</v>
       </c>
       <c r="I1366" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1367" spans="1:9" ht="90">
@@ -45024,10 +45029,10 @@
         <v>1578</v>
       </c>
       <c r="C1367" s="31" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="D1367" s="29" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="E1367" s="29" t="s">
         <v>22</v>
@@ -45042,7 +45047,7 @@
         <v>20</v>
       </c>
       <c r="I1367" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1368" spans="1:9" ht="60">
@@ -45053,10 +45058,10 @@
         <v>1578</v>
       </c>
       <c r="C1368" s="31" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="D1368" s="29" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="E1368" s="29" t="s">
         <v>22</v>
@@ -45080,10 +45085,10 @@
         <v>1578</v>
       </c>
       <c r="C1369" s="31" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="D1369" s="29" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="E1369" s="29" t="s">
         <v>22</v>
@@ -45095,11 +45100,9 @@
         <v>15</v>
       </c>
       <c r="H1369" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1369" s="31" t="s">
-        <v>2930</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1369" s="31"/>
     </row>
     <row r="1370" spans="1:9" ht="45">
       <c r="A1370" s="29" t="s">
@@ -45112,7 +45115,7 @@
         <v>2823</v>
       </c>
       <c r="D1370" s="29" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="E1370" s="29" t="s">
         <v>22</v>
@@ -45127,7 +45130,7 @@
         <v>20</v>
       </c>
       <c r="I1370" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1371" spans="1:9" ht="60">
@@ -45138,7 +45141,7 @@
         <v>1578</v>
       </c>
       <c r="C1371" s="31" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="D1371" s="29"/>
       <c r="E1371" s="29" t="s">
@@ -45163,10 +45166,10 @@
         <v>1578</v>
       </c>
       <c r="C1372" s="31" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="D1372" s="29" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="E1372" s="29" t="s">
         <v>22</v>
@@ -45181,7 +45184,7 @@
         <v>20</v>
       </c>
       <c r="I1372" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1373" spans="1:9" ht="45">
@@ -45195,7 +45198,7 @@
         <v>2824</v>
       </c>
       <c r="D1373" s="29" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="E1373" s="29" t="s">
         <v>22</v>
@@ -45210,7 +45213,7 @@
         <v>20</v>
       </c>
       <c r="I1373" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1374" spans="1:9" ht="45">
@@ -45221,10 +45224,10 @@
         <v>1578</v>
       </c>
       <c r="C1374" s="31" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D1374" s="29" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="E1374" s="29" t="s">
         <v>22</v>
@@ -45239,7 +45242,7 @@
         <v>20</v>
       </c>
       <c r="I1374" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1375" spans="1:9" ht="45">
@@ -45250,7 +45253,7 @@
         <v>1578</v>
       </c>
       <c r="C1375" s="31" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D1375" s="29"/>
       <c r="E1375" s="29" t="s">
@@ -45275,10 +45278,10 @@
         <v>1578</v>
       </c>
       <c r="C1376" s="31" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D1376" s="29" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="E1376" s="29" t="s">
         <v>22</v>
@@ -45293,7 +45296,7 @@
         <v>20</v>
       </c>
       <c r="I1376" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1377" spans="1:9" ht="45">
@@ -45304,10 +45307,10 @@
         <v>1578</v>
       </c>
       <c r="C1377" s="31" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="D1377" s="29" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="E1377" s="29" t="s">
         <v>22</v>
@@ -45322,7 +45325,7 @@
         <v>21</v>
       </c>
       <c r="I1377" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1378" spans="1:9" ht="45">
@@ -45336,7 +45339,7 @@
         <v>2825</v>
       </c>
       <c r="D1378" s="29" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="E1378" s="29" t="s">
         <v>22</v>
@@ -45351,7 +45354,7 @@
         <v>21</v>
       </c>
       <c r="I1378" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1379" spans="1:9" ht="45">
@@ -45365,7 +45368,7 @@
         <v>2826</v>
       </c>
       <c r="D1379" s="29" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="E1379" s="29" t="s">
         <v>22</v>
@@ -45380,7 +45383,7 @@
         <v>21</v>
       </c>
       <c r="I1379" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1380" spans="1:9" ht="30">
@@ -45391,7 +45394,7 @@
         <v>1578</v>
       </c>
       <c r="C1380" s="31" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D1380" s="29"/>
       <c r="E1380" s="29" t="s">
@@ -45416,7 +45419,7 @@
         <v>1578</v>
       </c>
       <c r="C1381" s="31" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="D1381" s="29"/>
       <c r="E1381" s="29" t="s">
@@ -45441,10 +45444,10 @@
         <v>1578</v>
       </c>
       <c r="C1382" s="31" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="D1382" s="29" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="E1382" s="29" t="s">
         <v>22</v>
@@ -45459,7 +45462,7 @@
         <v>21</v>
       </c>
       <c r="I1382" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1383" spans="1:9" ht="45">
@@ -45470,10 +45473,10 @@
         <v>1578</v>
       </c>
       <c r="C1383" s="31" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="D1383" s="29" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="E1383" s="29" t="s">
         <v>22</v>
@@ -45488,7 +45491,7 @@
         <v>21</v>
       </c>
       <c r="I1383" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1384" spans="1:9" ht="60">
@@ -45499,10 +45502,10 @@
         <v>1578</v>
       </c>
       <c r="C1384" s="31" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="D1384" s="29" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="E1384" s="29" t="s">
         <v>22</v>
@@ -45517,21 +45520,21 @@
         <v>20</v>
       </c>
       <c r="I1384" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1385" spans="1:9" ht="75">
       <c r="A1385" s="29" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1385" s="33">
+        <v>7</v>
+      </c>
+      <c r="C1385" s="31" t="s">
         <v>3010</v>
       </c>
-      <c r="B1385" s="33">
-        <v>7</v>
-      </c>
-      <c r="C1385" s="31" t="s">
-        <v>3011</v>
-      </c>
       <c r="D1385" s="29" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="E1385" s="29" t="s">
         <v>22</v>
@@ -45546,7 +45549,7 @@
         <v>20</v>
       </c>
       <c r="I1385" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1386" spans="1:9" ht="60">
@@ -45557,10 +45560,10 @@
         <v>1578</v>
       </c>
       <c r="C1386" s="31" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D1386" s="29" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="E1386" s="29" t="s">
         <v>22</v>
@@ -45575,7 +45578,7 @@
         <v>20</v>
       </c>
       <c r="I1386" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1387" spans="1:9" ht="60">
@@ -45586,10 +45589,10 @@
         <v>1578</v>
       </c>
       <c r="C1387" s="31" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="D1387" s="29" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="E1387" s="29" t="s">
         <v>22</v>
@@ -45604,7 +45607,7 @@
         <v>20</v>
       </c>
       <c r="I1387" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1388" spans="1:9" ht="45">
@@ -45615,10 +45618,10 @@
         <v>1578</v>
       </c>
       <c r="C1388" s="31" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="D1388" s="29" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="E1388" s="29" t="s">
         <v>22</v>
@@ -45633,7 +45636,7 @@
         <v>20</v>
       </c>
       <c r="I1388" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1389" spans="1:9" ht="45">
@@ -45644,10 +45647,10 @@
         <v>1578</v>
       </c>
       <c r="C1389" s="31" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="D1389" s="29" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="E1389" s="29" t="s">
         <v>22</v>
@@ -45671,10 +45674,10 @@
         <v>1578</v>
       </c>
       <c r="C1390" s="31" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D1390" s="29" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="E1390" s="29" t="s">
         <v>22</v>
@@ -45689,7 +45692,7 @@
         <v>20</v>
       </c>
       <c r="I1390" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1391" spans="1:9" ht="45">
@@ -45703,7 +45706,7 @@
         <v>2827</v>
       </c>
       <c r="D1391" s="29" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="E1391" s="29" t="s">
         <v>22</v>
@@ -45718,21 +45721,21 @@
         <v>20</v>
       </c>
       <c r="I1391" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1392" spans="1:9" ht="45">
       <c r="A1392" s="29" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1392" s="33">
+        <v>7</v>
+      </c>
+      <c r="C1392" s="31" t="s">
         <v>3028</v>
       </c>
-      <c r="B1392" s="33">
-        <v>7</v>
-      </c>
-      <c r="C1392" s="31" t="s">
-        <v>3029</v>
-      </c>
       <c r="D1392" s="29" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="E1392" s="29" t="s">
         <v>22</v>
@@ -45747,7 +45750,7 @@
         <v>20</v>
       </c>
       <c r="I1392" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1393" spans="1:9" ht="45">
@@ -45758,10 +45761,10 @@
         <v>1578</v>
       </c>
       <c r="C1393" s="31" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D1393" s="29" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="E1393" s="29" t="s">
         <v>22</v>
@@ -45773,11 +45776,9 @@
         <v>15</v>
       </c>
       <c r="H1393" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1393" s="31" t="s">
-        <v>2930</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1393" s="31"/>
     </row>
     <row r="1394" spans="1:9" ht="45">
       <c r="A1394" s="29" t="s">
@@ -45787,10 +45788,10 @@
         <v>1578</v>
       </c>
       <c r="C1394" s="31" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="D1394" s="29" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="E1394" s="29" t="s">
         <v>22</v>
@@ -45805,7 +45806,7 @@
         <v>20</v>
       </c>
       <c r="I1394" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1395" spans="1:9" ht="45">
@@ -45816,10 +45817,10 @@
         <v>1578</v>
       </c>
       <c r="C1395" s="31" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D1395" s="29" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="E1395" s="29" t="s">
         <v>22</v>
@@ -45834,7 +45835,7 @@
         <v>20</v>
       </c>
       <c r="I1395" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1396" spans="1:9" ht="45">
@@ -45845,10 +45846,10 @@
         <v>1578</v>
       </c>
       <c r="C1396" s="31" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="D1396" s="29" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="E1396" s="29" t="s">
         <v>22</v>
@@ -45863,7 +45864,7 @@
         <v>21</v>
       </c>
       <c r="I1396" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1397" spans="1:9" ht="45">
@@ -45874,10 +45875,10 @@
         <v>1578</v>
       </c>
       <c r="C1397" s="31" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="D1397" s="29" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="E1397" s="29" t="s">
         <v>22</v>
@@ -45892,7 +45893,7 @@
         <v>21</v>
       </c>
       <c r="I1397" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1398" spans="1:9" ht="45">
@@ -45906,7 +45907,7 @@
         <v>2828</v>
       </c>
       <c r="D1398" s="29" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="E1398" s="29" t="s">
         <v>22</v>
@@ -45921,7 +45922,7 @@
         <v>20</v>
       </c>
       <c r="I1398" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1399" spans="1:9" ht="45">
@@ -45932,10 +45933,10 @@
         <v>1578</v>
       </c>
       <c r="C1399" s="31" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="D1399" s="29" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="E1399" s="29" t="s">
         <v>22</v>
@@ -45950,7 +45951,7 @@
         <v>20</v>
       </c>
       <c r="I1399" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1400" spans="1:9" ht="60">
@@ -45961,10 +45962,10 @@
         <v>1578</v>
       </c>
       <c r="C1400" s="31" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D1400" s="29" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="E1400" s="29" t="s">
         <v>22</v>
@@ -45979,7 +45980,7 @@
         <v>20</v>
       </c>
       <c r="I1400" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1401" spans="1:9" ht="45">
@@ -45993,7 +45994,7 @@
         <v>2829</v>
       </c>
       <c r="D1401" s="29" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="E1401" s="29" t="s">
         <v>22</v>
@@ -46008,7 +46009,7 @@
         <v>20</v>
       </c>
       <c r="I1401" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1402" spans="1:9" ht="45">
@@ -46019,10 +46020,10 @@
         <v>1578</v>
       </c>
       <c r="C1402" s="31" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D1402" s="29" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="E1402" s="29" t="s">
         <v>22</v>
@@ -46037,7 +46038,7 @@
         <v>17</v>
       </c>
       <c r="I1402" s="31" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1403" spans="1:9" ht="45">
@@ -46048,10 +46049,10 @@
         <v>1578</v>
       </c>
       <c r="C1403" s="31" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D1403" s="29" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="E1403" s="29" t="s">
         <v>22</v>
@@ -46075,10 +46076,10 @@
         <v>1578</v>
       </c>
       <c r="C1404" s="31" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="D1404" s="29" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="E1404" s="29" t="s">
         <v>22</v>
@@ -46102,10 +46103,10 @@
         <v>1578</v>
       </c>
       <c r="C1405" s="31" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="D1405" s="29" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="E1405" s="29" t="s">
         <v>22</v>
@@ -46120,7 +46121,7 @@
         <v>20</v>
       </c>
       <c r="I1405" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1406" spans="1:9" ht="45">
@@ -46131,7 +46132,7 @@
         <v>1578</v>
       </c>
       <c r="C1406" s="31" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="D1406" s="29"/>
       <c r="E1406" s="29" t="s">
@@ -46156,7 +46157,7 @@
         <v>1578</v>
       </c>
       <c r="C1407" s="31" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D1407" s="29"/>
       <c r="E1407" s="29" t="s">
@@ -46181,7 +46182,7 @@
         <v>1578</v>
       </c>
       <c r="C1408" s="31" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="D1408" s="29"/>
       <c r="E1408" s="29" t="s">
@@ -46206,7 +46207,7 @@
         <v>1578</v>
       </c>
       <c r="C1409" s="31" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D1409" s="29"/>
       <c r="E1409" s="29" t="s">
@@ -46231,7 +46232,7 @@
         <v>1578</v>
       </c>
       <c r="C1410" s="31" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D1410" s="29"/>
       <c r="E1410" s="29" t="s">
@@ -46256,7 +46257,7 @@
         <v>1578</v>
       </c>
       <c r="C1411" s="31" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D1411" s="29"/>
       <c r="E1411" s="29" t="s">
@@ -46281,7 +46282,7 @@
         <v>1578</v>
       </c>
       <c r="C1412" s="31" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="D1412" s="29"/>
       <c r="E1412" s="29" t="s">
@@ -46306,7 +46307,7 @@
         <v>1578</v>
       </c>
       <c r="C1413" s="31" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D1413" s="29"/>
       <c r="E1413" s="29" t="s">
@@ -46331,7 +46332,7 @@
         <v>1578</v>
       </c>
       <c r="C1414" s="31" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D1414" s="29"/>
       <c r="E1414" s="29" t="s">
@@ -46356,7 +46357,7 @@
         <v>1578</v>
       </c>
       <c r="C1415" s="31" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D1415" s="29"/>
       <c r="E1415" s="29" t="s">
@@ -46381,7 +46382,7 @@
         <v>1578</v>
       </c>
       <c r="C1416" s="31" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D1416" s="29"/>
       <c r="E1416" s="29" t="s">
@@ -46406,7 +46407,7 @@
         <v>1578</v>
       </c>
       <c r="C1417" s="31" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D1417" s="29"/>
       <c r="E1417" s="29" t="s">
@@ -46431,7 +46432,7 @@
         <v>1578</v>
       </c>
       <c r="C1418" s="31" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D1418" s="29"/>
       <c r="E1418" s="29" t="s">
@@ -46456,7 +46457,7 @@
         <v>1578</v>
       </c>
       <c r="C1419" s="31" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D1419" s="29"/>
       <c r="E1419" s="29" t="s">
@@ -46481,7 +46482,7 @@
         <v>1578</v>
       </c>
       <c r="C1420" s="31" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D1420" s="29"/>
       <c r="E1420" s="29" t="s">
@@ -46506,7 +46507,7 @@
         <v>1578</v>
       </c>
       <c r="C1421" s="31" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D1421" s="29"/>
       <c r="E1421" s="29" t="s">
@@ -46531,7 +46532,7 @@
         <v>1578</v>
       </c>
       <c r="C1422" s="31" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D1422" s="29"/>
       <c r="E1422" s="29" t="s">
@@ -46556,7 +46557,7 @@
         <v>1578</v>
       </c>
       <c r="C1423" s="31" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D1423" s="29"/>
       <c r="E1423" s="29" t="s">
@@ -46581,7 +46582,7 @@
         <v>1578</v>
       </c>
       <c r="C1424" s="31" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D1424" s="29"/>
       <c r="E1424" s="29" t="s">
@@ -46606,7 +46607,7 @@
         <v>1578</v>
       </c>
       <c r="C1425" s="31" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D1425" s="29"/>
       <c r="E1425" s="29" t="s">
@@ -46631,7 +46632,7 @@
         <v>1578</v>
       </c>
       <c r="C1426" s="31" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D1426" s="29"/>
       <c r="E1426" s="29" t="s">
@@ -46656,7 +46657,7 @@
         <v>1578</v>
       </c>
       <c r="C1427" s="31" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D1427" s="29"/>
       <c r="E1427" s="29" t="s">
@@ -46681,7 +46682,7 @@
         <v>1578</v>
       </c>
       <c r="C1428" s="31" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D1428" s="29"/>
       <c r="E1428" s="29" t="s">
@@ -46706,7 +46707,7 @@
         <v>1578</v>
       </c>
       <c r="C1429" s="31" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D1429" s="29"/>
       <c r="E1429" s="29" t="s">
@@ -46731,7 +46732,7 @@
         <v>1578</v>
       </c>
       <c r="C1430" s="31" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="D1430" s="29"/>
       <c r="E1430" s="29" t="s">
@@ -46756,7 +46757,7 @@
         <v>1578</v>
       </c>
       <c r="C1431" s="31" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D1431" s="29"/>
       <c r="E1431" s="29" t="s">
@@ -46781,7 +46782,7 @@
         <v>1578</v>
       </c>
       <c r="C1432" s="31" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D1432" s="29"/>
       <c r="E1432" s="29" t="s">
@@ -46806,7 +46807,7 @@
         <v>1578</v>
       </c>
       <c r="C1433" s="31" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D1433" s="29"/>
       <c r="E1433" s="29" t="s">
@@ -46831,7 +46832,7 @@
         <v>1578</v>
       </c>
       <c r="C1434" s="31" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D1434" s="29"/>
       <c r="E1434" s="29" t="s">
@@ -46856,7 +46857,7 @@
         <v>1578</v>
       </c>
       <c r="C1435" s="31" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D1435" s="29"/>
       <c r="E1435" s="29" t="s">
@@ -46881,7 +46882,7 @@
         <v>1578</v>
       </c>
       <c r="C1436" s="31" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D1436" s="29"/>
       <c r="E1436" s="29" t="s">
@@ -46906,7 +46907,7 @@
         <v>1578</v>
       </c>
       <c r="C1437" s="31" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D1437" s="29"/>
       <c r="E1437" s="29" t="s">
@@ -46931,7 +46932,7 @@
         <v>1578</v>
       </c>
       <c r="C1438" s="31" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D1438" s="29"/>
       <c r="E1438" s="29" t="s">
@@ -46956,7 +46957,7 @@
         <v>1578</v>
       </c>
       <c r="C1439" s="31" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D1439" s="29"/>
       <c r="E1439" s="29" t="s">
@@ -46981,7 +46982,7 @@
         <v>1578</v>
       </c>
       <c r="C1440" s="31" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D1440" s="29"/>
       <c r="E1440" s="29" t="s">
@@ -47006,10 +47007,10 @@
         <v>1578</v>
       </c>
       <c r="C1441" s="31" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D1441" s="29" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="E1441" s="29" t="s">
         <v>22</v>
@@ -47024,7 +47025,7 @@
         <v>20</v>
       </c>
       <c r="I1441" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1442" spans="1:9" ht="60">
@@ -47035,10 +47036,10 @@
         <v>1578</v>
       </c>
       <c r="C1442" s="31" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D1442" s="29" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="E1442" s="29" t="s">
         <v>22</v>
@@ -47053,7 +47054,7 @@
         <v>20</v>
       </c>
       <c r="I1442" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1443" spans="1:9" ht="60">
@@ -47064,10 +47065,10 @@
         <v>1578</v>
       </c>
       <c r="C1443" s="31" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D1443" s="29" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="E1443" s="29" t="s">
         <v>22</v>
@@ -47082,7 +47083,7 @@
         <v>20</v>
       </c>
       <c r="I1443" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1444" spans="1:9" ht="45">
@@ -47093,7 +47094,7 @@
         <v>1578</v>
       </c>
       <c r="C1444" s="31" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D1444" s="29"/>
       <c r="E1444" s="29" t="s">
@@ -47109,7 +47110,7 @@
         <v>20</v>
       </c>
       <c r="I1444" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1445" spans="1:9" ht="30">
@@ -47120,7 +47121,7 @@
         <v>1578</v>
       </c>
       <c r="C1445" s="31" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D1445" s="29"/>
       <c r="E1445" s="29" t="s">
@@ -47145,7 +47146,7 @@
         <v>1578</v>
       </c>
       <c r="C1446" s="31" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D1446" s="29"/>
       <c r="E1446" s="29" t="s">
@@ -47172,6 +47173,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -47179,11 +47185,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I1446">
@@ -47250,6 +47251,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -47298,32 +47314,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47343,9 +47337,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -9536,7 +9536,7 @@
     <t>MS-OXCRPC_R1690:i</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXCRPC_R4886.</t>
+    <t>Verified by derived requirements: MS-OXCRPC_R4885, MS-OXCRPC_R4886.</t>
   </si>
 </sst>
 </file>
@@ -9591,6 +9591,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9811,6 +9812,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9834,21 +9850,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10756,127 +10757,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10889,12 +10890,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10907,12 +10908,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10925,12 +10926,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10943,60 +10944,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -40017,7 +40018,7 @@
       <c r="H1170" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I1170" s="31" t="s">
+      <c r="I1170" s="20" t="s">
         <v>3090</v>
       </c>
     </row>
@@ -47173,11 +47174,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -47185,6 +47181,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I1446">
@@ -47251,18 +47252,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47315,14 +47316,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -47332,6 +47325,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10467" uniqueCount="3152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10468" uniqueCount="3153">
   <si>
     <t>Req ID</t>
   </si>
@@ -9721,11 +9721,14 @@
   <si>
     <t>[In AUX_HEADER Structure] [Type (1 byte)] When the Version field is AUX_VERSION_1 and the type value is "AUX_PROTOCOL_DEVICE_IDENTIFICATION 0x4E", means "AUX_PROTOCOL_DEVICE_IDENTIFICATION " structure will follow the AUX_HEADER.</t>
   </si>
+  <si>
+    <t>Verified by requirement: MS-OXCRPC_R1649011, MS-OXCRPC_R1649012 and MS-OXCRPC_R1649013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -10049,7 +10052,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -10389,6 +10392,36 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
@@ -10651,7 +10684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10684,9 +10717,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10719,6 +10769,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -31809,7 +31876,7 @@
         <v>15</v>
       </c>
       <c r="H837" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I837" s="35"/>
     </row>
@@ -34058,7 +34125,7 @@
       </c>
       <c r="I926" s="35"/>
     </row>
-    <row r="927" spans="1:9" ht="45">
+    <row r="927" spans="1:9" ht="60">
       <c r="A927" s="22" t="s">
         <v>3133</v>
       </c>
@@ -34079,9 +34146,11 @@
         <v>15</v>
       </c>
       <c r="H927" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I927" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="I927" s="24" t="s">
+        <v>3152</v>
+      </c>
     </row>
     <row r="928" spans="1:9" ht="60">
       <c r="A928" s="22" t="s">
@@ -48109,34 +48178,56 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I1475">
-    <cfRule type="expression" dxfId="26" priority="53">
+  <conditionalFormatting sqref="A20:I926 A928:I1475 A927:H927">
+    <cfRule type="expression" dxfId="32" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54">
+    <cfRule type="expression" dxfId="31" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="61">
+    <cfRule type="expression" dxfId="30" priority="67">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I1475">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="A20:I926 A928:I1475 A927:H927">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F1475">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I927">
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I927">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">

--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -9734,7 +9734,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -10015,21 +10015,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10054,145 +10039,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -10531,6 +10397,80 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -10660,34 +10600,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1476" tableType="xml" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1476" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1476"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="42">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="41">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="40">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="39">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="38">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="37">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="36">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="35">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="34">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -10696,12 +10636,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="28"/>
-    <tableColumn id="2" name="Test" dataDxfId="27"/>
-    <tableColumn id="3" name="Description" dataDxfId="26"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10750,7 +10690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10785,7 +10725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10997,16 +10937,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C299" sqref="C299"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -11052,127 +10990,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11185,12 +11123,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11203,12 +11141,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11221,12 +11159,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11239,60 +11177,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -18491,7 +18429,7 @@
         <v>15</v>
       </c>
       <c r="H304" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I304" s="35"/>
     </row>
@@ -48225,6 +48163,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -48232,62 +48175,57 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A929:I1476 A928:H928 A20:I927">
-    <cfRule type="expression" dxfId="25" priority="59">
+    <cfRule type="expression" dxfId="32" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="60">
+    <cfRule type="expression" dxfId="31" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="67">
+    <cfRule type="expression" dxfId="30" priority="67">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A929:I1476 A928:H928 A20:I927">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F1476">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I928">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I928">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48315,7 +48253,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B953:B1478 B93:B295 B350:B785 B787:B789 B791:B837 B839:B885 B887 B890:B918 B19:B91" numberStoredAsText="1"/>
+    <ignoredError sqref="B952:B1478 B92:B951 B19:B91 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -48325,21 +48263,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -48388,16 +48311,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -48411,16 +48350,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -9650,9 +9650,6 @@
     <t>MS-OXCRPC_R1649013</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">[In rgbIn Input Buffer] As mentioned in section 3.1.4.2.1.1.1, the rgbIn parameter of the EcDoRpcExt2 method, as specified in section 3.1.4.2, can contain more than one extended buffer, each with an RPC_HEADER_EXT structure, as specified in section 2.2.2.1. </t>
   </si>
   <si>
@@ -9729,6 +9726,9 @@
   </si>
   <si>
     <t>[In Client Versions] [Client version "11.00.0000.4920"] The client supports receiving ecServerBusy (0x00000480) in the ReturnValue field of the RopFastTransferSourceGetBuffer ROP response ([MS-OXCROPS] section 2.2.12.4).</t>
+  </si>
+  <si>
+    <t>18.2</t>
   </si>
 </sst>
 </file>
@@ -10016,21 +10016,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10054,6 +10039,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10938,9 +10938,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1193" sqref="C1193"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -10982,138 +10980,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>3128</v>
+        <v>3154</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>42790</v>
+        <v>42995</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11126,12 +11124,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11144,12 +11142,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11162,12 +11160,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11180,60 +11178,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -12478,7 +12476,7 @@
         <v>1476</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
@@ -13101,13 +13099,13 @@
     </row>
     <row r="92" spans="1:9" ht="60">
       <c r="A92" s="22" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>1476</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
@@ -13213,7 +13211,7 @@
         <v>1476</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="29" t="s">
@@ -18015,7 +18013,7 @@
         <v>1493</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
@@ -18067,7 +18065,7 @@
         <v>1493</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
@@ -18294,7 +18292,7 @@
         <v>1495</v>
       </c>
       <c r="C299" s="35" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="D299" s="34"/>
       <c r="E299" s="29" t="s">
@@ -30426,7 +30424,7 @@
         <v>1526</v>
       </c>
       <c r="C781" s="20" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -33910,7 +33908,7 @@
         <v>3114</v>
       </c>
       <c r="C919" s="35" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="D919" s="34"/>
       <c r="E919" s="29" t="s">
@@ -33935,7 +33933,7 @@
         <v>3114</v>
       </c>
       <c r="C920" s="35" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="D920" s="34"/>
       <c r="E920" s="29" t="s">
@@ -33960,7 +33958,7 @@
         <v>3114</v>
       </c>
       <c r="C921" s="35" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="D921" s="34"/>
       <c r="E921" s="29" t="s">
@@ -33985,7 +33983,7 @@
         <v>3114</v>
       </c>
       <c r="C922" s="35" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="D922" s="34"/>
       <c r="E922" s="29" t="s">
@@ -34010,7 +34008,7 @@
         <v>3114</v>
       </c>
       <c r="C923" s="35" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="D923" s="34"/>
       <c r="E923" s="29" t="s">
@@ -34035,7 +34033,7 @@
         <v>3114</v>
       </c>
       <c r="C924" s="35" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="D924" s="34"/>
       <c r="E924" s="29" t="s">
@@ -34060,7 +34058,7 @@
         <v>3114</v>
       </c>
       <c r="C925" s="35" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="D925" s="34"/>
       <c r="E925" s="29" t="s">
@@ -34085,7 +34083,7 @@
         <v>3114</v>
       </c>
       <c r="C926" s="35" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="D926" s="34"/>
       <c r="E926" s="29" t="s">
@@ -34110,7 +34108,7 @@
         <v>3114</v>
       </c>
       <c r="C927" s="35" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="D927" s="34"/>
       <c r="E927" s="29" t="s">
@@ -34135,7 +34133,7 @@
         <v>3114</v>
       </c>
       <c r="C928" s="35" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="D928" s="34"/>
       <c r="E928" s="29" t="s">
@@ -34151,7 +34149,7 @@
         <v>17</v>
       </c>
       <c r="I928" s="24" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="929" spans="1:9" ht="60">
@@ -34162,7 +34160,7 @@
         <v>3114</v>
       </c>
       <c r="C929" s="35" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D929" s="34"/>
       <c r="E929" s="29" t="s">
@@ -34187,7 +34185,7 @@
         <v>3114</v>
       </c>
       <c r="C930" s="35" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="D930" s="34"/>
       <c r="E930" s="29" t="s">
@@ -34212,7 +34210,7 @@
         <v>3114</v>
       </c>
       <c r="C931" s="35" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="D931" s="34"/>
       <c r="E931" s="29" t="s">
@@ -34314,7 +34312,7 @@
         <v>3094</v>
       </c>
       <c r="C935" s="20" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="D935" s="29"/>
       <c r="E935" s="29" t="s">
@@ -34366,7 +34364,7 @@
         <v>3094</v>
       </c>
       <c r="C937" s="20" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D937" s="29"/>
       <c r="E937" s="29" t="s">
@@ -34741,7 +34739,7 @@
         <v>3094</v>
       </c>
       <c r="C952" s="20" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="D952" s="29"/>
       <c r="E952" s="29" t="s">
@@ -40820,7 +40818,7 @@
         <v>1559</v>
       </c>
       <c r="C1193" s="20" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="D1193" s="29"/>
       <c r="E1193" s="29" t="s">
@@ -48166,6 +48164,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -48173,11 +48176,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A929:I1476 A928:H928 A20:I927">
@@ -48256,7 +48254,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B952:B1478 B92:B951 B19:B91 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B952:B1478 B92:B951 B19:B91" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -48266,18 +48264,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48330,6 +48328,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -48339,14 +48345,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10476" uniqueCount="3155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10475" uniqueCount="3156">
   <si>
     <t>Req ID</t>
   </si>
@@ -9729,6 +9729,9 @@
   </si>
   <si>
     <t>18.2</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXCRPC_R284.</t>
   </si>
 </sst>
 </file>
@@ -10016,6 +10019,21 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10039,21 +10057,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10991,127 +10994,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11124,12 +11127,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11142,12 +11145,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11160,12 +11163,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11178,60 +11181,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -18001,8 +18004,8 @@
       <c r="H287" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I287" s="31" t="s">
-        <v>2838</v>
+      <c r="I287" s="20" t="s">
+        <v>3155</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="45">
@@ -18022,11 +18025,11 @@
       <c r="F288" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G288" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H288" s="29" t="s">
-        <v>21</v>
+      <c r="G288" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I288" s="31"/>
     </row>
@@ -18050,12 +18053,10 @@
       <c r="G289" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H289" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I289" s="31" t="s">
-        <v>2838</v>
-      </c>
+      <c r="H289" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I289" s="31"/>
     </row>
     <row r="290" spans="1:9" ht="60">
       <c r="A290" s="29" t="s">
@@ -48164,11 +48165,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -48176,6 +48172,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A929:I1476 A928:H928 A20:I927">
@@ -48273,12 +48274,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -48327,6 +48322,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -48336,20 +48337,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48362,4 +48349,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4608516E-E9AE-442F-A4A7-737FA059D0B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp96FE" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp96FE" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-yuliu\AppData\Local\Temp\tmp96FE.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -9737,7 +9738,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -10604,34 +10605,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1476" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1476"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1476" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1476" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -10640,12 +10641,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10727,6 +10728,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10762,6 +10780,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10937,7 +10972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1478"/>
   <sheetViews>
@@ -48232,20 +48267,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1476">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1476" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1476">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1476" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1476">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1476" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1476">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1476" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -48255,7 +48290,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B952:B1478 B92:B951 B19:B91" numberStoredAsText="1"/>
+    <ignoredError sqref="B952:B1478 B92:B951 B19:B91 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCRPC/MS-OXCRPC_RequirementSpecification.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4608516E-E9AE-442F-A4A7-737FA059D0B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -21,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp96FE" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="tmp96FE" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-yuliu\AppData\Local\Temp\tmp96FE.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -7615,9 +7614,6 @@
     <t>[In EcDoAsyncConnectEx Method (opnum 14)] [Return values] If the method fails, [the return value is an implementation-specific error code OR] the return value is the protocol-defined error code [ecRejected (0x000007EE)] listed in the following table.</t>
   </si>
   <si>
-    <t>[In EcDoAsyncConnectEx Method (opnum 14)] [Return Values] [ecRejected (0x000007EE)] Client either polls for notifications or calls the EcRRegisterPushNotifications method (section 3.1.4.5). &lt;27&gt;</t>
-  </si>
-  <si>
     <t>[In EcDoAsyncConnectEx Method (opnum 14)] Exceptions Thrown: No exceptions are thrown beyond those thrown by the underlying RPC protocol as specified in [MS-RPCE].</t>
   </si>
   <si>
@@ -9074,60 +9070,18 @@
     <t>[In Server Topology Information] The following block [AUX_CLIENT_CONTROL] MAY&lt;25&gt; be sent from the server to the client in the rgbAuxOut parameter auxiliary buffer, as specified in section 3.1.4.1.1.1.2, on the EcDoRpcExt2 method, as specified in section 3.1.4.2.</t>
   </si>
   <si>
-    <t>[In EcDoAsyncConnectEx Method (opnum 14)] [Return Values] [ecRejected (0x000007EE)] The Server has asynchronous RPC notifications disabled. &lt;26&gt;</t>
-  </si>
-  <si>
-    <t>[In EcRRegisterPushNotification Method (opnum 4)] The server MAY&lt;27&gt; support the EcRRegisterPushNotification method.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] A client SHOULD&lt;28&gt; use different RPC methods based on the product version being run on the server that it [the client] is accessing.</t>
-  </si>
-  <si>
     <t>[In Sending the EcDoConnectEx Method] [hBinding] [The following is a list of parameters for which the client has specific handling:] Some protocol sequences have named endpoints that MUST be used.</t>
   </si>
   <si>
-    <t>[In Sending the EcDoConnectEx Method] ulIcxrLink: This value is used to link the Session Context that is created by this call [EcDoConnectEx method] with an existing Session Context on the server that was created by a previous call to the EcDoConnectEx method.&lt;29&gt;</t>
-  </si>
-  <si>
-    <t>[In Sending the EcDoConnectEx Method] [ulIcxrLink] [A client can link two Session Contexts for the following reasons:] This [CAL] gives a client the ability to open multiple independent connections by using more than one Session Context on the server but be seen to the server as only consuming a single CAL.&lt;30&gt;</t>
-  </si>
-  <si>
-    <t>[In Sending the EcDoConnectEx Method] [piCxr] For details about how to link Session Contexts and the reason why a client might request to do so [the client behavior when piCxr is on success or on failure], see the ulIcxrLink parameter.&lt;31&gt;</t>
-  </si>
-  <si>
-    <t>[In Sending the EcDoConnectEx Method] [pulTimeStamp] If the client is not requesting to link Session Contexts, the client passes value 0x00000000.&lt;32&gt;</t>
-  </si>
-  <si>
-    <t>[In Client Performance Monitoring] AUX_PERF_CLIENTINFO: Sent to the server as diagnostic information about the client for more robust reporting of networking issues.&lt;33&gt;</t>
-  </si>
-  <si>
-    <t>[In Client Performance Monitoring] AUX_CLIENT_CONNECTION_INFO: Sent to the server as information about the client connection to be logged by the server.&lt;34&gt;</t>
-  </si>
-  <si>
     <t>[In Client Versions] [Client version "11.0.0.0"] The client supports receiving Unicode strings for all string properties on recipient row data that is returned from the server on the RopReadRecipients ROP ([MS-OXCROPS] section 2.2.6.6), the RopOpenMessage ROP ([MS-OXCROPS] section 2.2.6.1), and the RopOpenEmbeddedMessage ROP ([MS-OXCROPS] section 2.2.6.16).</t>
   </si>
   <si>
     <t>[In Client Versions] For client versions earlier than 12.00.0000.000, the server MUST fail the EcDoConnectEx method call with ecClientVerDisallowed when no public folders are configured within the messaging system unless the EcDoConnectEx method parameter flag 0x00008000 is passed in the ulFlags parameter.</t>
   </si>
   <si>
-    <t>[In Handling Endpoint Consolidation] If the client receives the AUX_ENDPOINT_CAPABILITIES auxiliary block structure, as specified in section 2.2.2.2.19, in the server's response to the EcDoConnectEx method, as specified in section 3.1.4.1, initiated by the client, then the client SHOULD&lt;35&gt; save the information so that on subsequent connections to that server the client can consolidate the RFRI, NSPI, and EMSMDB interfaces to a single port, such as port 6001.</t>
-  </si>
-  <si>
     <t>[In Initialization] Note that some protocol sequences use named endpoints, which are also specified in section 2.1.</t>
   </si>
   <si>
-    <t>[In Message Processing Events and Sequencing Rules] This interface [AsyncEMSMDB] includes the following method &lt;36&gt;: [EcDoAsyncWaitEx].</t>
-  </si>
-  <si>
-    <t>[In EcDoAsyncWaitEx Method (opnum 0)] If no events are available within 5 minutes of the time that the client last accessed the server&lt;37&gt; through a call to the EcDoRpcExt2 method, as specified in section 3.1.4.2, the server returns the call and does not set the NotificationPending flag in the pulFlagsOut parameter.</t>
-  </si>
-  <si>
-    <t>[In EcDoAsyncWaitEx Method (opnum 0)] [Return Values] [Rejected (0x000007EE)] An EcDoAsyncWaitEx method call is already outstanding on this asynchronous context handle.&lt;38&gt;</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] A client SHOULD&lt;39&gt; use different RPC methods based on the product version being run on the server that it is accessing.</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does not support this given protocol sequence [ncacn_ip_tcp]. ( Microsoft Exchange Server 2013 and above follow this behavior.)</t>
   </si>
   <si>
@@ -9236,139 +9190,7 @@
     <t>[In Appendix B: Product Behavior] Implementation does not return auxiliary payload data to the client. (Microsoft Exchange Server 2010 follows this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return auxiliary payload data to the client. &lt;24&gt; Section 3.1.4.2: Exchange 2007, Exchange 2013, and Exchange 2016 support returning data in rgbAuxOut parameter.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return the ecRejected error code, when the Server has asynchronous RPC notifications disabled. (&lt;26&gt; Section 3.1.4.4: Exchange 2010, Exchange 2013, and Exchange 2016 do not return the ecRejected error code.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return [ecRejected (0x000007EE)] when Client either polls for notifications or calls EcRRegisterPushNotifications. [In Appendix B: Product Behavior]  &lt;26&gt; Section 3.1.4.4: Exchange 2010, Exchange 2013, and Exchange 2016 do not return the ecRejected error code.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does support the EcRRegisterPushNotification method. (&lt;27&gt; Section 3.1.4.5: Exchange 2007 does support this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does support the EcRRegisterPushNotification method call. &lt;27&gt; Section 3.1.4.5: Exchange 2010 SP2 supports the EcRRegisterPushNotification RPC when a registry key is created to support push notifications, as described in [MSFT-ConfigStaticUDPPort].</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;28&gt; Section 3.2.4: Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2003.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003, 2007 and 2010 use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2003.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003, 2007 and 2010 use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2007.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2003.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2003.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2003.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2003.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2007.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2007.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2007.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2007 and above use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2007.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2007.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above follow this behavior uses EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2007 and above use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2013.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2013.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2013.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2013.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2013.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;28&gt; Section 3.2.4] Office Outlook 2007 and above use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2013.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;29&gt; Section 3.2.4.1: Exchange 2010, Exchange 2013, and Exchange 2016 do not support Session Context linking.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;30&gt; Section 3.2.4.1: In Exchange 2003 and the initial release version of Exchange 2007, the server counts individual connections for Client Access License accounting, so Session Context linking is useful in method call EcDoConnectEx on the EMSMDB interface.</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] &lt;31&gt; Section 3.2.4.1: Exchange 2010, Exchange 2013, and Exchange 2016 do not support Session Context linking.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;32&gt; Section 3.2.4.1: Exchange 2010, Exchange 2013, and Exchange 2016 do not support Session Context linking.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;33&gt; Section 3.2.4.1.2.1: Outlook 2010 by default does not populate the MachineName, UserName, ClientIP, and MacAddress fields within the AUX_PERF_CLIENTINFO structure.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;34&gt; Section 3.2.4.1.2.1: Exchange 2003 does not support the AUX_CLIENT_CONNECTION_INFO auxiliary buffer.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;34&gt; Section 3.2.4.1.2.1] Office Outlook 2003 does not support the AUX_CLIENT_CONNECTION_INFO auxiliary buffer.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;35&gt; Section 3.2.4.6:  Office Outlook 2003, the initial release version of Office Outlook 2007, Office Outlook 2007 SP1, Office Outlook 2007 SP2, and Outlook 2010 do not support port consolidation.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;35&gt; Section 3.2.4.6] Microsoft Office Outlook 2007 Service Pack 3 (SP3) supports port consolidation.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;35&gt; Section 3.2.4.6] Clients that do not support port consolidation ignore the AUX_ENDPOINT_CAPABILITIES auxiliary block structure, as described in section 2.2.2.2.19.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;35&gt; Section 3.2.4.6: Office Outlook 2007 SP3, Outlook 2013, and Outlook 2016 support port consolidation.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;36&gt; Section 3.3.4: Implementation does support AsyncEMSMDB method EcDoAsyncWaitEx. (Microsoft Exchange Server 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does complete the call every 5 minutes regardless of the client's last activity time. [In Appendix B: Product Behavior] &lt;37&gt; Section 3.3.4.1: Exchange 2007 completes the call every 5 minutes regardless of the client's last activity time.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does reject the request if the asynchronous context handle is invalid. (&lt;38&gt; Section 3.3.4.1: Exchange 2007 and Exchange 2010 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;39&gt; Section 3.4.4] The AsyncEMSMDB interface methods are not used by a client when accessing a computer that is running Exchange 2003.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;39&gt; Section 3.4.4] The AsyncEMSMDB interface method EcDoAsyncWaitEx is used by Office Outlook 2007, Outlook 2010, Outlook 2013 and Outlook 2016 when accessing a computer that is running Exchange 2007, Exchange 2010, Exchange 2013, or Exchange 2016.</t>
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does return the call and will not set the NotificationPending flag in the pulFlagsOut field, If no events are available within five minutes of the time that the client last accessed the server through a call to EcDoRpcExt2. (Microsoft Exchange Server 2010 and above follow this behavior.)</t>
@@ -9723,22 +9545,199 @@
     <t>[In Appendix B: Product Behavior] [&lt;17&gt; Section 3.1.4.1.2.1] Office Outlook 2003 does not support the AUX_SERVER_SESSION_INFO auxiliary buffer.</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not support the EcRRegisterPushNotification method call. &lt;27&gt; Section 3.1.4.5: Exchange 2013 and Exchange 2016 do not support the EcRRegisterPushNotification RPC and returns ecNotSupported.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;27&gt; Section 3.1.4.5: The initial release version of Exchange 2010 and Exchange 2010 SP1 do not support the EcRRegisterPushNotification method and return ecNotSupported.</t>
-  </si>
-  <si>
     <t>[In Bitmask] The final end bit is necessary, even if an additional bitmask has to be allocated.</t>
   </si>
   <si>
-    <t>19.0</t>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;38&gt; Section 3.4.4] The AsyncEMSMDB interface method EcDoAsyncWaitEx is used by Office Outlook 2007, Outlook 2010, Outlook 2013 and Outlook 2016 when accessing a computer that is running Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 or Exchange 2019.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;38&gt; Section 3.4.4] The AsyncEMSMDB interface methods are not used by a client when accessing a computer that is running Exchange 2003.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] A client SHOULD&lt;38&gt; use different RPC methods based on the product version being run on the server that it is accessing.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does reject the request if the asynchronous context handle is invalid. (&lt;37&gt; Section 3.3.4.1: Exchange 2007 and Exchange 2010 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does complete the call every 5 minutes regardless of the client's last activity time. [In Appendix B: Product Behavior] &lt;36&gt; Section 3.3.4.1: Exchange 2007 completes the call every 5 minutes regardless of the client's last activity time.</t>
+  </si>
+  <si>
+    <t>[In EcDoAsyncWaitEx Method (opnum 0)] [Return Values] [Rejected (0x000007EE)] An EcDoAsyncWaitEx method call is already outstanding on this asynchronous context handle.&lt;37&gt;</t>
+  </si>
+  <si>
+    <t>[In EcDoAsyncWaitEx Method (opnum 0)] If no events are available within 5 minutes of the time that the client last accessed the server&lt;36&gt; through a call to the EcDoRpcExt2 method, as specified in section 3.1.4.2, the server returns the call and does not set the NotificationPending flag in the pulFlagsOut parameter.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;35&gt; Section 3.3.4: Implementation does support AsyncEMSMDB method EcDoAsyncWaitEx. (Microsoft Exchange Server 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] This interface [AsyncEMSMDB] includes the following method &lt;35&gt;: [EcDoAsyncWaitEx].</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;34&gt; Section 3.2.4.6: Office Outlook 2007 SP3, Outlook 2013, and Outlook 2016 support port consolidation.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;34&gt; Section 3.2.4.6] Clients that do not support port consolidation ignore the AUX_ENDPOINT_CAPABILITIES auxiliary block structure, as described in section 2.2.2.2.19.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;34&gt; Section 3.2.4.6] Microsoft Office Outlook 2007 Service Pack 3 (SP3) supports port consolidation.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;34&gt; Section 3.2.4.6:  Office Outlook 2003, the initial release version of Office Outlook 2007, Office Outlook 2007 SP1, Office Outlook 2007 SP2, and Outlook 2010 do not support port consolidation.</t>
+  </si>
+  <si>
+    <t>[In Handling Endpoint Consolidation] If the client receives the AUX_ENDPOINT_CAPABILITIES auxiliary block structure, as specified in section 2.2.2.2.19, in the server's response to the EcDoConnectEx method, as specified in section 3.1.4.1, initiated by the client, then the client SHOULD&lt;34&gt; save the information so that on subsequent connections to that server the client can consolidate the RFRI, NSPI, and EMSMDB interfaces to a single port, such as port 6001.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;33&gt; Section 3.2.4.1.2.1] Office Outlook 2003 does not support the AUX_CLIENT_CONNECTION_INFO auxiliary buffer.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;33&gt; Section 3.2.4.1.2.1: Exchange 2003 does not support the AUX_CLIENT_CONNECTION_INFO auxiliary buffer.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;32&gt; Section 3.2.4.1.2.1: Outlook 2010 by default does not populate the MachineName, UserName, ClientIP, and MacAddress fields within the AUX_PERF_CLIENTINFO structure.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;30&gt; Section 3.2.4.1: Exchange 2010, Exchange 2013, and Exchange 2016 do not support Session Context linking.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;29&gt; Section 3.2.4.1: In Exchange 2003 and the initial release version of Exchange 2007, the server counts individual connections for Client Access License accounting, so Session Context linking is useful in method call EcDoConnectEx on the EMSMDB interface.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;28&gt; Section 3.2.4.1: Exchange 2010, Exchange 2013, and Exchange 2016 do not support Session Context linking.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;27&gt; Section 3.2.4: Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2003.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003, 2007 and 2010 use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2003.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003, 2007 and 2010 use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2007.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2003.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2003.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2003.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2003.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2007.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2007.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2007.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2007 and above use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2007.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2010.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2010.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2010.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2007.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above follow this behavior uses EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2010.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2010.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2007 and above use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2010.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoDisconnect when accessing a computer that is running Exchange 2013.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcRRegisterPushNotification when accessing a computer that is running Exchange 2013.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above don't use EMSMDB interface method EcDummyRpc when accessing a computer that is running Exchange 2013.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2007 and above use EMSMDB interface method EcDoAsyncConnectEx when accessing a computer that is running Exchange 2013.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoRpcExt2 when accessing a computer that is running Exchange 2013.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;27&gt; Section 3.2.4] Office Outlook 2003 and above use EMSMDB interface method EcDoConnectEx when accessing a computer that is running Exchange 2013.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does support the EcRRegisterPushNotification method. (&lt;26&gt; Section 3.1.4.5: Exchange 2007 does support this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;26&gt; Section 3.1.4.5: The initial release version of Exchange 2010 and Exchange 2010 SP1 do not support the EcRRegisterPushNotification method and return ecNotSupported.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does support the EcRRegisterPushNotification method call. &lt;26&gt; Section 3.1.4.5: Exchange 2010 SP2 supports the EcRRegisterPushNotification RPC when a registry key is created to support push notifications, as described in [MSFT-ConfigStaticUDPPort].</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not support the EcRRegisterPushNotification method call. &lt;26&gt; Section 3.1.4.5: Exchange 2013 Exchange 2016 and Exchange 2019 do not support the EcRRegisterPushNotification RPC and returns ecNotSupported.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return [ecRejected (0x000007EE)] when Client either polls for notifications or calls EcRRegisterPushNotifications. [In Appendix B: Product Behavior]  &lt;25&gt; Section 3.1.4.4: Exchange 2010, Exchange 2013, and Exchange 2016 do not return the ecRejected error code.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return the ecRejected error code, when the Server has asynchronous RPC notifications disabled. (&lt;25&gt; Section 3.1.4.4: Exchange 2010, Exchange 2013, and Exchange 2016 do not return the ecRejected error code.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return auxiliary payload data to the client. &lt;24&gt; Section 3.1.4.2.2.1: Exchange 2007, Exchange 2013, and Exchange 2016 support returning data in rgbAuxOut parameter.</t>
+  </si>
+  <si>
+    <t>[In EcDoAsyncConnectEx Method (opnum 14)] [Return Values] [ecRejected (0x000007EE)] The Server has asynchronous RPC notifications disabled. &lt;25&gt;</t>
+  </si>
+  <si>
+    <t>[In EcDoAsyncConnectEx Method (opnum 14)] [Return Values] [ecRejected (0x000007EE)] Client either polls for notifications or calls the EcRRegisterPushNotifications method (section 3.1.4.5). &lt;25&gt;</t>
+  </si>
+  <si>
+    <t>[In EcRRegisterPushNotification Method (opnum 4)] The server MAY&lt;26&gt; support the EcRRegisterPushNotification method.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] A client SHOULD&lt;27&gt; use different RPC methods based on the product version being run on the server that it [the client] is accessing.</t>
+  </si>
+  <si>
+    <t>[In Sending the EcDoConnectEx Method] ulIcxrLink: This value is used to link the Session Context that is created by this call [EcDoConnectEx method] with an existing Session Context on the server that was created by a previous call to the EcDoConnectEx method.&lt;28&gt;</t>
+  </si>
+  <si>
+    <t>[In Sending the EcDoConnectEx Method] [ulIcxrLink] [A client can link two Session Contexts for the following reasons:] This [CAL] gives a client the ability to open multiple independent connections by using more than one Session Context on the server but be seen to the server as only consuming a single CAL.&lt;29&gt;</t>
+  </si>
+  <si>
+    <t>[In Sending the EcDoConnectEx Method] [pulTimeStamp] If the client is not requesting to link Session Contexts, the client passes value 0x00000000.&lt;31&gt;</t>
+  </si>
+  <si>
+    <t>[In Sending the EcDoConnectEx Method] [piCxr] For details about how to link Session Contexts and the reason why a client might request to do so [the client behavior when piCxr is on success or on failure], see the ulIcxrLink parameter.&lt;30&gt;</t>
+  </si>
+  <si>
+    <t>[In Client Performance Monitoring] AUX_PERF_CLIENTINFO: Sent to the server as diagnostic information about the client for more robust reporting of networking issues.&lt;32&gt;</t>
+  </si>
+  <si>
+    <t>[In Client Performance Monitoring] AUX_CLIENT_CONNECTION_INFO: Sent to the server as information about the client connection to be logged by the server.&lt;33&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -10020,21 +10019,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10058,6 +10042,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10605,34 +10604,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1476" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1476" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1476" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1476"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -10641,12 +10640,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10728,23 +10727,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10780,23 +10762,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10972,11 +10937,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1178" sqref="C1178"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -10994,7 +10961,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -11004,7 +10971,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -11018,138 +10985,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>3155</v>
+        <v>3094</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43305</v>
+        <v>43445</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11162,12 +11129,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11180,12 +11147,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11198,12 +11165,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11216,60 +11183,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11327,7 +11294,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
@@ -11629,7 +11596,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
@@ -11781,7 +11748,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -12058,7 +12025,7 @@
         <v>17</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30">
@@ -12085,7 +12052,7 @@
         <v>17</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
@@ -12112,7 +12079,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -12139,7 +12106,7 @@
         <v>17</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30">
@@ -12241,7 +12208,7 @@
         <v>17</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="60">
@@ -12268,7 +12235,7 @@
         <v>17</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30">
@@ -12295,7 +12262,7 @@
         <v>17</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="60">
@@ -12322,7 +12289,7 @@
         <v>17</v>
       </c>
       <c r="I59" s="31" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="60">
@@ -12349,7 +12316,7 @@
         <v>17</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="60">
@@ -12376,7 +12343,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="60">
@@ -12403,7 +12370,7 @@
         <v>17</v>
       </c>
       <c r="I62" s="31" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45">
@@ -12514,7 +12481,7 @@
         <v>1476</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>3130</v>
+        <v>3071</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
@@ -13080,7 +13047,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="45">
@@ -13107,7 +13074,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="31" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="45">
@@ -13137,13 +13104,13 @@
     </row>
     <row r="92" spans="1:9" ht="60">
       <c r="A92" s="22" t="s">
-        <v>3132</v>
+        <v>3073</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>1476</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>3131</v>
+        <v>3072</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
@@ -13159,7 +13126,7 @@
         <v>17</v>
       </c>
       <c r="I92" s="35" t="s">
-        <v>3065</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="60">
@@ -13186,7 +13153,7 @@
         <v>17</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="45">
@@ -13238,7 +13205,7 @@
         <v>17</v>
       </c>
       <c r="I95" s="31" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="45">
@@ -13249,7 +13216,7 @@
         <v>1476</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>3128</v>
+        <v>3069</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="29" t="s">
@@ -17849,7 +17816,7 @@
         <v>1492</v>
       </c>
       <c r="C280" s="31" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -17949,7 +17916,7 @@
         <v>1492</v>
       </c>
       <c r="C284" s="31" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
@@ -18040,7 +18007,7 @@
         <v>17</v>
       </c>
       <c r="I287" s="20" t="s">
-        <v>3141</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="45">
@@ -18051,7 +18018,7 @@
         <v>1493</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>3135</v>
+        <v>3076</v>
       </c>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
@@ -18101,7 +18068,7 @@
         <v>1493</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>3134</v>
+        <v>3075</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
@@ -18245,13 +18212,13 @@
     </row>
     <row r="296" spans="1:9" ht="30">
       <c r="A296" s="22" t="s">
-        <v>3055</v>
+        <v>2996</v>
       </c>
       <c r="B296" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C296" s="35" t="s">
-        <v>3046</v>
+        <v>2987</v>
       </c>
       <c r="D296" s="34"/>
       <c r="E296" s="29" t="s">
@@ -18270,13 +18237,13 @@
     </row>
     <row r="297" spans="1:9" ht="60">
       <c r="A297" s="22" t="s">
-        <v>3056</v>
+        <v>2997</v>
       </c>
       <c r="B297" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>3047</v>
+        <v>2988</v>
       </c>
       <c r="D297" s="34"/>
       <c r="E297" s="29" t="s">
@@ -18292,18 +18259,18 @@
         <v>17</v>
       </c>
       <c r="I297" s="35" t="s">
-        <v>3065</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="30">
       <c r="A298" s="22" t="s">
-        <v>3057</v>
+        <v>2998</v>
       </c>
       <c r="B298" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C298" s="35" t="s">
-        <v>3048</v>
+        <v>2989</v>
       </c>
       <c r="D298" s="34"/>
       <c r="E298" s="29" t="s">
@@ -18322,13 +18289,13 @@
     </row>
     <row r="299" spans="1:9" ht="30">
       <c r="A299" s="22" t="s">
-        <v>3058</v>
+        <v>2999</v>
       </c>
       <c r="B299" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C299" s="35" t="s">
-        <v>3133</v>
+        <v>3074</v>
       </c>
       <c r="D299" s="34"/>
       <c r="E299" s="29" t="s">
@@ -18347,13 +18314,13 @@
     </row>
     <row r="300" spans="1:9" ht="60">
       <c r="A300" s="22" t="s">
-        <v>3059</v>
+        <v>3000</v>
       </c>
       <c r="B300" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C300" s="35" t="s">
-        <v>3049</v>
+        <v>2990</v>
       </c>
       <c r="D300" s="34"/>
       <c r="E300" s="29" t="s">
@@ -18372,13 +18339,13 @@
     </row>
     <row r="301" spans="1:9" ht="60">
       <c r="A301" s="22" t="s">
-        <v>3060</v>
+        <v>3001</v>
       </c>
       <c r="B301" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C301" s="35" t="s">
-        <v>3050</v>
+        <v>2991</v>
       </c>
       <c r="D301" s="34"/>
       <c r="E301" s="29" t="s">
@@ -18397,13 +18364,13 @@
     </row>
     <row r="302" spans="1:9" ht="30">
       <c r="A302" s="22" t="s">
-        <v>3061</v>
+        <v>3002</v>
       </c>
       <c r="B302" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C302" s="35" t="s">
-        <v>3051</v>
+        <v>2992</v>
       </c>
       <c r="D302" s="34"/>
       <c r="E302" s="29" t="s">
@@ -18422,13 +18389,13 @@
     </row>
     <row r="303" spans="1:9" ht="60">
       <c r="A303" s="22" t="s">
-        <v>3062</v>
+        <v>3003</v>
       </c>
       <c r="B303" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C303" s="35" t="s">
-        <v>3052</v>
+        <v>2993</v>
       </c>
       <c r="D303" s="34"/>
       <c r="E303" s="29" t="s">
@@ -18447,13 +18414,13 @@
     </row>
     <row r="304" spans="1:9" ht="30">
       <c r="A304" s="22" t="s">
-        <v>3063</v>
+        <v>3004</v>
       </c>
       <c r="B304" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C304" s="35" t="s">
-        <v>3053</v>
+        <v>2994</v>
       </c>
       <c r="D304" s="34"/>
       <c r="E304" s="29" t="s">
@@ -18472,13 +18439,13 @@
     </row>
     <row r="305" spans="1:9" ht="45">
       <c r="A305" s="22" t="s">
-        <v>3064</v>
+        <v>3005</v>
       </c>
       <c r="B305" s="24" t="s">
         <v>1495</v>
       </c>
       <c r="C305" s="35" t="s">
-        <v>3054</v>
+        <v>2995</v>
       </c>
       <c r="D305" s="34"/>
       <c r="E305" s="29" t="s">
@@ -18503,7 +18470,7 @@
         <v>1496</v>
       </c>
       <c r="C306" s="31" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D306" s="29"/>
       <c r="E306" s="29" t="s">
@@ -18528,7 +18495,7 @@
         <v>1496</v>
       </c>
       <c r="C307" s="31" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D307" s="29"/>
       <c r="E307" s="29" t="s">
@@ -18544,7 +18511,7 @@
         <v>17</v>
       </c>
       <c r="I307" s="31" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="45">
@@ -18646,7 +18613,7 @@
         <v>17</v>
       </c>
       <c r="I311" s="31" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="45">
@@ -19079,7 +19046,7 @@
         <v>341</v>
       </c>
       <c r="B329" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>1868</v>
@@ -19104,7 +19071,7 @@
         <v>342</v>
       </c>
       <c r="B330" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C330" s="31" t="s">
         <v>1869</v>
@@ -19129,7 +19096,7 @@
         <v>343</v>
       </c>
       <c r="B331" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C331" s="31" t="s">
         <v>1870</v>
@@ -19154,7 +19121,7 @@
         <v>344</v>
       </c>
       <c r="B332" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C332" s="31" t="s">
         <v>1871</v>
@@ -19179,7 +19146,7 @@
         <v>345</v>
       </c>
       <c r="B333" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C333" s="31" t="s">
         <v>1872</v>
@@ -19204,7 +19171,7 @@
         <v>346</v>
       </c>
       <c r="B334" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C334" s="31" t="s">
         <v>1873</v>
@@ -19229,7 +19196,7 @@
         <v>347</v>
       </c>
       <c r="B335" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C335" s="31" t="s">
         <v>1874</v>
@@ -19254,7 +19221,7 @@
         <v>348</v>
       </c>
       <c r="B336" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C336" s="31" t="s">
         <v>1875</v>
@@ -19279,7 +19246,7 @@
         <v>349</v>
       </c>
       <c r="B337" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C337" s="31" t="s">
         <v>1876</v>
@@ -19304,7 +19271,7 @@
         <v>350</v>
       </c>
       <c r="B338" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C338" s="31" t="s">
         <v>1877</v>
@@ -19329,7 +19296,7 @@
         <v>351</v>
       </c>
       <c r="B339" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C339" s="31" t="s">
         <v>1878</v>
@@ -19354,7 +19321,7 @@
         <v>352</v>
       </c>
       <c r="B340" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C340" s="31" t="s">
         <v>1879</v>
@@ -19379,7 +19346,7 @@
         <v>353</v>
       </c>
       <c r="B341" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C341" s="31" t="s">
         <v>1880</v>
@@ -19404,7 +19371,7 @@
         <v>354</v>
       </c>
       <c r="B342" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C342" s="31" t="s">
         <v>1881</v>
@@ -19429,7 +19396,7 @@
         <v>355</v>
       </c>
       <c r="B343" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C343" s="31" t="s">
         <v>1882</v>
@@ -19454,7 +19421,7 @@
         <v>356</v>
       </c>
       <c r="B344" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C344" s="31" t="s">
         <v>1883</v>
@@ -19479,7 +19446,7 @@
         <v>357</v>
       </c>
       <c r="B345" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C345" s="31" t="s">
         <v>1884</v>
@@ -19504,7 +19471,7 @@
         <v>358</v>
       </c>
       <c r="B346" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C346" s="31" t="s">
         <v>1885</v>
@@ -19529,7 +19496,7 @@
         <v>359</v>
       </c>
       <c r="B347" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C347" s="31" t="s">
         <v>1886</v>
@@ -19554,7 +19521,7 @@
         <v>360</v>
       </c>
       <c r="B348" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C348" s="31" t="s">
         <v>1887</v>
@@ -19579,7 +19546,7 @@
         <v>361</v>
       </c>
       <c r="B349" s="24" t="s">
-        <v>3100</v>
+        <v>3041</v>
       </c>
       <c r="C349" s="31" t="s">
         <v>1888</v>
@@ -19698,7 +19665,7 @@
         <v>17</v>
       </c>
       <c r="I353" s="31" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="30">
@@ -20559,7 +20526,7 @@
         <v>1503</v>
       </c>
       <c r="C388" s="31" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -20625,7 +20592,7 @@
         <v>17</v>
       </c>
       <c r="I390" s="31" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="45">
@@ -20777,7 +20744,7 @@
         <v>17</v>
       </c>
       <c r="I396" s="31" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="30">
@@ -20788,7 +20755,7 @@
         <v>1504</v>
       </c>
       <c r="C397" s="31" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D397" s="29"/>
       <c r="E397" s="29" t="s">
@@ -20813,7 +20780,7 @@
         <v>1504</v>
       </c>
       <c r="C398" s="31" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D398" s="29"/>
       <c r="E398" s="29" t="s">
@@ -20838,7 +20805,7 @@
         <v>1504</v>
       </c>
       <c r="C399" s="31" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D399" s="29"/>
       <c r="E399" s="29" t="s">
@@ -20904,7 +20871,7 @@
         <v>17</v>
       </c>
       <c r="I401" s="31" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="30">
@@ -20990,7 +20957,7 @@
         <v>1504</v>
       </c>
       <c r="C405" s="31" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="29" t="s">
@@ -21040,7 +21007,7 @@
         <v>1504</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D407" s="29"/>
       <c r="E407" s="29" t="s">
@@ -21106,7 +21073,7 @@
         <v>17</v>
       </c>
       <c r="I409" s="31" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="30">
@@ -21133,7 +21100,7 @@
         <v>17</v>
       </c>
       <c r="I410" s="31" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="45">
@@ -21169,7 +21136,7 @@
         <v>1504</v>
       </c>
       <c r="C412" s="31" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="29" t="s">
@@ -21235,7 +21202,7 @@
         <v>17</v>
       </c>
       <c r="I414" s="31" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="30">
@@ -21271,7 +21238,7 @@
         <v>1504</v>
       </c>
       <c r="C416" s="31" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -21321,7 +21288,7 @@
         <v>1504</v>
       </c>
       <c r="C418" s="31" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D418" s="29"/>
       <c r="E418" s="29" t="s">
@@ -21371,7 +21338,7 @@
         <v>1504</v>
       </c>
       <c r="C420" s="31" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D420" s="29"/>
       <c r="E420" s="29" t="s">
@@ -21437,7 +21404,7 @@
         <v>17</v>
       </c>
       <c r="I422" s="31" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="30">
@@ -21464,7 +21431,7 @@
         <v>17</v>
       </c>
       <c r="I423" s="31" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="30">
@@ -21500,7 +21467,7 @@
         <v>1504</v>
       </c>
       <c r="C425" s="31" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="29" t="s">
@@ -21550,7 +21517,7 @@
         <v>1504</v>
       </c>
       <c r="C427" s="31" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="29" t="s">
@@ -21616,7 +21583,7 @@
         <v>17</v>
       </c>
       <c r="I429" s="31" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="30">
@@ -21793,7 +21760,7 @@
         <v>17</v>
       </c>
       <c r="I436" s="31" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="45">
@@ -21807,7 +21774,7 @@
         <v>1964</v>
       </c>
       <c r="D437" s="29" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="E437" s="29" t="s">
         <v>19</v>
@@ -22181,7 +22148,7 @@
         <v>32</v>
       </c>
       <c r="C452" s="31" t="s">
-        <v>3036</v>
+        <v>2977</v>
       </c>
       <c r="D452" s="29"/>
       <c r="E452" s="29" t="s">
@@ -22206,7 +22173,7 @@
         <v>32</v>
       </c>
       <c r="C453" s="31" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -22481,7 +22448,7 @@
         <v>32</v>
       </c>
       <c r="C464" s="31" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="29" t="s">
@@ -22497,7 +22464,7 @@
         <v>17</v>
       </c>
       <c r="I464" s="31" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="45">
@@ -22533,7 +22500,7 @@
         <v>32</v>
       </c>
       <c r="C466" s="31" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29" t="s">
@@ -23083,7 +23050,7 @@
         <v>32</v>
       </c>
       <c r="C488" s="31" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="D488" s="29"/>
       <c r="E488" s="29" t="s">
@@ -23099,7 +23066,7 @@
         <v>17</v>
       </c>
       <c r="I488" s="31" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="30">
@@ -23176,7 +23143,7 @@
         <v>17</v>
       </c>
       <c r="I491" s="31" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="30">
@@ -23190,7 +23157,7 @@
         <v>2014</v>
       </c>
       <c r="D492" s="29" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="E492" s="29" t="s">
         <v>19</v>
@@ -23214,7 +23181,7 @@
         <v>32</v>
       </c>
       <c r="C493" s="31" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D493" s="29"/>
       <c r="E493" s="29" t="s">
@@ -23239,7 +23206,7 @@
         <v>32</v>
       </c>
       <c r="C494" s="31" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="D494" s="29"/>
       <c r="E494" s="29" t="s">
@@ -23430,7 +23397,7 @@
         <v>17</v>
       </c>
       <c r="I501" s="31" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="502" spans="1:9" ht="30">
@@ -23741,7 +23708,7 @@
         <v>32</v>
       </c>
       <c r="C514" s="31" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="D514" s="29"/>
       <c r="E514" s="29" t="s">
@@ -23757,7 +23724,7 @@
         <v>17</v>
       </c>
       <c r="I514" s="31" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="515" spans="1:9" ht="30">
@@ -23968,7 +23935,7 @@
         <v>32</v>
       </c>
       <c r="C523" s="31" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="D523" s="29"/>
       <c r="E523" s="29" t="s">
@@ -23984,7 +23951,7 @@
         <v>17</v>
       </c>
       <c r="I523" s="31" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="524" spans="1:9" ht="60">
@@ -23995,7 +23962,7 @@
         <v>32</v>
       </c>
       <c r="C524" s="31" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="D524" s="29"/>
       <c r="E524" s="29" t="s">
@@ -24011,7 +23978,7 @@
         <v>17</v>
       </c>
       <c r="I524" s="31" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="525" spans="1:9" ht="30">
@@ -24063,7 +24030,7 @@
         <v>17</v>
       </c>
       <c r="I526" s="31" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="30">
@@ -24324,7 +24291,7 @@
         <v>32</v>
       </c>
       <c r="C537" s="20" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="D537" s="29"/>
       <c r="E537" s="29" t="s">
@@ -24340,7 +24307,7 @@
         <v>17</v>
       </c>
       <c r="I537" s="31" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="45">
@@ -24892,7 +24859,7 @@
         <v>17</v>
       </c>
       <c r="I559" s="31" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="560" spans="1:9" ht="60">
@@ -24969,7 +24936,7 @@
         <v>17</v>
       </c>
       <c r="I562" s="31" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="563" spans="1:9" ht="30">
@@ -27305,7 +27272,7 @@
         <v>1516</v>
       </c>
       <c r="C656" s="20" t="s">
-        <v>3154</v>
+        <v>3093</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="29" t="s">
@@ -28921,7 +28888,7 @@
         <v>17</v>
       </c>
       <c r="I720" s="31" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="721" spans="1:9" ht="30">
@@ -29223,7 +29190,7 @@
         <v>17</v>
       </c>
       <c r="I732" s="31" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="733" spans="1:9" ht="60">
@@ -29400,7 +29367,7 @@
         <v>17</v>
       </c>
       <c r="I739" s="31" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="740" spans="1:9" ht="60">
@@ -29411,7 +29378,7 @@
         <v>1522</v>
       </c>
       <c r="C740" s="31" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D740" s="29"/>
       <c r="E740" s="29" t="s">
@@ -29427,7 +29394,7 @@
         <v>17</v>
       </c>
       <c r="I740" s="31" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="741" spans="1:9" ht="45">
@@ -29454,7 +29421,7 @@
         <v>17</v>
       </c>
       <c r="I741" s="31" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="742" spans="1:9" ht="30">
@@ -29481,7 +29448,7 @@
         <v>17</v>
       </c>
       <c r="I742" s="31" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="743" spans="1:9" ht="30">
@@ -29542,7 +29509,7 @@
         <v>1522</v>
       </c>
       <c r="C745" s="31" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="D745" s="29"/>
       <c r="E745" s="29" t="s">
@@ -29558,7 +29525,7 @@
         <v>17</v>
       </c>
       <c r="I745" s="31" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="45">
@@ -29635,7 +29602,7 @@
         <v>17</v>
       </c>
       <c r="I748" s="31" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="749" spans="1:9" ht="30">
@@ -29649,7 +29616,7 @@
         <v>2262</v>
       </c>
       <c r="D749" s="29" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E749" s="29" t="s">
         <v>19</v>
@@ -29676,7 +29643,7 @@
         <v>2263</v>
       </c>
       <c r="D750" s="29" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E750" s="29" t="s">
         <v>19</v>
@@ -29703,7 +29670,7 @@
         <v>2264</v>
       </c>
       <c r="D751" s="29" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E751" s="29" t="s">
         <v>19</v>
@@ -29730,7 +29697,7 @@
         <v>2265</v>
       </c>
       <c r="D752" s="29" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E752" s="29" t="s">
         <v>19</v>
@@ -29757,7 +29724,7 @@
         <v>2266</v>
       </c>
       <c r="D753" s="29" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E753" s="29" t="s">
         <v>19</v>
@@ -29784,7 +29751,7 @@
         <v>2267</v>
       </c>
       <c r="D754" s="29" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E754" s="29" t="s">
         <v>19</v>
@@ -29924,7 +29891,7 @@
         <v>17</v>
       </c>
       <c r="I759" s="31" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="760" spans="1:9" ht="45">
@@ -30435,7 +30402,7 @@
         <v>1526</v>
       </c>
       <c r="C780" s="20" t="s">
-        <v>3066</v>
+        <v>3007</v>
       </c>
       <c r="D780" s="29"/>
       <c r="E780" s="29" t="s">
@@ -30460,7 +30427,7 @@
         <v>1526</v>
       </c>
       <c r="C781" s="20" t="s">
-        <v>3136</v>
+        <v>3077</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -30579,13 +30546,13 @@
     </row>
     <row r="786" spans="1:9" ht="30">
       <c r="A786" s="22" t="s">
-        <v>3068</v>
+        <v>3009</v>
       </c>
       <c r="B786" s="30" t="s">
         <v>1526</v>
       </c>
       <c r="C786" s="35" t="s">
-        <v>3067</v>
+        <v>3008</v>
       </c>
       <c r="D786" s="34"/>
       <c r="E786" s="34" t="s">
@@ -30679,13 +30646,13 @@
     </row>
     <row r="790" spans="1:9" ht="30">
       <c r="A790" s="22" t="s">
-        <v>3070</v>
+        <v>3011</v>
       </c>
       <c r="B790" s="30" t="s">
         <v>1526</v>
       </c>
       <c r="C790" s="35" t="s">
-        <v>3069</v>
+        <v>3010</v>
       </c>
       <c r="D790" s="34"/>
       <c r="E790" s="34" t="s">
@@ -31051,7 +31018,7 @@
         <v>17</v>
       </c>
       <c r="I804" s="31" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="805" spans="1:9" ht="45">
@@ -31287,7 +31254,7 @@
         <v>33</v>
       </c>
       <c r="C814" s="20" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="D814" s="29"/>
       <c r="E814" s="29" t="s">
@@ -31303,7 +31270,7 @@
         <v>17</v>
       </c>
       <c r="I814" s="31" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="815" spans="1:9" ht="30">
@@ -31564,7 +31531,7 @@
         <v>33</v>
       </c>
       <c r="C825" s="31" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="D825" s="29"/>
       <c r="E825" s="29" t="s">
@@ -31580,7 +31547,7 @@
         <v>17</v>
       </c>
       <c r="I825" s="31" t="s">
-        <v>3041</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="826" spans="1:9" ht="30">
@@ -31616,7 +31583,7 @@
         <v>33</v>
       </c>
       <c r="C827" s="31" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="D827" s="29"/>
       <c r="E827" s="29" t="s">
@@ -31632,7 +31599,7 @@
         <v>17</v>
       </c>
       <c r="I827" s="31" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="828" spans="1:9">
@@ -31784,7 +31751,7 @@
         <v>17</v>
       </c>
       <c r="I833" s="31" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="834" spans="1:9" ht="30">
@@ -31798,7 +31765,7 @@
         <v>2340</v>
       </c>
       <c r="D834" s="29" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="E834" s="29" t="s">
         <v>19</v>
@@ -31847,7 +31814,7 @@
         <v>33</v>
       </c>
       <c r="C836" s="31" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="D836" s="29"/>
       <c r="E836" s="29" t="s">
@@ -31863,7 +31830,7 @@
         <v>17</v>
       </c>
       <c r="I836" s="31" t="s">
-        <v>3042</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="837" spans="1:9" ht="45">
@@ -31893,13 +31860,13 @@
     </row>
     <row r="838" spans="1:9" ht="75">
       <c r="A838" s="22" t="s">
-        <v>3072</v>
+        <v>3013</v>
       </c>
       <c r="B838" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C838" s="35" t="s">
-        <v>3071</v>
+        <v>3012</v>
       </c>
       <c r="D838" s="34"/>
       <c r="E838" s="34" t="s">
@@ -32199,7 +32166,7 @@
         <v>33</v>
       </c>
       <c r="C850" s="31" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="D850" s="29"/>
       <c r="E850" s="29" t="s">
@@ -32215,7 +32182,7 @@
         <v>17</v>
       </c>
       <c r="I850" s="31" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -32251,7 +32218,7 @@
         <v>33</v>
       </c>
       <c r="C852" s="31" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="D852" s="29"/>
       <c r="E852" s="29" t="s">
@@ -32267,7 +32234,7 @@
         <v>17</v>
       </c>
       <c r="I852" s="31" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="853" spans="1:9" ht="30">
@@ -32319,7 +32286,7 @@
         <v>17</v>
       </c>
       <c r="I854" s="31" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="855" spans="1:9" ht="30">
@@ -32333,7 +32300,7 @@
         <v>2357</v>
       </c>
       <c r="D855" s="29" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="E855" s="29" t="s">
         <v>19</v>
@@ -32723,7 +32690,7 @@
         <v>17</v>
       </c>
       <c r="I870" s="31" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="60">
@@ -32800,7 +32767,7 @@
         <v>17</v>
       </c>
       <c r="I873" s="31" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="874" spans="1:9" ht="30">
@@ -33052,7 +33019,7 @@
         <v>17</v>
       </c>
       <c r="I883" s="31" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="884" spans="1:9" ht="45">
@@ -33079,7 +33046,7 @@
         <v>17</v>
       </c>
       <c r="I884" s="31" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="885" spans="1:9" ht="45">
@@ -33109,13 +33076,13 @@
     </row>
     <row r="886" spans="1:9" ht="30">
       <c r="A886" s="22" t="s">
-        <v>3079</v>
+        <v>3020</v>
       </c>
       <c r="B886" s="30" t="s">
         <v>1529</v>
       </c>
       <c r="C886" s="35" t="s">
-        <v>3073</v>
+        <v>3014</v>
       </c>
       <c r="D886" s="34"/>
       <c r="E886" s="34" t="s">
@@ -33140,7 +33107,7 @@
         <v>1529</v>
       </c>
       <c r="C887" s="20" t="s">
-        <v>3075</v>
+        <v>3016</v>
       </c>
       <c r="D887" s="29"/>
       <c r="E887" s="29" t="s">
@@ -33159,13 +33126,13 @@
     </row>
     <row r="888" spans="1:9" ht="60">
       <c r="A888" s="22" t="s">
-        <v>3074</v>
+        <v>3015</v>
       </c>
       <c r="B888" s="30" t="s">
         <v>1529</v>
       </c>
       <c r="C888" s="35" t="s">
-        <v>3078</v>
+        <v>3019</v>
       </c>
       <c r="D888" s="34"/>
       <c r="E888" s="34" t="s">
@@ -33184,13 +33151,13 @@
     </row>
     <row r="889" spans="1:9" ht="30">
       <c r="A889" s="22" t="s">
-        <v>3080</v>
+        <v>3021</v>
       </c>
       <c r="B889" s="30" t="s">
         <v>1529</v>
       </c>
       <c r="C889" s="35" t="s">
-        <v>3077</v>
+        <v>3018</v>
       </c>
       <c r="D889" s="34"/>
       <c r="E889" s="34" t="s">
@@ -33215,7 +33182,7 @@
         <v>1529</v>
       </c>
       <c r="C890" s="20" t="s">
-        <v>3076</v>
+        <v>3017</v>
       </c>
       <c r="D890" s="29"/>
       <c r="E890" s="29" t="s">
@@ -33806,7 +33773,7 @@
         <v>17</v>
       </c>
       <c r="I913" s="31" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="914" spans="1:9" ht="45">
@@ -33858,7 +33825,7 @@
         <v>17</v>
       </c>
       <c r="I915" s="31" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="916" spans="1:9" ht="30">
@@ -33919,7 +33886,7 @@
         <v>1532</v>
       </c>
       <c r="C918" s="20" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="D918" s="29"/>
       <c r="E918" s="29" t="s">
@@ -33938,13 +33905,13 @@
     </row>
     <row r="919" spans="1:9" ht="45">
       <c r="A919" s="22" t="s">
-        <v>3102</v>
+        <v>3043</v>
       </c>
       <c r="B919" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C919" s="35" t="s">
-        <v>3115</v>
+        <v>3056</v>
       </c>
       <c r="D919" s="34"/>
       <c r="E919" s="29" t="s">
@@ -33963,13 +33930,13 @@
     </row>
     <row r="920" spans="1:9">
       <c r="A920" s="22" t="s">
-        <v>3103</v>
+        <v>3044</v>
       </c>
       <c r="B920" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C920" s="35" t="s">
-        <v>3116</v>
+        <v>3057</v>
       </c>
       <c r="D920" s="34"/>
       <c r="E920" s="29" t="s">
@@ -33988,13 +33955,13 @@
     </row>
     <row r="921" spans="1:9" ht="90">
       <c r="A921" s="22" t="s">
-        <v>3104</v>
+        <v>3045</v>
       </c>
       <c r="B921" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C921" s="35" t="s">
-        <v>3117</v>
+        <v>3058</v>
       </c>
       <c r="D921" s="34"/>
       <c r="E921" s="29" t="s">
@@ -34013,13 +33980,13 @@
     </row>
     <row r="922" spans="1:9" ht="90">
       <c r="A922" s="22" t="s">
-        <v>3105</v>
+        <v>3046</v>
       </c>
       <c r="B922" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C922" s="35" t="s">
-        <v>3118</v>
+        <v>3059</v>
       </c>
       <c r="D922" s="34"/>
       <c r="E922" s="29" t="s">
@@ -34038,13 +34005,13 @@
     </row>
     <row r="923" spans="1:9" ht="45">
       <c r="A923" s="22" t="s">
-        <v>3106</v>
+        <v>3047</v>
       </c>
       <c r="B923" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C923" s="35" t="s">
-        <v>3119</v>
+        <v>3060</v>
       </c>
       <c r="D923" s="34"/>
       <c r="E923" s="29" t="s">
@@ -34063,13 +34030,13 @@
     </row>
     <row r="924" spans="1:9" ht="60">
       <c r="A924" s="22" t="s">
-        <v>3107</v>
+        <v>3048</v>
       </c>
       <c r="B924" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C924" s="35" t="s">
-        <v>3120</v>
+        <v>3061</v>
       </c>
       <c r="D924" s="34"/>
       <c r="E924" s="29" t="s">
@@ -34088,13 +34055,13 @@
     </row>
     <row r="925" spans="1:9" ht="30">
       <c r="A925" s="22" t="s">
-        <v>3108</v>
+        <v>3049</v>
       </c>
       <c r="B925" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C925" s="35" t="s">
-        <v>3121</v>
+        <v>3062</v>
       </c>
       <c r="D925" s="34"/>
       <c r="E925" s="29" t="s">
@@ -34113,13 +34080,13 @@
     </row>
     <row r="926" spans="1:9" ht="120">
       <c r="A926" s="22" t="s">
-        <v>3109</v>
+        <v>3050</v>
       </c>
       <c r="B926" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C926" s="35" t="s">
-        <v>3122</v>
+        <v>3063</v>
       </c>
       <c r="D926" s="34"/>
       <c r="E926" s="29" t="s">
@@ -34138,13 +34105,13 @@
     </row>
     <row r="927" spans="1:9" ht="90">
       <c r="A927" s="22" t="s">
-        <v>3110</v>
+        <v>3051</v>
       </c>
       <c r="B927" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C927" s="35" t="s">
-        <v>3124</v>
+        <v>3065</v>
       </c>
       <c r="D927" s="34"/>
       <c r="E927" s="29" t="s">
@@ -34163,13 +34130,13 @@
     </row>
     <row r="928" spans="1:9" ht="60">
       <c r="A928" s="22" t="s">
-        <v>3111</v>
+        <v>3052</v>
       </c>
       <c r="B928" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C928" s="35" t="s">
-        <v>3125</v>
+        <v>3066</v>
       </c>
       <c r="D928" s="34"/>
       <c r="E928" s="29" t="s">
@@ -34185,18 +34152,18 @@
         <v>17</v>
       </c>
       <c r="I928" s="24" t="s">
-        <v>3129</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="929" spans="1:9" ht="60">
       <c r="A929" s="22" t="s">
-        <v>3112</v>
+        <v>3053</v>
       </c>
       <c r="B929" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C929" s="35" t="s">
-        <v>3123</v>
+        <v>3064</v>
       </c>
       <c r="D929" s="34"/>
       <c r="E929" s="29" t="s">
@@ -34215,13 +34182,13 @@
     </row>
     <row r="930" spans="1:9" ht="60">
       <c r="A930" s="22" t="s">
-        <v>3113</v>
+        <v>3054</v>
       </c>
       <c r="B930" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C930" s="35" t="s">
-        <v>3126</v>
+        <v>3067</v>
       </c>
       <c r="D930" s="34"/>
       <c r="E930" s="29" t="s">
@@ -34240,13 +34207,13 @@
     </row>
     <row r="931" spans="1:9" ht="75">
       <c r="A931" s="22" t="s">
-        <v>3114</v>
+        <v>3055</v>
       </c>
       <c r="B931" s="24" t="s">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C931" s="35" t="s">
-        <v>3127</v>
+        <v>3068</v>
       </c>
       <c r="D931" s="34"/>
       <c r="E931" s="29" t="s">
@@ -34268,10 +34235,10 @@
         <v>925</v>
       </c>
       <c r="B932" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C932" s="20" t="s">
-        <v>3082</v>
+        <v>3023</v>
       </c>
       <c r="D932" s="29"/>
       <c r="E932" s="29" t="s">
@@ -34293,10 +34260,10 @@
         <v>926</v>
       </c>
       <c r="B933" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C933" s="20" t="s">
-        <v>3083</v>
+        <v>3024</v>
       </c>
       <c r="D933" s="29"/>
       <c r="E933" s="29" t="s">
@@ -34318,10 +34285,10 @@
         <v>927</v>
       </c>
       <c r="B934" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C934" s="20" t="s">
-        <v>3084</v>
+        <v>3025</v>
       </c>
       <c r="D934" s="29"/>
       <c r="E934" s="29" t="s">
@@ -34337,7 +34304,7 @@
         <v>17</v>
       </c>
       <c r="I934" s="31" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="935" spans="1:9" ht="45">
@@ -34345,10 +34312,10 @@
         <v>928</v>
       </c>
       <c r="B935" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C935" s="20" t="s">
-        <v>3137</v>
+        <v>3078</v>
       </c>
       <c r="D935" s="29"/>
       <c r="E935" s="29" t="s">
@@ -34364,7 +34331,7 @@
         <v>17</v>
       </c>
       <c r="I935" s="31" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="936" spans="1:9" ht="30">
@@ -34372,10 +34339,10 @@
         <v>929</v>
       </c>
       <c r="B936" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C936" s="20" t="s">
-        <v>3085</v>
+        <v>3026</v>
       </c>
       <c r="D936" s="29"/>
       <c r="E936" s="29" t="s">
@@ -34397,10 +34364,10 @@
         <v>930</v>
       </c>
       <c r="B937" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C937" s="20" t="s">
-        <v>3138</v>
+        <v>3079</v>
       </c>
       <c r="D937" s="29"/>
       <c r="E937" s="29" t="s">
@@ -34422,10 +34389,10 @@
         <v>931</v>
       </c>
       <c r="B938" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C938" s="20" t="s">
-        <v>3086</v>
+        <v>3027</v>
       </c>
       <c r="D938" s="29"/>
       <c r="E938" s="29" t="s">
@@ -34447,10 +34414,10 @@
         <v>932</v>
       </c>
       <c r="B939" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C939" s="20" t="s">
-        <v>3087</v>
+        <v>3028</v>
       </c>
       <c r="D939" s="29"/>
       <c r="E939" s="29" t="s">
@@ -34472,10 +34439,10 @@
         <v>933</v>
       </c>
       <c r="B940" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C940" s="20" t="s">
-        <v>3088</v>
+        <v>3029</v>
       </c>
       <c r="D940" s="29"/>
       <c r="E940" s="29" t="s">
@@ -34497,10 +34464,10 @@
         <v>934</v>
       </c>
       <c r="B941" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C941" s="20" t="s">
-        <v>3089</v>
+        <v>3030</v>
       </c>
       <c r="D941" s="29"/>
       <c r="E941" s="29" t="s">
@@ -34522,10 +34489,10 @@
         <v>935</v>
       </c>
       <c r="B942" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C942" s="20" t="s">
-        <v>3090</v>
+        <v>3031</v>
       </c>
       <c r="D942" s="29"/>
       <c r="E942" s="29" t="s">
@@ -34547,10 +34514,10 @@
         <v>936</v>
       </c>
       <c r="B943" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C943" s="20" t="s">
-        <v>3091</v>
+        <v>3032</v>
       </c>
       <c r="D943" s="29"/>
       <c r="E943" s="29" t="s">
@@ -34572,10 +34539,10 @@
         <v>937</v>
       </c>
       <c r="B944" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C944" s="20" t="s">
-        <v>3092</v>
+        <v>3033</v>
       </c>
       <c r="D944" s="29"/>
       <c r="E944" s="29" t="s">
@@ -34597,10 +34564,10 @@
         <v>938</v>
       </c>
       <c r="B945" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C945" s="20" t="s">
-        <v>3093</v>
+        <v>3034</v>
       </c>
       <c r="D945" s="29"/>
       <c r="E945" s="29" t="s">
@@ -34622,10 +34589,10 @@
         <v>939</v>
       </c>
       <c r="B946" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C946" s="20" t="s">
-        <v>3094</v>
+        <v>3035</v>
       </c>
       <c r="D946" s="29"/>
       <c r="E946" s="29" t="s">
@@ -34647,10 +34614,10 @@
         <v>940</v>
       </c>
       <c r="B947" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C947" s="20" t="s">
-        <v>3095</v>
+        <v>3036</v>
       </c>
       <c r="D947" s="29"/>
       <c r="E947" s="29" t="s">
@@ -34672,10 +34639,10 @@
         <v>941</v>
       </c>
       <c r="B948" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C948" s="20" t="s">
-        <v>3096</v>
+        <v>3037</v>
       </c>
       <c r="D948" s="29"/>
       <c r="E948" s="29" t="s">
@@ -34697,10 +34664,10 @@
         <v>942</v>
       </c>
       <c r="B949" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C949" s="20" t="s">
-        <v>3097</v>
+        <v>3038</v>
       </c>
       <c r="D949" s="29"/>
       <c r="E949" s="29" t="s">
@@ -34722,10 +34689,10 @@
         <v>943</v>
       </c>
       <c r="B950" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C950" s="20" t="s">
-        <v>3098</v>
+        <v>3039</v>
       </c>
       <c r="D950" s="29"/>
       <c r="E950" s="29" t="s">
@@ -34747,10 +34714,10 @@
         <v>944</v>
       </c>
       <c r="B951" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C951" s="20" t="s">
-        <v>3099</v>
+        <v>3040</v>
       </c>
       <c r="D951" s="29"/>
       <c r="E951" s="29" t="s">
@@ -34772,10 +34739,10 @@
         <v>945</v>
       </c>
       <c r="B952" s="24" t="s">
-        <v>3081</v>
+        <v>3022</v>
       </c>
       <c r="C952" s="20" t="s">
-        <v>3139</v>
+        <v>3080</v>
       </c>
       <c r="D952" s="29"/>
       <c r="E952" s="29" t="s">
@@ -34816,7 +34783,7 @@
         <v>17</v>
       </c>
       <c r="I953" s="31" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="954" spans="1:9" ht="45">
@@ -34827,7 +34794,7 @@
         <v>1534</v>
       </c>
       <c r="C954" s="31" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="D954" s="29"/>
       <c r="E954" s="29" t="s">
@@ -34843,7 +34810,7 @@
         <v>17</v>
       </c>
       <c r="I954" s="31" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="955" spans="1:9" ht="45">
@@ -35020,7 +34987,7 @@
         <v>17</v>
       </c>
       <c r="I961" s="31" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="962" spans="1:9" ht="30">
@@ -35034,7 +35001,7 @@
         <v>2262</v>
       </c>
       <c r="D962" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E962" s="29" t="s">
         <v>19</v>
@@ -35061,7 +35028,7 @@
         <v>2263</v>
       </c>
       <c r="D963" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E963" s="29" t="s">
         <v>19</v>
@@ -35088,7 +35055,7 @@
         <v>2415</v>
       </c>
       <c r="D964" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E964" s="29" t="s">
         <v>19</v>
@@ -35115,7 +35082,7 @@
         <v>2416</v>
       </c>
       <c r="D965" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E965" s="29" t="s">
         <v>19</v>
@@ -35142,7 +35109,7 @@
         <v>2417</v>
       </c>
       <c r="D966" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E966" s="29" t="s">
         <v>19</v>
@@ -35169,7 +35136,7 @@
         <v>2418</v>
       </c>
       <c r="D967" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E967" s="29" t="s">
         <v>19</v>
@@ -35196,7 +35163,7 @@
         <v>2419</v>
       </c>
       <c r="D968" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E968" s="29" t="s">
         <v>19</v>
@@ -35223,7 +35190,7 @@
         <v>2420</v>
       </c>
       <c r="D969" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E969" s="29" t="s">
         <v>19</v>
@@ -35250,7 +35217,7 @@
         <v>2421</v>
       </c>
       <c r="D970" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E970" s="29" t="s">
         <v>19</v>
@@ -35277,7 +35244,7 @@
         <v>2422</v>
       </c>
       <c r="D971" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E971" s="29" t="s">
         <v>19</v>
@@ -35304,7 +35271,7 @@
         <v>2423</v>
       </c>
       <c r="D972" s="29" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E972" s="29" t="s">
         <v>19</v>
@@ -35569,7 +35536,7 @@
         <v>17</v>
       </c>
       <c r="I982" s="31" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="983" spans="1:9" ht="30">
@@ -36004,8 +35971,8 @@
       <c r="B1000" s="30" t="s">
         <v>1537</v>
       </c>
-      <c r="C1000" s="31" t="s">
-        <v>2936</v>
+      <c r="C1000" s="20" t="s">
+        <v>3146</v>
       </c>
       <c r="D1000" s="29"/>
       <c r="E1000" s="29" t="s">
@@ -36021,7 +35988,7 @@
         <v>17</v>
       </c>
       <c r="I1000" s="31" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1001" spans="1:9" ht="60">
@@ -36031,8 +35998,8 @@
       <c r="B1001" s="30" t="s">
         <v>1537</v>
       </c>
-      <c r="C1001" s="31" t="s">
-        <v>2450</v>
+      <c r="C1001" s="20" t="s">
+        <v>3147</v>
       </c>
       <c r="D1001" s="29"/>
       <c r="E1001" s="29" t="s">
@@ -36048,7 +36015,7 @@
         <v>17</v>
       </c>
       <c r="I1001" s="31" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1002" spans="1:9" ht="30">
@@ -36059,7 +36026,7 @@
         <v>1537</v>
       </c>
       <c r="C1002" s="31" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D1002" s="29"/>
       <c r="E1002" s="29" t="s">
@@ -36084,7 +36051,7 @@
         <v>1538</v>
       </c>
       <c r="C1003" s="31" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D1003" s="29"/>
       <c r="E1003" s="29" t="s">
@@ -36108,8 +36075,8 @@
       <c r="B1004" s="30" t="s">
         <v>1538</v>
       </c>
-      <c r="C1004" s="31" t="s">
-        <v>2937</v>
+      <c r="C1004" s="20" t="s">
+        <v>3148</v>
       </c>
       <c r="D1004" s="29"/>
       <c r="E1004" s="29" t="s">
@@ -36125,7 +36092,7 @@
         <v>17</v>
       </c>
       <c r="I1004" s="31" t="s">
-        <v>3043</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="1005" spans="1:9" ht="30">
@@ -36136,7 +36103,7 @@
         <v>1538</v>
       </c>
       <c r="C1005" s="31" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D1005" s="29"/>
       <c r="E1005" s="29" t="s">
@@ -36152,7 +36119,7 @@
         <v>17</v>
       </c>
       <c r="I1005" s="31" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1006" spans="1:9" ht="45">
@@ -36163,7 +36130,7 @@
         <v>1538</v>
       </c>
       <c r="C1006" s="31" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1006" s="29"/>
       <c r="E1006" s="29" t="s">
@@ -36188,7 +36155,7 @@
         <v>1538</v>
       </c>
       <c r="C1007" s="31" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D1007" s="29"/>
       <c r="E1007" s="29" t="s">
@@ -36213,7 +36180,7 @@
         <v>1538</v>
       </c>
       <c r="C1008" s="31" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1008" s="29"/>
       <c r="E1008" s="29" t="s">
@@ -36238,7 +36205,7 @@
         <v>1538</v>
       </c>
       <c r="C1009" s="31" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D1009" s="29"/>
       <c r="E1009" s="29" t="s">
@@ -36254,7 +36221,7 @@
         <v>17</v>
       </c>
       <c r="I1009" s="31" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1010" spans="1:9" ht="30">
@@ -36265,7 +36232,7 @@
         <v>1538</v>
       </c>
       <c r="C1010" s="31" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1010" s="29"/>
       <c r="E1010" s="29" t="s">
@@ -36290,7 +36257,7 @@
         <v>1538</v>
       </c>
       <c r="C1011" s="31" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1011" s="29"/>
       <c r="E1011" s="29" t="s">
@@ -36315,7 +36282,7 @@
         <v>1538</v>
       </c>
       <c r="C1012" s="31" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1012" s="29"/>
       <c r="E1012" s="29" t="s">
@@ -36340,7 +36307,7 @@
         <v>1538</v>
       </c>
       <c r="C1013" s="31" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D1013" s="29"/>
       <c r="E1013" s="29" t="s">
@@ -36356,7 +36323,7 @@
         <v>17</v>
       </c>
       <c r="I1013" s="31" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1014" spans="1:9" ht="30">
@@ -36367,7 +36334,7 @@
         <v>1538</v>
       </c>
       <c r="C1014" s="31" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1014" s="29"/>
       <c r="E1014" s="29" t="s">
@@ -36392,7 +36359,7 @@
         <v>1538</v>
       </c>
       <c r="C1015" s="31" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1015" s="29"/>
       <c r="E1015" s="29" t="s">
@@ -36417,7 +36384,7 @@
         <v>1538</v>
       </c>
       <c r="C1016" s="31" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1016" s="29"/>
       <c r="E1016" s="29" t="s">
@@ -36442,7 +36409,7 @@
         <v>1538</v>
       </c>
       <c r="C1017" s="31" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1017" s="29"/>
       <c r="E1017" s="29" t="s">
@@ -36467,7 +36434,7 @@
         <v>1538</v>
       </c>
       <c r="C1018" s="31" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D1018" s="29"/>
       <c r="E1018" s="29" t="s">
@@ -36492,7 +36459,7 @@
         <v>1538</v>
       </c>
       <c r="C1019" s="31" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1019" s="29"/>
       <c r="E1019" s="29" t="s">
@@ -36517,7 +36484,7 @@
         <v>1538</v>
       </c>
       <c r="C1020" s="31" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -36542,7 +36509,7 @@
         <v>1538</v>
       </c>
       <c r="C1021" s="31" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1021" s="29"/>
       <c r="E1021" s="29" t="s">
@@ -36567,7 +36534,7 @@
         <v>1538</v>
       </c>
       <c r="C1022" s="31" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1022" s="29"/>
       <c r="E1022" s="29" t="s">
@@ -36592,7 +36559,7 @@
         <v>1538</v>
       </c>
       <c r="C1023" s="31" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D1023" s="29"/>
       <c r="E1023" s="29" t="s">
@@ -36617,7 +36584,7 @@
         <v>1538</v>
       </c>
       <c r="C1024" s="31" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D1024" s="29"/>
       <c r="E1024" s="29" t="s">
@@ -36642,7 +36609,7 @@
         <v>1538</v>
       </c>
       <c r="C1025" s="31" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D1025" s="29"/>
       <c r="E1025" s="29" t="s">
@@ -36667,7 +36634,7 @@
         <v>1538</v>
       </c>
       <c r="C1026" s="31" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D1026" s="29"/>
       <c r="E1026" s="29" t="s">
@@ -36692,7 +36659,7 @@
         <v>1538</v>
       </c>
       <c r="C1027" s="31" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D1027" s="29"/>
       <c r="E1027" s="29" t="s">
@@ -36717,7 +36684,7 @@
         <v>1538</v>
       </c>
       <c r="C1028" s="31" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D1028" s="29"/>
       <c r="E1028" s="29" t="s">
@@ -36742,7 +36709,7 @@
         <v>1538</v>
       </c>
       <c r="C1029" s="31" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1029" s="29"/>
       <c r="E1029" s="29" t="s">
@@ -36767,7 +36734,7 @@
         <v>1538</v>
       </c>
       <c r="C1030" s="31" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D1030" s="29"/>
       <c r="E1030" s="29" t="s">
@@ -36792,7 +36759,7 @@
         <v>1538</v>
       </c>
       <c r="C1031" s="31" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D1031" s="29"/>
       <c r="E1031" s="29" t="s">
@@ -36817,7 +36784,7 @@
         <v>1538</v>
       </c>
       <c r="C1032" s="31" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D1032" s="29"/>
       <c r="E1032" s="29" t="s">
@@ -36842,7 +36809,7 @@
         <v>1538</v>
       </c>
       <c r="C1033" s="31" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D1033" s="29"/>
       <c r="E1033" s="29" t="s">
@@ -36867,7 +36834,7 @@
         <v>1538</v>
       </c>
       <c r="C1034" s="31" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D1034" s="29"/>
       <c r="E1034" s="29" t="s">
@@ -36892,7 +36859,7 @@
         <v>1538</v>
       </c>
       <c r="C1035" s="31" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1035" s="29"/>
       <c r="E1035" s="29" t="s">
@@ -36917,7 +36884,7 @@
         <v>1538</v>
       </c>
       <c r="C1036" s="31" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1036" s="29"/>
       <c r="E1036" s="29" t="s">
@@ -36942,7 +36909,7 @@
         <v>1538</v>
       </c>
       <c r="C1037" s="31" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1037" s="29"/>
       <c r="E1037" s="29" t="s">
@@ -36967,7 +36934,7 @@
         <v>1538</v>
       </c>
       <c r="C1038" s="31" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D1038" s="29"/>
       <c r="E1038" s="29" t="s">
@@ -36992,7 +36959,7 @@
         <v>1538</v>
       </c>
       <c r="C1039" s="31" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D1039" s="29"/>
       <c r="E1039" s="29" t="s">
@@ -37017,7 +36984,7 @@
         <v>1538</v>
       </c>
       <c r="C1040" s="31" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D1040" s="29"/>
       <c r="E1040" s="29" t="s">
@@ -37042,7 +37009,7 @@
         <v>1538</v>
       </c>
       <c r="C1041" s="31" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1041" s="29"/>
       <c r="E1041" s="29" t="s">
@@ -37067,7 +37034,7 @@
         <v>1538</v>
       </c>
       <c r="C1042" s="31" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D1042" s="29"/>
       <c r="E1042" s="29" t="s">
@@ -37092,7 +37059,7 @@
         <v>1538</v>
       </c>
       <c r="C1043" s="31" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1043" s="29"/>
       <c r="E1043" s="29" t="s">
@@ -37117,7 +37084,7 @@
         <v>1538</v>
       </c>
       <c r="C1044" s="31" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D1044" s="29"/>
       <c r="E1044" s="29" t="s">
@@ -37142,7 +37109,7 @@
         <v>1538</v>
       </c>
       <c r="C1045" s="31" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D1045" s="29"/>
       <c r="E1045" s="29" t="s">
@@ -37167,7 +37134,7 @@
         <v>1539</v>
       </c>
       <c r="C1046" s="31" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D1046" s="29"/>
       <c r="E1046" s="29" t="s">
@@ -37192,7 +37159,7 @@
         <v>1539</v>
       </c>
       <c r="C1047" s="31" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D1047" s="29"/>
       <c r="E1047" s="29" t="s">
@@ -37217,7 +37184,7 @@
         <v>1539</v>
       </c>
       <c r="C1048" s="31" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D1048" s="29"/>
       <c r="E1048" s="29" t="s">
@@ -37242,7 +37209,7 @@
         <v>1539</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>3142</v>
+        <v>3083</v>
       </c>
       <c r="D1049" s="29"/>
       <c r="E1049" s="29" t="s">
@@ -37267,7 +37234,7 @@
         <v>1539</v>
       </c>
       <c r="C1050" s="31" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
@@ -37292,7 +37259,7 @@
         <v>1540</v>
       </c>
       <c r="C1051" s="31" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D1051" s="29"/>
       <c r="E1051" s="29" t="s">
@@ -37317,7 +37284,7 @@
         <v>1540</v>
       </c>
       <c r="C1052" s="31" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D1052" s="29"/>
       <c r="E1052" s="29" t="s">
@@ -37342,7 +37309,7 @@
         <v>1541</v>
       </c>
       <c r="C1053" s="31" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D1053" s="29"/>
       <c r="E1053" s="29" t="s">
@@ -37367,7 +37334,7 @@
         <v>1541</v>
       </c>
       <c r="C1054" s="31" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D1054" s="29"/>
       <c r="E1054" s="29" t="s">
@@ -37392,7 +37359,7 @@
         <v>1542</v>
       </c>
       <c r="C1055" s="31" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D1055" s="29"/>
       <c r="E1055" s="29" t="s">
@@ -37417,7 +37384,7 @@
         <v>1542</v>
       </c>
       <c r="C1056" s="31" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D1056" s="29"/>
       <c r="E1056" s="29" t="s">
@@ -37442,7 +37409,7 @@
         <v>1543</v>
       </c>
       <c r="C1057" s="31" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D1057" s="29"/>
       <c r="E1057" s="29" t="s">
@@ -37467,7 +37434,7 @@
         <v>1543</v>
       </c>
       <c r="C1058" s="31" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D1058" s="29"/>
       <c r="E1058" s="29" t="s">
@@ -37492,7 +37459,7 @@
         <v>1544</v>
       </c>
       <c r="C1059" s="31" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D1059" s="29"/>
       <c r="E1059" s="29" t="s">
@@ -37517,7 +37484,7 @@
         <v>1544</v>
       </c>
       <c r="C1060" s="31" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D1060" s="29"/>
       <c r="E1060" s="29" t="s">
@@ -37542,7 +37509,7 @@
         <v>1545</v>
       </c>
       <c r="C1061" s="31" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D1061" s="29"/>
       <c r="E1061" s="29" t="s">
@@ -37567,7 +37534,7 @@
         <v>1545</v>
       </c>
       <c r="C1062" s="31" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D1062" s="29"/>
       <c r="E1062" s="29" t="s">
@@ -37592,7 +37559,7 @@
         <v>1546</v>
       </c>
       <c r="C1063" s="31" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D1063" s="29"/>
       <c r="E1063" s="29" t="s">
@@ -37617,7 +37584,7 @@
         <v>1546</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D1064" s="29"/>
       <c r="E1064" s="29" t="s">
@@ -37642,7 +37609,7 @@
         <v>1547</v>
       </c>
       <c r="C1065" s="31" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D1065" s="29"/>
       <c r="E1065" s="29" t="s">
@@ -37667,7 +37634,7 @@
         <v>1547</v>
       </c>
       <c r="C1066" s="31" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D1066" s="29"/>
       <c r="E1066" s="29" t="s">
@@ -37692,7 +37659,7 @@
         <v>1548</v>
       </c>
       <c r="C1067" s="31" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D1067" s="29"/>
       <c r="E1067" s="29" t="s">
@@ -37717,7 +37684,7 @@
         <v>1548</v>
       </c>
       <c r="C1068" s="31" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D1068" s="29"/>
       <c r="E1068" s="29" t="s">
@@ -37742,7 +37709,7 @@
         <v>1549</v>
       </c>
       <c r="C1069" s="31" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D1069" s="29"/>
       <c r="E1069" s="29" t="s">
@@ -37767,7 +37734,7 @@
         <v>1549</v>
       </c>
       <c r="C1070" s="31" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1070" s="29"/>
       <c r="E1070" s="29" t="s">
@@ -37792,7 +37759,7 @@
         <v>1549</v>
       </c>
       <c r="C1071" s="31" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D1071" s="29"/>
       <c r="E1071" s="29" t="s">
@@ -37817,7 +37784,7 @@
         <v>1549</v>
       </c>
       <c r="C1072" s="31" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D1072" s="29"/>
       <c r="E1072" s="29" t="s">
@@ -37842,7 +37809,7 @@
         <v>1549</v>
       </c>
       <c r="C1073" s="31" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D1073" s="29"/>
       <c r="E1073" s="29" t="s">
@@ -37867,7 +37834,7 @@
         <v>1550</v>
       </c>
       <c r="C1074" s="31" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D1074" s="29"/>
       <c r="E1074" s="29" t="s">
@@ -37892,7 +37859,7 @@
         <v>1550</v>
       </c>
       <c r="C1075" s="31" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D1075" s="29"/>
       <c r="E1075" s="29" t="s">
@@ -37917,7 +37884,7 @@
         <v>1550</v>
       </c>
       <c r="C1076" s="31" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D1076" s="29"/>
       <c r="E1076" s="29" t="s">
@@ -37942,7 +37909,7 @@
         <v>1551</v>
       </c>
       <c r="C1077" s="31" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D1077" s="29"/>
       <c r="E1077" s="29" t="s">
@@ -37967,7 +37934,7 @@
         <v>1551</v>
       </c>
       <c r="C1078" s="31" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D1078" s="29"/>
       <c r="E1078" s="29" t="s">
@@ -37992,7 +37959,7 @@
         <v>1551</v>
       </c>
       <c r="C1079" s="31" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D1079" s="29"/>
       <c r="E1079" s="29" t="s">
@@ -38016,8 +37983,8 @@
       <c r="B1080" s="30" t="s">
         <v>1551</v>
       </c>
-      <c r="C1080" s="31" t="s">
-        <v>2938</v>
+      <c r="C1080" s="20" t="s">
+        <v>3149</v>
       </c>
       <c r="D1080" s="29"/>
       <c r="E1080" s="29" t="s">
@@ -38042,7 +38009,7 @@
         <v>1552</v>
       </c>
       <c r="C1081" s="31" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D1081" s="29"/>
       <c r="E1081" s="29" t="s">
@@ -38067,7 +38034,7 @@
         <v>1552</v>
       </c>
       <c r="C1082" s="31" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D1082" s="29"/>
       <c r="E1082" s="29" t="s">
@@ -38092,7 +38059,7 @@
         <v>1552</v>
       </c>
       <c r="C1083" s="31" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="D1083" s="29"/>
       <c r="E1083" s="29" t="s">
@@ -38117,7 +38084,7 @@
         <v>1552</v>
       </c>
       <c r="C1084" s="31" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D1084" s="29"/>
       <c r="E1084" s="29" t="s">
@@ -38142,7 +38109,7 @@
         <v>1552</v>
       </c>
       <c r="C1085" s="31" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D1085" s="29"/>
       <c r="E1085" s="29" t="s">
@@ -38167,7 +38134,7 @@
         <v>1552</v>
       </c>
       <c r="C1086" s="31" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D1086" s="29"/>
       <c r="E1086" s="29" t="s">
@@ -38192,7 +38159,7 @@
         <v>1552</v>
       </c>
       <c r="C1087" s="31" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D1087" s="29"/>
       <c r="E1087" s="29" t="s">
@@ -38217,7 +38184,7 @@
         <v>1552</v>
       </c>
       <c r="C1088" s="31" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D1088" s="29"/>
       <c r="E1088" s="29" t="s">
@@ -38242,7 +38209,7 @@
         <v>1552</v>
       </c>
       <c r="C1089" s="31" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D1089" s="29"/>
       <c r="E1089" s="29" t="s">
@@ -38267,7 +38234,7 @@
         <v>1552</v>
       </c>
       <c r="C1090" s="20" t="s">
-        <v>3143</v>
+        <v>3084</v>
       </c>
       <c r="D1090" s="29"/>
       <c r="E1090" s="29" t="s">
@@ -38292,7 +38259,7 @@
         <v>1552</v>
       </c>
       <c r="C1091" s="31" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D1091" s="29"/>
       <c r="E1091" s="29" t="s">
@@ -38317,7 +38284,7 @@
         <v>1552</v>
       </c>
       <c r="C1092" s="31" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D1092" s="29"/>
       <c r="E1092" s="29" t="s">
@@ -38342,7 +38309,7 @@
         <v>1552</v>
       </c>
       <c r="C1093" s="31" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D1093" s="29"/>
       <c r="E1093" s="29" t="s">
@@ -38366,8 +38333,8 @@
       <c r="B1094" s="30" t="s">
         <v>1552</v>
       </c>
-      <c r="C1094" s="31" t="s">
-        <v>2940</v>
+      <c r="C1094" s="20" t="s">
+        <v>3150</v>
       </c>
       <c r="D1094" s="29"/>
       <c r="E1094" s="29" t="s">
@@ -38392,7 +38359,7 @@
         <v>1552</v>
       </c>
       <c r="C1095" s="31" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D1095" s="29"/>
       <c r="E1095" s="29" t="s">
@@ -38416,8 +38383,8 @@
       <c r="B1096" s="30" t="s">
         <v>1552</v>
       </c>
-      <c r="C1096" s="31" t="s">
-        <v>2941</v>
+      <c r="C1096" s="20" t="s">
+        <v>3151</v>
       </c>
       <c r="D1096" s="29"/>
       <c r="E1096" s="29" t="s">
@@ -38442,7 +38409,7 @@
         <v>1552</v>
       </c>
       <c r="C1097" s="31" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D1097" s="29"/>
       <c r="E1097" s="29" t="s">
@@ -38467,7 +38434,7 @@
         <v>1552</v>
       </c>
       <c r="C1098" s="31" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D1098" s="29"/>
       <c r="E1098" s="29" t="s">
@@ -38492,7 +38459,7 @@
         <v>1552</v>
       </c>
       <c r="C1099" s="31" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D1099" s="29"/>
       <c r="E1099" s="29" t="s">
@@ -38517,7 +38484,7 @@
         <v>1552</v>
       </c>
       <c r="C1100" s="31" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D1100" s="29"/>
       <c r="E1100" s="29" t="s">
@@ -38542,7 +38509,7 @@
         <v>1552</v>
       </c>
       <c r="C1101" s="31" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D1101" s="29"/>
       <c r="E1101" s="29" t="s">
@@ -38567,7 +38534,7 @@
         <v>1552</v>
       </c>
       <c r="C1102" s="31" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D1102" s="29"/>
       <c r="E1102" s="29" t="s">
@@ -38592,7 +38559,7 @@
         <v>1552</v>
       </c>
       <c r="C1103" s="31" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D1103" s="29"/>
       <c r="E1103" s="29" t="s">
@@ -38617,7 +38584,7 @@
         <v>1552</v>
       </c>
       <c r="C1104" s="31" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D1104" s="29"/>
       <c r="E1104" s="29" t="s">
@@ -38642,7 +38609,7 @@
         <v>1552</v>
       </c>
       <c r="C1105" s="31" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D1105" s="29"/>
       <c r="E1105" s="29" t="s">
@@ -38667,7 +38634,7 @@
         <v>1552</v>
       </c>
       <c r="C1106" s="31" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D1106" s="29"/>
       <c r="E1106" s="29" t="s">
@@ -38692,7 +38659,7 @@
         <v>1552</v>
       </c>
       <c r="C1107" s="31" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D1107" s="29"/>
       <c r="E1107" s="29" t="s">
@@ -38717,7 +38684,7 @@
         <v>1552</v>
       </c>
       <c r="C1108" s="31" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D1108" s="29"/>
       <c r="E1108" s="29" t="s">
@@ -38742,7 +38709,7 @@
         <v>1552</v>
       </c>
       <c r="C1109" s="31" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D1109" s="29"/>
       <c r="E1109" s="29" t="s">
@@ -38767,7 +38734,7 @@
         <v>1552</v>
       </c>
       <c r="C1110" s="31" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D1110" s="29"/>
       <c r="E1110" s="29" t="s">
@@ -38792,7 +38759,7 @@
         <v>1552</v>
       </c>
       <c r="C1111" s="31" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D1111" s="29"/>
       <c r="E1111" s="29" t="s">
@@ -38817,7 +38784,7 @@
         <v>1552</v>
       </c>
       <c r="C1112" s="31" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D1112" s="29"/>
       <c r="E1112" s="29" t="s">
@@ -38842,7 +38809,7 @@
         <v>1552</v>
       </c>
       <c r="C1113" s="31" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D1113" s="29"/>
       <c r="E1113" s="29" t="s">
@@ -38867,7 +38834,7 @@
         <v>1552</v>
       </c>
       <c r="C1114" s="31" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D1114" s="29"/>
       <c r="E1114" s="29" t="s">
@@ -38892,7 +38859,7 @@
         <v>1552</v>
       </c>
       <c r="C1115" s="31" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D1115" s="29"/>
       <c r="E1115" s="29" t="s">
@@ -38917,7 +38884,7 @@
         <v>1552</v>
       </c>
       <c r="C1116" s="31" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D1116" s="29"/>
       <c r="E1116" s="29" t="s">
@@ -38942,7 +38909,7 @@
         <v>1552</v>
       </c>
       <c r="C1117" s="31" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D1117" s="29"/>
       <c r="E1117" s="29" t="s">
@@ -38967,7 +38934,7 @@
         <v>1552</v>
       </c>
       <c r="C1118" s="31" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D1118" s="29"/>
       <c r="E1118" s="29" t="s">
@@ -38992,7 +38959,7 @@
         <v>1552</v>
       </c>
       <c r="C1119" s="31" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D1119" s="29"/>
       <c r="E1119" s="29" t="s">
@@ -39017,7 +38984,7 @@
         <v>1552</v>
       </c>
       <c r="C1120" s="31" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D1120" s="29"/>
       <c r="E1120" s="29" t="s">
@@ -39041,8 +39008,8 @@
       <c r="B1121" s="30" t="s">
         <v>1552</v>
       </c>
-      <c r="C1121" s="31" t="s">
-        <v>2942</v>
+      <c r="C1121" s="20" t="s">
+        <v>3153</v>
       </c>
       <c r="D1121" s="29"/>
       <c r="E1121" s="29" t="s">
@@ -39067,7 +39034,7 @@
         <v>1552</v>
       </c>
       <c r="C1122" s="31" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D1122" s="29"/>
       <c r="E1122" s="29" t="s">
@@ -39092,7 +39059,7 @@
         <v>1552</v>
       </c>
       <c r="C1123" s="31" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D1123" s="29"/>
       <c r="E1123" s="29" t="s">
@@ -39117,7 +39084,7 @@
         <v>1552</v>
       </c>
       <c r="C1124" s="31" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D1124" s="29"/>
       <c r="E1124" s="29" t="s">
@@ -39133,7 +39100,7 @@
         <v>17</v>
       </c>
       <c r="I1124" s="31" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
@@ -39144,7 +39111,7 @@
         <v>1552</v>
       </c>
       <c r="C1125" s="31" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D1125" s="29"/>
       <c r="E1125" s="29" t="s">
@@ -39169,7 +39136,7 @@
         <v>1552</v>
       </c>
       <c r="C1126" s="31" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D1126" s="29"/>
       <c r="E1126" s="29" t="s">
@@ -39194,7 +39161,7 @@
         <v>1552</v>
       </c>
       <c r="C1127" s="31" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D1127" s="29"/>
       <c r="E1127" s="29" t="s">
@@ -39219,7 +39186,7 @@
         <v>1552</v>
       </c>
       <c r="C1128" s="31" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D1128" s="29"/>
       <c r="E1128" s="29" t="s">
@@ -39244,7 +39211,7 @@
         <v>1552</v>
       </c>
       <c r="C1129" s="31" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D1129" s="29"/>
       <c r="E1129" s="29" t="s">
@@ -39269,7 +39236,7 @@
         <v>1552</v>
       </c>
       <c r="C1130" s="31" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D1130" s="29"/>
       <c r="E1130" s="29" t="s">
@@ -39294,7 +39261,7 @@
         <v>1552</v>
       </c>
       <c r="C1131" s="31" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D1131" s="29"/>
       <c r="E1131" s="29" t="s">
@@ -39319,7 +39286,7 @@
         <v>1552</v>
       </c>
       <c r="C1132" s="31" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D1132" s="29"/>
       <c r="E1132" s="29" t="s">
@@ -39344,7 +39311,7 @@
         <v>1552</v>
       </c>
       <c r="C1133" s="31" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D1133" s="29"/>
       <c r="E1133" s="29" t="s">
@@ -39369,7 +39336,7 @@
         <v>1552</v>
       </c>
       <c r="C1134" s="31" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D1134" s="29"/>
       <c r="E1134" s="29" t="s">
@@ -39393,8 +39360,8 @@
       <c r="B1135" s="30" t="s">
         <v>1552</v>
       </c>
-      <c r="C1135" s="31" t="s">
-        <v>2943</v>
+      <c r="C1135" s="20" t="s">
+        <v>3152</v>
       </c>
       <c r="D1135" s="29"/>
       <c r="E1135" s="29" t="s">
@@ -39419,7 +39386,7 @@
         <v>1552</v>
       </c>
       <c r="C1136" s="31" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D1136" s="29"/>
       <c r="E1136" s="29" t="s">
@@ -39444,7 +39411,7 @@
         <v>1552</v>
       </c>
       <c r="C1137" s="31" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="D1137" s="29"/>
       <c r="E1137" s="29" t="s">
@@ -39469,7 +39436,7 @@
         <v>1552</v>
       </c>
       <c r="C1138" s="31" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D1138" s="29"/>
       <c r="E1138" s="29" t="s">
@@ -39494,7 +39461,7 @@
         <v>1552</v>
       </c>
       <c r="C1139" s="31" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="D1139" s="29"/>
       <c r="E1139" s="29" t="s">
@@ -39519,7 +39486,7 @@
         <v>1553</v>
       </c>
       <c r="C1140" s="31" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D1140" s="29"/>
       <c r="E1140" s="29" t="s">
@@ -39535,7 +39502,7 @@
         <v>17</v>
       </c>
       <c r="I1140" s="31" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1141" spans="1:9" ht="30">
@@ -39546,7 +39513,7 @@
         <v>1553</v>
       </c>
       <c r="C1141" s="31" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D1141" s="29"/>
       <c r="E1141" s="29" t="s">
@@ -39571,7 +39538,7 @@
         <v>1553</v>
       </c>
       <c r="C1142" s="31" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D1142" s="29"/>
       <c r="E1142" s="29" t="s">
@@ -39587,7 +39554,7 @@
         <v>17</v>
       </c>
       <c r="I1142" s="31" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1143" spans="1:9" ht="45">
@@ -39598,7 +39565,7 @@
         <v>1553</v>
       </c>
       <c r="C1143" s="31" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D1143" s="29"/>
       <c r="E1143" s="29" t="s">
@@ -39623,7 +39590,7 @@
         <v>1554</v>
       </c>
       <c r="C1144" s="31" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D1144" s="29"/>
       <c r="E1144" s="29" t="s">
@@ -39639,7 +39606,7 @@
         <v>17</v>
       </c>
       <c r="I1144" s="31" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1145" spans="1:9" ht="195">
@@ -39650,7 +39617,7 @@
         <v>1554</v>
       </c>
       <c r="C1145" s="31" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D1145" s="29"/>
       <c r="E1145" s="29" t="s">
@@ -39666,7 +39633,7 @@
         <v>17</v>
       </c>
       <c r="I1145" s="31" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1146" spans="1:9" ht="30">
@@ -39677,7 +39644,7 @@
         <v>1554</v>
       </c>
       <c r="C1146" s="31" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D1146" s="29"/>
       <c r="E1146" s="29" t="s">
@@ -39727,7 +39694,7 @@
         <v>1554</v>
       </c>
       <c r="C1148" s="31" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D1148" s="29"/>
       <c r="E1148" s="29" t="s">
@@ -39752,7 +39719,7 @@
         <v>1554</v>
       </c>
       <c r="C1149" s="31" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D1149" s="29"/>
       <c r="E1149" s="29" t="s">
@@ -39777,7 +39744,7 @@
         <v>1554</v>
       </c>
       <c r="C1150" s="31" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D1150" s="29"/>
       <c r="E1150" s="29" t="s">
@@ -39802,7 +39769,7 @@
         <v>1554</v>
       </c>
       <c r="C1151" s="31" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D1151" s="29"/>
       <c r="E1151" s="29" t="s">
@@ -39827,7 +39794,7 @@
         <v>1554</v>
       </c>
       <c r="C1152" s="31" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D1152" s="29"/>
       <c r="E1152" s="29" t="s">
@@ -39877,7 +39844,7 @@
         <v>1554</v>
       </c>
       <c r="C1154" s="31" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D1154" s="29"/>
       <c r="E1154" s="29" t="s">
@@ -39893,7 +39860,7 @@
         <v>17</v>
       </c>
       <c r="I1154" s="31" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1155" spans="1:9" ht="30">
@@ -39904,7 +39871,7 @@
         <v>1554</v>
       </c>
       <c r="C1155" s="31" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D1155" s="29"/>
       <c r="E1155" s="29" t="s">
@@ -39929,7 +39896,7 @@
         <v>1554</v>
       </c>
       <c r="C1156" s="31" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D1156" s="29"/>
       <c r="E1156" s="29" t="s">
@@ -39954,7 +39921,7 @@
         <v>1554</v>
       </c>
       <c r="C1157" s="31" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="D1157" s="29"/>
       <c r="E1157" s="29" t="s">
@@ -39979,7 +39946,7 @@
         <v>1554</v>
       </c>
       <c r="C1158" s="31" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D1158" s="29"/>
       <c r="E1158" s="29" t="s">
@@ -40004,7 +39971,7 @@
         <v>1555</v>
       </c>
       <c r="C1159" s="31" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D1159" s="29"/>
       <c r="E1159" s="29" t="s">
@@ -40029,7 +39996,7 @@
         <v>1555</v>
       </c>
       <c r="C1160" s="31" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D1160" s="29"/>
       <c r="E1160" s="29" t="s">
@@ -40054,7 +40021,7 @@
         <v>1555</v>
       </c>
       <c r="C1161" s="31" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D1161" s="29"/>
       <c r="E1161" s="29" t="s">
@@ -40078,8 +40045,8 @@
       <c r="B1162" s="30" t="s">
         <v>1555</v>
       </c>
-      <c r="C1162" s="31" t="s">
-        <v>2944</v>
+      <c r="C1162" s="20" t="s">
+        <v>3154</v>
       </c>
       <c r="D1162" s="29"/>
       <c r="E1162" s="29" t="s">
@@ -40104,7 +40071,7 @@
         <v>1555</v>
       </c>
       <c r="C1163" s="31" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D1163" s="29"/>
       <c r="E1163" s="29" t="s">
@@ -40129,7 +40096,7 @@
         <v>1555</v>
       </c>
       <c r="C1164" s="31" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D1164" s="29"/>
       <c r="E1164" s="29" t="s">
@@ -40154,7 +40121,7 @@
         <v>1555</v>
       </c>
       <c r="C1165" s="31" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D1165" s="29"/>
       <c r="E1165" s="29" t="s">
@@ -40179,7 +40146,7 @@
         <v>1555</v>
       </c>
       <c r="C1166" s="31" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D1166" s="29"/>
       <c r="E1166" s="29" t="s">
@@ -40204,7 +40171,7 @@
         <v>1555</v>
       </c>
       <c r="C1167" s="31" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D1167" s="29"/>
       <c r="E1167" s="29" t="s">
@@ -40229,7 +40196,7 @@
         <v>1555</v>
       </c>
       <c r="C1168" s="31" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D1168" s="29"/>
       <c r="E1168" s="29" t="s">
@@ -40254,7 +40221,7 @@
         <v>1555</v>
       </c>
       <c r="C1169" s="31" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D1169" s="29"/>
       <c r="E1169" s="29" t="s">
@@ -40279,7 +40246,7 @@
         <v>1555</v>
       </c>
       <c r="C1170" s="31" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D1170" s="29"/>
       <c r="E1170" s="29" t="s">
@@ -40304,7 +40271,7 @@
         <v>1555</v>
       </c>
       <c r="C1171" s="31" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D1171" s="29"/>
       <c r="E1171" s="29" t="s">
@@ -40329,7 +40296,7 @@
         <v>1555</v>
       </c>
       <c r="C1172" s="31" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D1172" s="29"/>
       <c r="E1172" s="29" t="s">
@@ -40354,7 +40321,7 @@
         <v>1555</v>
       </c>
       <c r="C1173" s="31" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D1173" s="29"/>
       <c r="E1173" s="29" t="s">
@@ -40379,7 +40346,7 @@
         <v>1555</v>
       </c>
       <c r="C1174" s="31" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D1174" s="29"/>
       <c r="E1174" s="29" t="s">
@@ -40404,7 +40371,7 @@
         <v>1555</v>
       </c>
       <c r="C1175" s="31" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D1175" s="29"/>
       <c r="E1175" s="29" t="s">
@@ -40429,7 +40396,7 @@
         <v>1555</v>
       </c>
       <c r="C1176" s="31" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="D1176" s="29"/>
       <c r="E1176" s="29" t="s">
@@ -40454,7 +40421,7 @@
         <v>1555</v>
       </c>
       <c r="C1177" s="31" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D1177" s="29"/>
       <c r="E1177" s="29" t="s">
@@ -40478,8 +40445,8 @@
       <c r="B1178" s="30" t="s">
         <v>1555</v>
       </c>
-      <c r="C1178" s="31" t="s">
-        <v>2945</v>
+      <c r="C1178" s="20" t="s">
+        <v>3155</v>
       </c>
       <c r="D1178" s="29"/>
       <c r="E1178" s="29" t="s">
@@ -40504,7 +40471,7 @@
         <v>1555</v>
       </c>
       <c r="C1179" s="31" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="D1179" s="29"/>
       <c r="E1179" s="29" t="s">
@@ -40529,7 +40496,7 @@
         <v>1556</v>
       </c>
       <c r="C1180" s="31" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D1180" s="29"/>
       <c r="E1180" s="29" t="s">
@@ -40554,7 +40521,7 @@
         <v>1556</v>
       </c>
       <c r="C1181" s="31" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="D1181" s="29"/>
       <c r="E1181" s="29" t="s">
@@ -40579,7 +40546,7 @@
         <v>1556</v>
       </c>
       <c r="C1182" s="31" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D1182" s="29"/>
       <c r="E1182" s="29" t="s">
@@ -40604,7 +40571,7 @@
         <v>1557</v>
       </c>
       <c r="C1183" s="31" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D1183" s="29"/>
       <c r="E1183" s="29" t="s">
@@ -40629,7 +40596,7 @@
         <v>1557</v>
       </c>
       <c r="C1184" s="31" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D1184" s="29"/>
       <c r="E1184" s="29" t="s">
@@ -40654,7 +40621,7 @@
         <v>1558</v>
       </c>
       <c r="C1185" s="31" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D1185" s="29"/>
       <c r="E1185" s="29" t="s">
@@ -40679,7 +40646,7 @@
         <v>1559</v>
       </c>
       <c r="C1186" s="31" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D1186" s="29"/>
       <c r="E1186" s="29" t="s">
@@ -40704,7 +40671,7 @@
         <v>1559</v>
       </c>
       <c r="C1187" s="31" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D1187" s="29"/>
       <c r="E1187" s="29" t="s">
@@ -40729,7 +40696,7 @@
         <v>1559</v>
       </c>
       <c r="C1188" s="31" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D1188" s="29"/>
       <c r="E1188" s="29" t="s">
@@ -40754,7 +40721,7 @@
         <v>1559</v>
       </c>
       <c r="C1189" s="31" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D1189" s="29"/>
       <c r="E1189" s="29" t="s">
@@ -40779,7 +40746,7 @@
         <v>1559</v>
       </c>
       <c r="C1190" s="31" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D1190" s="29"/>
       <c r="E1190" s="29" t="s">
@@ -40804,7 +40771,7 @@
         <v>1559</v>
       </c>
       <c r="C1191" s="31" t="s">
-        <v>2946</v>
+        <v>2936</v>
       </c>
       <c r="D1191" s="29"/>
       <c r="E1191" s="29" t="s">
@@ -40829,7 +40796,7 @@
         <v>1559</v>
       </c>
       <c r="C1192" s="31" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D1192" s="29"/>
       <c r="E1192" s="29" t="s">
@@ -40854,7 +40821,7 @@
         <v>1559</v>
       </c>
       <c r="C1193" s="20" t="s">
-        <v>3140</v>
+        <v>3081</v>
       </c>
       <c r="D1193" s="29"/>
       <c r="E1193" s="29" t="s">
@@ -40879,7 +40846,7 @@
         <v>1559</v>
       </c>
       <c r="C1194" s="31" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D1194" s="29"/>
       <c r="E1194" s="29" t="s">
@@ -40904,7 +40871,7 @@
         <v>1559</v>
       </c>
       <c r="C1195" s="31" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D1195" s="29"/>
       <c r="E1195" s="29" t="s">
@@ -40929,7 +40896,7 @@
         <v>1559</v>
       </c>
       <c r="C1196" s="31" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D1196" s="29"/>
       <c r="E1196" s="29" t="s">
@@ -40954,7 +40921,7 @@
         <v>1559</v>
       </c>
       <c r="C1197" s="31" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D1197" s="29"/>
       <c r="E1197" s="29" t="s">
@@ -40979,7 +40946,7 @@
         <v>1559</v>
       </c>
       <c r="C1198" s="31" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D1198" s="29"/>
       <c r="E1198" s="29" t="s">
@@ -41004,7 +40971,7 @@
         <v>1559</v>
       </c>
       <c r="C1199" s="31" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="D1199" s="29"/>
       <c r="E1199" s="29" t="s">
@@ -41029,7 +40996,7 @@
         <v>1559</v>
       </c>
       <c r="C1200" s="31" t="s">
-        <v>2947</v>
+        <v>2937</v>
       </c>
       <c r="D1200" s="29"/>
       <c r="E1200" s="29" t="s">
@@ -41045,7 +41012,7 @@
         <v>17</v>
       </c>
       <c r="I1200" s="20" t="s">
-        <v>3045</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1201" spans="1:9" ht="75">
@@ -41056,10 +41023,10 @@
         <v>1559</v>
       </c>
       <c r="C1201" s="31" t="s">
-        <v>3037</v>
+        <v>2978</v>
       </c>
       <c r="D1201" s="29" t="s">
-        <v>3044</v>
+        <v>2985</v>
       </c>
       <c r="E1201" s="29" t="s">
         <v>19</v>
@@ -41083,10 +41050,10 @@
         <v>1559</v>
       </c>
       <c r="C1202" s="31" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D1202" s="29" t="s">
-        <v>3044</v>
+        <v>2985</v>
       </c>
       <c r="E1202" s="29" t="s">
         <v>19</v>
@@ -41110,7 +41077,7 @@
         <v>1559</v>
       </c>
       <c r="C1203" s="31" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D1203" s="29"/>
       <c r="E1203" s="29" t="s">
@@ -41135,7 +41102,7 @@
         <v>1559</v>
       </c>
       <c r="C1204" s="31" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D1204" s="29"/>
       <c r="E1204" s="29" t="s">
@@ -41151,7 +41118,7 @@
         <v>17</v>
       </c>
       <c r="I1204" s="31" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1205" spans="1:9" ht="30">
@@ -41162,7 +41129,7 @@
         <v>1559</v>
       </c>
       <c r="C1205" s="31" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D1205" s="29"/>
       <c r="E1205" s="29" t="s">
@@ -41187,7 +41154,7 @@
         <v>1559</v>
       </c>
       <c r="C1206" s="31" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D1206" s="29"/>
       <c r="E1206" s="29" t="s">
@@ -41212,7 +41179,7 @@
         <v>1559</v>
       </c>
       <c r="C1207" s="31" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D1207" s="29"/>
       <c r="E1207" s="29" t="s">
@@ -41237,7 +41204,7 @@
         <v>1559</v>
       </c>
       <c r="C1208" s="31" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D1208" s="29"/>
       <c r="E1208" s="29" t="s">
@@ -41262,7 +41229,7 @@
         <v>1559</v>
       </c>
       <c r="C1209" s="31" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D1209" s="29"/>
       <c r="E1209" s="29" t="s">
@@ -41287,7 +41254,7 @@
         <v>1559</v>
       </c>
       <c r="C1210" s="31" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D1210" s="29"/>
       <c r="E1210" s="29" t="s">
@@ -41312,7 +41279,7 @@
         <v>1559</v>
       </c>
       <c r="C1211" s="31" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D1211" s="29"/>
       <c r="E1211" s="29" t="s">
@@ -41337,7 +41304,7 @@
         <v>1559</v>
       </c>
       <c r="C1212" s="31" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D1212" s="29"/>
       <c r="E1212" s="29" t="s">
@@ -41362,7 +41329,7 @@
         <v>1559</v>
       </c>
       <c r="C1213" s="31" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D1213" s="29"/>
       <c r="E1213" s="29" t="s">
@@ -41387,7 +41354,7 @@
         <v>1559</v>
       </c>
       <c r="C1214" s="31" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D1214" s="29"/>
       <c r="E1214" s="29" t="s">
@@ -41412,7 +41379,7 @@
         <v>1560</v>
       </c>
       <c r="C1215" s="31" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D1215" s="29"/>
       <c r="E1215" s="29" t="s">
@@ -41437,7 +41404,7 @@
         <v>1561</v>
       </c>
       <c r="C1216" s="31" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D1216" s="29"/>
       <c r="E1216" s="29" t="s">
@@ -41462,7 +41429,7 @@
         <v>1561</v>
       </c>
       <c r="C1217" s="31" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D1217" s="29"/>
       <c r="E1217" s="29" t="s">
@@ -41487,7 +41454,7 @@
         <v>1561</v>
       </c>
       <c r="C1218" s="31" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D1218" s="29"/>
       <c r="E1218" s="29" t="s">
@@ -41512,7 +41479,7 @@
         <v>1561</v>
       </c>
       <c r="C1219" s="31" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D1219" s="29"/>
       <c r="E1219" s="29" t="s">
@@ -41537,7 +41504,7 @@
         <v>1562</v>
       </c>
       <c r="C1220" s="31" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D1220" s="29"/>
       <c r="E1220" s="29" t="s">
@@ -41553,7 +41520,7 @@
         <v>17</v>
       </c>
       <c r="I1220" s="31" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1221" spans="1:9" ht="45">
@@ -41564,7 +41531,7 @@
         <v>1562</v>
       </c>
       <c r="C1221" s="31" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D1221" s="29"/>
       <c r="E1221" s="29" t="s">
@@ -41580,7 +41547,7 @@
         <v>17</v>
       </c>
       <c r="I1221" s="31" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1222" spans="1:9" ht="45">
@@ -41591,7 +41558,7 @@
         <v>1562</v>
       </c>
       <c r="C1222" s="31" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D1222" s="29"/>
       <c r="E1222" s="29" t="s">
@@ -41616,7 +41583,7 @@
         <v>1563</v>
       </c>
       <c r="C1223" s="31" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D1223" s="29"/>
       <c r="E1223" s="29" t="s">
@@ -41632,7 +41599,7 @@
         <v>17</v>
       </c>
       <c r="I1223" s="31" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1224" spans="1:9" ht="60">
@@ -41643,7 +41610,7 @@
         <v>1563</v>
       </c>
       <c r="C1224" s="31" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D1224" s="29"/>
       <c r="E1224" s="29" t="s">
@@ -41659,7 +41626,7 @@
         <v>17</v>
       </c>
       <c r="I1224" s="31" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1225" spans="1:9" ht="30">
@@ -41670,7 +41637,7 @@
         <v>1563</v>
       </c>
       <c r="C1225" s="31" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D1225" s="29"/>
       <c r="E1225" s="29" t="s">
@@ -41695,7 +41662,7 @@
         <v>1563</v>
       </c>
       <c r="C1226" s="31" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D1226" s="29"/>
       <c r="E1226" s="29" t="s">
@@ -41720,7 +41687,7 @@
         <v>1563</v>
       </c>
       <c r="C1227" s="31" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D1227" s="29"/>
       <c r="E1227" s="29" t="s">
@@ -41745,7 +41712,7 @@
         <v>1563</v>
       </c>
       <c r="C1228" s="31" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D1228" s="29"/>
       <c r="E1228" s="29" t="s">
@@ -41770,7 +41737,7 @@
         <v>1563</v>
       </c>
       <c r="C1229" s="31" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D1229" s="29"/>
       <c r="E1229" s="29" t="s">
@@ -41795,7 +41762,7 @@
         <v>1563</v>
       </c>
       <c r="C1230" s="31" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D1230" s="29"/>
       <c r="E1230" s="29" t="s">
@@ -41820,7 +41787,7 @@
         <v>1563</v>
       </c>
       <c r="C1231" s="31" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D1231" s="29"/>
       <c r="E1231" s="29" t="s">
@@ -41845,7 +41812,7 @@
         <v>1563</v>
       </c>
       <c r="C1232" s="31" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D1232" s="29"/>
       <c r="E1232" s="29" t="s">
@@ -41870,7 +41837,7 @@
         <v>1563</v>
       </c>
       <c r="C1233" s="31" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D1233" s="29"/>
       <c r="E1233" s="29" t="s">
@@ -41895,7 +41862,7 @@
         <v>1563</v>
       </c>
       <c r="C1234" s="31" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D1234" s="29"/>
       <c r="E1234" s="29" t="s">
@@ -41920,7 +41887,7 @@
         <v>1563</v>
       </c>
       <c r="C1235" s="31" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D1235" s="29"/>
       <c r="E1235" s="29" t="s">
@@ -41945,7 +41912,7 @@
         <v>1563</v>
       </c>
       <c r="C1236" s="31" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D1236" s="29"/>
       <c r="E1236" s="29" t="s">
@@ -41970,7 +41937,7 @@
         <v>1563</v>
       </c>
       <c r="C1237" s="31" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D1237" s="29"/>
       <c r="E1237" s="29" t="s">
@@ -41995,7 +41962,7 @@
         <v>1564</v>
       </c>
       <c r="C1238" s="31" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D1238" s="29"/>
       <c r="E1238" s="29" t="s">
@@ -42020,7 +41987,7 @@
         <v>1564</v>
       </c>
       <c r="C1239" s="31" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D1239" s="29"/>
       <c r="E1239" s="29" t="s">
@@ -42045,7 +42012,7 @@
         <v>1564</v>
       </c>
       <c r="C1240" s="31" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D1240" s="29"/>
       <c r="E1240" s="29" t="s">
@@ -42070,7 +42037,7 @@
         <v>1564</v>
       </c>
       <c r="C1241" s="31" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D1241" s="29"/>
       <c r="E1241" s="29" t="s">
@@ -42095,7 +42062,7 @@
         <v>1564</v>
       </c>
       <c r="C1242" s="31" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D1242" s="29"/>
       <c r="E1242" s="29" t="s">
@@ -42120,7 +42087,7 @@
         <v>1564</v>
       </c>
       <c r="C1243" s="31" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D1243" s="29"/>
       <c r="E1243" s="29" t="s">
@@ -42145,7 +42112,7 @@
         <v>1564</v>
       </c>
       <c r="C1244" s="31" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D1244" s="29"/>
       <c r="E1244" s="29" t="s">
@@ -42170,7 +42137,7 @@
         <v>1564</v>
       </c>
       <c r="C1245" s="31" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="D1245" s="29"/>
       <c r="E1245" s="29" t="s">
@@ -42195,7 +42162,7 @@
         <v>1564</v>
       </c>
       <c r="C1246" s="31" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D1246" s="29"/>
       <c r="E1246" s="29" t="s">
@@ -42220,7 +42187,7 @@
         <v>1564</v>
       </c>
       <c r="C1247" s="31" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D1247" s="29"/>
       <c r="E1247" s="29" t="s">
@@ -42245,7 +42212,7 @@
         <v>1564</v>
       </c>
       <c r="C1248" s="31" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D1248" s="29"/>
       <c r="E1248" s="29" t="s">
@@ -42270,7 +42237,7 @@
         <v>1564</v>
       </c>
       <c r="C1249" s="31" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="D1249" s="29"/>
       <c r="E1249" s="29" t="s">
@@ -42295,7 +42262,7 @@
         <v>1564</v>
       </c>
       <c r="C1250" s="31" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D1250" s="29"/>
       <c r="E1250" s="29" t="s">
@@ -42320,7 +42287,7 @@
         <v>1564</v>
       </c>
       <c r="C1251" s="31" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D1251" s="29"/>
       <c r="E1251" s="29" t="s">
@@ -42345,7 +42312,7 @@
         <v>1564</v>
       </c>
       <c r="C1252" s="31" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="D1252" s="29"/>
       <c r="E1252" s="29" t="s">
@@ -42370,7 +42337,7 @@
         <v>1564</v>
       </c>
       <c r="C1253" s="31" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D1253" s="29"/>
       <c r="E1253" s="29" t="s">
@@ -42395,7 +42362,7 @@
         <v>1564</v>
       </c>
       <c r="C1254" s="31" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D1254" s="29"/>
       <c r="E1254" s="29" t="s">
@@ -42420,7 +42387,7 @@
         <v>1564</v>
       </c>
       <c r="C1255" s="31" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D1255" s="29"/>
       <c r="E1255" s="29" t="s">
@@ -42445,7 +42412,7 @@
         <v>1564</v>
       </c>
       <c r="C1256" s="31" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D1256" s="29"/>
       <c r="E1256" s="29" t="s">
@@ -42470,7 +42437,7 @@
         <v>1564</v>
       </c>
       <c r="C1257" s="31" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D1257" s="29"/>
       <c r="E1257" s="29" t="s">
@@ -42495,7 +42462,7 @@
         <v>1564</v>
       </c>
       <c r="C1258" s="31" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D1258" s="29"/>
       <c r="E1258" s="29" t="s">
@@ -42520,7 +42487,7 @@
         <v>1564</v>
       </c>
       <c r="C1259" s="31" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D1259" s="29"/>
       <c r="E1259" s="29" t="s">
@@ -42545,7 +42512,7 @@
         <v>1564</v>
       </c>
       <c r="C1260" s="31" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="D1260" s="29"/>
       <c r="E1260" s="29" t="s">
@@ -42570,7 +42537,7 @@
         <v>1564</v>
       </c>
       <c r="C1261" s="31" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D1261" s="29"/>
       <c r="E1261" s="29" t="s">
@@ -42595,7 +42562,7 @@
         <v>1564</v>
       </c>
       <c r="C1262" s="31" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="D1262" s="29"/>
       <c r="E1262" s="29" t="s">
@@ -42620,7 +42587,7 @@
         <v>1564</v>
       </c>
       <c r="C1263" s="31" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D1263" s="29"/>
       <c r="E1263" s="29" t="s">
@@ -42645,7 +42612,7 @@
         <v>1564</v>
       </c>
       <c r="C1264" s="31" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D1264" s="29"/>
       <c r="E1264" s="29" t="s">
@@ -42670,7 +42637,7 @@
         <v>1564</v>
       </c>
       <c r="C1265" s="31" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D1265" s="29"/>
       <c r="E1265" s="29" t="s">
@@ -42695,7 +42662,7 @@
         <v>1564</v>
       </c>
       <c r="C1266" s="31" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D1266" s="29"/>
       <c r="E1266" s="29" t="s">
@@ -42720,7 +42687,7 @@
         <v>1564</v>
       </c>
       <c r="C1267" s="31" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D1267" s="29"/>
       <c r="E1267" s="29" t="s">
@@ -42745,7 +42712,7 @@
         <v>1564</v>
       </c>
       <c r="C1268" s="31" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D1268" s="29"/>
       <c r="E1268" s="29" t="s">
@@ -42770,7 +42737,7 @@
         <v>1564</v>
       </c>
       <c r="C1269" s="31" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D1269" s="29"/>
       <c r="E1269" s="29" t="s">
@@ -42795,7 +42762,7 @@
         <v>1564</v>
       </c>
       <c r="C1270" s="31" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D1270" s="29"/>
       <c r="E1270" s="29" t="s">
@@ -42820,7 +42787,7 @@
         <v>1564</v>
       </c>
       <c r="C1271" s="31" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D1271" s="29"/>
       <c r="E1271" s="29" t="s">
@@ -42845,7 +42812,7 @@
         <v>1564</v>
       </c>
       <c r="C1272" s="31" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D1272" s="29"/>
       <c r="E1272" s="29" t="s">
@@ -42870,7 +42837,7 @@
         <v>1564</v>
       </c>
       <c r="C1273" s="31" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D1273" s="29"/>
       <c r="E1273" s="29" t="s">
@@ -42895,7 +42862,7 @@
         <v>1564</v>
       </c>
       <c r="C1274" s="31" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D1274" s="29"/>
       <c r="E1274" s="29" t="s">
@@ -42920,7 +42887,7 @@
         <v>1564</v>
       </c>
       <c r="C1275" s="31" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D1275" s="29"/>
       <c r="E1275" s="29" t="s">
@@ -42945,7 +42912,7 @@
         <v>1564</v>
       </c>
       <c r="C1276" s="31" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D1276" s="29"/>
       <c r="E1276" s="29" t="s">
@@ -42970,7 +42937,7 @@
         <v>1564</v>
       </c>
       <c r="C1277" s="31" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D1277" s="29"/>
       <c r="E1277" s="29" t="s">
@@ -42995,7 +42962,7 @@
         <v>1564</v>
       </c>
       <c r="C1278" s="31" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D1278" s="29"/>
       <c r="E1278" s="29" t="s">
@@ -43020,7 +42987,7 @@
         <v>1564</v>
       </c>
       <c r="C1279" s="31" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D1279" s="29"/>
       <c r="E1279" s="29" t="s">
@@ -43045,7 +43012,7 @@
         <v>1564</v>
       </c>
       <c r="C1280" s="31" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D1280" s="29"/>
       <c r="E1280" s="29" t="s">
@@ -43070,7 +43037,7 @@
         <v>1565</v>
       </c>
       <c r="C1281" s="31" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D1281" s="29"/>
       <c r="E1281" s="29" t="s">
@@ -43095,7 +43062,7 @@
         <v>1565</v>
       </c>
       <c r="C1282" s="31" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D1282" s="29"/>
       <c r="E1282" s="29" t="s">
@@ -43120,7 +43087,7 @@
         <v>1565</v>
       </c>
       <c r="C1283" s="31" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D1283" s="29"/>
       <c r="E1283" s="29" t="s">
@@ -43145,7 +43112,7 @@
         <v>1566</v>
       </c>
       <c r="C1284" s="31" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D1284" s="29"/>
       <c r="E1284" s="29" t="s">
@@ -43170,7 +43137,7 @@
         <v>1566</v>
       </c>
       <c r="C1285" s="31" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D1285" s="29"/>
       <c r="E1285" s="29" t="s">
@@ -43195,7 +43162,7 @@
         <v>1566</v>
       </c>
       <c r="C1286" s="31" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D1286" s="29"/>
       <c r="E1286" s="29" t="s">
@@ -43220,7 +43187,7 @@
         <v>1566</v>
       </c>
       <c r="C1287" s="31" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D1287" s="29"/>
       <c r="E1287" s="29" t="s">
@@ -43245,7 +43212,7 @@
         <v>1567</v>
       </c>
       <c r="C1288" s="31" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D1288" s="29"/>
       <c r="E1288" s="29" t="s">
@@ -43270,7 +43237,7 @@
         <v>1567</v>
       </c>
       <c r="C1289" s="31" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D1289" s="29"/>
       <c r="E1289" s="29" t="s">
@@ -43295,7 +43262,7 @@
         <v>1567</v>
       </c>
       <c r="C1290" s="31" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D1290" s="29"/>
       <c r="E1290" s="29" t="s">
@@ -43320,7 +43287,7 @@
         <v>1567</v>
       </c>
       <c r="C1291" s="31" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D1291" s="29"/>
       <c r="E1291" s="29" t="s">
@@ -43345,7 +43312,7 @@
         <v>1567</v>
       </c>
       <c r="C1292" s="31" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D1292" s="29"/>
       <c r="E1292" s="29" t="s">
@@ -43370,7 +43337,7 @@
         <v>1567</v>
       </c>
       <c r="C1293" s="31" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D1293" s="29"/>
       <c r="E1293" s="29" t="s">
@@ -43395,7 +43362,7 @@
         <v>1567</v>
       </c>
       <c r="C1294" s="31" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D1294" s="29"/>
       <c r="E1294" s="29" t="s">
@@ -43420,7 +43387,7 @@
         <v>1568</v>
       </c>
       <c r="C1295" s="31" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D1295" s="29"/>
       <c r="E1295" s="29" t="s">
@@ -43444,8 +43411,8 @@
       <c r="B1296" s="30" t="s">
         <v>1568</v>
       </c>
-      <c r="C1296" s="31" t="s">
-        <v>2948</v>
+      <c r="C1296" s="20" t="s">
+        <v>3108</v>
       </c>
       <c r="D1296" s="29"/>
       <c r="E1296" s="29" t="s">
@@ -43470,7 +43437,7 @@
         <v>1568</v>
       </c>
       <c r="C1297" s="31" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D1297" s="29"/>
       <c r="E1297" s="29" t="s">
@@ -43495,7 +43462,7 @@
         <v>1568</v>
       </c>
       <c r="C1298" s="20" t="s">
-        <v>3144</v>
+        <v>3085</v>
       </c>
       <c r="D1298" s="29"/>
       <c r="E1298" s="29" t="s">
@@ -43520,7 +43487,7 @@
         <v>1569</v>
       </c>
       <c r="C1299" s="31" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D1299" s="29"/>
       <c r="E1299" s="29" t="s">
@@ -43545,7 +43512,7 @@
         <v>1570</v>
       </c>
       <c r="C1300" s="31" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D1300" s="29"/>
       <c r="E1300" s="29" t="s">
@@ -43570,7 +43537,7 @@
         <v>1570</v>
       </c>
       <c r="C1301" s="31" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1301" s="29"/>
       <c r="E1301" s="29" t="s">
@@ -43595,7 +43562,7 @@
         <v>1570</v>
       </c>
       <c r="C1302" s="31" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D1302" s="29"/>
       <c r="E1302" s="29" t="s">
@@ -43620,7 +43587,7 @@
         <v>1570</v>
       </c>
       <c r="C1303" s="31" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D1303" s="29"/>
       <c r="E1303" s="29" t="s">
@@ -43645,7 +43612,7 @@
         <v>1570</v>
       </c>
       <c r="C1304" s="31" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D1304" s="29"/>
       <c r="E1304" s="29" t="s">
@@ -43670,7 +43637,7 @@
         <v>1570</v>
       </c>
       <c r="C1305" s="31" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D1305" s="29"/>
       <c r="E1305" s="29" t="s">
@@ -43695,7 +43662,7 @@
         <v>1570</v>
       </c>
       <c r="C1306" s="31" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D1306" s="29"/>
       <c r="E1306" s="29" t="s">
@@ -43720,7 +43687,7 @@
         <v>1570</v>
       </c>
       <c r="C1307" s="31" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D1307" s="29"/>
       <c r="E1307" s="29" t="s">
@@ -43736,7 +43703,7 @@
         <v>17</v>
       </c>
       <c r="I1307" s="31" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1308" spans="1:9" ht="30">
@@ -43747,7 +43714,7 @@
         <v>1570</v>
       </c>
       <c r="C1308" s="31" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D1308" s="29"/>
       <c r="E1308" s="29" t="s">
@@ -43772,7 +43739,7 @@
         <v>1570</v>
       </c>
       <c r="C1309" s="31" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D1309" s="29"/>
       <c r="E1309" s="29" t="s">
@@ -43797,7 +43764,7 @@
         <v>1570</v>
       </c>
       <c r="C1310" s="31" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="D1310" s="29"/>
       <c r="E1310" s="29" t="s">
@@ -43822,7 +43789,7 @@
         <v>1570</v>
       </c>
       <c r="C1311" s="31" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D1311" s="29"/>
       <c r="E1311" s="29" t="s">
@@ -43847,7 +43814,7 @@
         <v>1570</v>
       </c>
       <c r="C1312" s="31" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D1312" s="29"/>
       <c r="E1312" s="29" t="s">
@@ -43872,7 +43839,7 @@
         <v>1571</v>
       </c>
       <c r="C1313" s="31" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D1313" s="29"/>
       <c r="E1313" s="29" t="s">
@@ -43897,7 +43864,7 @@
         <v>1571</v>
       </c>
       <c r="C1314" s="31" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D1314" s="29"/>
       <c r="E1314" s="29" t="s">
@@ -43922,7 +43889,7 @@
         <v>1571</v>
       </c>
       <c r="C1315" s="31" t="s">
-        <v>2949</v>
+        <v>2938</v>
       </c>
       <c r="D1315" s="29"/>
       <c r="E1315" s="29" t="s">
@@ -43947,7 +43914,7 @@
         <v>1571</v>
       </c>
       <c r="C1316" s="31" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D1316" s="29"/>
       <c r="E1316" s="29" t="s">
@@ -43972,7 +43939,7 @@
         <v>1571</v>
       </c>
       <c r="C1317" s="31" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D1317" s="29"/>
       <c r="E1317" s="29" t="s">
@@ -44022,7 +43989,7 @@
         <v>1571</v>
       </c>
       <c r="C1319" s="31" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D1319" s="29"/>
       <c r="E1319" s="29" t="s">
@@ -44047,7 +44014,7 @@
         <v>1571</v>
       </c>
       <c r="C1320" s="31" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D1320" s="29"/>
       <c r="E1320" s="29" t="s">
@@ -44072,7 +44039,7 @@
         <v>1572</v>
       </c>
       <c r="C1321" s="31" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D1321" s="29"/>
       <c r="E1321" s="29" t="s">
@@ -44096,8 +44063,8 @@
       <c r="B1322" s="30" t="s">
         <v>1572</v>
       </c>
-      <c r="C1322" s="31" t="s">
-        <v>2950</v>
+      <c r="C1322" s="20" t="s">
+        <v>3103</v>
       </c>
       <c r="D1322" s="29"/>
       <c r="E1322" s="29" t="s">
@@ -44113,7 +44080,7 @@
         <v>17</v>
       </c>
       <c r="I1322" s="31" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1323" spans="1:9" ht="45">
@@ -44124,7 +44091,7 @@
         <v>1572</v>
       </c>
       <c r="C1323" s="31" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D1323" s="29"/>
       <c r="E1323" s="29" t="s">
@@ -44140,7 +44107,7 @@
         <v>17</v>
       </c>
       <c r="I1323" s="31" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1324" spans="1:9" ht="45">
@@ -44151,7 +44118,7 @@
         <v>1572</v>
       </c>
       <c r="C1324" s="31" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D1324" s="29"/>
       <c r="E1324" s="29" t="s">
@@ -44176,7 +44143,7 @@
         <v>1572</v>
       </c>
       <c r="C1325" s="31" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D1325" s="29"/>
       <c r="E1325" s="29" t="s">
@@ -44201,7 +44168,7 @@
         <v>1573</v>
       </c>
       <c r="C1326" s="31" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D1326" s="29"/>
       <c r="E1326" s="29" t="s">
@@ -44225,8 +44192,8 @@
       <c r="B1327" s="30" t="s">
         <v>1573</v>
       </c>
-      <c r="C1327" s="31" t="s">
-        <v>2951</v>
+      <c r="C1327" s="20" t="s">
+        <v>3101</v>
       </c>
       <c r="D1327" s="29"/>
       <c r="E1327" s="29" t="s">
@@ -44242,7 +44209,7 @@
         <v>17</v>
       </c>
       <c r="I1327" s="31" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1328" spans="1:9" ht="30">
@@ -44253,7 +44220,7 @@
         <v>1573</v>
       </c>
       <c r="C1328" s="31" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D1328" s="29"/>
       <c r="E1328" s="29" t="s">
@@ -44278,7 +44245,7 @@
         <v>1573</v>
       </c>
       <c r="C1329" s="31" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D1329" s="29"/>
       <c r="E1329" s="29" t="s">
@@ -44303,7 +44270,7 @@
         <v>1573</v>
       </c>
       <c r="C1330" s="31" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D1330" s="29"/>
       <c r="E1330" s="29" t="s">
@@ -44319,7 +44286,7 @@
         <v>17</v>
       </c>
       <c r="I1330" s="31" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1331" spans="1:9" ht="30">
@@ -44330,7 +44297,7 @@
         <v>1573</v>
       </c>
       <c r="C1331" s="31" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D1331" s="29"/>
       <c r="E1331" s="29" t="s">
@@ -44355,7 +44322,7 @@
         <v>1573</v>
       </c>
       <c r="C1332" s="31" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D1332" s="29"/>
       <c r="E1332" s="29" t="s">
@@ -44380,7 +44347,7 @@
         <v>1573</v>
       </c>
       <c r="C1333" s="31" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D1333" s="29"/>
       <c r="E1333" s="29" t="s">
@@ -44405,7 +44372,7 @@
         <v>1573</v>
       </c>
       <c r="C1334" s="31" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D1334" s="29"/>
       <c r="E1334" s="29" t="s">
@@ -44430,7 +44397,7 @@
         <v>1573</v>
       </c>
       <c r="C1335" s="31" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D1335" s="29"/>
       <c r="E1335" s="29" t="s">
@@ -44455,7 +44422,7 @@
         <v>1573</v>
       </c>
       <c r="C1336" s="31" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D1336" s="29"/>
       <c r="E1336" s="29" t="s">
@@ -44480,7 +44447,7 @@
         <v>1573</v>
       </c>
       <c r="C1337" s="31" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D1337" s="29"/>
       <c r="E1337" s="29" t="s">
@@ -44505,7 +44472,7 @@
         <v>1573</v>
       </c>
       <c r="C1338" s="31" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D1338" s="29"/>
       <c r="E1338" s="29" t="s">
@@ -44530,7 +44497,7 @@
         <v>1573</v>
       </c>
       <c r="C1339" s="31" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D1339" s="29"/>
       <c r="E1339" s="29" t="s">
@@ -44555,7 +44522,7 @@
         <v>1573</v>
       </c>
       <c r="C1340" s="31" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D1340" s="29"/>
       <c r="E1340" s="29" t="s">
@@ -44580,7 +44547,7 @@
         <v>1573</v>
       </c>
       <c r="C1341" s="31" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D1341" s="29"/>
       <c r="E1341" s="29" t="s">
@@ -44605,7 +44572,7 @@
         <v>1573</v>
       </c>
       <c r="C1342" s="31" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D1342" s="29"/>
       <c r="E1342" s="29" t="s">
@@ -44630,7 +44597,7 @@
         <v>1573</v>
       </c>
       <c r="C1343" s="31" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D1343" s="29"/>
       <c r="E1343" s="29" t="s">
@@ -44646,7 +44613,7 @@
         <v>17</v>
       </c>
       <c r="I1343" s="31" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1344" spans="1:9" ht="60">
@@ -44657,7 +44624,7 @@
         <v>1573</v>
       </c>
       <c r="C1344" s="31" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D1344" s="29"/>
       <c r="E1344" s="29" t="s">
@@ -44682,7 +44649,7 @@
         <v>1573</v>
       </c>
       <c r="C1345" s="31" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D1345" s="29"/>
       <c r="E1345" s="29" t="s">
@@ -44707,7 +44674,7 @@
         <v>1573</v>
       </c>
       <c r="C1346" s="31" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D1346" s="29"/>
       <c r="E1346" s="29" t="s">
@@ -44732,7 +44699,7 @@
         <v>1573</v>
       </c>
       <c r="C1347" s="31" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D1347" s="29"/>
       <c r="E1347" s="29" t="s">
@@ -44757,7 +44724,7 @@
         <v>1573</v>
       </c>
       <c r="C1348" s="31" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D1348" s="29"/>
       <c r="E1348" s="29" t="s">
@@ -44781,8 +44748,8 @@
       <c r="B1349" s="30" t="s">
         <v>1573</v>
       </c>
-      <c r="C1349" s="31" t="s">
-        <v>2952</v>
+      <c r="C1349" s="20" t="s">
+        <v>3100</v>
       </c>
       <c r="D1349" s="29"/>
       <c r="E1349" s="29" t="s">
@@ -44807,7 +44774,7 @@
         <v>1573</v>
       </c>
       <c r="C1350" s="31" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D1350" s="29"/>
       <c r="E1350" s="29" t="s">
@@ -44832,7 +44799,7 @@
         <v>1573</v>
       </c>
       <c r="C1351" s="31" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D1351" s="29"/>
       <c r="E1351" s="29" t="s">
@@ -44857,7 +44824,7 @@
         <v>1574</v>
       </c>
       <c r="C1352" s="31" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D1352" s="29"/>
       <c r="E1352" s="29" t="s">
@@ -44882,7 +44849,7 @@
         <v>1574</v>
       </c>
       <c r="C1353" s="31" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1353" s="29"/>
       <c r="E1353" s="29" t="s">
@@ -44907,7 +44874,7 @@
         <v>1574</v>
       </c>
       <c r="C1354" s="31" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D1354" s="29"/>
       <c r="E1354" s="29" t="s">
@@ -44932,7 +44899,7 @@
         <v>1574</v>
       </c>
       <c r="C1355" s="31" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D1355" s="29"/>
       <c r="E1355" s="29" t="s">
@@ -44957,7 +44924,7 @@
         <v>1574</v>
       </c>
       <c r="C1356" s="31" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="D1356" s="29"/>
       <c r="E1356" s="29" t="s">
@@ -44982,7 +44949,7 @@
         <v>1575</v>
       </c>
       <c r="C1357" s="31" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="D1357" s="29"/>
       <c r="E1357" s="29" t="s">
@@ -45007,7 +44974,7 @@
         <v>1576</v>
       </c>
       <c r="C1358" s="31" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D1358" s="29"/>
       <c r="E1358" s="29" t="s">
@@ -45031,8 +44998,8 @@
       <c r="B1359" s="30" t="s">
         <v>1576</v>
       </c>
-      <c r="C1359" s="31" t="s">
-        <v>2953</v>
+      <c r="C1359" s="20" t="s">
+        <v>3097</v>
       </c>
       <c r="D1359" s="29"/>
       <c r="E1359" s="29" t="s">
@@ -45057,7 +45024,7 @@
         <v>1576</v>
       </c>
       <c r="C1360" s="31" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D1360" s="29"/>
       <c r="E1360" s="29" t="s">
@@ -45082,7 +45049,7 @@
         <v>1576</v>
       </c>
       <c r="C1361" s="31" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D1361" s="29"/>
       <c r="E1361" s="29" t="s">
@@ -45107,7 +45074,7 @@
         <v>1577</v>
       </c>
       <c r="C1362" s="31" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D1362" s="29"/>
       <c r="E1362" s="29" t="s">
@@ -45132,7 +45099,7 @@
         <v>1577</v>
       </c>
       <c r="C1363" s="31" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D1363" s="29"/>
       <c r="E1363" s="29" t="s">
@@ -45157,10 +45124,10 @@
         <v>1577</v>
       </c>
       <c r="C1364" s="31" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D1364" s="29" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E1364" s="29" t="s">
         <v>22</v>
@@ -45175,7 +45142,7 @@
         <v>21</v>
       </c>
       <c r="I1364" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1365" spans="1:9" ht="30">
@@ -45186,10 +45153,10 @@
         <v>1577</v>
       </c>
       <c r="C1365" s="31" t="s">
-        <v>2954</v>
+        <v>2939</v>
       </c>
       <c r="D1365" s="29" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E1365" s="29" t="s">
         <v>22</v>
@@ -45213,10 +45180,10 @@
         <v>1577</v>
       </c>
       <c r="C1366" s="31" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D1366" s="29" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E1366" s="29" t="s">
         <v>22</v>
@@ -45231,7 +45198,7 @@
         <v>21</v>
       </c>
       <c r="I1366" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1367" spans="1:9" ht="45">
@@ -45242,10 +45209,10 @@
         <v>1577</v>
       </c>
       <c r="C1367" s="31" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D1367" s="29" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="E1367" s="29" t="s">
         <v>22</v>
@@ -45260,7 +45227,7 @@
         <v>21</v>
       </c>
       <c r="I1367" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1368" spans="1:9" ht="45">
@@ -45271,10 +45238,10 @@
         <v>1577</v>
       </c>
       <c r="C1368" s="31" t="s">
-        <v>2955</v>
+        <v>2940</v>
       </c>
       <c r="D1368" s="29" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="E1368" s="29" t="s">
         <v>22</v>
@@ -45289,7 +45256,7 @@
         <v>21</v>
       </c>
       <c r="I1368" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1369" spans="1:9" ht="60">
@@ -45300,7 +45267,7 @@
         <v>1577</v>
       </c>
       <c r="C1369" s="31" t="s">
-        <v>2974</v>
+        <v>2959</v>
       </c>
       <c r="D1369" s="29"/>
       <c r="E1369" s="29" t="s">
@@ -45325,7 +45292,7 @@
         <v>1577</v>
       </c>
       <c r="C1370" s="31" t="s">
-        <v>2956</v>
+        <v>2941</v>
       </c>
       <c r="D1370" s="29"/>
       <c r="E1370" s="29" t="s">
@@ -45350,7 +45317,7 @@
         <v>1577</v>
       </c>
       <c r="C1371" s="20" t="s">
-        <v>2976</v>
+        <v>2961</v>
       </c>
       <c r="D1371" s="29"/>
       <c r="E1371" s="29" t="s">
@@ -45375,7 +45342,7 @@
         <v>1577</v>
       </c>
       <c r="C1372" s="31" t="s">
-        <v>2975</v>
+        <v>2960</v>
       </c>
       <c r="D1372" s="29"/>
       <c r="E1372" s="29" t="s">
@@ -45400,7 +45367,7 @@
         <v>1577</v>
       </c>
       <c r="C1373" s="31" t="s">
-        <v>2977</v>
+        <v>2962</v>
       </c>
       <c r="D1373" s="29"/>
       <c r="E1373" s="29" t="s">
@@ -45425,10 +45392,10 @@
         <v>1577</v>
       </c>
       <c r="C1374" s="31" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D1374" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="E1374" s="29" t="s">
         <v>22</v>
@@ -45452,10 +45419,10 @@
         <v>7</v>
       </c>
       <c r="C1375" s="31" t="s">
-        <v>2957</v>
+        <v>2942</v>
       </c>
       <c r="D1375" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="E1375" s="29" t="s">
         <v>22</v>
@@ -45479,10 +45446,10 @@
         <v>1577</v>
       </c>
       <c r="C1376" s="31" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="D1376" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E1376" s="29" t="s">
         <v>22</v>
@@ -45497,7 +45464,7 @@
         <v>20</v>
       </c>
       <c r="I1376" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1377" spans="1:9" ht="30">
@@ -45508,7 +45475,7 @@
         <v>1577</v>
       </c>
       <c r="C1377" s="31" t="s">
-        <v>2958</v>
+        <v>2943</v>
       </c>
       <c r="D1377" s="29"/>
       <c r="E1377" s="29" t="s">
@@ -45527,13 +45494,13 @@
     </row>
     <row r="1378" spans="1:9" ht="60">
       <c r="A1378" s="29" t="s">
-        <v>3040</v>
+        <v>2981</v>
       </c>
       <c r="B1378" s="30" t="s">
         <v>1577</v>
       </c>
       <c r="C1378" s="31" t="s">
-        <v>2978</v>
+        <v>2963</v>
       </c>
       <c r="D1378" s="29"/>
       <c r="E1378" s="29" t="s">
@@ -45558,10 +45525,10 @@
         <v>1577</v>
       </c>
       <c r="C1379" s="31" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="D1379" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E1379" s="29" t="s">
         <v>22</v>
@@ -45576,7 +45543,7 @@
         <v>20</v>
       </c>
       <c r="I1379" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1380" spans="1:9" ht="45">
@@ -45587,10 +45554,10 @@
         <v>1577</v>
       </c>
       <c r="C1380" s="31" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="D1380" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E1380" s="29" t="s">
         <v>22</v>
@@ -45605,7 +45572,7 @@
         <v>20</v>
       </c>
       <c r="I1380" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1381" spans="1:9" ht="45">
@@ -45616,10 +45583,10 @@
         <v>1577</v>
       </c>
       <c r="C1381" s="31" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="D1381" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E1381" s="29" t="s">
         <v>22</v>
@@ -45634,7 +45601,7 @@
         <v>20</v>
       </c>
       <c r="I1381" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1382" spans="1:9" ht="45">
@@ -45645,10 +45612,10 @@
         <v>1577</v>
       </c>
       <c r="C1382" s="31" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D1382" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E1382" s="29" t="s">
         <v>22</v>
@@ -45672,7 +45639,7 @@
         <v>1577</v>
       </c>
       <c r="C1383" s="31" t="s">
-        <v>2979</v>
+        <v>2964</v>
       </c>
       <c r="D1383" s="29"/>
       <c r="E1383" s="29" t="s">
@@ -45697,10 +45664,10 @@
         <v>1577</v>
       </c>
       <c r="C1384" s="31" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D1384" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E1384" s="29" t="s">
         <v>22</v>
@@ -45715,7 +45682,7 @@
         <v>20</v>
       </c>
       <c r="I1384" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1385" spans="1:9" ht="45">
@@ -45726,7 +45693,7 @@
         <v>1577</v>
       </c>
       <c r="C1385" s="31" t="s">
-        <v>2980</v>
+        <v>2965</v>
       </c>
       <c r="D1385" s="29"/>
       <c r="E1385" s="29" t="s">
@@ -45751,10 +45718,10 @@
         <v>1577</v>
       </c>
       <c r="C1386" s="31" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D1386" s="29" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="E1386" s="29" t="s">
         <v>22</v>
@@ -45769,7 +45736,7 @@
         <v>20</v>
       </c>
       <c r="I1386" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1387" spans="1:9" ht="45">
@@ -45780,10 +45747,10 @@
         <v>1577</v>
       </c>
       <c r="C1387" s="31" t="s">
-        <v>2981</v>
+        <v>2966</v>
       </c>
       <c r="D1387" s="29" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="E1387" s="29" t="s">
         <v>22</v>
@@ -45807,10 +45774,10 @@
         <v>1577</v>
       </c>
       <c r="C1388" s="20" t="s">
-        <v>3145</v>
+        <v>3086</v>
       </c>
       <c r="D1388" s="29" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E1388" s="29" t="s">
         <v>22</v>
@@ -45834,10 +45801,10 @@
         <v>1577</v>
       </c>
       <c r="C1389" s="31" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="D1389" s="29" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E1389" s="29" t="s">
         <v>22</v>
@@ -45852,7 +45819,7 @@
         <v>20</v>
       </c>
       <c r="I1389" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1390" spans="1:9" ht="75">
@@ -45863,10 +45830,10 @@
         <v>1577</v>
       </c>
       <c r="C1390" s="20" t="s">
-        <v>3146</v>
+        <v>3087</v>
       </c>
       <c r="D1390" s="29" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E1390" s="29" t="s">
         <v>22</v>
@@ -45890,10 +45857,10 @@
         <v>1577</v>
       </c>
       <c r="C1391" s="20" t="s">
-        <v>3147</v>
+        <v>3088</v>
       </c>
       <c r="D1391" s="29" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E1391" s="29" t="s">
         <v>22</v>
@@ -45908,7 +45875,7 @@
         <v>20</v>
       </c>
       <c r="I1391" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1392" spans="1:9" ht="60">
@@ -45919,7 +45886,7 @@
         <v>1577</v>
       </c>
       <c r="C1392" s="31" t="s">
-        <v>2982</v>
+        <v>2967</v>
       </c>
       <c r="D1392" s="29"/>
       <c r="E1392" s="29" t="s">
@@ -45944,10 +45911,10 @@
         <v>1577</v>
       </c>
       <c r="C1393" s="20" t="s">
-        <v>3148</v>
+        <v>3089</v>
       </c>
       <c r="D1393" s="29" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="E1393" s="29" t="s">
         <v>22</v>
@@ -45971,10 +45938,10 @@
         <v>1577</v>
       </c>
       <c r="C1394" s="31" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D1394" s="29" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="E1394" s="29" t="s">
         <v>22</v>
@@ -45989,7 +45956,7 @@
         <v>20</v>
       </c>
       <c r="I1394" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1395" spans="1:9" ht="45">
@@ -46000,10 +45967,10 @@
         <v>1577</v>
       </c>
       <c r="C1395" s="31" t="s">
-        <v>2983</v>
+        <v>2968</v>
       </c>
       <c r="D1395" s="29" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E1395" s="29" t="s">
         <v>22</v>
@@ -46027,10 +45994,10 @@
         <v>1577</v>
       </c>
       <c r="C1396" s="31" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D1396" s="29" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E1396" s="29" t="s">
         <v>22</v>
@@ -46045,7 +46012,7 @@
         <v>20</v>
       </c>
       <c r="I1396" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1397" spans="1:9" ht="90">
@@ -46056,10 +46023,10 @@
         <v>1577</v>
       </c>
       <c r="C1397" s="31" t="s">
-        <v>2959</v>
+        <v>2944</v>
       </c>
       <c r="D1397" s="29" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E1397" s="29" t="s">
         <v>22</v>
@@ -46074,7 +46041,7 @@
         <v>20</v>
       </c>
       <c r="I1397" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1398" spans="1:9" ht="60">
@@ -46085,10 +46052,10 @@
         <v>1577</v>
       </c>
       <c r="C1398" s="31" t="s">
-        <v>2960</v>
+        <v>2945</v>
       </c>
       <c r="D1398" s="29" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E1398" s="29" t="s">
         <v>22</v>
@@ -46112,10 +46079,10 @@
         <v>1577</v>
       </c>
       <c r="C1399" s="31" t="s">
-        <v>2961</v>
+        <v>2946</v>
       </c>
       <c r="D1399" s="29" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E1399" s="29" t="s">
         <v>22</v>
@@ -46139,10 +46106,10 @@
         <v>1577</v>
       </c>
       <c r="C1400" s="31" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D1400" s="29" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E1400" s="29" t="s">
         <v>22</v>
@@ -46157,7 +46124,7 @@
         <v>20</v>
       </c>
       <c r="I1400" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1401" spans="1:9" ht="60">
@@ -46168,7 +46135,7 @@
         <v>1577</v>
       </c>
       <c r="C1401" s="31" t="s">
-        <v>2962</v>
+        <v>2947</v>
       </c>
       <c r="D1401" s="29"/>
       <c r="E1401" s="29" t="s">
@@ -46193,10 +46160,10 @@
         <v>1577</v>
       </c>
       <c r="C1402" s="31" t="s">
-        <v>2963</v>
+        <v>2948</v>
       </c>
       <c r="D1402" s="22" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="E1402" s="29" t="s">
         <v>22</v>
@@ -46211,7 +46178,7 @@
         <v>20</v>
       </c>
       <c r="I1402" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1403" spans="1:9" ht="45">
@@ -46222,10 +46189,10 @@
         <v>1577</v>
       </c>
       <c r="C1403" s="31" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D1403" s="29" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="E1403" s="29" t="s">
         <v>22</v>
@@ -46240,7 +46207,7 @@
         <v>20</v>
       </c>
       <c r="I1403" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1404" spans="1:9" ht="45">
@@ -46251,10 +46218,10 @@
         <v>1577</v>
       </c>
       <c r="C1404" s="20" t="s">
-        <v>2964</v>
+        <v>2949</v>
       </c>
       <c r="D1404" s="22" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E1404" s="29" t="s">
         <v>22</v>
@@ -46269,7 +46236,7 @@
         <v>20</v>
       </c>
       <c r="I1404" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1405" spans="1:9" ht="45">
@@ -46280,7 +46247,7 @@
         <v>1577</v>
       </c>
       <c r="C1405" s="20" t="s">
-        <v>2965</v>
+        <v>2950</v>
       </c>
       <c r="D1405" s="29"/>
       <c r="E1405" s="29" t="s">
@@ -46305,10 +46272,10 @@
         <v>1577</v>
       </c>
       <c r="C1406" s="20" t="s">
-        <v>2966</v>
+        <v>2951</v>
       </c>
       <c r="D1406" s="29" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E1406" s="29" t="s">
         <v>22</v>
@@ -46323,7 +46290,7 @@
         <v>20</v>
       </c>
       <c r="I1406" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1407" spans="1:9" ht="60">
@@ -46334,10 +46301,10 @@
         <v>1577</v>
       </c>
       <c r="C1407" s="20" t="s">
-        <v>3149</v>
+        <v>3090</v>
       </c>
       <c r="D1407" s="22" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="E1407" s="29" t="s">
         <v>22</v>
@@ -46352,7 +46319,7 @@
         <v>21</v>
       </c>
       <c r="I1407" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1408" spans="1:9" ht="45">
@@ -46363,10 +46330,10 @@
         <v>1577</v>
       </c>
       <c r="C1408" s="31" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="D1408" s="29" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="E1408" s="29" t="s">
         <v>22</v>
@@ -46381,7 +46348,7 @@
         <v>21</v>
       </c>
       <c r="I1408" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1409" spans="1:9" ht="45">
@@ -46392,10 +46359,10 @@
         <v>1577</v>
       </c>
       <c r="C1409" s="31" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D1409" s="29" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="E1409" s="29" t="s">
         <v>22</v>
@@ -46410,7 +46377,7 @@
         <v>21</v>
       </c>
       <c r="I1409" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1410" spans="1:9" ht="30">
@@ -46421,7 +46388,7 @@
         <v>1577</v>
       </c>
       <c r="C1410" s="20" t="s">
-        <v>3150</v>
+        <v>3091</v>
       </c>
       <c r="D1410" s="29"/>
       <c r="E1410" s="29" t="s">
@@ -46446,7 +46413,7 @@
         <v>1577</v>
       </c>
       <c r="C1411" s="20" t="s">
-        <v>3151</v>
+        <v>3092</v>
       </c>
       <c r="D1411" s="29"/>
       <c r="E1411" s="29" t="s">
@@ -46471,10 +46438,10 @@
         <v>1577</v>
       </c>
       <c r="C1412" s="20" t="s">
-        <v>2968</v>
+        <v>2953</v>
       </c>
       <c r="D1412" s="22" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="E1412" s="29" t="s">
         <v>22</v>
@@ -46489,7 +46456,7 @@
         <v>21</v>
       </c>
       <c r="I1412" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1413" spans="1:9" ht="45">
@@ -46500,10 +46467,10 @@
         <v>1577</v>
       </c>
       <c r="C1413" s="31" t="s">
-        <v>2967</v>
+        <v>2952</v>
       </c>
       <c r="D1413" s="29" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="E1413" s="29" t="s">
         <v>22</v>
@@ -46518,7 +46485,7 @@
         <v>21</v>
       </c>
       <c r="I1413" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1414" spans="1:9" ht="60">
@@ -46529,10 +46496,10 @@
         <v>1577</v>
       </c>
       <c r="C1414" s="31" t="s">
-        <v>2969</v>
+        <v>2954</v>
       </c>
       <c r="D1414" s="22" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="E1414" s="29" t="s">
         <v>22</v>
@@ -46547,21 +46514,21 @@
         <v>20</v>
       </c>
       <c r="I1414" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1415" spans="1:9" ht="75">
       <c r="A1415" s="29" t="s">
-        <v>2970</v>
+        <v>2955</v>
       </c>
       <c r="B1415" s="33">
         <v>7</v>
       </c>
       <c r="C1415" s="31" t="s">
-        <v>2971</v>
+        <v>2956</v>
       </c>
       <c r="D1415" s="29" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="E1415" s="29" t="s">
         <v>22</v>
@@ -46576,7 +46543,7 @@
         <v>20</v>
       </c>
       <c r="I1415" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1416" spans="1:9" ht="60">
@@ -46587,10 +46554,10 @@
         <v>1577</v>
       </c>
       <c r="C1416" s="31" t="s">
-        <v>3039</v>
+        <v>2980</v>
       </c>
       <c r="D1416" s="29" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="E1416" s="29" t="s">
         <v>22</v>
@@ -46605,7 +46572,7 @@
         <v>20</v>
       </c>
       <c r="I1416" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1417" spans="1:9" ht="60">
@@ -46616,10 +46583,10 @@
         <v>1577</v>
       </c>
       <c r="C1417" s="31" t="s">
-        <v>2972</v>
+        <v>2957</v>
       </c>
       <c r="D1417" s="29" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="E1417" s="29" t="s">
         <v>22</v>
@@ -46634,7 +46601,7 @@
         <v>20</v>
       </c>
       <c r="I1417" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1418" spans="1:9" ht="45">
@@ -46645,10 +46612,10 @@
         <v>1577</v>
       </c>
       <c r="C1418" s="31" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D1418" s="29" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="E1418" s="29" t="s">
         <v>22</v>
@@ -46663,7 +46630,7 @@
         <v>20</v>
       </c>
       <c r="I1418" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1419" spans="1:9" ht="45">
@@ -46674,10 +46641,10 @@
         <v>1577</v>
       </c>
       <c r="C1419" s="31" t="s">
-        <v>2973</v>
+        <v>2958</v>
       </c>
       <c r="D1419" s="29" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="E1419" s="29" t="s">
         <v>22</v>
@@ -46701,10 +46668,10 @@
         <v>1577</v>
       </c>
       <c r="C1420" s="31" t="s">
-        <v>3038</v>
+        <v>2979</v>
       </c>
       <c r="D1420" s="29" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="E1420" s="29" t="s">
         <v>22</v>
@@ -46719,7 +46686,7 @@
         <v>20</v>
       </c>
       <c r="I1420" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1421" spans="1:9" ht="45">
@@ -46730,10 +46697,10 @@
         <v>1577</v>
       </c>
       <c r="C1421" s="31" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D1421" s="29" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="E1421" s="29" t="s">
         <v>22</v>
@@ -46748,21 +46715,21 @@
         <v>20</v>
       </c>
       <c r="I1421" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1422" spans="1:9" ht="45">
       <c r="A1422" s="29" t="s">
-        <v>2984</v>
+        <v>2969</v>
       </c>
       <c r="B1422" s="33">
         <v>7</v>
       </c>
       <c r="C1422" s="31" t="s">
-        <v>2985</v>
+        <v>2970</v>
       </c>
       <c r="D1422" s="29" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="E1422" s="29" t="s">
         <v>22</v>
@@ -46777,7 +46744,7 @@
         <v>20</v>
       </c>
       <c r="I1422" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1423" spans="1:9" ht="45">
@@ -46788,10 +46755,10 @@
         <v>1577</v>
       </c>
       <c r="C1423" s="31" t="s">
-        <v>2986</v>
+        <v>2971</v>
       </c>
       <c r="D1423" s="29" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E1423" s="29" t="s">
         <v>22</v>
@@ -46815,10 +46782,10 @@
         <v>1577</v>
       </c>
       <c r="C1424" s="31" t="s">
-        <v>2987</v>
+        <v>2972</v>
       </c>
       <c r="D1424" s="29" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E1424" s="29" t="s">
         <v>22</v>
@@ -46833,7 +46800,7 @@
         <v>20</v>
       </c>
       <c r="I1424" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1425" spans="1:9" ht="45">
@@ -46844,10 +46811,10 @@
         <v>1577</v>
       </c>
       <c r="C1425" s="31" t="s">
-        <v>2988</v>
+        <v>2973</v>
       </c>
       <c r="D1425" s="29" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E1425" s="29" t="s">
         <v>22</v>
@@ -46862,7 +46829,7 @@
         <v>20</v>
       </c>
       <c r="I1425" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1426" spans="1:9" ht="45">
@@ -46873,10 +46840,10 @@
         <v>1577</v>
       </c>
       <c r="C1426" s="31" t="s">
-        <v>2989</v>
+        <v>2974</v>
       </c>
       <c r="D1426" s="29" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="E1426" s="29" t="s">
         <v>22</v>
@@ -46891,7 +46858,7 @@
         <v>21</v>
       </c>
       <c r="I1426" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1427" spans="1:9" ht="45">
@@ -46901,11 +46868,11 @@
       <c r="B1427" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1427" s="31" t="s">
-        <v>2990</v>
+      <c r="C1427" s="20" t="s">
+        <v>3145</v>
       </c>
       <c r="D1427" s="29" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="E1427" s="29" t="s">
         <v>22</v>
@@ -46920,7 +46887,7 @@
         <v>21</v>
       </c>
       <c r="I1427" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1428" spans="1:9" ht="45">
@@ -46931,10 +46898,10 @@
         <v>1577</v>
       </c>
       <c r="C1428" s="31" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D1428" s="29" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="E1428" s="29" t="s">
         <v>22</v>
@@ -46949,7 +46916,7 @@
         <v>20</v>
       </c>
       <c r="I1428" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1429" spans="1:9" ht="45">
@@ -46959,11 +46926,11 @@
       <c r="B1429" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1429" s="31" t="s">
-        <v>2991</v>
-      </c>
-      <c r="D1429" s="29" t="s">
-        <v>2820</v>
+      <c r="C1429" s="20" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1429" s="22" t="s">
+        <v>2819</v>
       </c>
       <c r="E1429" s="29" t="s">
         <v>22</v>
@@ -46978,7 +46945,7 @@
         <v>20</v>
       </c>
       <c r="I1429" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1430" spans="1:9" ht="60">
@@ -46988,11 +46955,11 @@
       <c r="B1430" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1430" s="31" t="s">
-        <v>2992</v>
+      <c r="C1430" s="20" t="s">
+        <v>3143</v>
       </c>
       <c r="D1430" s="29" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E1430" s="29" t="s">
         <v>22</v>
@@ -47007,7 +46974,7 @@
         <v>20</v>
       </c>
       <c r="I1430" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1431" spans="1:9" ht="45">
@@ -47018,10 +46985,10 @@
         <v>1577</v>
       </c>
       <c r="C1431" s="31" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="D1431" s="29" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E1431" s="29" t="s">
         <v>22</v>
@@ -47036,7 +47003,7 @@
         <v>20</v>
       </c>
       <c r="I1431" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1432" spans="1:9" ht="45">
@@ -47046,11 +47013,11 @@
       <c r="B1432" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1432" s="31" t="s">
-        <v>2993</v>
-      </c>
-      <c r="D1432" s="29" t="s">
-        <v>2822</v>
+      <c r="C1432" s="20" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D1432" s="22" t="s">
+        <v>2821</v>
       </c>
       <c r="E1432" s="29" t="s">
         <v>22</v>
@@ -47065,7 +47032,7 @@
         <v>17</v>
       </c>
       <c r="I1432" s="31" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1433" spans="1:9" ht="45">
@@ -47076,10 +47043,10 @@
         <v>1577</v>
       </c>
       <c r="C1433" s="20" t="s">
-        <v>3153</v>
+        <v>3140</v>
       </c>
       <c r="D1433" s="29" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="E1433" s="29" t="s">
         <v>22</v>
@@ -47102,11 +47069,11 @@
       <c r="B1434" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1434" s="31" t="s">
-        <v>2994</v>
+      <c r="C1434" s="20" t="s">
+        <v>3141</v>
       </c>
       <c r="D1434" s="29" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="E1434" s="29" t="s">
         <v>22</v>
@@ -47122,7 +47089,7 @@
       </c>
       <c r="I1434" s="31"/>
     </row>
-    <row r="1435" spans="1:9" ht="45">
+    <row r="1435" spans="1:9" ht="60">
       <c r="A1435" s="29" t="s">
         <v>1425</v>
       </c>
@@ -47130,10 +47097,10 @@
         <v>1577</v>
       </c>
       <c r="C1435" s="20" t="s">
-        <v>3152</v>
+        <v>3142</v>
       </c>
       <c r="D1435" s="29" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="E1435" s="29" t="s">
         <v>22</v>
@@ -47148,7 +47115,7 @@
         <v>20</v>
       </c>
       <c r="I1435" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1436" spans="1:9" ht="45">
@@ -47158,8 +47125,8 @@
       <c r="B1436" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1436" s="31" t="s">
-        <v>2995</v>
+      <c r="C1436" s="20" t="s">
+        <v>3115</v>
       </c>
       <c r="D1436" s="29"/>
       <c r="E1436" s="29" t="s">
@@ -47183,8 +47150,8 @@
       <c r="B1437" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1437" s="31" t="s">
-        <v>2996</v>
+      <c r="C1437" s="20" t="s">
+        <v>3116</v>
       </c>
       <c r="D1437" s="29"/>
       <c r="E1437" s="29" t="s">
@@ -47208,8 +47175,8 @@
       <c r="B1438" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1438" s="31" t="s">
-        <v>2997</v>
+      <c r="C1438" s="20" t="s">
+        <v>3117</v>
       </c>
       <c r="D1438" s="29"/>
       <c r="E1438" s="29" t="s">
@@ -47233,8 +47200,8 @@
       <c r="B1439" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1439" s="31" t="s">
-        <v>2998</v>
+      <c r="C1439" s="20" t="s">
+        <v>3118</v>
       </c>
       <c r="D1439" s="29"/>
       <c r="E1439" s="29" t="s">
@@ -47258,8 +47225,8 @@
       <c r="B1440" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1440" s="31" t="s">
-        <v>2999</v>
+      <c r="C1440" s="20" t="s">
+        <v>3119</v>
       </c>
       <c r="D1440" s="29"/>
       <c r="E1440" s="29" t="s">
@@ -47283,8 +47250,8 @@
       <c r="B1441" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1441" s="31" t="s">
-        <v>3000</v>
+      <c r="C1441" s="20" t="s">
+        <v>3120</v>
       </c>
       <c r="D1441" s="29"/>
       <c r="E1441" s="29" t="s">
@@ -47308,8 +47275,8 @@
       <c r="B1442" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1442" s="31" t="s">
-        <v>3001</v>
+      <c r="C1442" s="20" t="s">
+        <v>3121</v>
       </c>
       <c r="D1442" s="29"/>
       <c r="E1442" s="29" t="s">
@@ -47333,8 +47300,8 @@
       <c r="B1443" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1443" s="31" t="s">
-        <v>3002</v>
+      <c r="C1443" s="20" t="s">
+        <v>3122</v>
       </c>
       <c r="D1443" s="29"/>
       <c r="E1443" s="29" t="s">
@@ -47358,8 +47325,8 @@
       <c r="B1444" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1444" s="31" t="s">
-        <v>3003</v>
+      <c r="C1444" s="20" t="s">
+        <v>3123</v>
       </c>
       <c r="D1444" s="29"/>
       <c r="E1444" s="29" t="s">
@@ -47383,8 +47350,8 @@
       <c r="B1445" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1445" s="31" t="s">
-        <v>3004</v>
+      <c r="C1445" s="20" t="s">
+        <v>3124</v>
       </c>
       <c r="D1445" s="29"/>
       <c r="E1445" s="29" t="s">
@@ -47408,8 +47375,8 @@
       <c r="B1446" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1446" s="31" t="s">
-        <v>3005</v>
+      <c r="C1446" s="20" t="s">
+        <v>3125</v>
       </c>
       <c r="D1446" s="29"/>
       <c r="E1446" s="29" t="s">
@@ -47433,8 +47400,8 @@
       <c r="B1447" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1447" s="31" t="s">
-        <v>3006</v>
+      <c r="C1447" s="20" t="s">
+        <v>3126</v>
       </c>
       <c r="D1447" s="29"/>
       <c r="E1447" s="29" t="s">
@@ -47458,8 +47425,8 @@
       <c r="B1448" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1448" s="31" t="s">
-        <v>3007</v>
+      <c r="C1448" s="20" t="s">
+        <v>3127</v>
       </c>
       <c r="D1448" s="29"/>
       <c r="E1448" s="29" t="s">
@@ -47483,8 +47450,8 @@
       <c r="B1449" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1449" s="31" t="s">
-        <v>3010</v>
+      <c r="C1449" s="20" t="s">
+        <v>3128</v>
       </c>
       <c r="D1449" s="29"/>
       <c r="E1449" s="29" t="s">
@@ -47508,8 +47475,8 @@
       <c r="B1450" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1450" s="31" t="s">
-        <v>3008</v>
+      <c r="C1450" s="20" t="s">
+        <v>3129</v>
       </c>
       <c r="D1450" s="29"/>
       <c r="E1450" s="29" t="s">
@@ -47533,8 +47500,8 @@
       <c r="B1451" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1451" s="31" t="s">
-        <v>3009</v>
+      <c r="C1451" s="20" t="s">
+        <v>3130</v>
       </c>
       <c r="D1451" s="29"/>
       <c r="E1451" s="29" t="s">
@@ -47558,8 +47525,8 @@
       <c r="B1452" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1452" s="31" t="s">
-        <v>3011</v>
+      <c r="C1452" s="20" t="s">
+        <v>3131</v>
       </c>
       <c r="D1452" s="29"/>
       <c r="E1452" s="29" t="s">
@@ -47583,8 +47550,8 @@
       <c r="B1453" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1453" s="31" t="s">
-        <v>3012</v>
+      <c r="C1453" s="20" t="s">
+        <v>3132</v>
       </c>
       <c r="D1453" s="29"/>
       <c r="E1453" s="29" t="s">
@@ -47608,8 +47575,8 @@
       <c r="B1454" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1454" s="31" t="s">
-        <v>3013</v>
+      <c r="C1454" s="20" t="s">
+        <v>3133</v>
       </c>
       <c r="D1454" s="29"/>
       <c r="E1454" s="29" t="s">
@@ -47633,8 +47600,8 @@
       <c r="B1455" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1455" s="31" t="s">
-        <v>3014</v>
+      <c r="C1455" s="20" t="s">
+        <v>3134</v>
       </c>
       <c r="D1455" s="29"/>
       <c r="E1455" s="29" t="s">
@@ -47658,8 +47625,8 @@
       <c r="B1456" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1456" s="31" t="s">
-        <v>3015</v>
+      <c r="C1456" s="20" t="s">
+        <v>3135</v>
       </c>
       <c r="D1456" s="29"/>
       <c r="E1456" s="29" t="s">
@@ -47683,8 +47650,8 @@
       <c r="B1457" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1457" s="31" t="s">
-        <v>3016</v>
+      <c r="C1457" s="20" t="s">
+        <v>3138</v>
       </c>
       <c r="D1457" s="29"/>
       <c r="E1457" s="29" t="s">
@@ -47708,8 +47675,8 @@
       <c r="B1458" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1458" s="31" t="s">
-        <v>3017</v>
+      <c r="C1458" s="20" t="s">
+        <v>3137</v>
       </c>
       <c r="D1458" s="29"/>
       <c r="E1458" s="29" t="s">
@@ -47733,8 +47700,8 @@
       <c r="B1459" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1459" s="31" t="s">
-        <v>3018</v>
+      <c r="C1459" s="20" t="s">
+        <v>3136</v>
       </c>
       <c r="D1459" s="29"/>
       <c r="E1459" s="29" t="s">
@@ -47758,8 +47725,8 @@
       <c r="B1460" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1460" s="31" t="s">
-        <v>3019</v>
+      <c r="C1460" s="20" t="s">
+        <v>3114</v>
       </c>
       <c r="D1460" s="29"/>
       <c r="E1460" s="29" t="s">
@@ -47783,8 +47750,8 @@
       <c r="B1461" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1461" s="31" t="s">
-        <v>3020</v>
+      <c r="C1461" s="20" t="s">
+        <v>3113</v>
       </c>
       <c r="D1461" s="29"/>
       <c r="E1461" s="29" t="s">
@@ -47808,8 +47775,8 @@
       <c r="B1462" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1462" s="31" t="s">
-        <v>3021</v>
+      <c r="C1462" s="20" t="s">
+        <v>3112</v>
       </c>
       <c r="D1462" s="29"/>
       <c r="E1462" s="29" t="s">
@@ -47833,8 +47800,8 @@
       <c r="B1463" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1463" s="31" t="s">
-        <v>3022</v>
+      <c r="C1463" s="20" t="s">
+        <v>2975</v>
       </c>
       <c r="D1463" s="29"/>
       <c r="E1463" s="29" t="s">
@@ -47858,8 +47825,8 @@
       <c r="B1464" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1464" s="31" t="s">
-        <v>3023</v>
+      <c r="C1464" s="20" t="s">
+        <v>3111</v>
       </c>
       <c r="D1464" s="29"/>
       <c r="E1464" s="29" t="s">
@@ -47883,8 +47850,8 @@
       <c r="B1465" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1465" s="31" t="s">
-        <v>3024</v>
+      <c r="C1465" s="20" t="s">
+        <v>3110</v>
       </c>
       <c r="D1465" s="29"/>
       <c r="E1465" s="29" t="s">
@@ -47908,8 +47875,8 @@
       <c r="B1466" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1466" s="31" t="s">
-        <v>3025</v>
+      <c r="C1466" s="20" t="s">
+        <v>3109</v>
       </c>
       <c r="D1466" s="29"/>
       <c r="E1466" s="29" t="s">
@@ -47933,8 +47900,8 @@
       <c r="B1467" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1467" s="31" t="s">
-        <v>3026</v>
+      <c r="C1467" s="20" t="s">
+        <v>3107</v>
       </c>
       <c r="D1467" s="29"/>
       <c r="E1467" s="29" t="s">
@@ -47958,8 +47925,8 @@
       <c r="B1468" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1468" s="31" t="s">
-        <v>3027</v>
+      <c r="C1468" s="20" t="s">
+        <v>3106</v>
       </c>
       <c r="D1468" s="29"/>
       <c r="E1468" s="29" t="s">
@@ -47983,8 +47950,8 @@
       <c r="B1469" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1469" s="31" t="s">
-        <v>3028</v>
+      <c r="C1469" s="20" t="s">
+        <v>3105</v>
       </c>
       <c r="D1469" s="29"/>
       <c r="E1469" s="29" t="s">
@@ -48008,8 +47975,8 @@
       <c r="B1470" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1470" s="31" t="s">
-        <v>3029</v>
+      <c r="C1470" s="20" t="s">
+        <v>3104</v>
       </c>
       <c r="D1470" s="29"/>
       <c r="E1470" s="29" t="s">
@@ -48033,11 +48000,11 @@
       <c r="B1471" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1471" s="31" t="s">
-        <v>3030</v>
+      <c r="C1471" s="20" t="s">
+        <v>3102</v>
       </c>
       <c r="D1471" s="29" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="E1471" s="29" t="s">
         <v>22</v>
@@ -48052,7 +48019,7 @@
         <v>20</v>
       </c>
       <c r="I1471" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1472" spans="1:9" ht="60">
@@ -48063,10 +48030,10 @@
         <v>1577</v>
       </c>
       <c r="C1472" s="31" t="s">
-        <v>3035</v>
+        <v>2976</v>
       </c>
       <c r="D1472" s="29" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="E1472" s="29" t="s">
         <v>22</v>
@@ -48081,7 +48048,7 @@
         <v>20</v>
       </c>
       <c r="I1472" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1473" spans="1:9" ht="60">
@@ -48091,11 +48058,11 @@
       <c r="B1473" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1473" s="31" t="s">
-        <v>3031</v>
+      <c r="C1473" s="20" t="s">
+        <v>3099</v>
       </c>
       <c r="D1473" s="29" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="E1473" s="29" t="s">
         <v>22</v>
@@ -48110,7 +48077,7 @@
         <v>20</v>
       </c>
       <c r="I1473" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1474" spans="1:9" ht="45">
@@ -48120,8 +48087,8 @@
       <c r="B1474" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1474" s="31" t="s">
-        <v>3032</v>
+      <c r="C1474" s="20" t="s">
+        <v>3098</v>
       </c>
       <c r="D1474" s="29"/>
       <c r="E1474" s="29" t="s">
@@ -48137,7 +48104,7 @@
         <v>20</v>
       </c>
       <c r="I1474" s="31" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1475" spans="1:9" ht="30">
@@ -48147,8 +48114,8 @@
       <c r="B1475" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1475" s="31" t="s">
-        <v>3033</v>
+      <c r="C1475" s="20" t="s">
+        <v>3096</v>
       </c>
       <c r="D1475" s="29"/>
       <c r="E1475" s="29" t="s">
@@ -48172,8 +48139,8 @@
       <c r="B1476" s="30" t="s">
         <v>1577</v>
       </c>
-      <c r="C1476" s="31" t="s">
-        <v>3034</v>
+      <c r="C1476" s="20" t="s">
+        <v>3095</v>
       </c>
       <c r="D1476" s="29"/>
       <c r="E1476" s="29" t="s">
@@ -48200,6 +48167,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -48207,11 +48179,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A929:I1476 A928:H928 A20:I927">
@@ -48267,20 +48234,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1476" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1476">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1476" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1476">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1476" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1476">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1476" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1476">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -48290,7 +48257,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B952:B1478 B92:B951 B19:B91 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B952:B1478 B92:B951 B19:B91" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -48300,6 +48267,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -48348,32 +48330,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -48393,9 +48353,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>